--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E111AC5-E33C-436C-B542-23D2F321AB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F752FA-D7F1-4EFC-8632-10437610A245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29910" yWindow="510" windowWidth="25380" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="295">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -986,30 +986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UART1_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART1_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART2_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART2_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART3_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART3_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1115,6 +1091,122 @@
   </si>
   <si>
     <t>KEY_FUNC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART3_TX(GPS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART3_RX(GPS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_TX(RPI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_RX(RPI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_TX(DEBUG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_RX(DEBUG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DETECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_BAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_BATTERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPI_5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN_PERIPH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN_BAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLE_5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLE_LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_FSYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_DRDY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLE_PERIPH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLE_BAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-INK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN_OTG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,7 +1214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1185,6 +1277,38 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1258,7 +1382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1289,9 +1413,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,14 +1434,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1623,33 +1762,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1657,7 +1796,7 @@
         <v>116</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1679,7 +1818,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -1701,8 +1840,8 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="2"/>
-      <c r="L6" s="20" t="s">
-        <v>245</v>
+      <c r="L6" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -1725,8 +1864,8 @@
       <c r="H7" s="5"/>
       <c r="I7" s="2"/>
       <c r="J7" s="9"/>
-      <c r="L7" s="19" t="s">
-        <v>246</v>
+      <c r="L7" s="17" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -1749,8 +1888,8 @@
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="9"/>
-      <c r="L8" s="19" t="s">
-        <v>247</v>
+      <c r="L8" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -1773,8 +1912,8 @@
       <c r="J9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>248</v>
+      <c r="L9" s="17" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -1797,8 +1936,8 @@
       <c r="J10" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>249</v>
+      <c r="L10" s="17" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -1821,8 +1960,8 @@
       <c r="J11" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="L11" s="15" t="s">
-        <v>250</v>
+      <c r="L11" s="14" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -1845,8 +1984,8 @@
       <c r="J12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>251</v>
+      <c r="L12" s="17" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -1869,8 +2008,8 @@
       <c r="J13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>252</v>
+      <c r="L13" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -1893,10 +2032,10 @@
       <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>253</v>
+        <v>259</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -1919,7 +2058,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -1942,7 +2081,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -1965,7 +2104,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -1987,6 +2126,9 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="2"/>
+      <c r="J18" s="19" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
@@ -2035,8 +2177,8 @@
       <c r="J20" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>255</v>
+      <c r="L20" s="15" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
@@ -2063,8 +2205,8 @@
       <c r="J21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L21" s="19" t="s">
-        <v>256</v>
+      <c r="L21" s="17" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
@@ -2091,8 +2233,8 @@
       <c r="J22" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="L22" s="18" t="s">
-        <v>257</v>
+      <c r="L22" s="22" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
@@ -2119,8 +2261,8 @@
       <c r="J23" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="L23" s="18" t="s">
-        <v>258</v>
+      <c r="L23" s="22" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
@@ -2145,8 +2287,8 @@
       <c r="J24" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="L24" t="s">
-        <v>259</v>
+      <c r="L24" s="21" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
@@ -2173,7 +2315,7 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -2200,7 +2342,7 @@
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
@@ -2244,8 +2386,8 @@
       <c r="J28" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L28" s="20" t="s">
-        <v>260</v>
+      <c r="L28" s="18" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
@@ -2270,10 +2412,10 @@
       <c r="H29" s="5"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
@@ -2298,10 +2440,10 @@
       <c r="H30" s="5"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
@@ -2326,10 +2468,10 @@
       <c r="H31" s="5"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
@@ -2354,10 +2496,10 @@
       <c r="H32" s="5"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -2378,8 +2520,14 @@
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J33" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>30</v>
       </c>
@@ -2401,10 +2549,13 @@
       <c r="H34" s="5"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -2426,10 +2577,10 @@
       <c r="H35" s="5"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -2451,10 +2602,13 @@
       <c r="H36" s="5"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -2476,10 +2630,13 @@
       <c r="H37" s="5"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>34</v>
       </c>
@@ -2500,11 +2657,17 @@
         <v>68</v>
       </c>
       <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="K38" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -2524,8 +2687,11 @@
       <c r="J39" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -2545,8 +2711,11 @@
       <c r="J40" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -2567,11 +2736,15 @@
         <v>74</v>
       </c>
       <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="K41" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -2592,11 +2765,14 @@
         <v>84</v>
       </c>
       <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="K42" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>39</v>
       </c>
@@ -2621,7 +2797,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -2642,11 +2818,14 @@
         <v>93</v>
       </c>
       <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="K44" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>41</v>
       </c>
@@ -2667,8 +2846,11 @@
         <v>92</v>
       </c>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J45" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>42</v>
       </c>
@@ -2695,7 +2877,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>43</v>
       </c>
@@ -2722,7 +2904,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>44</v>
       </c>
@@ -2766,6 +2948,9 @@
         <v>107</v>
       </c>
       <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
@@ -2790,6 +2975,9 @@
         <v>106</v>
       </c>
       <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
@@ -2884,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0C9C5E-DCDE-40C2-AE24-6F61A8730F28}">
-  <dimension ref="B3:K44"/>
+  <dimension ref="B3:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2898,52 +3086,60 @@
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="6" width="8.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="15.125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="9" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="15.125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="24" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="K4" s="2" t="s">
+      <c r="J3" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2955,9 +3151,11 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2969,8 +3167,10 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -2983,16 +3183,18 @@
       <c r="G7" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>167</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="M7" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3003,8 +3205,10 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -3017,16 +3221,18 @@
       <c r="G9" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>202</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="M9" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -3038,8 +3244,10 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -3054,8 +3262,10 @@
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -3063,7 +3273,7 @@
         <v>144</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>169</v>
       </c>
       <c r="F12" s="5"/>
@@ -3072,12 +3282,14 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="M12" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -3089,8 +3301,10 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -3098,7 +3312,7 @@
         <v>145</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>170</v>
       </c>
       <c r="F14" s="5"/>
@@ -3107,11 +3321,13 @@
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="M14" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -3128,8 +3344,10 @@
       <c r="I15" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -3138,7 +3356,7 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>164</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -3148,18 +3366,20 @@
       <c r="I16" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="M16" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>163</v>
       </c>
       <c r="E17" s="5"/>
@@ -3168,12 +3388,14 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="M17" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -3185,15 +3407,17 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>164</v>
       </c>
       <c r="E19" s="5"/>
@@ -3203,18 +3427,20 @@
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="M19" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>165</v>
       </c>
       <c r="E20" s="5"/>
@@ -3224,12 +3450,14 @@
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="M20" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="11">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -3240,15 +3468,18 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>166</v>
       </c>
       <c r="E22" s="5"/>
@@ -3258,11 +3489,13 @@
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="M22" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -3276,12 +3509,16 @@
         <v>185</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="25" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="13">
+      <c r="J23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
         <v>20</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -3293,8 +3530,10 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -3308,18 +3547,20 @@
         <v>186</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="25" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>167</v>
       </c>
       <c r="E26" s="5"/>
@@ -3329,11 +3570,13 @@
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="M26" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -3347,11 +3590,15 @@
         <v>188</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="25" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J27" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -3365,12 +3612,16 @@
         <v>189</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="25" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
+      <c r="J28" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="12">
         <v>25</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -3382,8 +3633,10 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -3397,11 +3650,13 @@
         <v>190</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="25" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -3418,8 +3673,10 @@
         <v>166</v>
       </c>
       <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -3436,8 +3693,10 @@
         <v>203</v>
       </c>
       <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -3452,9 +3711,13 @@
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="13">
+      <c r="J33" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="12">
         <v>30</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -3466,8 +3729,10 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -3482,8 +3747,12 @@
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J35" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -3498,8 +3767,10 @@
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -3514,9 +3785,13 @@
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="13">
+      <c r="J37" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="12">
         <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -3528,8 +3803,10 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -3538,7 +3815,7 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>171</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -3548,11 +3825,13 @@
       <c r="I39" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="M39" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -3569,15 +3848,19 @@
       <c r="I40" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J40" s="5"/>
+      <c r="K40" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>37</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>168</v>
       </c>
       <c r="E41" s="5"/>
@@ -3587,11 +3870,13 @@
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="M41" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -3600,7 +3885,7 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>172</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -3610,12 +3895,14 @@
       <c r="I42" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="M42" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
         <v>39</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -3627,8 +3914,10 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -3637,7 +3926,7 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>173</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -3647,12 +3936,16 @@
       <c r="I44" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="M44" s="2" t="s">
         <v>227</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F752FA-D7F1-4EFC-8632-10437610A245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06881CAF-0E1D-4BA1-A7B9-70A1F36CBED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
     <sheet name="Raspberry PI" sheetId="4" r:id="rId2"/>
+    <sheet name="STM32H745IIT_LQFP176" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">STM32H745IIT_LQFP176!$C$2:$J$178</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">STM32F103xx_LQFP48!$B$3:$I$55</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="585">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,6 +1209,1145 @@
   </si>
   <si>
     <t>EN_OTG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSSSMPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLXSMPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDDSMPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFBSMPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF2</t>
+  </si>
+  <si>
+    <t>PF3</t>
+  </si>
+  <si>
+    <t>PF4</t>
+  </si>
+  <si>
+    <t>PF5</t>
+  </si>
+  <si>
+    <t>PF7</t>
+  </si>
+  <si>
+    <t>PF8</t>
+  </si>
+  <si>
+    <t>PF9</t>
+  </si>
+  <si>
+    <t>PF10</t>
+  </si>
+  <si>
+    <t>PF6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH0-OSC_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH1-OSC_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC2_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC3_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VREF+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>PC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDDLDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJ8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJ9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJ10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDD50USB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDD33USB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA13(JTMS/SWDIO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA14(JTCK/SWCLK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA15(JTDI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB3(JTDO/TRACESWO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB4(NJTRST)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDR_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT_f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTC_TAMP1/RTC_TS/WKUP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC14(OSC32_IN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC15(OSC32_OUT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT_ha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A4</t>
+  </si>
+  <si>
+    <t>FMC_A5</t>
+  </si>
+  <si>
+    <t>FMC_A8</t>
+  </si>
+  <si>
+    <t>FMC_A9</t>
+  </si>
+  <si>
+    <t>FMC_A10</t>
+  </si>
+  <si>
+    <t>FMC_A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI5_MISO/QUADSPI_BK1_IO0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI5_SCK/UART7_TX/QUADSPI_BK1_IO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI5_NSS/UART7_RX/QUADAPI_BK1_IO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SDA/FMC_A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SCL/FMC_A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SMBA/FMC_A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI4_SCK/QUADSPI_BK1_IO2/FMC_A23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI4_NSS/FMC_A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI4_MISO/FMC_A21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI4_MOSI/FMC_A22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI5_MOSI/QUADSPI_BK1_IO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_ha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUADSPI_CLK/DCMI_D11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_HS_ULPI_STP/FMC_SDNWE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_MISO/OTG_HS_ULPI_DIR/FMC_SDNE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_MOSI/OTG_HS_ULPI_NXT/FMC_SDCKE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART4_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART4_RX/QUADSPI_BK1_IO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_RX/OTG_HS_ULPI_D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_NSS/SPI3_NSS/SPI6_NSS/ORG_HS_SOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_SCK/SPI6/SCK/OTG_HS_ULPI_CK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_MISO/SPI6_MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_MOSI/SPI6_MOSI/FMC_SDNWE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDNE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDCKE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI5_MOSI/FMC_SDNRAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI3_MOSI/QUADSPI_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_HS_ULPI_D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_HS_ULPI_D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT_fh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT_fha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D4/FMC_DA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D5/FMC_DA5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D6/FMC_DA6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D7/FMC_DA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D8/FMC_DA8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D9/FMC_DA9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D10/FMC_DA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D11/FMC_DA11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D12/FMC_DA12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_SCK/USART3_TX/QUADSPI_BK1_NCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_RX/OTG_HS_ULPI_D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT_u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_NSS/OTG_HS_ID/UART5_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_SCK/UART5_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_MOSI/OTG_HS_DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_RX/SPI2_MOSI/OTG_HS_DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART3_TX/FMC_D13/FMC_DA13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART3_RX/FMC_D14/FMC_DA14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D15/FMC_DA15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUADSPI_BK1_IO0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUADSPI_BK1_IO0/FMC_A16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUADSPI_BK1_IO1/FMC_A17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUADSPI_BK1_IO3/FMC_A18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D0/FMC_DA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D1/FMC_DA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART8_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART8_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI5_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI5_MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI5_SCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI5_NSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NWAIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_FS_SOF/UART7_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_SCK/USART1_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_FS_VBUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_RX/OTG_FS_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTCK-SWCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTMS-SWDIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTDI/SPI1_NSS/SPI3_NSS/SPI6_NSS/UARET7_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI3_SCK/USART3_TX/UART4_TX/QUADSPI_BK1_IO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI3_MISO/USART3_RX/UART4_RX/QUADSPI_BK2_NCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI3_MOSI/UART5_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART4_RX/FMC_D2/FMC_DA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D3/FMC_DA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART5_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_SCK/FMC_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_NSS/FMC_NE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI6_MISO/FMC_NE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI6_SCK/FMC_A24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI6_MOSI/USART6_TX/FMC_A25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDNCAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTDO/TRACESWO/SPIC1_3_6_SCK/UART7_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJTRST/SPI1_3_6_MISO/SPI2_NSS/UART7_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_3_6_MOSI/FMC_SDCKE1/UART5_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT_fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SCL/I2C4_SCL/UART4_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SCL/USART1_TX/QUADSPI_BK1_NCS/FMC_SDNE1/UART5_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SDA/I2C4_SDA/USART1_RX/FMC_NL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SDA/SPI2_NSS/I2C4_SDA/UART4_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART8_RX/FMC_NBL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART8_TX/FMC_NBL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDNWE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDNRAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D9</t>
+  </si>
+  <si>
+    <t>FMC_D10</t>
+  </si>
+  <si>
+    <t>FMC_D11</t>
+  </si>
+  <si>
+    <t>FMC_D12</t>
+  </si>
+  <si>
+    <t>FMC_D13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDCKE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NBL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NBL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_SDNE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NE2/FMC_NCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_NWE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART6_RX/QUADSPI_BK2_IO2/FMC_NE2/FMC_NCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A14/FMC_BA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_A15/FMC_BA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUADSPI_BK1_IO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUADSPI_BK1_IO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUADSPI_BK1_IO1</t>
+  </si>
+  <si>
+    <t>QUADSPI_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUADSPI_BK1_NCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_NSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART3_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_SCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_OTG_HS_DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_OTG_HS_DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_BA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMC_BA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_NSS/UART4_RX/OTG_FS_DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_SCK/UART4_TX/OTG_FS_DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_OTG_FS_DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_OTG_FS_DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG_JMS/SWDIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG_JTCK/SWCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG_JTDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG_JTO/TRACESWO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG_NJTRST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,7 +2355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1314,6 +2455,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1382,7 +2548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1455,11 +2621,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1762,33 +2949,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3074,7 +4261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0C9C5E-DCDE-40C2-AE24-6F61A8730F28}">
   <dimension ref="B3:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
@@ -3092,48 +4279,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="25" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
       <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
@@ -3509,13 +4696,13 @@
         <v>185</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="24" t="s">
         <v>206</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="K23" s="25"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
@@ -3547,11 +4734,11 @@
         <v>186</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
@@ -3590,13 +4777,13 @@
         <v>188</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="24" t="s">
         <v>208</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K27" s="25"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
@@ -3612,13 +4799,13 @@
         <v>189</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="24" t="s">
         <v>209</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="K28" s="25"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
@@ -3650,11 +4837,11 @@
         <v>190</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
@@ -3959,4 +5146,2956 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
+  <dimension ref="C2:K178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="31"/>
+    <col min="10" max="10" width="14.25" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="32" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="26">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="26">
+        <v>3</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="26">
+        <v>4</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="26">
+        <v>5</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="26">
+        <v>6</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="26">
+        <v>7</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="26">
+        <v>8</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="26">
+        <v>9</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="26">
+        <v>10</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="26">
+        <v>11</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="26">
+        <v>12</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="26">
+        <v>13</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="26">
+        <v>14</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="26">
+        <v>15</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="26">
+        <v>16</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="26">
+        <v>17</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="26">
+        <v>18</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="26">
+        <v>19</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="26">
+        <v>20</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="26">
+        <v>21</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="26">
+        <v>22</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="26">
+        <v>23</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="26">
+        <v>24</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="26">
+        <v>25</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="26">
+        <v>26</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="26">
+        <v>27</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="26">
+        <v>28</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="26">
+        <v>29</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="26">
+        <v>30</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="26">
+        <v>31</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="26">
+        <v>32</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="26">
+        <v>33</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C36" s="26">
+        <v>34</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C37" s="26">
+        <v>35</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="26">
+        <v>36</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="26">
+        <v>37</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C40" s="26">
+        <v>38</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="26">
+        <v>39</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C42" s="26">
+        <v>40</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C43" s="26">
+        <v>41</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C44" s="26">
+        <v>42</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C45" s="26">
+        <v>43</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C46" s="26">
+        <v>44</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C47" s="26">
+        <v>45</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C48" s="26">
+        <v>46</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C49" s="26">
+        <v>47</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="26">
+        <v>48</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C51" s="26">
+        <v>49</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C52" s="26">
+        <v>50</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C53" s="26">
+        <v>51</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C54" s="26">
+        <v>52</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C55" s="26">
+        <v>53</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C56" s="26">
+        <v>54</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C57" s="26">
+        <v>55</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="26">
+        <v>56</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="26">
+        <v>57</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="26">
+        <v>58</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="J60" s="31" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="26">
+        <v>59</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="26">
+        <v>60</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="J62" s="31" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C63" s="26">
+        <v>61</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="J63" s="31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C64" s="26">
+        <v>62</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="26">
+        <v>63</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="26">
+        <v>64</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="26">
+        <v>65</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="26">
+        <v>66</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="26">
+        <v>67</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="26">
+        <v>68</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="26">
+        <v>69</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C72" s="26">
+        <v>70</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C73" s="26">
+        <v>71</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="26">
+        <v>72</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="26">
+        <v>73</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="J75" s="31" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="26">
+        <v>74</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="26">
+        <v>75</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="J77" s="31" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="26">
+        <v>76</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="26">
+        <v>77</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="J79" s="31" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="26">
+        <v>78</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="J80" s="27" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C81" s="26">
+        <v>79</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="J81" s="31" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C82" s="26">
+        <v>80</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="26">
+        <v>81</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="26">
+        <v>82</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="26">
+        <v>83</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="26">
+        <v>84</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="26">
+        <v>85</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="26">
+        <v>86</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="J88" s="31" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="26">
+        <v>87</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="G89" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="J89" s="31" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C90" s="26">
+        <v>88</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="J90" s="31" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C91" s="26">
+        <v>89</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="J91" s="31" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="26">
+        <v>90</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G92" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="J92" s="31" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="26">
+        <v>91</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G93" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="J93" s="31" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="26">
+        <v>92</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="26">
+        <v>93</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="26">
+        <v>94</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="26">
+        <v>95</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="26">
+        <v>96</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="G98" s="26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C99" s="26">
+        <v>97</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G99" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="J99" s="31" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C100" s="26">
+        <v>98</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G100" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="J100" s="31" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C101" s="26">
+        <v>99</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C102" s="26">
+        <v>100</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C103" s="26">
+        <v>101</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" s="26" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C104" s="26">
+        <v>102</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G104" s="26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C105" s="26">
+        <v>103</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" s="26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C106" s="26">
+        <v>104</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G106" s="26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C107" s="26">
+        <v>105</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C108" s="26">
+        <v>106</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C109" s="26">
+        <v>107</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G109" s="26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C110" s="26">
+        <v>108</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G110" s="26" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C111" s="26">
+        <v>109</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C112" s="26">
+        <v>110</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="J112" s="31" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C113" s="26">
+        <v>111</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G113" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="J113" s="31" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C114" s="26">
+        <v>112</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C115" s="26">
+        <v>113</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C116" s="26">
+        <v>114</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G116" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="J116" s="28" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C117" s="26">
+        <v>115</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G117" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="J117" s="28" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C118" s="26">
+        <v>116</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G118" s="26" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C119" s="26">
+        <v>117</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C120" s="26">
+        <v>118</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G120" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="J120" s="31" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C121" s="26">
+        <v>119</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C122" s="26">
+        <v>120</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C123" s="26">
+        <v>121</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C124" s="26">
+        <v>122</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G124" s="26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="125" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C125" s="26">
+        <v>123</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G125" s="26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C126" s="26">
+        <v>124</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G126" s="26" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C127" s="26">
+        <v>125</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="G127" s="26" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C128" s="26">
+        <v>126</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C129" s="26">
+        <v>127</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="G129" s="26" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C130" s="26">
+        <v>128</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="G130" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="H130" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="J130" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C131" s="26">
+        <v>129</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="G131" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="J131" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C132" s="26">
+        <v>130</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="G132" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="J132" s="31" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C133" s="26">
+        <v>131</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="G133" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="J133" s="31" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C134" s="26">
+        <v>132</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G134" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="J134" s="31" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C135" s="26">
+        <v>133</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C136" s="26">
+        <v>134</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C137" s="26">
+        <v>135</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C138" s="26">
+        <v>136</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C139" s="26">
+        <v>137</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C140" s="26">
+        <v>138</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F140" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G140" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="J140" s="31" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C141" s="26">
+        <v>139</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F141" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G141" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="J141" s="31" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="142" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C142" s="26">
+        <v>140</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G142" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="J142" s="31" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="143" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C143" s="26">
+        <v>141</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F143" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G143" s="26" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C144" s="26">
+        <v>142</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G144" s="26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C145" s="26">
+        <v>143</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F145" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G145" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="J145" s="31" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="146" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C146" s="26">
+        <v>144</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G146" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="J146" s="31" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="147" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C147" s="26">
+        <v>145</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F147" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G147" s="26" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C148" s="26">
+        <v>146</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F148" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G148" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="149" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C149" s="26">
+        <v>147</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F149" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G149" s="26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="150" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C150" s="26">
+        <v>148</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G150" s="26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C151" s="26">
+        <v>149</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F151" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G151" s="26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C152" s="26">
+        <v>150</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G152" s="26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C153" s="26">
+        <v>151</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C154" s="26">
+        <v>152</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C155" s="26">
+        <v>153</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F155" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G155" s="26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C156" s="26">
+        <v>154</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F156" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G156" s="26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C157" s="26">
+        <v>155</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F157" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G157" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="158" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C158" s="26">
+        <v>156</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F158" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G158" s="26" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="159" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C159" s="26">
+        <v>157</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F159" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G159" s="26" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="160" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C160" s="26">
+        <v>158</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F160" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G160" s="26" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="161" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C161" s="26">
+        <v>159</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C162" s="26">
+        <v>160</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C163" s="26">
+        <v>161</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="E163" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F163" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G163" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="J163" s="31" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="164" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C164" s="26">
+        <v>162</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="E164" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F164" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G164" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="J164" s="31" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="165" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C165" s="26">
+        <v>163</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="E165" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F165" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G165" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="J165" s="31" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="166" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C166" s="26">
+        <v>164</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F166" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G166" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="J166" s="31" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="167" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C167" s="26">
+        <v>165</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F167" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="G167" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="J167" s="31" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="168" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C168" s="26">
+        <v>166</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F168" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="G168" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="J168" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C169" s="26">
+        <v>167</v>
+      </c>
+      <c r="D169" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="26" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="170" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C170" s="26">
+        <v>168</v>
+      </c>
+      <c r="D170" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F170" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="G170" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="J170" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="171" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C171" s="26">
+        <v>169</v>
+      </c>
+      <c r="D171" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F171" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="G171" s="26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="172" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C172" s="26">
+        <v>170</v>
+      </c>
+      <c r="D172" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F172" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G172" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="J172" s="31" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="173" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C173" s="26">
+        <v>171</v>
+      </c>
+      <c r="D173" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F173" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G173" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="J173" s="31" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="174" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C174" s="26">
+        <v>172</v>
+      </c>
+      <c r="D174" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C175" s="26">
+        <v>173</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C176" s="26">
+        <v>174</v>
+      </c>
+      <c r="D176" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C177" s="26">
+        <v>175</v>
+      </c>
+      <c r="D177" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E177" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C178" s="26">
+        <v>176</v>
+      </c>
+      <c r="D178" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E178" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C2:J178" xr:uid="{63FA898B-93F9-4BC6-B19A-0EACF522B65F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:J178">
+      <sortCondition ref="C2:C178"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06881CAF-0E1D-4BA1-A7B9-70A1F36CBED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473FB992-D59C-4E38-A79B-1A96F95C2668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2624,9 +2624,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2647,6 +2644,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2949,33 +2949,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4279,48 +4279,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="32" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
       <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
@@ -5152,2939 +5152,2939 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
   <dimension ref="C2:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="31"/>
-    <col min="10" max="10" width="14.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="30"/>
+    <col min="10" max="10" width="14.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="32" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="31" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="J3" s="28"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="J4" s="28"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>3</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="J5" s="28"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="J6" s="28"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>5</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="J7" s="28"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>6</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>7</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>8</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>9</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>10</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="26" t="s">
+      <c r="E12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>11</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="26" t="s">
+      <c r="E13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>12</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>13</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>14</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>15</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>16</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>17</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>18</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="26" t="s">
+      <c r="E20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="30" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>19</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="26" t="s">
+      <c r="E21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="30" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="26">
-        <v>20</v>
-      </c>
-      <c r="D22" s="26" t="s">
+      <c r="C22" s="25">
+        <v>20</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="26" t="s">
+      <c r="E22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="30" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>21</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="30" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>22</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="30" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <v>23</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="E25" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="26" t="s">
+      <c r="E25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="30" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>24</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>25</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>26</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="E28" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="26" t="s">
+      <c r="E28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="26" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="26">
+      <c r="C29" s="25">
         <v>27</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="26" t="s">
+      <c r="E29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="26" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>28</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="26" t="s">
+      <c r="E30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="26" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <v>29</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="E31" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="26" t="s">
+      <c r="E31" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="26" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="26">
+      <c r="C32" s="25">
         <v>30</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="26" t="s">
+      <c r="E32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="J32" s="27" t="s">
+      <c r="J32" s="26" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <v>31</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="E33" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="26" t="s">
+      <c r="E33" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="31" t="s">
+      <c r="J33" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="26">
+      <c r="C34" s="25">
         <v>32</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="E34" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="26" t="s">
+      <c r="E34" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="26">
+      <c r="C35" s="25">
         <v>33</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="26" t="s">
+      <c r="E35" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <v>34</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="26" t="s">
+      <c r="E36" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="30" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="26">
+      <c r="C37" s="25">
         <v>35</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="E37" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="26" t="s">
+      <c r="E37" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="30" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="26">
+      <c r="C38" s="25">
         <v>36</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="J38" s="31" t="s">
+      <c r="J38" s="30" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="26">
+      <c r="C39" s="25">
         <v>37</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="25" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="26">
+      <c r="C40" s="25">
         <v>38</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="26">
+      <c r="C41" s="25">
         <v>39</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="26">
+      <c r="C42" s="25">
         <v>40</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="26">
+      <c r="C43" s="25">
         <v>41</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="26" t="s">
+      <c r="E43" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="25" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C44" s="26">
+      <c r="C44" s="25">
         <v>42</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="26" t="s">
+      <c r="E44" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="25" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="26">
+      <c r="C45" s="25">
         <v>43</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="30" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="26">
+      <c r="C46" s="25">
         <v>44</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C47" s="26">
+      <c r="C47" s="25">
         <v>45</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C48" s="26">
+      <c r="C48" s="25">
         <v>46</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="J48" s="31" t="s">
+      <c r="J48" s="30" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C49" s="26">
+      <c r="C49" s="25">
         <v>47</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C50" s="26">
+      <c r="C50" s="25">
         <v>48</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C51" s="26">
+      <c r="C51" s="25">
         <v>49</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="26" t="s">
+      <c r="E51" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="J51" s="31" t="s">
+      <c r="J51" s="30" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C52" s="26">
+      <c r="C52" s="25">
         <v>50</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="E52" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="26" t="s">
+      <c r="E52" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="J52" s="31" t="s">
+      <c r="J52" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C53" s="26">
+      <c r="C53" s="25">
         <v>51</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="E53" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="26" t="s">
+      <c r="E53" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="J53" s="31" t="s">
+      <c r="J53" s="30" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C54" s="26">
+      <c r="C54" s="25">
         <v>52</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="E54" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="26" t="s">
+      <c r="E54" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="J54" s="31" t="s">
+      <c r="J54" s="30" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C55" s="26">
+      <c r="C55" s="25">
         <v>53</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="E55" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="26" t="s">
+      <c r="E55" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G55" s="25" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C56" s="26">
+      <c r="C56" s="25">
         <v>54</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="E56" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="26" t="s">
+      <c r="E56" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="25" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C57" s="26">
+      <c r="C57" s="25">
         <v>55</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="26" t="s">
+      <c r="E57" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="25" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C58" s="26">
+      <c r="C58" s="25">
         <v>56</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="26" t="s">
+      <c r="E58" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="25" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="26">
+      <c r="C59" s="25">
         <v>57</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="26" t="s">
+      <c r="E59" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="25" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="26">
+      <c r="C60" s="25">
         <v>58</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="E60" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="26" t="s">
+      <c r="E60" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G60" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="J60" s="31" t="s">
+      <c r="J60" s="30" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="26">
+      <c r="C61" s="25">
         <v>59</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="E61" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="26" t="s">
+      <c r="E61" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G61" s="26" t="s">
+      <c r="G61" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="J61" s="31" t="s">
+      <c r="J61" s="30" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="26">
+      <c r="C62" s="25">
         <v>60</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="E62" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="26" t="s">
+      <c r="E62" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="J62" s="31" t="s">
+      <c r="J62" s="30" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C63" s="26">
+      <c r="C63" s="25">
         <v>61</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="E63" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="26" t="s">
+      <c r="E63" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="G63" s="26" t="s">
+      <c r="G63" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="J63" s="31" t="s">
+      <c r="J63" s="30" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C64" s="26">
+      <c r="C64" s="25">
         <v>62</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="E64" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="26" t="s">
+      <c r="E64" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="J64" s="31" t="s">
+      <c r="J64" s="30" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="26">
+      <c r="C65" s="25">
         <v>63</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="E65" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="26" t="s">
+      <c r="E65" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="J65" s="31" t="s">
+      <c r="J65" s="30" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="26">
+      <c r="C66" s="25">
         <v>64</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="26">
+      <c r="C67" s="25">
         <v>65</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="26">
+      <c r="C68" s="25">
         <v>66</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="E68" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="26" t="s">
+      <c r="E68" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="G68" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="J68" s="31" t="s">
+      <c r="J68" s="30" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="26">
+      <c r="C69" s="25">
         <v>67</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="E69" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="26" t="s">
+      <c r="E69" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="J69" s="31" t="s">
+      <c r="J69" s="30" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="26">
+      <c r="C70" s="25">
         <v>68</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="E70" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="26" t="s">
+      <c r="E70" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="G70" s="26" t="s">
+      <c r="G70" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="J70" s="31" t="s">
+      <c r="J70" s="30" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="26">
+      <c r="C71" s="25">
         <v>69</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="E71" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="26" t="s">
+      <c r="E71" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="G71" s="26" t="s">
+      <c r="G71" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="J71" s="31" t="s">
+      <c r="J71" s="30" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C72" s="26">
+      <c r="C72" s="25">
         <v>70</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E72" s="26" t="s">
+      <c r="E72" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C73" s="26">
+      <c r="C73" s="25">
         <v>71</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="26">
+      <c r="C74" s="25">
         <v>72</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="E74" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="26" t="s">
+      <c r="E74" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="J74" s="31" t="s">
+      <c r="J74" s="30" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="26">
+      <c r="C75" s="25">
         <v>73</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="E75" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="26" t="s">
+      <c r="E75" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G75" s="26" t="s">
+      <c r="G75" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="J75" s="31" t="s">
+      <c r="J75" s="30" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="26">
+      <c r="C76" s="25">
         <v>74</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="E76" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="26" t="s">
+      <c r="E76" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="26" t="s">
+      <c r="G76" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="J76" s="31" t="s">
+      <c r="J76" s="30" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="26">
+      <c r="C77" s="25">
         <v>75</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="E77" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="26" t="s">
+      <c r="E77" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="G77" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="J77" s="31" t="s">
+      <c r="J77" s="30" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="26">
+      <c r="C78" s="25">
         <v>76</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="E78" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="26" t="s">
+      <c r="E78" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="G78" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="J78" s="31" t="s">
+      <c r="J78" s="30" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="26">
+      <c r="C79" s="25">
         <v>77</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="E79" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="26" t="s">
+      <c r="E79" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G79" s="26" t="s">
+      <c r="G79" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="J79" s="31" t="s">
+      <c r="J79" s="30" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="26">
+      <c r="C80" s="25">
         <v>78</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E80" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" s="26" t="s">
+      <c r="E80" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="G80" s="26" t="s">
+      <c r="G80" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="J80" s="27" t="s">
+      <c r="J80" s="26" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C81" s="26">
+      <c r="C81" s="25">
         <v>79</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F81" s="26" t="s">
+      <c r="E81" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="G81" s="26" t="s">
+      <c r="G81" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="J81" s="31" t="s">
+      <c r="J81" s="30" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C82" s="26">
+      <c r="C82" s="25">
         <v>80</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="26">
+      <c r="C83" s="25">
         <v>81</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E83" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="26">
+      <c r="C84" s="25">
         <v>82</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="26">
+      <c r="C85" s="25">
         <v>83</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="26">
+      <c r="C86" s="25">
         <v>84</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E86" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="26">
+      <c r="C87" s="25">
         <v>85</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D87" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E87" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F87" s="26" t="s">
+      <c r="E87" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="G87" s="26" t="s">
+      <c r="G87" s="25" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="26">
+      <c r="C88" s="25">
         <v>86</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D88" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F88" s="26" t="s">
+      <c r="E88" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="G88" s="26" t="s">
+      <c r="G88" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="J88" s="31" t="s">
+      <c r="J88" s="30" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="26">
+      <c r="C89" s="25">
         <v>87</v>
       </c>
-      <c r="D89" s="26" t="s">
+      <c r="D89" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E89" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" s="26" t="s">
+      <c r="E89" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="G89" s="26" t="s">
+      <c r="G89" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="J89" s="31" t="s">
+      <c r="J89" s="30" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C90" s="26">
+      <c r="C90" s="25">
         <v>88</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E90" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" s="26" t="s">
+      <c r="E90" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="J90" s="31" t="s">
+      <c r="J90" s="30" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C91" s="26">
+      <c r="C91" s="25">
         <v>89</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="E91" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91" s="26" t="s">
+      <c r="E91" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G91" s="26" t="s">
+      <c r="G91" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="J91" s="31" t="s">
+      <c r="J91" s="30" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="26">
+      <c r="C92" s="25">
         <v>90</v>
       </c>
-      <c r="D92" s="26" t="s">
+      <c r="D92" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="E92" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="26" t="s">
+      <c r="E92" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G92" s="26" t="s">
+      <c r="G92" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="J92" s="31" t="s">
+      <c r="J92" s="30" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="26">
+      <c r="C93" s="25">
         <v>91</v>
       </c>
-      <c r="D93" s="26" t="s">
+      <c r="D93" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="E93" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" s="26" t="s">
+      <c r="E93" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G93" s="26" t="s">
+      <c r="G93" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="J93" s="31" t="s">
+      <c r="J93" s="30" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="26">
+      <c r="C94" s="25">
         <v>92</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E94" s="26" t="s">
+      <c r="E94" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="26">
+      <c r="C95" s="25">
         <v>93</v>
       </c>
-      <c r="D95" s="26" t="s">
+      <c r="D95" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E95" s="26" t="s">
+      <c r="E95" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="26">
+      <c r="C96" s="25">
         <v>94</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="E96" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" s="26" t="s">
+      <c r="E96" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G96" s="26" t="s">
+      <c r="G96" s="25" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="26">
+      <c r="C97" s="25">
         <v>95</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="D97" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="E97" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" s="26" t="s">
+      <c r="E97" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="G97" s="26" t="s">
+      <c r="G97" s="25" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="26">
+      <c r="C98" s="25">
         <v>96</v>
       </c>
-      <c r="D98" s="26" t="s">
+      <c r="D98" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="E98" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" s="26" t="s">
+      <c r="E98" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="G98" s="26" t="s">
+      <c r="G98" s="25" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C99" s="26">
+      <c r="C99" s="25">
         <v>97</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="E99" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F99" s="26" t="s">
+      <c r="E99" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G99" s="26" t="s">
+      <c r="G99" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="J99" s="31" t="s">
+      <c r="J99" s="30" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C100" s="26">
+      <c r="C100" s="25">
         <v>98</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="E100" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F100" s="26" t="s">
+      <c r="E100" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G100" s="26" t="s">
+      <c r="G100" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="J100" s="31" t="s">
+      <c r="J100" s="30" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="101" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C101" s="26">
+      <c r="C101" s="25">
         <v>99</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C102" s="26">
+      <c r="C102" s="25">
         <v>100</v>
       </c>
-      <c r="D102" s="26" t="s">
+      <c r="D102" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C103" s="26">
+      <c r="C103" s="25">
         <v>101</v>
       </c>
-      <c r="D103" s="26" t="s">
+      <c r="D103" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="E103" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" s="26" t="s">
+      <c r="E103" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G103" s="26" t="s">
+      <c r="G103" s="25" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C104" s="26">
+      <c r="C104" s="25">
         <v>102</v>
       </c>
-      <c r="D104" s="26" t="s">
+      <c r="D104" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="E104" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104" s="26" t="s">
+      <c r="E104" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G104" s="26" t="s">
+      <c r="G104" s="25" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C105" s="26">
+      <c r="C105" s="25">
         <v>103</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="E105" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" s="26" t="s">
+      <c r="E105" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G105" s="26" t="s">
+      <c r="G105" s="25" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C106" s="26">
+      <c r="C106" s="25">
         <v>104</v>
       </c>
-      <c r="D106" s="26" t="s">
+      <c r="D106" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="E106" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F106" s="26" t="s">
+      <c r="E106" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G106" s="26" t="s">
+      <c r="G106" s="25" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="107" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C107" s="26">
+      <c r="C107" s="25">
         <v>105</v>
       </c>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="108" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C108" s="26">
+      <c r="C108" s="25">
         <v>106</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="109" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C109" s="26">
+      <c r="C109" s="25">
         <v>107</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="D109" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="E109" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109" s="26" t="s">
+      <c r="E109" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G109" s="26" t="s">
+      <c r="G109" s="25" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="110" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C110" s="26">
+      <c r="C110" s="25">
         <v>108</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="E110" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F110" s="26" t="s">
+      <c r="E110" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G110" s="26" t="s">
+      <c r="G110" s="25" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C111" s="26">
+      <c r="C111" s="25">
         <v>109</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D111" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="E111" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F111" s="26" t="s">
+      <c r="E111" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="25" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C112" s="26">
+      <c r="C112" s="25">
         <v>110</v>
       </c>
-      <c r="D112" s="26" t="s">
+      <c r="D112" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="E112" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F112" s="26" t="s">
+      <c r="E112" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G112" s="26" t="s">
+      <c r="G112" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="J112" s="31" t="s">
+      <c r="J112" s="30" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="113" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C113" s="26">
+      <c r="C113" s="25">
         <v>111</v>
       </c>
-      <c r="D113" s="26" t="s">
+      <c r="D113" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="E113" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F113" s="26" t="s">
+      <c r="E113" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G113" s="26" t="s">
+      <c r="G113" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="J113" s="31" t="s">
+      <c r="J113" s="30" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C114" s="26">
+      <c r="C114" s="25">
         <v>112</v>
       </c>
-      <c r="D114" s="26" t="s">
+      <c r="D114" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E114" s="26" t="s">
+      <c r="E114" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C115" s="26">
+      <c r="C115" s="25">
         <v>113</v>
       </c>
-      <c r="D115" s="26" t="s">
+      <c r="D115" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E115" s="26" t="s">
+      <c r="E115" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C116" s="26">
+      <c r="C116" s="25">
         <v>114</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="E116" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" s="26" t="s">
+      <c r="E116" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G116" s="26" t="s">
+      <c r="G116" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="J116" s="28" t="s">
+      <c r="J116" s="27" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="117" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C117" s="26">
+      <c r="C117" s="25">
         <v>115</v>
       </c>
-      <c r="D117" s="26" t="s">
+      <c r="D117" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="E117" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" s="26" t="s">
+      <c r="E117" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G117" s="26" t="s">
+      <c r="G117" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="J117" s="28" t="s">
+      <c r="J117" s="27" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C118" s="26">
+      <c r="C118" s="25">
         <v>116</v>
       </c>
-      <c r="D118" s="26" t="s">
+      <c r="D118" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="E118" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F118" s="26" t="s">
+      <c r="E118" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G118" s="26" t="s">
+      <c r="G118" s="25" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C119" s="26">
+      <c r="C119" s="25">
         <v>117</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="E119" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F119" s="26" t="s">
+      <c r="E119" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G119" s="26" t="s">
+      <c r="G119" s="25" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C120" s="26">
+      <c r="C120" s="25">
         <v>118</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="D120" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="E120" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F120" s="26" t="s">
+      <c r="E120" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G120" s="26" t="s">
+      <c r="G120" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="J120" s="31" t="s">
+      <c r="J120" s="30" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C121" s="26">
+      <c r="C121" s="25">
         <v>119</v>
       </c>
-      <c r="D121" s="26" t="s">
+      <c r="D121" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E121" s="26" t="s">
+      <c r="E121" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C122" s="26">
+      <c r="C122" s="25">
         <v>120</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="E122" s="26" t="s">
+      <c r="E122" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="123" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C123" s="26">
+      <c r="C123" s="25">
         <v>121</v>
       </c>
-      <c r="D123" s="26" t="s">
+      <c r="D123" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="E123" s="26" t="s">
+      <c r="E123" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="124" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C124" s="26">
+      <c r="C124" s="25">
         <v>122</v>
       </c>
-      <c r="D124" s="26" t="s">
+      <c r="D124" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="E124" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F124" s="26" t="s">
+      <c r="E124" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G124" s="26" t="s">
+      <c r="G124" s="25" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="125" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C125" s="26">
+      <c r="C125" s="25">
         <v>123</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="E125" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125" s="26" t="s">
+      <c r="E125" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G125" s="26" t="s">
+      <c r="G125" s="25" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="126" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C126" s="26">
+      <c r="C126" s="25">
         <v>124</v>
       </c>
-      <c r="D126" s="26" t="s">
+      <c r="D126" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="E126" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F126" s="26" t="s">
+      <c r="E126" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G126" s="26" t="s">
+      <c r="G126" s="25" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="127" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C127" s="26">
+      <c r="C127" s="25">
         <v>125</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D127" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="E127" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F127" s="26" t="s">
+      <c r="E127" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="G127" s="26" t="s">
+      <c r="G127" s="25" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="128" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C128" s="26">
+      <c r="C128" s="25">
         <v>126</v>
       </c>
-      <c r="D128" s="26" t="s">
+      <c r="D128" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E128" s="26" t="s">
+      <c r="E128" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="129" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C129" s="26">
+      <c r="C129" s="25">
         <v>127</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E129" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="26" t="s">
+      <c r="E129" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="G129" s="26" t="s">
+      <c r="G129" s="25" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="130" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C130" s="26">
+      <c r="C130" s="25">
         <v>128</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="D130" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E130" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F130" s="26" t="s">
+      <c r="E130" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="G130" s="26" t="s">
+      <c r="G130" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="H130" s="26" t="s">
+      <c r="H130" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="J130" s="31" t="s">
+      <c r="J130" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="131" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C131" s="26">
+      <c r="C131" s="25">
         <v>129</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E131" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F131" s="26" t="s">
+      <c r="E131" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="G131" s="26" t="s">
+      <c r="G131" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="J131" s="31" t="s">
+      <c r="J131" s="30" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="132" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C132" s="26">
+      <c r="C132" s="25">
         <v>130</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E132" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" s="26" t="s">
+      <c r="E132" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="G132" s="26" t="s">
+      <c r="G132" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="J132" s="31" t="s">
+      <c r="J132" s="30" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="133" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C133" s="26">
+      <c r="C133" s="25">
         <v>131</v>
       </c>
-      <c r="D133" s="26" t="s">
+      <c r="D133" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E133" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F133" s="26" t="s">
+      <c r="E133" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="G133" s="26" t="s">
+      <c r="G133" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="J133" s="31" t="s">
+      <c r="J133" s="30" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="134" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C134" s="26">
+      <c r="C134" s="25">
         <v>132</v>
       </c>
-      <c r="D134" s="26" t="s">
+      <c r="D134" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="E134" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" s="26" t="s">
+      <c r="E134" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G134" s="26" t="s">
+      <c r="G134" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="J134" s="31" t="s">
+      <c r="J134" s="30" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="135" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C135" s="26">
+      <c r="C135" s="25">
         <v>133</v>
       </c>
-      <c r="D135" s="26" t="s">
+      <c r="D135" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="E135" s="26" t="s">
+      <c r="E135" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="136" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C136" s="26">
+      <c r="C136" s="25">
         <v>134</v>
       </c>
-      <c r="D136" s="26" t="s">
+      <c r="D136" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E136" s="26" t="s">
+      <c r="E136" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="137" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C137" s="26">
+      <c r="C137" s="25">
         <v>135</v>
       </c>
-      <c r="D137" s="26" t="s">
+      <c r="D137" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="E137" s="26" t="s">
+      <c r="E137" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="138" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C138" s="26">
+      <c r="C138" s="25">
         <v>136</v>
       </c>
-      <c r="D138" s="26" t="s">
+      <c r="D138" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E138" s="26" t="s">
+      <c r="E138" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="139" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C139" s="26">
+      <c r="C139" s="25">
         <v>137</v>
       </c>
-      <c r="D139" s="26" t="s">
+      <c r="D139" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E139" s="26" t="s">
+      <c r="E139" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="140" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C140" s="26">
+      <c r="C140" s="25">
         <v>138</v>
       </c>
-      <c r="D140" s="26" t="s">
+      <c r="D140" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="E140" s="26" t="s">
+      <c r="E140" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F140" s="26" t="s">
+      <c r="F140" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G140" s="26" t="s">
+      <c r="G140" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="J140" s="31" t="s">
+      <c r="J140" s="30" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="141" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C141" s="26">
+      <c r="C141" s="25">
         <v>139</v>
       </c>
-      <c r="D141" s="26" t="s">
+      <c r="D141" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="E141" s="26" t="s">
+      <c r="E141" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F141" s="26" t="s">
+      <c r="F141" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G141" s="26" t="s">
+      <c r="G141" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="J141" s="31" t="s">
+      <c r="J141" s="30" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="142" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C142" s="26">
+      <c r="C142" s="25">
         <v>140</v>
       </c>
-      <c r="D142" s="26" t="s">
+      <c r="D142" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="E142" s="26" t="s">
+      <c r="E142" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F142" s="26" t="s">
+      <c r="F142" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G142" s="26" t="s">
+      <c r="G142" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="J142" s="31" t="s">
+      <c r="J142" s="30" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="143" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C143" s="26">
+      <c r="C143" s="25">
         <v>141</v>
       </c>
-      <c r="D143" s="26" t="s">
+      <c r="D143" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="E143" s="26" t="s">
+      <c r="E143" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F143" s="26" t="s">
+      <c r="F143" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G143" s="26" t="s">
+      <c r="G143" s="25" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="144" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C144" s="26">
+      <c r="C144" s="25">
         <v>142</v>
       </c>
-      <c r="D144" s="26" t="s">
+      <c r="D144" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="E144" s="26" t="s">
+      <c r="E144" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F144" s="26" t="s">
+      <c r="F144" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G144" s="26" t="s">
+      <c r="G144" s="25" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="145" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C145" s="26">
+      <c r="C145" s="25">
         <v>143</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="E145" s="26" t="s">
+      <c r="E145" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F145" s="26" t="s">
+      <c r="F145" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G145" s="26" t="s">
+      <c r="G145" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="J145" s="31" t="s">
+      <c r="J145" s="30" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="146" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C146" s="26">
+      <c r="C146" s="25">
         <v>144</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="E146" s="26" t="s">
+      <c r="E146" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F146" s="26" t="s">
+      <c r="F146" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G146" s="26" t="s">
+      <c r="G146" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="J146" s="31" t="s">
+      <c r="J146" s="30" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="147" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C147" s="26">
+      <c r="C147" s="25">
         <v>145</v>
       </c>
-      <c r="D147" s="26" t="s">
+      <c r="D147" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F147" s="26" t="s">
+      <c r="F147" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G147" s="26" t="s">
+      <c r="G147" s="25" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="148" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C148" s="26">
+      <c r="C148" s="25">
         <v>146</v>
       </c>
-      <c r="D148" s="26" t="s">
+      <c r="D148" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F148" s="26" t="s">
+      <c r="F148" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G148" s="26" t="s">
+      <c r="G148" s="25" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="149" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C149" s="26">
+      <c r="C149" s="25">
         <v>147</v>
       </c>
-      <c r="D149" s="26" t="s">
+      <c r="D149" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="E149" s="26" t="s">
+      <c r="E149" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F149" s="26" t="s">
+      <c r="F149" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G149" s="26" t="s">
+      <c r="G149" s="25" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="150" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C150" s="26">
+      <c r="C150" s="25">
         <v>148</v>
       </c>
-      <c r="D150" s="26" t="s">
+      <c r="D150" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="E150" s="26" t="s">
+      <c r="E150" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F150" s="26" t="s">
+      <c r="F150" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G150" s="26" t="s">
+      <c r="G150" s="25" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="151" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C151" s="26">
+      <c r="C151" s="25">
         <v>149</v>
       </c>
-      <c r="D151" s="26" t="s">
+      <c r="D151" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="E151" s="26" t="s">
+      <c r="E151" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F151" s="26" t="s">
+      <c r="F151" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G151" s="26" t="s">
+      <c r="G151" s="25" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="152" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C152" s="26">
+      <c r="C152" s="25">
         <v>150</v>
       </c>
-      <c r="D152" s="26" t="s">
+      <c r="D152" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="E152" s="26" t="s">
+      <c r="E152" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F152" s="26" t="s">
+      <c r="F152" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G152" s="26" t="s">
+      <c r="G152" s="25" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="153" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C153" s="26">
+      <c r="C153" s="25">
         <v>151</v>
       </c>
-      <c r="D153" s="26" t="s">
+      <c r="D153" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E153" s="26" t="s">
+      <c r="E153" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="154" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C154" s="26">
+      <c r="C154" s="25">
         <v>152</v>
       </c>
-      <c r="D154" s="26" t="s">
+      <c r="D154" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E154" s="26" t="s">
+      <c r="E154" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="155" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C155" s="26">
+      <c r="C155" s="25">
         <v>153</v>
       </c>
-      <c r="D155" s="26" t="s">
+      <c r="D155" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="E155" s="26" t="s">
+      <c r="E155" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F155" s="26" t="s">
+      <c r="F155" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G155" s="26" t="s">
+      <c r="G155" s="25" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="156" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C156" s="26">
+      <c r="C156" s="25">
         <v>154</v>
       </c>
-      <c r="D156" s="26" t="s">
+      <c r="D156" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="E156" s="26" t="s">
+      <c r="E156" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F156" s="26" t="s">
+      <c r="F156" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G156" s="26" t="s">
+      <c r="G156" s="25" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="157" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C157" s="26">
+      <c r="C157" s="25">
         <v>155</v>
       </c>
-      <c r="D157" s="26" t="s">
+      <c r="D157" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="E157" s="26" t="s">
+      <c r="E157" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F157" s="26" t="s">
+      <c r="F157" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G157" s="26" t="s">
+      <c r="G157" s="25" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="158" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C158" s="26">
+      <c r="C158" s="25">
         <v>156</v>
       </c>
-      <c r="D158" s="26" t="s">
+      <c r="D158" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="E158" s="26" t="s">
+      <c r="E158" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F158" s="26" t="s">
+      <c r="F158" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G158" s="26" t="s">
+      <c r="G158" s="25" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="159" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C159" s="26">
+      <c r="C159" s="25">
         <v>157</v>
       </c>
-      <c r="D159" s="26" t="s">
+      <c r="D159" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="E159" s="26" t="s">
+      <c r="E159" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F159" s="26" t="s">
+      <c r="F159" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G159" s="26" t="s">
+      <c r="G159" s="25" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="160" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C160" s="26">
+      <c r="C160" s="25">
         <v>158</v>
       </c>
-      <c r="D160" s="26" t="s">
+      <c r="D160" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F160" s="26" t="s">
+      <c r="F160" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G160" s="26" t="s">
+      <c r="G160" s="25" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="161" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C161" s="26">
+      <c r="C161" s="25">
         <v>159</v>
       </c>
-      <c r="D161" s="26" t="s">
+      <c r="D161" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E161" s="26" t="s">
+      <c r="E161" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="162" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C162" s="26">
+      <c r="C162" s="25">
         <v>160</v>
       </c>
-      <c r="D162" s="26" t="s">
+      <c r="D162" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="163" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C163" s="26">
+      <c r="C163" s="25">
         <v>161</v>
       </c>
-      <c r="D163" s="26" t="s">
+      <c r="D163" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="E163" s="26" t="s">
+      <c r="E163" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F163" s="26" t="s">
+      <c r="F163" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G163" s="26" t="s">
+      <c r="G163" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="J163" s="31" t="s">
+      <c r="J163" s="30" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="164" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C164" s="26">
+      <c r="C164" s="25">
         <v>162</v>
       </c>
-      <c r="D164" s="26" t="s">
+      <c r="D164" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F164" s="26" t="s">
+      <c r="F164" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G164" s="26" t="s">
+      <c r="G164" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="J164" s="31" t="s">
+      <c r="J164" s="30" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="165" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C165" s="26">
+      <c r="C165" s="25">
         <v>163</v>
       </c>
-      <c r="D165" s="26" t="s">
+      <c r="D165" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="E165" s="26" t="s">
+      <c r="E165" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F165" s="26" t="s">
+      <c r="F165" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G165" s="26" t="s">
+      <c r="G165" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="J165" s="31" t="s">
+      <c r="J165" s="30" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="166" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C166" s="26">
+      <c r="C166" s="25">
         <v>164</v>
       </c>
-      <c r="D166" s="26" t="s">
+      <c r="D166" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E166" s="26" t="s">
+      <c r="E166" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F166" s="26" t="s">
+      <c r="F166" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G166" s="26" t="s">
+      <c r="G166" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="J166" s="31" t="s">
+      <c r="J166" s="30" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="167" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C167" s="26">
+      <c r="C167" s="25">
         <v>165</v>
       </c>
-      <c r="D167" s="26" t="s">
+      <c r="D167" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E167" s="26" t="s">
+      <c r="E167" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F167" s="26" t="s">
+      <c r="F167" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="G167" s="26" t="s">
+      <c r="G167" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="J167" s="31" t="s">
+      <c r="J167" s="30" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="168" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C168" s="26">
+      <c r="C168" s="25">
         <v>166</v>
       </c>
-      <c r="D168" s="26" t="s">
+      <c r="D168" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="E168" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F168" s="26" t="s">
+      <c r="F168" s="25" t="s">
         <v>524</v>
       </c>
-      <c r="G168" s="26" t="s">
+      <c r="G168" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="J168" s="31" t="s">
+      <c r="J168" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="169" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C169" s="26">
+      <c r="C169" s="25">
         <v>167</v>
       </c>
-      <c r="D169" s="26" t="s">
+      <c r="D169" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E169" s="26" t="s">
+      <c r="E169" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F169" s="26" t="s">
+      <c r="F169" s="25" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="170" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C170" s="26">
+      <c r="C170" s="25">
         <v>168</v>
       </c>
-      <c r="D170" s="26" t="s">
+      <c r="D170" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E170" s="26" t="s">
+      <c r="E170" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F170" s="26" t="s">
+      <c r="F170" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="G170" s="26" t="s">
+      <c r="G170" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="J170" s="31" t="s">
+      <c r="J170" s="30" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="171" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C171" s="26">
+      <c r="C171" s="25">
         <v>169</v>
       </c>
-      <c r="D171" s="26" t="s">
+      <c r="D171" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E171" s="26" t="s">
+      <c r="E171" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F171" s="26" t="s">
+      <c r="F171" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="G171" s="26" t="s">
+      <c r="G171" s="25" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="172" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C172" s="26">
+      <c r="C172" s="25">
         <v>170</v>
       </c>
-      <c r="D172" s="26" t="s">
+      <c r="D172" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="E172" s="26" t="s">
+      <c r="E172" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G172" s="26" t="s">
+      <c r="G172" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="J172" s="31" t="s">
+      <c r="J172" s="30" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="173" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C173" s="26">
+      <c r="C173" s="25">
         <v>171</v>
       </c>
-      <c r="D173" s="26" t="s">
+      <c r="D173" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="E173" s="26" t="s">
+      <c r="E173" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F173" s="26" t="s">
+      <c r="F173" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G173" s="26" t="s">
+      <c r="G173" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="J173" s="31" t="s">
+      <c r="J173" s="30" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="174" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C174" s="26">
+      <c r="C174" s="25">
         <v>172</v>
       </c>
-      <c r="D174" s="26" t="s">
+      <c r="D174" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="E174" s="26" t="s">
+      <c r="E174" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="175" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C175" s="26">
+      <c r="C175" s="25">
         <v>173</v>
       </c>
-      <c r="D175" s="26" t="s">
+      <c r="D175" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E175" s="26" t="s">
+      <c r="E175" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="176" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C176" s="26">
+      <c r="C176" s="25">
         <v>174</v>
       </c>
-      <c r="D176" s="26" t="s">
+      <c r="D176" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="E176" s="26" t="s">
+      <c r="E176" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F176" s="26" t="s">
+      <c r="F176" s="25" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C177" s="26">
+      <c r="C177" s="25">
         <v>175</v>
       </c>
-      <c r="D177" s="26" t="s">
+      <c r="D177" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="E177" s="26" t="s">
+      <c r="E177" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C178" s="26">
+      <c r="C178" s="25">
         <v>176</v>
       </c>
-      <c r="D178" s="26" t="s">
+      <c r="D178" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E178" s="26" t="s">
+      <c r="E178" s="25" t="s">
         <v>19</v>
       </c>
     </row>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473FB992-D59C-4E38-A79B-1A96F95C2668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B859C-F017-4B7D-B319-86780D85A763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="STM32H745IIT_LQFP176" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">STM32H745IIT_LQFP176!$C$2:$J$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">STM32H745IIT_LQFP176!$B$2:$I$178</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">STM32F103xx_LQFP48!$B$3:$I$55</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="675">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1327,9 +1327,6 @@
     <t>PA5</t>
   </si>
   <si>
-    <t>PA6</t>
-  </si>
-  <si>
     <t>PA7</t>
   </si>
   <si>
@@ -2343,11 +2340,375 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEBUG_JTO/TRACESWO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEBUG_NJTRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Un-assigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_SPI_SCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_SPI_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_SPI_MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_SPI_CS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_SPI_CS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_I2C_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_ISC_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_UART_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_UART_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_UART_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_UART_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_PMIC_INTN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_PMIC_PWR_GOOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_PMIC_VCOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_PMIC_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_PMIC_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_PMIC_PWRUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_PMIC_WAKEUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_CL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_SPH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_GMODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_CKV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_SPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_ENTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_ESCAPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_POWER(WAKEUP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_D[0::15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_A[0:12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_BA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_BA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_NBL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_NBL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_NEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_NCAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_NRAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_NE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM_CKE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOR_DQ[0::3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOR_NCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOR_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_FS_VBUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_FS_DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_FS_DN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_FS_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_FS_PWR_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_FS_OVCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_5V_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_PERIH_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_BAT+_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_BAT_SENSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARIO_UART_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARIO_UART_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EINK_MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EINK_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EINK_SCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EINK_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART3_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_nCS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART6_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART6_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_OTG_HS_VBUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_POWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_nCS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_OE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PED_LE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMIC_nINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMIC_PWR_GOOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMIC_VCOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMIC_WAKEUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMIC_PWRUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_OTG_HS_PWR_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_OTG_HS_OVCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_OTG_FS_VBUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_OTG_FS_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_PERIPH_nEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_nINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_xxx_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG_JTDO/TRACESWO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2355,7 +2716,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2480,6 +2841,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="5"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2548,7 +2933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2647,6 +3032,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5150,2948 +5550,3314 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
-  <dimension ref="C2:K178"/>
+  <dimension ref="B2:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:XFD143"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="30"/>
-    <col min="10" max="10" width="14.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="25" customWidth="1"/>
+    <col min="6" max="6" width="46" style="25" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="9" style="30" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="L2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="C3" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="25">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="31" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="25">
-        <v>1</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="25">
-        <v>2</v>
+      <c r="C4" s="25" t="s">
+        <v>296</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="I4" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="25">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="25">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="25">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="L7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="25">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="25">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="25">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="25">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="L11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="25">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="L12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="25">
+        <v>11</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="25">
+        <v>12</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="25">
+        <v>13</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="25">
+        <v>14</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="25">
+        <v>15</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="25">
+        <v>16</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="25">
+        <v>17</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="25">
+        <v>18</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="25">
-        <v>3</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="25">
-        <v>4</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="25">
-        <v>5</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="25">
-        <v>6</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="F20" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="L20" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="25">
-        <v>7</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="25">
-        <v>8</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="25">
-        <v>9</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="25">
-        <v>10</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="25">
-        <v>11</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C21" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="L21" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="25">
+        <v>20</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="L22" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="25">
+        <v>21</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>407</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="25">
-        <v>12</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="25">
-        <v>13</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="25">
-        <v>14</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="25">
-        <v>15</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="25">
-        <v>16</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="25">
-        <v>17</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="25">
-        <v>18</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="25">
-        <v>19</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="25">
-        <v>20</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="25">
-        <v>21</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>20</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="I23" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="L23" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="25">
+        <v>22</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="I24" s="30" t="s">
         <v>409</v>
       </c>
-      <c r="J23" s="30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="25">
-        <v>22</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G24" s="25" t="s">
+      <c r="L24" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="I25" s="30" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="25">
-        <v>23</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G25" s="25" t="s">
+      <c r="L25" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
+        <v>24</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="25">
+        <v>25</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="25">
+        <v>26</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="L28" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="25">
+        <v>27</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="L29" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="25">
+        <v>28</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="J25" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="25">
-        <v>24</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="25">
-        <v>25</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="25">
-        <v>26</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="25">
-        <v>27</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="J29" s="26" t="s">
+      <c r="I30" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="L30" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="25">
+        <v>29</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="I31" s="26" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="25">
-        <v>28</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="25">
-        <v>29</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G31" s="25" t="s">
+      <c r="L31" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="25">
+        <v>30</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="L32" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="25">
+        <v>31</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="25">
+        <v>32</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="25">
+        <v>33</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="25">
+        <v>34</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="L36" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="25">
+        <v>35</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="L37" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="25">
+        <v>36</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="25" t="s">
         <v>427</v>
-      </c>
-      <c r="J31" s="26" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="25">
-        <v>30</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="25">
-        <v>31</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="25">
-        <v>32</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="25">
-        <v>33</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="25">
-        <v>34</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="25">
-        <v>35</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="25">
-        <v>36</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>428</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="25">
+        <v>434</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="L38" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="25">
         <v>37</v>
       </c>
+      <c r="C39" s="25" t="s">
+        <v>323</v>
+      </c>
       <c r="D39" s="25" t="s">
-        <v>323</v>
+        <v>427</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>428</v>
       </c>
       <c r="F39" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="L39" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="25">
+        <v>38</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="25">
+        <v>39</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="25">
+        <v>40</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="25">
+        <v>41</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="F43" s="25" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="25">
-        <v>38</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="25" t="s">
+      <c r="L43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="25">
+        <v>42</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="L44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="25">
+        <v>43</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="L45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="25">
+        <v>44</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D46" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="25">
-        <v>39</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="E41" s="25" t="s">
+      <c r="L46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="25">
+        <v>45</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="25">
-        <v>40</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="25" t="s">
+      <c r="L47" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="25">
+        <v>46</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="L48" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="25">
+        <v>47</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="25">
-        <v>41</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="25" t="s">
+      <c r="L49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="25">
+        <v>48</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="25">
+        <v>49</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="L51" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="25">
+        <v>50</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="G43" s="25" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C44" s="25">
-        <v>42</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="25">
-        <v>43</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="J45" s="30" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="25">
-        <v>44</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C47" s="25">
-        <v>45</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C48" s="25">
-        <v>46</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="J48" s="30" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C49" s="25">
+      <c r="F52" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="25">
+        <v>51</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="I53" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L53" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="25">
+        <v>52</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L54" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="25">
+        <v>53</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="L55" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="25">
+        <v>54</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="L56" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="25">
+        <v>55</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="L57" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="25">
+        <v>56</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="L58" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="25">
+        <v>57</v>
+      </c>
+      <c r="C59" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C50" s="25">
-        <v>48</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C51" s="25">
-        <v>49</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="25" t="s">
+      <c r="D59" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="L59" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="25">
+        <v>58</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="G51" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C52" s="25">
-        <v>50</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="J52" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C53" s="25">
-        <v>51</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="J53" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C54" s="25">
-        <v>52</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="J54" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C55" s="25">
-        <v>53</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C56" s="25">
-        <v>54</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C57" s="25">
-        <v>55</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C58" s="25">
-        <v>56</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="25" t="s">
+      <c r="F60" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="L60" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B61" s="25">
+        <v>59</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="I61" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="L61" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="25">
+        <v>60</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F62" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="G58" s="25" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="25">
-        <v>57</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="25">
-        <v>58</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="J60" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="25">
-        <v>59</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="J61" s="30" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="25">
-        <v>60</v>
-      </c>
-      <c r="D62" s="25" t="s">
+      <c r="I62" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="L62" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="25">
+        <v>61</v>
+      </c>
+      <c r="C63" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="E62" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="J62" s="30" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C63" s="25">
-        <v>61</v>
-      </c>
       <c r="D63" s="25" t="s">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="I63" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="L63" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="25">
+        <v>62</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F64" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="J63" s="30" t="s">
+      <c r="I64" s="30" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C64" s="25">
-        <v>62</v>
-      </c>
-      <c r="D64" s="25" t="s">
+      <c r="L64" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="25">
+        <v>63</v>
+      </c>
+      <c r="C65" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="G64" s="25" t="s">
+      <c r="D65" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F65" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="J64" s="30" t="s">
+      <c r="I65" s="30" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="25">
-        <v>63</v>
-      </c>
-      <c r="D65" s="25" t="s">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="25">
+        <v>64</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B67" s="25">
+        <v>65</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B68" s="25">
+        <v>66</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="E65" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G65" s="25" t="s">
+      <c r="D68" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="F68" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="J65" s="30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="25">
-        <v>64</v>
-      </c>
-      <c r="D66" s="25" t="s">
+      <c r="I68" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="L68" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B69" s="25">
+        <v>67</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="I69" s="30" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="25">
+        <v>68</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="I70" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="L70" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B71" s="25">
+        <v>69</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="I71" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="L71" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="25">
+        <v>70</v>
+      </c>
+      <c r="C72" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E66" s="25" t="s">
+      <c r="D72" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="25">
-        <v>65</v>
-      </c>
-      <c r="D67" s="25" t="s">
+      <c r="L72" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B73" s="25">
+        <v>71</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="D73" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="25">
-        <v>66</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="J68" s="30" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="25">
-        <v>67</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="J69" s="30" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="25">
-        <v>68</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="J70" s="30" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="25">
-        <v>69</v>
-      </c>
-      <c r="D71" s="25" t="s">
+      <c r="L73" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B74" s="25">
+        <v>72</v>
+      </c>
+      <c r="C74" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="E71" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="G71" s="25" t="s">
+      <c r="D74" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F74" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="J71" s="30" t="s">
+      <c r="I74" s="30" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C72" s="25">
-        <v>70</v>
-      </c>
-      <c r="D72" s="25" t="s">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B75" s="25">
+        <v>73</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="I75" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="L75" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B76" s="25">
+        <v>74</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="I76" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="L76" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B77" s="25">
+        <v>75</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="I77" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="L77" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B78" s="25">
+        <v>76</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="I78" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="L78" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="25">
+        <v>77</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="I79" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="L79" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B80" s="25">
+        <v>78</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="I80" s="36" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B81" s="25">
+        <v>79</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="I81" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="L81" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B82" s="25">
+        <v>80</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="25">
+        <v>81</v>
+      </c>
+      <c r="C83" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="D83" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C73" s="25">
-        <v>71</v>
-      </c>
-      <c r="D73" s="25" t="s">
+      <c r="L83" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B84" s="25">
+        <v>82</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B85" s="25">
+        <v>83</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B86" s="25">
+        <v>84</v>
+      </c>
+      <c r="C86" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="D86" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="25">
-        <v>72</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="J74" s="30" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="25">
-        <v>73</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G75" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="J75" s="30" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="25">
-        <v>74</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="J76" s="30" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="25">
-        <v>75</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G77" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="J77" s="30" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="25">
-        <v>76</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="J78" s="30" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="25">
-        <v>77</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="J79" s="30" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="25">
-        <v>78</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="J80" s="26" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C81" s="25">
-        <v>79</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="G81" s="25" t="s">
+      <c r="L86" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B87" s="25">
+        <v>85</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="25" t="s">
         <v>472</v>
-      </c>
-      <c r="J81" s="30" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C82" s="25">
-        <v>80</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="25">
-        <v>81</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="25">
-        <v>82</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="25">
-        <v>83</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="25">
-        <v>84</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="25">
-        <v>85</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>20</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="G87" s="25" t="s">
+      <c r="I87" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="L87" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B88" s="25">
+        <v>86</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F88" s="25" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="25">
-        <v>86</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="G88" s="25" t="s">
+      <c r="I88" s="35" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B89" s="25">
+        <v>87</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F89" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="J88" s="30" t="s">
+      <c r="I89" s="30" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="25">
-        <v>87</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="G89" s="25" t="s">
+      <c r="L89" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B90" s="25">
+        <v>88</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F90" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="J89" s="30" t="s">
+      <c r="I90" s="30" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C90" s="25">
-        <v>88</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="G90" s="25" t="s">
+      <c r="L90" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B91" s="25">
+        <v>89</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F91" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="J90" s="30" t="s">
+      <c r="I91" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="L91" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B92" s="25">
+        <v>90</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="L92" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B93" s="25">
+        <v>91</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="I93" s="30" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B94" s="25">
+        <v>92</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B95" s="25">
+        <v>93</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B96" s="25">
+        <v>94</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="I96" s="30" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="25">
+        <v>95</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="I97" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="25">
+        <v>96</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="I98" s="30" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="25">
+        <v>97</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="25">
+        <v>98</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="I100" s="30" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="25">
+        <v>99</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="25">
+        <v>100</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="25">
+        <v>101</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="I103" s="30" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="25">
+        <v>102</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="I104" s="30" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="25">
+        <v>103</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="25">
+        <v>104</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="I106" s="30" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="25">
+        <v>105</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="25">
+        <v>106</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="25">
+        <v>107</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I109" s="30" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="25">
+        <v>108</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="I110" s="30" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="25">
+        <v>109</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I111" s="30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="25">
+        <v>110</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="I112" s="33" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="25">
+        <v>111</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="I113" s="33" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="25">
+        <v>112</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="25">
+        <v>113</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="25">
+        <v>114</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="I116" s="27" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C91" s="25">
-        <v>89</v>
-      </c>
-      <c r="D91" s="25" t="s">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="25">
+        <v>115</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="E91" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G91" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="J91" s="30" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="25">
-        <v>90</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="J92" s="30" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="25">
-        <v>91</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G93" s="25" t="s">
+      <c r="F117" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="I117" s="27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="25">
+        <v>116</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="I118" s="35" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="25">
+        <v>117</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="I119" s="30" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="25">
+        <v>118</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="I120" s="30" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="25">
+        <v>119</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B122" s="25">
+        <v>120</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="25">
+        <v>121</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B124" s="25">
+        <v>122</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="I124" s="33" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B125" s="25">
+        <v>123</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="I125" s="33" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B126" s="25">
+        <v>124</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="I126" s="30" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B127" s="25">
+        <v>125</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F127" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="J93" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="25">
-        <v>92</v>
-      </c>
-      <c r="D94" s="25" t="s">
+      <c r="I127" s="30" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="25">
+        <v>126</v>
+      </c>
+      <c r="C128" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E94" s="25" t="s">
+      <c r="D128" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="25">
-        <v>93</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="25">
-        <v>94</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G96" s="25" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="25">
-        <v>95</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" s="25" t="s">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="25">
+        <v>127</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="G97" s="25" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="25">
-        <v>96</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C99" s="25">
-        <v>97</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G99" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="J99" s="30" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C100" s="25">
-        <v>98</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F100" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G100" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="J100" s="30" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C101" s="25">
-        <v>99</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C102" s="25">
-        <v>100</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C103" s="25">
-        <v>101</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G103" s="25" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C104" s="25">
-        <v>102</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G104" s="25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C105" s="25">
-        <v>103</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G105" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C106" s="25">
-        <v>104</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G106" s="25" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C107" s="25">
-        <v>105</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C108" s="25">
-        <v>106</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C109" s="25">
-        <v>107</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G109" s="25" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C110" s="25">
-        <v>108</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F110" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G110" s="25" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C111" s="25">
-        <v>109</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F111" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C112" s="25">
-        <v>110</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="J112" s="30" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C113" s="25">
-        <v>111</v>
-      </c>
-      <c r="D113" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F113" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G113" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="J113" s="30" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C114" s="25">
-        <v>112</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C115" s="25">
-        <v>113</v>
-      </c>
-      <c r="D115" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E115" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C116" s="25">
-        <v>114</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G116" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="J116" s="27" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C117" s="25">
-        <v>115</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="E117" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G117" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="J117" s="27" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C118" s="25">
-        <v>116</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G118" s="25" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C119" s="25">
-        <v>117</v>
-      </c>
-      <c r="D119" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F119" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G119" s="25" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="120" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C120" s="25">
-        <v>118</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G120" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="J120" s="30" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="121" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C121" s="25">
-        <v>119</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E121" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C122" s="25">
-        <v>120</v>
-      </c>
-      <c r="D122" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C123" s="25">
-        <v>121</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C124" s="25">
-        <v>122</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G124" s="25" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="125" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C125" s="25">
-        <v>123</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E125" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G125" s="25" t="s">
+      <c r="F129" s="25" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="126" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C126" s="25">
-        <v>124</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G126" s="25" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="127" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C127" s="25">
-        <v>125</v>
-      </c>
-      <c r="D127" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F127" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="G127" s="25" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="128" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C128" s="25">
-        <v>126</v>
-      </c>
-      <c r="D128" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C129" s="25">
-        <v>127</v>
-      </c>
-      <c r="D129" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="G129" s="25" t="s">
+      <c r="I129" s="30" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="25">
+        <v>128</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F130" s="25" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="130" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C130" s="25">
-        <v>128</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F130" s="25" t="s">
-        <v>473</v>
       </c>
       <c r="G130" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="H130" s="25" t="s">
+      <c r="I130" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="25">
+        <v>129</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F131" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="J130" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C131" s="25">
-        <v>129</v>
-      </c>
-      <c r="D131" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F131" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="G131" s="25" t="s">
+      <c r="I131" s="34" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132" s="25">
+        <v>130</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="I132" s="30" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133" s="25">
+        <v>131</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="I133" s="30" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="25">
+        <v>132</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="I134" s="30" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="25">
+        <v>133</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="25">
+        <v>134</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D136" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="25">
+        <v>135</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="25">
+        <v>136</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="25">
+        <v>137</v>
+      </c>
+      <c r="C139" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="25">
+        <v>138</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F140" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="J131" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C132" s="25">
-        <v>130</v>
-      </c>
-      <c r="D132" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="J132" s="30" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="133" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C133" s="25">
-        <v>131</v>
-      </c>
-      <c r="D133" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E133" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F133" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="G133" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="J133" s="30" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="134" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C134" s="25">
-        <v>132</v>
-      </c>
-      <c r="D134" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" s="25" t="s">
+      <c r="I140" s="30" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141" s="25">
+        <v>139</v>
+      </c>
+      <c r="C141" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E141" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G134" s="25" t="s">
+      <c r="F141" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="J134" s="30" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="135" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C135" s="25">
-        <v>133</v>
-      </c>
-      <c r="D135" s="25" t="s">
+      <c r="I141" s="30" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B142" s="25">
+        <v>140</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="I142" s="30" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143" s="25">
+        <v>141</v>
+      </c>
+      <c r="C143" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E143" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="I143" s="33" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144" s="25">
+        <v>142</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="I144" s="30" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145" s="25">
+        <v>143</v>
+      </c>
+      <c r="C145" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E145" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="I145" s="30" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="25">
+        <v>144</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="I146" s="30" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147" s="25">
+        <v>145</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E147" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="I147" s="30" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="25">
+        <v>146</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E148" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="I148" s="35" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149" s="25">
+        <v>147</v>
+      </c>
+      <c r="C149" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E149" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="I149" s="30" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B150" s="25">
+        <v>148</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D150" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E150" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="I150" s="30" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B151" s="25">
+        <v>149</v>
+      </c>
+      <c r="C151" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D151" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E151" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="I151" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B152" s="25">
+        <v>150</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D152" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E152" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="I152" s="37" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B153" s="25">
+        <v>151</v>
+      </c>
+      <c r="C153" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D153" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B154" s="25">
+        <v>152</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" s="25">
+        <v>153</v>
+      </c>
+      <c r="C155" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D155" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E155" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F155" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="I155" s="30" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" s="25">
+        <v>154</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="I156" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" s="25">
+        <v>155</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="D157" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I157" s="30" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158" s="25">
+        <v>156</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="I158" s="30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159" s="25">
+        <v>157</v>
+      </c>
+      <c r="C159" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="D159" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E159" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="I159" s="30" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160" s="25">
+        <v>158</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E160" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="I160" s="30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B161" s="25">
+        <v>159</v>
+      </c>
+      <c r="C161" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D161" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B162" s="25">
+        <v>160</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D162" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B163" s="25">
+        <v>161</v>
+      </c>
+      <c r="C163" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D163" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E163" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F163" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="I163" s="30" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B164" s="25">
+        <v>162</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E164" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F164" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="I164" s="30" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B165" s="25">
+        <v>163</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="I165" s="30" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B166" s="25">
+        <v>164</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D166" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F166" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="I166" s="30" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B167" s="25">
+        <v>165</v>
+      </c>
+      <c r="C167" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D167" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E167" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="F167" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="I167" s="30" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B168" s="25">
+        <v>166</v>
+      </c>
+      <c r="C168" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="F168" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="I168" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" s="25">
+        <v>167</v>
+      </c>
+      <c r="C169" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B170" s="25">
+        <v>168</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D170" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E170" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F170" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="I170" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171" s="25">
+        <v>169</v>
+      </c>
+      <c r="C171" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D171" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F171" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="I171" s="30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B172" s="25">
+        <v>170</v>
+      </c>
+      <c r="C172" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E172" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F172" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="I172" s="33" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B173" s="25">
+        <v>171</v>
+      </c>
+      <c r="C173" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D173" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F173" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="I173" s="33" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B174" s="25">
+        <v>172</v>
+      </c>
+      <c r="C174" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B175" s="25">
+        <v>173</v>
+      </c>
+      <c r="C175" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D175" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B176" s="25">
+        <v>174</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D176" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B177" s="25">
+        <v>175</v>
+      </c>
+      <c r="C177" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="E135" s="25" t="s">
+      <c r="D177" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C136" s="25">
-        <v>134</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E136" s="25" t="s">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B178" s="25">
+        <v>176</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D178" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C137" s="25">
-        <v>135</v>
-      </c>
-      <c r="D137" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="E137" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C138" s="25">
-        <v>136</v>
-      </c>
-      <c r="D138" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C139" s="25">
-        <v>137</v>
-      </c>
-      <c r="D139" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E139" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C140" s="25">
-        <v>138</v>
-      </c>
-      <c r="D140" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G140" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="J140" s="30" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="141" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C141" s="25">
-        <v>139</v>
-      </c>
-      <c r="D141" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F141" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G141" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="J141" s="30" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="142" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C142" s="25">
-        <v>140</v>
-      </c>
-      <c r="D142" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F142" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G142" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="J142" s="30" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="143" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C143" s="25">
-        <v>141</v>
-      </c>
-      <c r="D143" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="E143" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F143" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G143" s="25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="144" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C144" s="25">
-        <v>142</v>
-      </c>
-      <c r="D144" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="E144" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F144" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G144" s="25" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="145" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C145" s="25">
-        <v>143</v>
-      </c>
-      <c r="D145" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="E145" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F145" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G145" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="J145" s="30" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="146" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C146" s="25">
-        <v>144</v>
-      </c>
-      <c r="D146" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="E146" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F146" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G146" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="J146" s="30" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="147" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C147" s="25">
-        <v>145</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E147" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F147" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G147" s="25" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="148" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C148" s="25">
-        <v>146</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="E148" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F148" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G148" s="25" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="149" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C149" s="25">
-        <v>147</v>
-      </c>
-      <c r="D149" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="E149" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F149" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G149" s="25" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="150" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C150" s="25">
-        <v>148</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="E150" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G150" s="25" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="151" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C151" s="25">
-        <v>149</v>
-      </c>
-      <c r="D151" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="E151" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F151" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G151" s="25" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="152" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C152" s="25">
-        <v>150</v>
-      </c>
-      <c r="D152" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F152" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G152" s="25" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="153" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C153" s="25">
-        <v>151</v>
-      </c>
-      <c r="D153" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E153" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C154" s="25">
-        <v>152</v>
-      </c>
-      <c r="D154" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E154" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C155" s="25">
-        <v>153</v>
-      </c>
-      <c r="D155" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="E155" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F155" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G155" s="25" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="156" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C156" s="25">
-        <v>154</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="E156" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F156" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G156" s="25" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="157" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C157" s="25">
-        <v>155</v>
-      </c>
-      <c r="D157" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="E157" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F157" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G157" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="158" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C158" s="25">
-        <v>156</v>
-      </c>
-      <c r="D158" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="E158" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F158" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G158" s="25" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="159" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C159" s="25">
-        <v>157</v>
-      </c>
-      <c r="D159" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="E159" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F159" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G159" s="25" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="160" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C160" s="25">
-        <v>158</v>
-      </c>
-      <c r="D160" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="E160" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F160" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G160" s="25" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="161" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C161" s="25">
-        <v>159</v>
-      </c>
-      <c r="D161" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E161" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C162" s="25">
-        <v>160</v>
-      </c>
-      <c r="D162" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E162" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C163" s="25">
-        <v>161</v>
-      </c>
-      <c r="D163" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="E163" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F163" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G163" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="J163" s="30" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="164" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C164" s="25">
-        <v>162</v>
-      </c>
-      <c r="D164" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="E164" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F164" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G164" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="J164" s="30" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="165" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C165" s="25">
-        <v>163</v>
-      </c>
-      <c r="D165" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="E165" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F165" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G165" s="25" t="s">
-        <v>521</v>
-      </c>
-      <c r="J165" s="30" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="166" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C166" s="25">
-        <v>164</v>
-      </c>
-      <c r="D166" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E166" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F166" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G166" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="J166" s="30" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="167" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C167" s="25">
-        <v>165</v>
-      </c>
-      <c r="D167" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E167" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F167" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="G167" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="J167" s="30" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="168" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C168" s="25">
-        <v>166</v>
-      </c>
-      <c r="D168" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E168" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F168" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="G168" s="25" t="s">
-        <v>527</v>
-      </c>
-      <c r="J168" s="30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="169" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C169" s="25">
-        <v>167</v>
-      </c>
-      <c r="D169" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E169" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F169" s="25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="170" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C170" s="25">
-        <v>168</v>
-      </c>
-      <c r="D170" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E170" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F170" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="G170" s="25" t="s">
-        <v>525</v>
-      </c>
-      <c r="J170" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="171" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C171" s="25">
-        <v>169</v>
-      </c>
-      <c r="D171" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E171" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F171" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="G171" s="25" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="172" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C172" s="25">
-        <v>170</v>
-      </c>
-      <c r="D172" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="E172" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F172" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G172" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="J172" s="30" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="173" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C173" s="25">
-        <v>171</v>
-      </c>
-      <c r="D173" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="E173" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F173" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G173" s="25" t="s">
-        <v>530</v>
-      </c>
-      <c r="J173" s="30" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="174" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C174" s="25">
-        <v>172</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C175" s="25">
-        <v>173</v>
-      </c>
-      <c r="D175" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E175" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C176" s="25">
-        <v>174</v>
-      </c>
-      <c r="D176" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F176" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C177" s="25">
-        <v>175</v>
-      </c>
-      <c r="D177" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="E177" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C178" s="25">
-        <v>176</v>
-      </c>
-      <c r="D178" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E178" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="C2:J178" xr:uid="{63FA898B-93F9-4BC6-B19A-0EACF522B65F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:J178">
-      <sortCondition ref="C2:C178"/>
+  <autoFilter ref="B2:I178" xr:uid="{63FA898B-93F9-4BC6-B19A-0EACF522B65F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I178">
+      <sortCondition ref="B2:B178"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B859C-F017-4B7D-B319-86780D85A763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CAB911-3FA8-442F-9BAC-4247304A506C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1450,10 +1450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JP11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PK0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2328,14 +2324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEBUG_JMS/SWDIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUG_JTCK/SWCLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEBUG_JTDI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2656,10 +2644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PED_LE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PMIC_nINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2688,14 +2672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USB_OTG_FS_VBUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_OTG_FS_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PWR_PERIPH_nEN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2709,6 +2685,30 @@
   </si>
   <si>
     <t>DEBUG_JTDO/TRACESWO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_TX/USB_OTG_FS_VBUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_RX/USB_OTG_FS_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG_JMS-SWDIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG_JTCK-SWCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_LE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJ11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2716,7 +2716,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2842,14 +2842,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -2860,6 +2852,22 @@
       <i/>
       <sz val="8"/>
       <color theme="5"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2933,7 +2941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3030,22 +3038,25 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3349,33 +3360,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4679,48 +4690,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="36" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
       <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
@@ -5552,8 +5563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
   <dimension ref="B2:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5592,10 +5603,10 @@
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -5609,16 +5620,16 @@
         <v>20</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>263</v>
       </c>
       <c r="L3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -5632,16 +5643,16 @@
         <v>20</v>
       </c>
       <c r="E4" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>401</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>402</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>262</v>
       </c>
       <c r="L4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -5655,16 +5666,16 @@
         <v>20</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>260</v>
       </c>
       <c r="L5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -5678,16 +5689,16 @@
         <v>20</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>261</v>
       </c>
       <c r="L6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -5701,16 +5712,16 @@
         <v>20</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="L7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -5735,7 +5746,7 @@
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -5749,7 +5760,7 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -5763,10 +5774,10 @@
         <v>20</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L11" t="s">
         <v>283</v>
@@ -5777,19 +5788,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="L12" t="s">
         <v>284</v>
@@ -5800,13 +5811,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>17</v>
@@ -5829,7 +5840,7 @@
         <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -5843,7 +5854,7 @@
         <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -5868,7 +5879,7 @@
         <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -5882,7 +5893,7 @@
         <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
@@ -5907,16 +5918,16 @@
         <v>20</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L20" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
@@ -5930,16 +5941,16 @@
         <v>20</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L21" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
@@ -5956,13 +5967,13 @@
         <v>109</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L22" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
@@ -5976,16 +5987,16 @@
         <v>20</v>
       </c>
       <c r="E23" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>408</v>
-      </c>
       <c r="I23" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L23" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
@@ -5999,16 +6010,16 @@
         <v>20</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L24" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
@@ -6022,16 +6033,16 @@
         <v>20</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L25" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -6045,7 +6056,7 @@
         <v>19</v>
       </c>
       <c r="L26" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
@@ -6070,16 +6081,16 @@
         <v>20</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L28" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
@@ -6093,16 +6104,16 @@
         <v>20</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L29" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
@@ -6116,16 +6127,16 @@
         <v>20</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L30" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
@@ -6139,16 +6150,16 @@
         <v>20</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L31" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
@@ -6162,16 +6173,16 @@
         <v>20</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L32" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
@@ -6194,7 +6205,7 @@
         <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
@@ -6217,7 +6228,7 @@
         <v>12</v>
       </c>
       <c r="L34" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
@@ -6237,7 +6248,7 @@
         <v>13</v>
       </c>
       <c r="L35" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
@@ -6251,16 +6262,16 @@
         <v>20</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L36" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
@@ -6274,16 +6285,16 @@
         <v>20</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L37" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
@@ -6294,19 +6305,19 @@
         <v>322</v>
       </c>
       <c r="D38" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>428</v>
-      </c>
       <c r="F38" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L38" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
@@ -6317,16 +6328,16 @@
         <v>323</v>
       </c>
       <c r="D39" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>428</v>
-      </c>
       <c r="F39" s="25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L39" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
@@ -6340,7 +6351,7 @@
         <v>19</v>
       </c>
       <c r="L40" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
@@ -6354,7 +6365,7 @@
         <v>19</v>
       </c>
       <c r="L41" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
@@ -6379,10 +6390,10 @@
         <v>20</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L43" t="s">
         <v>263</v>
@@ -6399,10 +6410,10 @@
         <v>20</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L44" t="s">
         <v>262</v>
@@ -6419,13 +6430,13 @@
         <v>20</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L45" t="s">
         <v>260</v>
@@ -6456,7 +6467,7 @@
         <v>19</v>
       </c>
       <c r="L47" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
@@ -6467,19 +6478,19 @@
         <v>26</v>
       </c>
       <c r="D48" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="E48" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>440</v>
-      </c>
       <c r="I48" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L48" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
@@ -6521,16 +6532,16 @@
         <v>20</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I51" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L51" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
@@ -6544,10 +6555,10 @@
         <v>20</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I52" s="30" t="s">
         <v>234</v>
@@ -6564,16 +6575,16 @@
         <v>20</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I53" s="30" t="s">
         <v>235</v>
       </c>
       <c r="L53" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
@@ -6587,16 +6598,16 @@
         <v>20</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I54" s="30" t="s">
         <v>236</v>
       </c>
       <c r="L54" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
@@ -6610,16 +6621,16 @@
         <v>20</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I55" s="30" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="L55" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
@@ -6633,16 +6644,16 @@
         <v>20</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I56" s="30" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="L56" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
@@ -6656,16 +6667,16 @@
         <v>20</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="L57" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
@@ -6679,13 +6690,13 @@
         <v>20</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L58" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
@@ -6699,13 +6710,13 @@
         <v>20</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L59" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
@@ -6719,16 +6730,16 @@
         <v>20</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I60" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L60" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
@@ -6742,16 +6753,16 @@
         <v>20</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I61" s="30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L61" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
@@ -6765,16 +6776,16 @@
         <v>20</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I62" s="30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L62" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
@@ -6788,16 +6799,16 @@
         <v>20</v>
       </c>
       <c r="E63" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F63" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="F63" s="25" t="s">
-        <v>457</v>
-      </c>
       <c r="I63" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L63" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
@@ -6811,16 +6822,16 @@
         <v>20</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I64" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
@@ -6834,13 +6845,13 @@
         <v>20</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I65" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
@@ -6854,7 +6865,7 @@
         <v>19</v>
       </c>
       <c r="L66" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
@@ -6868,7 +6879,7 @@
         <v>19</v>
       </c>
       <c r="L67" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
@@ -6882,16 +6893,16 @@
         <v>20</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I68" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L68" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
@@ -6905,13 +6916,13 @@
         <v>20</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
@@ -6925,16 +6936,16 @@
         <v>20</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I70" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L70" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
@@ -6948,16 +6959,16 @@
         <v>20</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I71" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L71" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
@@ -6971,7 +6982,7 @@
         <v>19</v>
       </c>
       <c r="L72" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
@@ -6985,7 +6996,7 @@
         <v>19</v>
       </c>
       <c r="L73" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
@@ -6999,13 +7010,13 @@
         <v>20</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
@@ -7019,16 +7030,16 @@
         <v>20</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L75" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
@@ -7042,16 +7053,16 @@
         <v>20</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L76" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.3">
@@ -7065,16 +7076,16 @@
         <v>20</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L77" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
@@ -7088,16 +7099,16 @@
         <v>20</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L78" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
@@ -7111,16 +7122,16 @@
         <v>20</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I79" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L79" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
@@ -7134,13 +7145,13 @@
         <v>20</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="I80" s="36" t="s">
-        <v>655</v>
+        <v>469</v>
+      </c>
+      <c r="I80" s="34" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.3">
@@ -7154,16 +7165,16 @@
         <v>20</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="I81" s="33" t="s">
-        <v>656</v>
+        <v>470</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>653</v>
       </c>
       <c r="L81" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.3">
@@ -7177,7 +7188,7 @@
         <v>19</v>
       </c>
       <c r="L82" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.3">
@@ -7191,7 +7202,7 @@
         <v>19</v>
       </c>
       <c r="L83" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
@@ -7205,7 +7216,7 @@
         <v>19</v>
       </c>
       <c r="L84" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
@@ -7230,7 +7241,7 @@
         <v>19</v>
       </c>
       <c r="L86" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
@@ -7244,16 +7255,16 @@
         <v>20</v>
       </c>
       <c r="E87" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F87" s="25" t="s">
-        <v>473</v>
-      </c>
       <c r="I87" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="L87" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.3">
@@ -7267,13 +7278,13 @@
         <v>20</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="I88" s="35" t="s">
-        <v>657</v>
+        <v>473</v>
+      </c>
+      <c r="I88" s="33" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
@@ -7287,16 +7298,16 @@
         <v>20</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I89" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L89" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
@@ -7310,16 +7321,16 @@
         <v>20</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I90" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L90" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.3">
@@ -7327,22 +7338,22 @@
         <v>89</v>
       </c>
       <c r="C91" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="D91" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>401</v>
-      </c>
       <c r="F91" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I91" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L91" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.3">
@@ -7356,16 +7367,16 @@
         <v>20</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I92" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L92" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
@@ -7379,13 +7390,13 @@
         <v>20</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I93" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.3">
@@ -7399,7 +7410,7 @@
         <v>19</v>
       </c>
       <c r="L94" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.3">
@@ -7424,13 +7435,13 @@
         <v>20</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I96" s="30" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.3">
@@ -7444,13 +7455,13 @@
         <v>20</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I97" s="30" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
@@ -7464,13 +7475,13 @@
         <v>20</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I98" s="30" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.3">
@@ -7484,13 +7495,13 @@
         <v>20</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I99" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
@@ -7504,13 +7515,13 @@
         <v>20</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I100" s="30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
@@ -7549,10 +7560,10 @@
         <v>109</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I103" s="30" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.3">
@@ -7569,10 +7580,10 @@
         <v>109</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I104" s="30" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.3">
@@ -7589,10 +7600,10 @@
         <v>109</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I105" s="30" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.3">
@@ -7600,7 +7611,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>357</v>
+        <v>674</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>20</v>
@@ -7609,10 +7620,10 @@
         <v>109</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I106" s="30" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
@@ -7642,7 +7653,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>20</v>
@@ -7651,10 +7662,10 @@
         <v>109</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I109" s="30" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.3">
@@ -7662,7 +7673,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>20</v>
@@ -7671,10 +7682,10 @@
         <v>109</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I110" s="30" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.3">
@@ -7682,7 +7693,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>20</v>
@@ -7691,7 +7702,7 @@
         <v>109</v>
       </c>
       <c r="I111" s="30" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.3">
@@ -7699,19 +7710,19 @@
         <v>110</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="I112" s="33" t="s">
-        <v>615</v>
+        <v>491</v>
+      </c>
+      <c r="I112" s="32" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.3">
@@ -7719,19 +7730,19 @@
         <v>111</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="I113" s="33" t="s">
-        <v>605</v>
+        <v>492</v>
+      </c>
+      <c r="I113" s="32" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.3">
@@ -7761,19 +7772,19 @@
         <v>114</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I116" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.3">
@@ -7781,19 +7792,19 @@
         <v>115</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I117" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.3">
@@ -7801,19 +7812,19 @@
         <v>116</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="I118" s="35" t="s">
-        <v>564</v>
+        <v>493</v>
+      </c>
+      <c r="I118" s="33" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
@@ -7821,19 +7832,19 @@
         <v>117</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I119" s="30" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.3">
@@ -7841,19 +7852,19 @@
         <v>118</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I120" s="30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.3">
@@ -7872,7 +7883,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>19</v>
@@ -7883,7 +7894,7 @@
         <v>121</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>19</v>
@@ -7894,19 +7905,19 @@
         <v>122</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="I124" s="33" t="s">
-        <v>653</v>
+        <v>496</v>
+      </c>
+      <c r="I124" s="32" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.3">
@@ -7914,19 +7925,19 @@
         <v>123</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="I125" s="33" t="s">
-        <v>654</v>
+        <v>497</v>
+      </c>
+      <c r="I125" s="32" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.3">
@@ -7934,19 +7945,19 @@
         <v>124</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.3">
@@ -7954,19 +7965,19 @@
         <v>125</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I127" s="30" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.3">
@@ -7991,13 +8002,13 @@
         <v>20</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I129" s="30" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.3">
@@ -8011,15 +8022,15 @@
         <v>20</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F130" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="G130" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="G130" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="I130" s="35" t="s">
+      <c r="I130" s="37" t="s">
         <v>669</v>
       </c>
     </row>
@@ -8034,12 +8045,12 @@
         <v>20</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I131" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="I131" s="38" t="s">
         <v>670</v>
       </c>
     </row>
@@ -8054,13 +8065,13 @@
         <v>20</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I132" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.3">
@@ -8074,13 +8085,13 @@
         <v>20</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I133" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.3">
@@ -8088,7 +8099,7 @@
         <v>132</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>20</v>
@@ -8097,10 +8108,10 @@
         <v>109</v>
       </c>
       <c r="F134" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I134" s="30" t="s">
-        <v>579</v>
+        <v>671</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.3">
@@ -8163,19 +8174,19 @@
         <v>138</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E140" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I140" s="30" t="s">
-        <v>580</v>
+        <v>672</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.3">
@@ -8183,19 +8194,19 @@
         <v>139</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E141" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I141" s="30" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.3">
@@ -8203,19 +8214,19 @@
         <v>140</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F142" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I142" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.3">
@@ -8223,19 +8234,19 @@
         <v>141</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F143" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="I143" s="33" t="s">
-        <v>651</v>
+        <v>506</v>
+      </c>
+      <c r="I143" s="32" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.3">
@@ -8243,19 +8254,19 @@
         <v>142</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F144" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I144" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.3">
@@ -8263,19 +8274,19 @@
         <v>143</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F145" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I145" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.3">
@@ -8283,19 +8294,19 @@
         <v>144</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I146" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.3">
@@ -8303,19 +8314,19 @@
         <v>145</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I147" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.3">
@@ -8323,19 +8334,19 @@
         <v>146</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="I148" s="35" t="s">
-        <v>570</v>
+        <v>511</v>
+      </c>
+      <c r="I148" s="33" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.3">
@@ -8343,19 +8354,19 @@
         <v>147</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I149" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.3">
@@ -8363,19 +8374,19 @@
         <v>148</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I150" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.3">
@@ -8383,19 +8394,19 @@
         <v>149</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I151" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.3">
@@ -8403,19 +8414,19 @@
         <v>150</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="I152" s="37" t="s">
-        <v>673</v>
+        <v>497</v>
+      </c>
+      <c r="I152" s="35" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.3">
@@ -8445,19 +8456,19 @@
         <v>153</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I155" s="30" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.3">
@@ -8465,19 +8476,19 @@
         <v>154</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I156" s="30" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.3">
@@ -8485,19 +8496,19 @@
         <v>155</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F157" s="25" t="s">
         <v>234</v>
       </c>
       <c r="I157" s="30" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.3">
@@ -8505,16 +8516,16 @@
         <v>156</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I158" s="30" t="s">
         <v>282</v>
@@ -8525,19 +8536,19 @@
         <v>157</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I159" s="30" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.3">
@@ -8545,16 +8556,16 @@
         <v>158</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I160" s="30" t="s">
         <v>284</v>
@@ -8587,19 +8598,19 @@
         <v>161</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I163" s="30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.3">
@@ -8607,19 +8618,19 @@
         <v>162</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E164" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F164" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I164" s="30" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.3">
@@ -8627,19 +8638,19 @@
         <v>163</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E165" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F165" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I165" s="30" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.3">
@@ -8650,16 +8661,16 @@
         <v>78</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E166" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F166" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I166" s="30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.3">
@@ -8670,16 +8681,16 @@
         <v>79</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F167" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I167" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.3">
@@ -8690,13 +8701,13 @@
         <v>81</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F168" s="25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I168" s="30" t="s">
         <v>233</v>
@@ -8713,7 +8724,7 @@
         <v>22</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.3">
@@ -8724,13 +8735,13 @@
         <v>101</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F170" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I170" s="30" t="s">
         <v>232</v>
@@ -8744,13 +8755,13 @@
         <v>108</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F171" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I171" s="30" t="s">
         <v>265</v>
@@ -8761,19 +8772,19 @@
         <v>170</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F172" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="I172" s="33" t="s">
-        <v>552</v>
+        <v>527</v>
+      </c>
+      <c r="I172" s="32" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.3">
@@ -8781,19 +8792,19 @@
         <v>171</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F173" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="I173" s="33" t="s">
-        <v>551</v>
+        <v>528</v>
+      </c>
+      <c r="I173" s="32" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.3">
@@ -8823,7 +8834,7 @@
         <v>174</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D176" s="25" t="s">
         <v>22</v>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CAB911-3FA8-442F-9BAC-4247304A506C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CB3619-B621-4302-A91D-88999750E278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="555" windowWidth="22920" windowHeight="13860" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="674">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2332,10 +2332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Un-assigned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IMU_SPI_SCLK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2680,22 +2676,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWR_xxx_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEBUG_JTDO/TRACESWO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USART1_TX/USB_OTG_FS_VBUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_RX/USB_OTG_FS_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEBUG_JMS-SWDIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2709,6 +2693,18 @@
   </si>
   <si>
     <t>PJ11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_MEM_EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2716,7 +2712,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2851,7 +2847,7 @@
     <font>
       <i/>
       <sz val="8"/>
-      <color theme="5"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2859,18 +2855,13 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2941,7 +2932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3047,17 +3038,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3345,7 +3339,7 @@
       <selection activeCell="B3" sqref="B3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
@@ -3359,34 +3353,34 @@
     <col min="10" max="11" width="21.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="2:12">
+      <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+    <row r="4" spans="2:12">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3398,7 +3392,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -3419,7 +3413,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -3442,7 +3436,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -3466,7 +3460,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -3490,7 +3484,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -3514,7 +3508,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -3538,7 +3532,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -3562,7 +3556,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -3586,7 +3580,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -3610,7 +3604,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -3636,7 +3630,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -3659,7 +3653,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -3682,7 +3676,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -3705,7 +3699,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -3728,7 +3722,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -3751,7 +3745,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -3779,7 +3773,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12">
       <c r="B21" s="5">
         <v>17</v>
       </c>
@@ -3807,7 +3801,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -3835,7 +3829,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -3863,7 +3857,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12">
       <c r="B24" s="5">
         <v>20</v>
       </c>
@@ -3889,7 +3883,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -3916,7 +3910,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -3943,7 +3937,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -3964,7 +3958,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -3988,7 +3982,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12">
       <c r="B29" s="5">
         <v>25</v>
       </c>
@@ -4016,7 +4010,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -4044,7 +4038,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -4072,7 +4066,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -4097,7 +4091,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -4125,7 +4119,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12">
       <c r="B34" s="5">
         <v>30</v>
       </c>
@@ -4153,7 +4147,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -4178,7 +4172,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -4206,7 +4200,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -4234,7 +4228,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12">
       <c r="B38" s="5">
         <v>34</v>
       </c>
@@ -4265,7 +4259,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -4289,7 +4283,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -4313,7 +4307,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -4342,7 +4336,7 @@
       </c>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -4370,7 +4364,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12">
       <c r="B43" s="5">
         <v>39</v>
       </c>
@@ -4395,7 +4389,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -4423,7 +4417,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12">
       <c r="B45" s="5">
         <v>41</v>
       </c>
@@ -4448,7 +4442,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12">
       <c r="B46" s="5">
         <v>42</v>
       </c>
@@ -4475,7 +4469,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12">
       <c r="B47" s="5">
         <v>43</v>
       </c>
@@ -4502,7 +4496,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12">
       <c r="B48" s="5">
         <v>44</v>
       </c>
@@ -4523,7 +4517,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10">
       <c r="B49" s="5">
         <v>45</v>
       </c>
@@ -4550,7 +4544,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="B50" s="5">
         <v>46</v>
       </c>
@@ -4577,7 +4571,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="B51" s="5">
         <v>47</v>
       </c>
@@ -4598,7 +4592,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="B52" s="5">
         <v>48</v>
       </c>
@@ -4619,7 +4613,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -4629,7 +4623,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="B54" s="3" t="s">
         <v>110</v>
       </c>
@@ -4641,7 +4635,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10">
       <c r="B55" s="3" t="s">
         <v>111</v>
       </c>
@@ -4676,7 +4670,7 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="2" bestFit="1" customWidth="1"/>
@@ -4689,54 +4683,54 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="2:13">
+      <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="35" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+    <row r="4" spans="2:13">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" s="10">
         <v>1</v>
       </c>
@@ -4752,7 +4746,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="B6" s="11">
         <v>2</v>
       </c>
@@ -4768,7 +4762,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -4791,7 +4785,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -4806,7 +4800,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -4829,7 +4823,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13">
       <c r="B10" s="12">
         <v>6</v>
       </c>
@@ -4845,7 +4839,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -4863,7 +4857,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -4886,7 +4880,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13">
       <c r="B13" s="12">
         <v>9</v>
       </c>
@@ -4902,7 +4896,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -4925,7 +4919,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -4945,7 +4939,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -4970,7 +4964,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -4992,7 +4986,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13">
       <c r="B18" s="12">
         <v>14</v>
       </c>
@@ -5008,7 +5002,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -5031,7 +5025,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -5054,7 +5048,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13">
       <c r="B21" s="10">
         <v>17</v>
       </c>
@@ -5070,7 +5064,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -5093,7 +5087,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -5115,7 +5109,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13">
       <c r="B24" s="12">
         <v>20</v>
       </c>
@@ -5131,7 +5125,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -5151,7 +5145,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -5174,7 +5168,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -5196,7 +5190,7 @@
       </c>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -5218,7 +5212,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13">
       <c r="B29" s="12">
         <v>25</v>
       </c>
@@ -5234,7 +5228,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -5254,7 +5248,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -5274,7 +5268,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -5294,7 +5288,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -5314,7 +5308,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13">
       <c r="B34" s="12">
         <v>30</v>
       </c>
@@ -5330,7 +5324,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -5350,7 +5344,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -5368,7 +5362,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -5388,7 +5382,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13">
       <c r="B38" s="12">
         <v>34</v>
       </c>
@@ -5404,7 +5398,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -5429,7 +5423,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -5451,7 +5445,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -5474,7 +5468,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -5499,7 +5493,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13">
       <c r="B43" s="12">
         <v>39</v>
       </c>
@@ -5515,7 +5509,7 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -5563,11 +5557,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
   <dimension ref="B2:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="25" bestFit="1" customWidth="1"/>
@@ -5579,10 +5573,10 @@
     <col min="8" max="8" width="9" style="30" customWidth="1"/>
     <col min="9" max="9" width="20.625" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.875" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
@@ -5605,11 +5599,9 @@
       <c r="I2" s="31" t="s">
         <v>564</v>
       </c>
-      <c r="L2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="25">
         <v>1</v>
       </c>
@@ -5628,11 +5620,11 @@
       <c r="I3" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="L3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L3" s="26" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="25">
         <v>2</v>
       </c>
@@ -5651,11 +5643,11 @@
       <c r="I4" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="L4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L4" s="26" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" s="25">
         <v>3</v>
       </c>
@@ -5674,11 +5666,11 @@
       <c r="I5" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="L5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L5" s="26" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="25">
         <v>4</v>
       </c>
@@ -5697,11 +5689,11 @@
       <c r="I6" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="L6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L6" s="26" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="25">
         <v>5</v>
       </c>
@@ -5718,13 +5710,13 @@
         <v>424</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="L7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="25">
         <v>6</v>
       </c>
@@ -5735,7 +5727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="B9" s="25">
         <v>7</v>
       </c>
@@ -5745,11 +5737,11 @@
       <c r="D9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="26" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="25">
         <v>8</v>
       </c>
@@ -5759,11 +5751,11 @@
       <c r="D10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L10" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="25">
         <v>9</v>
       </c>
@@ -5777,13 +5769,13 @@
         <v>400</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="L11" t="s">
+        <v>654</v>
+      </c>
+      <c r="L11" s="26" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12" s="25">
         <v>10</v>
       </c>
@@ -5800,13 +5792,13 @@
         <v>403</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>614</v>
-      </c>
-      <c r="L12" t="s">
+        <v>613</v>
+      </c>
+      <c r="L12" s="26" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13" s="25">
         <v>11</v>
       </c>
@@ -5826,7 +5818,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="B14" s="25">
         <v>12</v>
       </c>
@@ -5839,11 +5831,11 @@
       <c r="G14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L14" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L14" s="26" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="25">
         <v>13</v>
       </c>
@@ -5853,11 +5845,11 @@
       <c r="D15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L15" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="26" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="25">
         <v>14</v>
       </c>
@@ -5868,7 +5860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12">
       <c r="B17" s="25">
         <v>15</v>
       </c>
@@ -5878,11 +5870,11 @@
       <c r="D17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L17" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L17" s="26" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="25">
         <v>16</v>
       </c>
@@ -5892,11 +5884,11 @@
       <c r="D18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L18" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L18" s="26" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="25">
         <v>17</v>
       </c>
@@ -5907,7 +5899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12">
       <c r="B20" s="25">
         <v>18</v>
       </c>
@@ -5926,11 +5918,11 @@
       <c r="I20" s="30" t="s">
         <v>529</v>
       </c>
-      <c r="L20" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L20" s="26" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="25">
         <v>19</v>
       </c>
@@ -5949,11 +5941,11 @@
       <c r="I21" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="L21" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L21" s="26" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="25">
         <v>20</v>
       </c>
@@ -5972,11 +5964,11 @@
       <c r="I22" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="L22" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L22" s="26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="25">
         <v>21</v>
       </c>
@@ -5995,11 +5987,11 @@
       <c r="I23" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="L23" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L23" s="26" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="25">
         <v>22</v>
       </c>
@@ -6018,11 +6010,11 @@
       <c r="I24" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="L24" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L24" s="26" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" s="25">
         <v>23</v>
       </c>
@@ -6041,11 +6033,11 @@
       <c r="I25" s="30" t="s">
         <v>409</v>
       </c>
-      <c r="L25" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="26" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
       <c r="B26" s="25">
         <v>24</v>
       </c>
@@ -6055,11 +6047,11 @@
       <c r="D26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L26" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L26" s="26" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
       <c r="B27" s="25">
         <v>25</v>
       </c>
@@ -6070,7 +6062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12">
       <c r="B28" s="25">
         <v>26</v>
       </c>
@@ -6089,11 +6081,11 @@
       <c r="I28" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="L28" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="26" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
       <c r="B29" s="25">
         <v>27</v>
       </c>
@@ -6112,11 +6104,11 @@
       <c r="I29" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="L29" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L29" s="26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
       <c r="B30" s="25">
         <v>28</v>
       </c>
@@ -6135,11 +6127,11 @@
       <c r="I30" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="L30" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="26" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
       <c r="B31" s="25">
         <v>29</v>
       </c>
@@ -6158,11 +6150,11 @@
       <c r="I31" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="L31" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="26" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
       <c r="B32" s="25">
         <v>30</v>
       </c>
@@ -6181,11 +6173,11 @@
       <c r="I32" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="L32" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L32" s="26" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
       <c r="B33" s="25">
         <v>31</v>
       </c>
@@ -6204,11 +6196,11 @@
       <c r="I33" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L33" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L33" s="26" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
       <c r="B34" s="25">
         <v>32</v>
       </c>
@@ -6227,11 +6219,11 @@
       <c r="I34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="L34" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="26" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
       <c r="B35" s="25">
         <v>33</v>
       </c>
@@ -6247,11 +6239,11 @@
       <c r="I35" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L35" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L35" s="26" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
       <c r="B36" s="25">
         <v>34</v>
       </c>
@@ -6270,11 +6262,11 @@
       <c r="I36" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="L36" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L36" s="26" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
       <c r="B37" s="25">
         <v>35</v>
       </c>
@@ -6293,11 +6285,11 @@
       <c r="I37" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="L37" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L37" s="26" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
       <c r="B38" s="25">
         <v>36</v>
       </c>
@@ -6316,11 +6308,11 @@
       <c r="I38" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="L38" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L38" s="26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
       <c r="B39" s="25">
         <v>37</v>
       </c>
@@ -6336,11 +6328,11 @@
       <c r="F39" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="L39" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L39" s="26" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
       <c r="B40" s="25">
         <v>38</v>
       </c>
@@ -6350,11 +6342,11 @@
       <c r="D40" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L40" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L40" s="26" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
       <c r="B41" s="25">
         <v>39</v>
       </c>
@@ -6364,11 +6356,11 @@
       <c r="D41" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L41" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L41" s="26" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
       <c r="B42" s="25">
         <v>40</v>
       </c>
@@ -6379,7 +6371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12">
       <c r="B43" s="25">
         <v>41</v>
       </c>
@@ -6395,11 +6387,11 @@
       <c r="F43" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="26" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12">
       <c r="B44" s="25">
         <v>42</v>
       </c>
@@ -6415,11 +6407,11 @@
       <c r="F44" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="26" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12">
       <c r="B45" s="25">
         <v>43</v>
       </c>
@@ -6438,11 +6430,11 @@
       <c r="I45" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="26" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12">
       <c r="B46" s="25">
         <v>44</v>
       </c>
@@ -6452,11 +6444,11 @@
       <c r="D46" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="26" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12">
       <c r="B47" s="25">
         <v>45</v>
       </c>
@@ -6466,11 +6458,11 @@
       <c r="D47" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L47" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L47" s="26" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
       <c r="B48" s="25">
         <v>46</v>
       </c>
@@ -6489,11 +6481,11 @@
       <c r="I48" s="30" t="s">
         <v>566</v>
       </c>
-      <c r="L48" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L48" s="26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
       <c r="B49" s="25">
         <v>47</v>
       </c>
@@ -6503,11 +6495,11 @@
       <c r="D49" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="26" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12">
       <c r="B50" s="25">
         <v>48</v>
       </c>
@@ -6517,11 +6509,11 @@
       <c r="D50" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="26" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12">
       <c r="B51" s="25">
         <v>49</v>
       </c>
@@ -6540,11 +6532,11 @@
       <c r="I51" s="30" t="s">
         <v>567</v>
       </c>
-      <c r="L51" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="26" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
       <c r="B52" s="25">
         <v>50</v>
       </c>
@@ -6564,7 +6556,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12">
       <c r="B53" s="25">
         <v>51</v>
       </c>
@@ -6583,11 +6575,11 @@
       <c r="I53" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="L53" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="26" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
       <c r="B54" s="25">
         <v>52</v>
       </c>
@@ -6606,11 +6598,11 @@
       <c r="I54" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="L54" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L54" s="26" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
       <c r="B55" s="25">
         <v>53</v>
       </c>
@@ -6627,13 +6619,13 @@
         <v>444</v>
       </c>
       <c r="I55" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="L55" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="L55" s="26" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
       <c r="B56" s="25">
         <v>54</v>
       </c>
@@ -6650,13 +6642,13 @@
         <v>445</v>
       </c>
       <c r="I56" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="L56" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
       <c r="B57" s="25">
         <v>55</v>
       </c>
@@ -6673,13 +6665,13 @@
         <v>452</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="L57" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+      <c r="L57" s="26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
       <c r="B58" s="25">
         <v>56</v>
       </c>
@@ -6695,11 +6687,14 @@
       <c r="F58" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="L58" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I58" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
       <c r="B59" s="25">
         <v>57</v>
       </c>
@@ -6715,11 +6710,14 @@
       <c r="F59" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="L59" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I59" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="L59" s="26" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
       <c r="B60" s="25">
         <v>58</v>
       </c>
@@ -6738,11 +6736,11 @@
       <c r="I60" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="L60" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L60" s="26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
       <c r="B61" s="25">
         <v>59</v>
       </c>
@@ -6761,11 +6759,11 @@
       <c r="I61" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="L61" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L61" s="26" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
       <c r="B62" s="25">
         <v>60</v>
       </c>
@@ -6784,11 +6782,11 @@
       <c r="I62" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="L62" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L62" s="26" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
       <c r="B63" s="25">
         <v>61</v>
       </c>
@@ -6807,11 +6805,11 @@
       <c r="I63" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="L63" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="26" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
       <c r="B64" s="25">
         <v>62</v>
       </c>
@@ -6830,11 +6828,11 @@
       <c r="I64" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="L64" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="26" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
       <c r="B65" s="25">
         <v>63</v>
       </c>
@@ -6854,7 +6852,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12">
       <c r="B66" s="25">
         <v>64</v>
       </c>
@@ -6864,11 +6862,11 @@
       <c r="D66" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L66" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L66" s="26" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
       <c r="B67" s="25">
         <v>65</v>
       </c>
@@ -6878,11 +6876,11 @@
       <c r="D67" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L67" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L67" s="26" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12">
       <c r="B68" s="25">
         <v>66</v>
       </c>
@@ -6901,11 +6899,11 @@
       <c r="I68" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="L68" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="26" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
       <c r="B69" s="25">
         <v>67</v>
       </c>
@@ -6925,7 +6923,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12">
       <c r="B70" s="25">
         <v>68</v>
       </c>
@@ -6944,11 +6942,11 @@
       <c r="I70" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="L70" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12">
       <c r="B71" s="25">
         <v>69</v>
       </c>
@@ -6967,11 +6965,11 @@
       <c r="I71" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="L71" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
       <c r="B72" s="25">
         <v>70</v>
       </c>
@@ -6981,11 +6979,11 @@
       <c r="D72" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L72" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L72" s="26" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
       <c r="B73" s="25">
         <v>71</v>
       </c>
@@ -6995,11 +6993,11 @@
       <c r="D73" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L73" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="26" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
       <c r="B74" s="25">
         <v>72</v>
       </c>
@@ -7019,7 +7017,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12">
       <c r="B75" s="25">
         <v>73</v>
       </c>
@@ -7038,11 +7036,11 @@
       <c r="I75" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="L75" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="26" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
       <c r="B76" s="25">
         <v>74</v>
       </c>
@@ -7061,11 +7059,11 @@
       <c r="I76" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="L76" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L76" s="26" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
       <c r="B77" s="25">
         <v>75</v>
       </c>
@@ -7084,11 +7082,11 @@
       <c r="I77" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="L77" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
       <c r="B78" s="25">
         <v>76</v>
       </c>
@@ -7107,11 +7105,11 @@
       <c r="I78" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="L78" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L78" s="26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
       <c r="B79" s="25">
         <v>77</v>
       </c>
@@ -7130,11 +7128,11 @@
       <c r="I79" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="L79" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L79" s="26" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
       <c r="B80" s="25">
         <v>78</v>
       </c>
@@ -7151,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="I80" s="34" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
       <c r="B81" s="25">
         <v>79</v>
       </c>
@@ -7171,13 +7169,13 @@
         <v>470</v>
       </c>
       <c r="I81" s="32" t="s">
-        <v>653</v>
-      </c>
-      <c r="L81" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+      <c r="L81" s="26" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
       <c r="B82" s="25">
         <v>80</v>
       </c>
@@ -7187,11 +7185,11 @@
       <c r="D82" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L82" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L82" s="26" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
       <c r="B83" s="25">
         <v>81</v>
       </c>
@@ -7201,11 +7199,11 @@
       <c r="D83" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L83" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L83" s="26" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
       <c r="B84" s="25">
         <v>82</v>
       </c>
@@ -7215,11 +7213,11 @@
       <c r="D84" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L84" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="26" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
       <c r="B85" s="25">
         <v>83</v>
       </c>
@@ -7230,7 +7228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12">
       <c r="B86" s="25">
         <v>84</v>
       </c>
@@ -7240,11 +7238,11 @@
       <c r="D86" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L86" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="26" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
       <c r="B87" s="25">
         <v>85</v>
       </c>
@@ -7261,13 +7259,13 @@
         <v>472</v>
       </c>
       <c r="I87" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="L87" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+      <c r="L87" s="26" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
       <c r="B88" s="25">
         <v>86</v>
       </c>
@@ -7284,10 +7282,10 @@
         <v>473</v>
       </c>
       <c r="I88" s="33" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
       <c r="B89" s="25">
         <v>87</v>
       </c>
@@ -7306,11 +7304,11 @@
       <c r="I89" s="30" t="s">
         <v>570</v>
       </c>
-      <c r="L89" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L89" s="26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
       <c r="B90" s="25">
         <v>88</v>
       </c>
@@ -7329,11 +7327,11 @@
       <c r="I90" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="L90" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L90" s="26" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12">
       <c r="B91" s="25">
         <v>89</v>
       </c>
@@ -7352,11 +7350,11 @@
       <c r="I91" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="L91" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L91" s="26" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12">
       <c r="B92" s="25">
         <v>90</v>
       </c>
@@ -7375,11 +7373,11 @@
       <c r="I92" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="L92" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="26" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12">
       <c r="B93" s="25">
         <v>91</v>
       </c>
@@ -7399,7 +7397,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12">
       <c r="B94" s="25">
         <v>92</v>
       </c>
@@ -7409,11 +7407,11 @@
       <c r="D94" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L94" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L94" s="26" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
       <c r="B95" s="25">
         <v>93</v>
       </c>
@@ -7424,7 +7422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12">
       <c r="B96" s="25">
         <v>94</v>
       </c>
@@ -7441,10 +7439,10 @@
         <v>480</v>
       </c>
       <c r="I96" s="30" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" s="25">
         <v>95</v>
       </c>
@@ -7461,10 +7459,10 @@
         <v>481</v>
       </c>
       <c r="I97" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" s="25">
         <v>96</v>
       </c>
@@ -7481,10 +7479,10 @@
         <v>482</v>
       </c>
       <c r="I98" s="30" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" s="25">
         <v>97</v>
       </c>
@@ -7504,7 +7502,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9">
       <c r="B100" s="25">
         <v>98</v>
       </c>
@@ -7524,7 +7522,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9">
       <c r="B101" s="25">
         <v>99</v>
       </c>
@@ -7535,7 +7533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9">
       <c r="B102" s="25">
         <v>100</v>
       </c>
@@ -7546,7 +7544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9">
       <c r="B103" s="25">
         <v>101</v>
       </c>
@@ -7563,10 +7561,10 @@
         <v>485</v>
       </c>
       <c r="I103" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" s="25">
         <v>102</v>
       </c>
@@ -7583,10 +7581,10 @@
         <v>486</v>
       </c>
       <c r="I104" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
       <c r="B105" s="25">
         <v>103</v>
       </c>
@@ -7603,15 +7601,15 @@
         <v>487</v>
       </c>
       <c r="I105" s="30" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
       <c r="B106" s="25">
         <v>104</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>20</v>
@@ -7623,10 +7621,10 @@
         <v>488</v>
       </c>
       <c r="I106" s="30" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107" s="25">
         <v>105</v>
       </c>
@@ -7637,7 +7635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9">
       <c r="B108" s="25">
         <v>106</v>
       </c>
@@ -7648,7 +7646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9">
       <c r="B109" s="25">
         <v>107</v>
       </c>
@@ -7665,10 +7663,10 @@
         <v>489</v>
       </c>
       <c r="I109" s="30" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
       <c r="B110" s="25">
         <v>108</v>
       </c>
@@ -7685,10 +7683,10 @@
         <v>490</v>
       </c>
       <c r="I110" s="30" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
       <c r="B111" s="25">
         <v>109</v>
       </c>
@@ -7702,10 +7700,10 @@
         <v>109</v>
       </c>
       <c r="I111" s="30" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
       <c r="B112" s="25">
         <v>110</v>
       </c>
@@ -7722,10 +7720,10 @@
         <v>491</v>
       </c>
       <c r="I112" s="32" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
       <c r="B113" s="25">
         <v>111</v>
       </c>
@@ -7741,11 +7739,9 @@
       <c r="F113" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="I113" s="32" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I113" s="32"/>
+    </row>
+    <row r="114" spans="2:9">
       <c r="B114" s="25">
         <v>112</v>
       </c>
@@ -7756,7 +7752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9">
       <c r="B115" s="25">
         <v>113</v>
       </c>
@@ -7767,7 +7763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9">
       <c r="B116" s="25">
         <v>114</v>
       </c>
@@ -7787,7 +7783,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9">
       <c r="B117" s="25">
         <v>115</v>
       </c>
@@ -7807,7 +7803,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9">
       <c r="B118" s="25">
         <v>116</v>
       </c>
@@ -7827,7 +7823,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9">
       <c r="B119" s="25">
         <v>117</v>
       </c>
@@ -7844,10 +7840,10 @@
         <v>494</v>
       </c>
       <c r="I119" s="30" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
       <c r="B120" s="25">
         <v>118</v>
       </c>
@@ -7867,7 +7863,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9">
       <c r="B121" s="25">
         <v>119</v>
       </c>
@@ -7878,7 +7874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9">
       <c r="B122" s="25">
         <v>120</v>
       </c>
@@ -7889,7 +7885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9">
       <c r="B123" s="25">
         <v>121</v>
       </c>
@@ -7900,7 +7896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9">
       <c r="B124" s="25">
         <v>122</v>
       </c>
@@ -7917,10 +7913,10 @@
         <v>496</v>
       </c>
       <c r="I124" s="32" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
       <c r="B125" s="25">
         <v>123</v>
       </c>
@@ -7937,10 +7933,10 @@
         <v>497</v>
       </c>
       <c r="I125" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
       <c r="B126" s="25">
         <v>124</v>
       </c>
@@ -7957,10 +7953,10 @@
         <v>554</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
       <c r="B127" s="25">
         <v>125</v>
       </c>
@@ -7977,10 +7973,10 @@
         <v>479</v>
       </c>
       <c r="I127" s="30" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9">
       <c r="B128" s="25">
         <v>126</v>
       </c>
@@ -7991,7 +7987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9">
       <c r="B129" s="25">
         <v>127</v>
       </c>
@@ -8008,10 +8004,10 @@
         <v>498</v>
       </c>
       <c r="I129" s="30" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
       <c r="B130" s="25">
         <v>128</v>
       </c>
@@ -8030,11 +8026,11 @@
       <c r="G130" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="I130" s="37" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I130" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9">
       <c r="B131" s="25">
         <v>129</v>
       </c>
@@ -8050,11 +8046,11 @@
       <c r="F131" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="I131" s="38" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I131" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9">
       <c r="B132" s="25">
         <v>130</v>
       </c>
@@ -8074,7 +8070,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9">
       <c r="B133" s="25">
         <v>131</v>
       </c>
@@ -8094,7 +8090,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9">
       <c r="B134" s="25">
         <v>132</v>
       </c>
@@ -8111,10 +8107,10 @@
         <v>503</v>
       </c>
       <c r="I134" s="30" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
       <c r="B135" s="25">
         <v>133</v>
       </c>
@@ -8125,7 +8121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9">
       <c r="B136" s="25">
         <v>134</v>
       </c>
@@ -8136,7 +8132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9">
       <c r="B137" s="25">
         <v>135</v>
       </c>
@@ -8147,7 +8143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9">
       <c r="B138" s="25">
         <v>136</v>
       </c>
@@ -8158,7 +8154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9">
       <c r="B139" s="25">
         <v>137</v>
       </c>
@@ -8169,7 +8165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9">
       <c r="B140" s="25">
         <v>138</v>
       </c>
@@ -8186,10 +8182,10 @@
         <v>502</v>
       </c>
       <c r="I140" s="30" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
       <c r="B141" s="25">
         <v>139</v>
       </c>
@@ -8209,7 +8205,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9">
       <c r="B142" s="25">
         <v>140</v>
       </c>
@@ -8229,7 +8225,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9">
       <c r="B143" s="25">
         <v>141</v>
       </c>
@@ -8246,10 +8242,10 @@
         <v>506</v>
       </c>
       <c r="I143" s="32" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
       <c r="B144" s="25">
         <v>142</v>
       </c>
@@ -8266,10 +8262,10 @@
         <v>507</v>
       </c>
       <c r="I144" s="30" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
       <c r="B145" s="25">
         <v>143</v>
       </c>
@@ -8289,7 +8285,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9">
       <c r="B146" s="25">
         <v>144</v>
       </c>
@@ -8309,7 +8305,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9">
       <c r="B147" s="25">
         <v>145</v>
       </c>
@@ -8326,10 +8322,10 @@
         <v>510</v>
       </c>
       <c r="I147" s="30" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
       <c r="B148" s="25">
         <v>146</v>
       </c>
@@ -8349,7 +8345,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9">
       <c r="B149" s="25">
         <v>147</v>
       </c>
@@ -8366,10 +8362,10 @@
         <v>512</v>
       </c>
       <c r="I149" s="30" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9">
       <c r="B150" s="25">
         <v>148</v>
       </c>
@@ -8386,10 +8382,10 @@
         <v>555</v>
       </c>
       <c r="I150" s="30" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9">
       <c r="B151" s="25">
         <v>149</v>
       </c>
@@ -8406,10 +8402,10 @@
         <v>496</v>
       </c>
       <c r="I151" s="30" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
       <c r="B152" s="25">
         <v>150</v>
       </c>
@@ -8425,11 +8421,11 @@
       <c r="F152" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="I152" s="35" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I152" s="36" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9">
       <c r="B153" s="25">
         <v>151</v>
       </c>
@@ -8440,7 +8436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9">
       <c r="B154" s="25">
         <v>152</v>
       </c>
@@ -8451,7 +8447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:9">
       <c r="B155" s="25">
         <v>153</v>
       </c>
@@ -8468,10 +8464,10 @@
         <v>556</v>
       </c>
       <c r="I155" s="30" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9">
       <c r="B156" s="25">
         <v>154</v>
       </c>
@@ -8488,10 +8484,10 @@
         <v>513</v>
       </c>
       <c r="I156" s="30" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9">
       <c r="B157" s="25">
         <v>155</v>
       </c>
@@ -8508,10 +8504,10 @@
         <v>234</v>
       </c>
       <c r="I157" s="30" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9">
       <c r="B158" s="25">
         <v>156</v>
       </c>
@@ -8531,7 +8527,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9">
       <c r="B159" s="25">
         <v>157</v>
       </c>
@@ -8548,10 +8544,10 @@
         <v>515</v>
       </c>
       <c r="I159" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9">
       <c r="B160" s="25">
         <v>158</v>
       </c>
@@ -8571,7 +8567,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9">
       <c r="B161" s="25">
         <v>159</v>
       </c>
@@ -8582,7 +8578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9">
       <c r="B162" s="25">
         <v>160</v>
       </c>
@@ -8593,7 +8589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9">
       <c r="B163" s="25">
         <v>161</v>
       </c>
@@ -8613,7 +8609,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9">
       <c r="B164" s="25">
         <v>162</v>
       </c>
@@ -8630,10 +8626,10 @@
         <v>518</v>
       </c>
       <c r="I164" s="30" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9">
       <c r="B165" s="25">
         <v>163</v>
       </c>
@@ -8653,7 +8649,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9">
       <c r="B166" s="25">
         <v>164</v>
       </c>
@@ -8673,7 +8669,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9">
       <c r="B167" s="25">
         <v>165</v>
       </c>
@@ -8693,7 +8689,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9">
       <c r="B168" s="25">
         <v>166</v>
       </c>
@@ -8713,7 +8709,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9">
       <c r="B169" s="25">
         <v>167</v>
       </c>
@@ -8727,7 +8723,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9">
       <c r="B170" s="25">
         <v>168</v>
       </c>
@@ -8747,7 +8743,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9">
       <c r="B171" s="25">
         <v>169</v>
       </c>
@@ -8767,7 +8763,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9">
       <c r="B172" s="25">
         <v>170</v>
       </c>
@@ -8787,7 +8783,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:9">
       <c r="B173" s="25">
         <v>171</v>
       </c>
@@ -8807,7 +8803,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:9">
       <c r="B174" s="25">
         <v>172</v>
       </c>
@@ -8818,7 +8814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:9">
       <c r="B175" s="25">
         <v>173</v>
       </c>
@@ -8829,7 +8825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:9">
       <c r="B176" s="25">
         <v>174</v>
       </c>
@@ -8843,7 +8839,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4">
       <c r="B177" s="25">
         <v>175</v>
       </c>
@@ -8854,7 +8850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:4">
       <c r="B178" s="25">
         <v>176</v>
       </c>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CAB911-3FA8-442F-9BAC-4247304A506C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D6B519-BF9A-454E-A193-7CCAAA7E70A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="STM32H745IIT_LQFP176" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">STM32H745IIT_LQFP176!$B$2:$I$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">STM32H745IIT_LQFP176!$B$2:$J$178</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">STM32F103xx_LQFP48!$B$3:$I$55</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="678">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2709,6 +2709,18 @@
   </si>
   <si>
     <t>PJ11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re-assigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_OTG_FS_VBUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAKEUP0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2716,7 +2728,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2873,6 +2885,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2941,7 +2963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3050,14 +3072,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3360,33 +3388,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4690,48 +4718,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="40" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
       <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
@@ -5561,10 +5589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
-  <dimension ref="B2:L178"/>
+  <dimension ref="B2:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5578,11 +5606,12 @@
     <col min="7" max="7" width="20.125" style="25" customWidth="1"/>
     <col min="8" max="8" width="9" style="30" customWidth="1"/>
     <col min="9" max="9" width="20.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
@@ -5605,360 +5634,501 @@
       <c r="I2" s="31" t="s">
         <v>564</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="M2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="25">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="M3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="25">
+        <v>138</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="M4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="25">
+        <v>139</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="M5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="25">
+        <v>162</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="M6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="25">
+        <v>163</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="M7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="25">
+        <v>104</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="25">
+        <v>117</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="L3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="25">
-        <v>2</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="F9" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="M9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="25">
+        <v>94</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="L4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="25">
-        <v>3</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="L5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="25">
-        <v>4</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="L6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="25">
-        <v>5</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="L7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="25">
-        <v>6</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="25">
-        <v>7</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="25">
-        <v>8</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="F10" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>605</v>
+      </c>
+      <c r="M10" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>400</v>
+        <v>454</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>481</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="L11" t="s">
+        <v>603</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="M11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>403</v>
+        <v>454</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>482</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>614</v>
-      </c>
-      <c r="L12" t="s">
+        <v>601</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="M12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>20</v>
+        <v>438</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>17</v>
+      <c r="F13" s="25" t="s">
+        <v>510</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
+        <v>438</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="M14" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="25">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>301</v>
+        <v>384</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
+        <v>438</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="M15" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="25">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>303</v>
+        <v>385</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="M17" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>602</v>
+      </c>
+      <c r="M18" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>418</v>
+        <v>554</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="L20" t="s">
+        <v>657</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="M20" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="25">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>402</v>
+        <v>109</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="L21" t="s">
+        <v>605</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="M21" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="25">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>20</v>
@@ -5967,115 +6137,151 @@
         <v>109</v>
       </c>
       <c r="F22" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>604</v>
+      </c>
+      <c r="M22" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="25">
+        <v>18</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="M23" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="25">
+        <v>19</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="M24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="25">
+        <v>63</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="M25" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
+        <v>66</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="M26" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="25">
+        <v>20</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I27" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="L22" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="25">
+      <c r="J27" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="25">
         <v>21</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C28" s="25" t="s">
         <v>310</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="L23" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="25">
-        <v>22</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>413</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="L24" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="25">
-        <v>23</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="L25" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="25">
-        <v>24</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="25">
-        <v>25</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="25">
-        <v>26</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>317</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>20</v>
@@ -6084,21 +6290,24 @@
         <v>406</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>559</v>
-      </c>
-      <c r="L28" t="s">
+        <v>407</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="M28" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>20</v>
@@ -6107,21 +6316,24 @@
         <v>406</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="L29" t="s">
+        <v>413</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="M29" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="25">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>20</v>
@@ -6130,21 +6342,24 @@
         <v>406</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="L30" t="s">
+        <v>414</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M30" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="25">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>20</v>
@@ -6153,21 +6368,24 @@
         <v>406</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="L31" t="s">
+        <v>448</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="M31" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="25">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>20</v>
@@ -6176,555 +6394,720 @@
         <v>406</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="L32" t="s">
+        <v>447</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="M32" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="25">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="M33" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="25">
+        <v>62</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="M34" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="25">
+        <v>114</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="M35" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="25">
+        <v>115</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="M36" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="25">
+        <v>97</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="M37" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="25">
+        <v>98</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="M38" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="25">
+        <v>75</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="M39" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="25">
+        <v>76</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="M40" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="25">
+        <v>77</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="J41" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="M41" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="25">
+        <v>89</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="J42" s="30" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="25">
+        <v>90</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="J43" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="M43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="25">
+        <v>91</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="M44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="25">
+        <v>143</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="M45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="25">
+        <v>144</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="M46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="25">
+        <v>67</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="M47" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="25">
+        <v>68</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="J48" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="M48" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="25">
+        <v>69</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="M49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="25">
+        <v>72</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="M50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="25">
+        <v>73</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="J51" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="M51" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="25">
+        <v>74</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="J52" s="30" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B53" s="25">
+        <v>170</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="J53" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="M53" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="25">
+        <v>171</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="J54" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="M54" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B55" s="25">
+        <v>164</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E55" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="25">
-        <v>32</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="25">
-        <v>33</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="25">
+      <c r="F55" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="M55" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B56" s="25">
+        <v>118</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="J56" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="M56" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="25">
+        <v>161</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="J57" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="M57" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B58" s="25">
+        <v>165</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="J58" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="M58" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B59" s="25">
+        <v>58</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="J59" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="M59" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="25">
         <v>34</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C60" s="25" t="s">
         <v>320</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="L36" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="25">
-        <v>35</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="I37" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="L37" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="25">
-        <v>36</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="L38" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="25">
-        <v>37</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="L39" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="25">
-        <v>38</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L40" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="25">
-        <v>39</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="25">
-        <v>40</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="25">
-        <v>41</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="L43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="25">
-        <v>42</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="L44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="25">
-        <v>43</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="I45" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="L45" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="25">
-        <v>44</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L46" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="25">
-        <v>45</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="25">
-        <v>46</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="I48" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="L48" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="25">
-        <v>47</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="25">
-        <v>48</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L50" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="25">
-        <v>49</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="L51" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="25">
-        <v>50</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="I52" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="25">
-        <v>51</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="I53" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="L53" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="25">
-        <v>52</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="I54" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="L54" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="25">
-        <v>53</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="I55" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="L55" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="25">
-        <v>54</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="I56" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="L56" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="25">
-        <v>55</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="I57" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="L57" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="25">
-        <v>56</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="L58" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="25">
-        <v>57</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="L59" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="25">
-        <v>58</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>329</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>20</v>
@@ -6733,321 +7116,402 @@
         <v>428</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="I60" s="30" t="s">
-        <v>533</v>
-      </c>
-      <c r="L60" t="s">
+        <v>532</v>
+      </c>
+      <c r="J60" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="M60" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="25">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>330</v>
+        <v>101</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>20</v>
+        <v>438</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
       <c r="I61" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="L61" t="s">
+        <v>232</v>
+      </c>
+      <c r="J61" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M61" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="25">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>20</v>
+        <v>438</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>406</v>
+        <v>522</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="I62" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="L62" t="s">
+        <v>233</v>
+      </c>
+      <c r="J62" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M62" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="25">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="I63" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="L63" t="s">
+        <v>469</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="M63" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="25">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="I64" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="L64" t="s">
+        <v>470</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="J64" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="M64" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="25">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>20</v>
+        <v>438</v>
       </c>
       <c r="E65" s="25" t="s">
         <v>400</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="I65" s="30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="J65" s="30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="25">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L66" t="s">
+        <v>438</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="J66" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M66" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="25">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L67" t="s">
+        <v>438</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="I67" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="J67" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="M67" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="25">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="I68" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="L68" t="s">
+        <v>423</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M68" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="25">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="I69" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="I69" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="25">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>461</v>
+        <v>400</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>403</v>
       </c>
       <c r="I70" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="L70" t="s">
+        <v>614</v>
+      </c>
+      <c r="J70" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="M70" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>338</v>
+        <v>405</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>462</v>
+        <v>400</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="I71" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="L71" t="s">
+        <v>264</v>
+      </c>
+      <c r="J71" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="M71" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="25">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L72" t="s">
+        <v>438</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="I72" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J72" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="M72" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="25">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="I73" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="M73" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="25">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>339</v>
+        <v>8</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>463</v>
+        <v>400</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+      <c r="J74" s="30" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="25">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="I75" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="L75" t="s">
+        <v>401</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="M75" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="25">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>20</v>
@@ -7056,661 +7520,868 @@
         <v>400</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="I76" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="L76" t="s">
+        <v>422</v>
+      </c>
+      <c r="I76" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M76" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="25">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>342</v>
+        <v>13</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I77" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="M77" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B78" s="25">
+        <v>31</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B79" s="25">
+        <v>32</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B80" s="25">
+        <v>142</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E80" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="F77" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="I77" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="L77" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="25">
-        <v>76</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="25" t="s">
+      <c r="F80" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="I80" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="J80" s="30" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81" s="25">
+        <v>111</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="F78" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="I78" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="L78" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="25">
-        <v>77</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="25" t="s">
+      <c r="F81" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="J81" s="36" t="s">
+        <v>659</v>
+      </c>
+      <c r="M81" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B82" s="25">
+        <v>109</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="J82" s="38" t="s">
+        <v>662</v>
+      </c>
+      <c r="M82" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B83" s="25">
+        <v>107</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="I83" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="J83" s="36" t="s">
+        <v>660</v>
+      </c>
+      <c r="M83" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B84" s="25">
+        <v>108</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I84" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="J84" s="38" t="s">
+        <v>661</v>
+      </c>
+      <c r="M84" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B85" s="25">
+        <v>153</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E85" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="F79" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="I79" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="L79" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="25">
-        <v>78</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="I80" s="34" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="25">
-        <v>79</v>
-      </c>
-      <c r="C81" s="25" t="s">
+      <c r="F85" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="I85" s="30" t="s">
+        <v>637</v>
+      </c>
+      <c r="J85" s="30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B86" s="25">
+        <v>55</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I86" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="J86" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="M86" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B87" s="25">
+        <v>155</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I87" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="J87" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="M87" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B88" s="25">
+        <v>154</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="I88" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="J88" s="30" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B89" s="25">
+        <v>110</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="I89" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="J89" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="M89" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B90" s="25">
+        <v>28</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="I90" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="J90" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="M90" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B91" s="25">
+        <v>29</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="I91" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="J91" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="M91" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B92" s="25">
+        <v>27</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="I92" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="J92" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="M92" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B93" s="25">
+        <v>26</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="I93" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="J93" s="26" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B94" s="25">
+        <v>116</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="I94" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="J94" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="M94" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B95" s="25">
+        <v>30</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="I95" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="J95" s="26" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B96" s="25">
+        <v>51</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="I96" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J96" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="25">
+        <v>52</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="I97" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J97" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="25">
         <v>49</v>
       </c>
-      <c r="D81" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="I81" s="32" t="s">
-        <v>653</v>
-      </c>
-      <c r="L81" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="25">
-        <v>80</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L82" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="25">
-        <v>81</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L83" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="25">
-        <v>82</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L84" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="25">
-        <v>83</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B86" s="25">
-        <v>84</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L86" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B87" s="25">
-        <v>85</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" s="25" t="s">
+      <c r="C98" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="I98" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="J98" s="30" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="25">
+        <v>50</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J99" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="25">
+        <v>36</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I100" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="J100" s="30" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="25">
+        <v>35</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="I101" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="J101" s="30" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="25">
+        <v>53</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="I102" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="J102" s="30" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="25">
+        <v>54</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="I103" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="J103" s="30" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="25">
+        <v>146</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="I104" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="J104" s="33" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="25">
+        <v>129</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="F87" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="I87" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="L87" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B88" s="25">
-        <v>86</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="25" t="s">
+      <c r="F105" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="I105" s="37" t="s">
+        <v>670</v>
+      </c>
+      <c r="J105" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="25">
+        <v>128</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="F88" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="I88" s="33" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B89" s="25">
-        <v>87</v>
-      </c>
-      <c r="C89" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="F89" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="I89" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="L89" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B90" s="25">
-        <v>88</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="I90" s="30" t="s">
-        <v>571</v>
-      </c>
-      <c r="L90" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B91" s="25">
-        <v>89</v>
-      </c>
-      <c r="C91" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="25" t="s">
+      <c r="F106" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="I106" s="36" t="s">
+        <v>669</v>
+      </c>
+      <c r="J106" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B107" s="25">
+        <v>46</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="I107" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="J107" s="30" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B108" s="25">
+        <v>43</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="I108" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="J108" s="30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B109" s="25">
+        <v>141</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E109" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="F91" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="I91" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="L91" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="25">
-        <v>90</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" s="25" t="s">
+      <c r="F109" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="I109" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="J109" s="32" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B110" s="25">
+        <v>140</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="I110" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="J110" s="30" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B111" s="25">
+        <v>123</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="F92" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="I92" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="L92" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="25">
-        <v>91</v>
-      </c>
-      <c r="C93" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="I93" s="30" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="25">
-        <v>92</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L94" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B95" s="25">
-        <v>93</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B96" s="25">
-        <v>94</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="I96" s="30" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B97" s="25">
-        <v>95</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="F97" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="I97" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B98" s="25">
-        <v>96</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="I98" s="30" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B99" s="25">
-        <v>97</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="I99" s="30" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="25">
-        <v>98</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F100" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="I100" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" s="25">
-        <v>99</v>
-      </c>
-      <c r="C101" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B102" s="25">
-        <v>100</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B103" s="25">
-        <v>101</v>
-      </c>
-      <c r="C103" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F103" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="I103" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B104" s="25">
-        <v>102</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="I104" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B105" s="25">
-        <v>103</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F105" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="I105" s="30" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B106" s="25">
-        <v>104</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>674</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="I106" s="30" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="25">
-        <v>105</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="25">
-        <v>106</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B109" s="25">
-        <v>107</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F109" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="I109" s="30" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B110" s="25">
-        <v>108</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F110" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="I110" s="30" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B111" s="25">
-        <v>109</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I111" s="30" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F111" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="I111" s="32" t="s">
+        <v>651</v>
+      </c>
+      <c r="J111" s="32" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="25">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>20</v>
@@ -7719,437 +8390,424 @@
         <v>400</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="I112" s="32" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+      <c r="J112" s="32" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="25">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="I113" s="32" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="I113" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="J113" s="30" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="25">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="D114" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="I114" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="J114" s="30" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B115" s="25">
+        <v>56</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="J115" s="36" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B116" s="25">
+        <v>87</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="I116" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="J116" s="30" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B117" s="25">
+        <v>88</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="I117" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="J117" s="30" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B118" s="25">
+        <v>127</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="I118" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="J118" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="M118" s="30"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B119" s="25">
+        <v>85</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="I119" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="J119" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="M119" s="30"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B120" s="25">
+        <v>86</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="I120" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="J120" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="M120" s="30"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B121" s="25">
+        <v>41</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="J121" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="M121" s="30"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B122" s="25">
+        <v>167</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="M122" s="35"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B123" s="25">
+        <v>42</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B124" s="25">
+        <v>57</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B125" s="25">
+        <v>37</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B126" s="25">
+        <v>174</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B127" s="25">
+        <v>8</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D127" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" s="25">
-        <v>113</v>
-      </c>
-      <c r="C115" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D115" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B116" s="25">
-        <v>114</v>
-      </c>
-      <c r="C116" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>557</v>
-      </c>
-      <c r="I116" s="27" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B117" s="25">
-        <v>115</v>
-      </c>
-      <c r="C117" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E117" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F117" s="25" t="s">
-        <v>558</v>
-      </c>
-      <c r="I117" s="27" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B118" s="25">
-        <v>116</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="I118" s="33" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B119" s="25">
-        <v>117</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="D119" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F119" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="I119" s="30" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B120" s="25">
-        <v>118</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="I120" s="30" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B121" s="25">
-        <v>119</v>
-      </c>
-      <c r="C121" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B122" s="25">
-        <v>120</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="D122" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B123" s="25">
-        <v>121</v>
-      </c>
-      <c r="C123" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B124" s="25">
-        <v>122</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="I124" s="32" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B125" s="25">
-        <v>123</v>
-      </c>
-      <c r="C125" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E125" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F125" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="I125" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B126" s="25">
-        <v>124</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>554</v>
-      </c>
-      <c r="I126" s="30" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="25">
-        <v>125</v>
-      </c>
-      <c r="C127" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="D127" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="F127" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="I127" s="30" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="25">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="25">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="F129" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="I129" s="30" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="25">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>64</v>
+        <v>345</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="F130" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="G130" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="I130" s="37" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="25">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="F131" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="I131" s="38" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="25">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>66</v>
+        <v>301</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="F132" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="I132" s="30" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="25">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E133" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="F133" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="I133" s="30" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="25">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="I134" s="30" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="25">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="25">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" s="25">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="25">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="C138" s="25" t="s">
         <v>301</v>
@@ -8158,422 +8816,254 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="25">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="25">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I140" s="30" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="25">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F141" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="I141" s="30" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="25">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F142" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="I142" s="30" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="25">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E143" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F143" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="I143" s="32" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="25">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E144" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F144" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="I144" s="30" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="25">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E145" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F145" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="I145" s="30" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="25">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>380</v>
+        <v>301</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E146" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F146" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="I146" s="30" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="25">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>381</v>
+        <v>301</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E147" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F147" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="I147" s="30" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="25">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E148" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F148" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="I148" s="33" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="25">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E149" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F149" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="I149" s="30" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="25">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E150" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="I150" s="30" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="25">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E151" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F151" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="I151" s="30" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="25">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F152" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="I152" s="35" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153" s="25">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="D153" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="25">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D154" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="25">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>387</v>
+        <v>306</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E155" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F155" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="I155" s="30" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="25">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>388</v>
+        <v>304</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E156" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F156" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="I156" s="30" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="25">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E157" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F157" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="I157" s="30" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="25">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E158" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F158" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="I158" s="30" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="25">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E159" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F159" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="I159" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G159" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="25">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>392</v>
+        <v>300</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E160" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F160" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="I160" s="30" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B161" s="25">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="C161" s="25" t="s">
         <v>300</v>
@@ -8582,245 +9072,152 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B162" s="25">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D162" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" s="25">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>393</v>
+        <v>300</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E163" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F163" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="I163" s="30" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" s="25">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E164" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F164" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="I164" s="30" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" s="25">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>395</v>
+        <v>300</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E165" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F165" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="I165" s="30" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" s="25">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E166" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F166" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="I166" s="30" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" s="25">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E167" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="F167" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="I167" s="30" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B168" s="25">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E168" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="F168" s="25" t="s">
-        <v>525</v>
-      </c>
-      <c r="I168" s="30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169" s="25">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E169" s="25" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" s="25">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E170" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="F170" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="I170" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="25">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>108</v>
+        <v>300</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E171" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="F171" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="I171" s="30" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" s="25">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>396</v>
+        <v>300</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E172" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F172" s="25" t="s">
-        <v>527</v>
-      </c>
-      <c r="I172" s="32" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="25">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>397</v>
+        <v>300</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E173" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F173" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="I173" s="32" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" s="25">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="D174" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B175" s="25">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C175" s="25" t="s">
         <v>300</v>
@@ -8829,26 +9226,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B176" s="25">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" s="25">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>346</v>
+        <v>14</v>
       </c>
       <c r="D177" s="25" t="s">
         <v>19</v>
@@ -8856,19 +9250,19 @@
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B178" s="25">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D178" s="25" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I178" xr:uid="{63FA898B-93F9-4BC6-B19A-0EACF522B65F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I178">
-      <sortCondition ref="B2:B178"/>
+  <autoFilter ref="B2:J178" xr:uid="{14D4DFB6-6446-4B47-B48E-506463F0B268}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J178">
+      <sortCondition ref="J2:J178"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03D8886-0751-420C-9CB0-499749E007A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4420ADF-2E68-4B18-8E03-B9B0644A75CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="675" windowWidth="22920" windowHeight="15420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -3124,10 +3124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWR_EN_BAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PWR_EN_PERIPH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3141,6 +3137,10 @@
   </si>
   <si>
     <t>Assign #0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_EN_BAT+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3148,7 +3148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3859,7 +3859,7 @@
       <selection activeCell="B3" sqref="B3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
@@ -3873,7 +3873,7 @@
     <col min="10" max="11" width="21.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="H3" s="46"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -3912,7 +3912,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12">
       <c r="B21" s="5">
         <v>17</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12">
       <c r="B24" s="5">
         <v>20</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12">
       <c r="B29" s="5">
         <v>25</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12">
       <c r="B34" s="5">
         <v>30</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12">
       <c r="B38" s="5">
         <v>34</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12">
       <c r="B43" s="5">
         <v>39</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12">
       <c r="B45" s="5">
         <v>41</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12">
       <c r="B46" s="5">
         <v>42</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12">
       <c r="B47" s="5">
         <v>43</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12">
       <c r="B48" s="5">
         <v>44</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10">
       <c r="B49" s="5">
         <v>45</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="B50" s="5">
         <v>46</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="B51" s="5">
         <v>47</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="B52" s="5">
         <v>48</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -5143,7 +5143,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="B54" s="3" t="s">
         <v>110</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10">
       <c r="B55" s="3" t="s">
         <v>111</v>
       </c>
@@ -5190,7 +5190,7 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="2" bestFit="1" customWidth="1"/>
@@ -5203,7 +5203,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13">
       <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -5250,7 +5250,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" s="10">
         <v>1</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="B6" s="11">
         <v>2</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13">
       <c r="B10" s="12">
         <v>6</v>
       </c>
@@ -5359,7 +5359,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13">
       <c r="B13" s="12">
         <v>9</v>
       </c>
@@ -5416,7 +5416,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13">
       <c r="B18" s="12">
         <v>14</v>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13">
       <c r="B21" s="10">
         <v>17</v>
       </c>
@@ -5584,7 +5584,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13">
       <c r="B24" s="12">
         <v>20</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13">
       <c r="B29" s="12">
         <v>25</v>
       </c>
@@ -5748,7 +5748,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -5768,7 +5768,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -5808,7 +5808,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13">
       <c r="B34" s="12">
         <v>30</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13">
       <c r="B38" s="12">
         <v>34</v>
       </c>
@@ -5918,7 +5918,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13">
       <c r="B43" s="12">
         <v>39</v>
       </c>
@@ -6029,7 +6029,7 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -6077,19 +6077,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
   <dimension ref="B2:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H19"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="25" customWidth="1"/>
-    <col min="6" max="6" width="46" style="25" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="46" style="25" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="25" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.625" style="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.625" style="36" customWidth="1"/>
@@ -6097,7 +6097,7 @@
     <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>782</v>
@@ -6126,1345 +6126,1325 @@
         <v>781</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="B3" s="25">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>659</v>
+        <v>80</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>361</v>
+        <v>22</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>806</v>
+        <v>456</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="L3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4" s="25">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>80</v>
+        <v>291</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>13</v>
       </c>
       <c r="L4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="B5" s="25">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>327</v>
+        <v>636</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>109</v>
+        <v>363</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>591</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>591</v>
+        <v>807</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>596</v>
       </c>
       <c r="L5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="B6" s="25">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>328</v>
+        <v>637</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>109</v>
+        <v>345</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>500</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>500</v>
+        <v>371</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>811</v>
       </c>
       <c r="L6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="B7" s="25">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>733</v>
+        <v>638</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>109</v>
+        <v>363</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>783</v>
+        <v>372</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>783</v>
+        <v>372</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>783</v>
+        <v>372</v>
       </c>
       <c r="L7" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="B8" s="25">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>326</v>
+        <v>639</v>
       </c>
       <c r="D8" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="25">
+        <v>49</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>772</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>772</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="25">
-        <v>163</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>734</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>373</v>
-      </c>
       <c r="E9" s="25" t="s">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>454</v>
+        <v>375</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="L9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12">
       <c r="B10" s="25">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>736</v>
+        <v>641</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>109</v>
+        <v>364</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>787</v>
+        <v>234</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>522</v>
+        <v>234</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>234</v>
       </c>
       <c r="L10" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="B11" s="25">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>729</v>
+        <v>642</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>109</v>
+        <v>363</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>795</v>
+        <v>235</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>523</v>
+        <v>235</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>235</v>
       </c>
       <c r="L11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12" s="25">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>526</v>
+        <v>236</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>529</v>
+        <v>236</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="L12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13" s="25">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>774</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="25">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>447</v>
+        <v>434</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>435</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>775</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>581</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>530</v>
+        <v>91</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>589</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="L14" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15" s="25">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>671</v>
+        <v>65</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>776</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="J15" s="41" t="s">
-        <v>531</v>
+        <v>90</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>90</v>
       </c>
       <c r="L15" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16" s="25">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>672</v>
+        <v>66</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>777</v>
+        <v>498</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>583</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="25">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>673</v>
+        <v>67</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>778</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>588</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>533</v>
+        <v>499</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>499</v>
       </c>
       <c r="L17" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12">
       <c r="B18" s="25">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>339</v>
+        <v>109</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>532</v>
+        <v>772</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>526</v>
+        <v>772</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>772</v>
       </c>
       <c r="L18" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12">
       <c r="B19" s="25">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="J19" s="41" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="25">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>796</v>
+        <v>500</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>525</v>
+        <v>500</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>500</v>
       </c>
       <c r="L20" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12">
       <c r="B21" s="25">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>593</v>
+        <v>646</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>109</v>
+        <v>363</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="J21" s="41" t="s">
-        <v>524</v>
+        <v>561</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>561</v>
       </c>
       <c r="L21" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12">
       <c r="B22" s="25">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>730</v>
+        <v>647</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>798</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>530</v>
+        <v>804</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="L22" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12">
       <c r="B23" s="25">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>737</v>
+        <v>648</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>109</v>
+        <v>345</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>788</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="J23" s="41" t="s">
-        <v>582</v>
+        <v>805</v>
       </c>
       <c r="L23" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12">
       <c r="B24" s="25">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>109</v>
       </c>
+      <c r="F24" s="25" t="s">
+        <v>453</v>
+      </c>
       <c r="H24" s="25" t="s">
-        <v>525</v>
+        <v>783</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>532</v>
-      </c>
-      <c r="J24" s="41" t="s">
-        <v>583</v>
+        <v>783</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>783</v>
       </c>
       <c r="L24" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12">
       <c r="B25" s="25">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>686</v>
+        <v>734</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>341</v>
+        <v>109</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>353</v>
+        <v>454</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>750</v>
+        <v>501</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>750</v>
+        <v>501</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>750</v>
+        <v>501</v>
       </c>
       <c r="L25" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12">
       <c r="B26" s="25">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>687</v>
+        <v>735</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>341</v>
+        <v>109</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>354</v>
+        <v>455</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>751</v>
+        <v>472</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>752</v>
+        <v>472</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>752</v>
+        <v>472</v>
       </c>
       <c r="L26" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12">
       <c r="B27" s="25">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>109</v>
+        <v>341</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>355</v>
+        <v>459</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>753</v>
+        <v>475</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>754</v>
+        <v>475</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
       <c r="B28" s="25">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>346</v>
+        <v>460</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>755</v>
+        <v>233</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>755</v>
+        <v>233</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>755</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12">
       <c r="B29" s="25">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>690</v>
+        <v>654</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>348</v>
+        <v>458</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>756</v>
+        <v>232</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>756</v>
+        <v>232</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>756</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12">
       <c r="B30" s="25">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>349</v>
+        <v>461</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>757</v>
+        <v>558</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>757</v>
+        <v>265</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>757</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12">
       <c r="B31" s="25">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>305</v>
+        <v>48</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>784</v>
-      </c>
-      <c r="I31" s="36" t="s">
-        <v>758</v>
-      </c>
-      <c r="J31" s="36" t="s">
-        <v>758</v>
+        <v>404</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>573</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>573</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>573</v>
       </c>
       <c r="L31" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12">
       <c r="B32" s="25">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>759</v>
-      </c>
-      <c r="I32" s="36" t="s">
-        <v>759</v>
-      </c>
-      <c r="J32" s="36" t="s">
-        <v>759</v>
+        <v>405</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>574</v>
       </c>
       <c r="L32" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12">
       <c r="B33" s="25">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>307</v>
+        <v>52</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>760</v>
+        <v>584</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>760</v>
+        <v>584</v>
       </c>
       <c r="L33" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12">
       <c r="B34" s="25">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>761</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>761</v>
-      </c>
-      <c r="J34" s="36" t="s">
-        <v>761</v>
+        <v>575</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>575</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>575</v>
       </c>
       <c r="L34" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12">
       <c r="B35" s="25">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>696</v>
+        <v>54</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>347</v>
+        <v>492</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>347</v>
+        <v>492</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>347</v>
+        <v>492</v>
       </c>
       <c r="L35" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12">
       <c r="B36" s="25">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>697</v>
+        <v>55</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>394</v>
+        <v>493</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>394</v>
+        <v>493</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>394</v>
+        <v>493</v>
       </c>
       <c r="L36" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12">
       <c r="B37" s="25">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>533</v>
-      </c>
-      <c r="J37" s="42" t="s">
-        <v>588</v>
+        <v>464</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>464</v>
       </c>
       <c r="L37" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12">
       <c r="B38" s="25">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>700</v>
+        <v>657</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>494</v>
+        <v>367</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>367</v>
       </c>
       <c r="L38" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12">
       <c r="B39" s="25">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>701</v>
+        <v>658</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>495</v>
+        <v>368</v>
+      </c>
+      <c r="H39" s="45"/>
+      <c r="I39" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>487</v>
       </c>
       <c r="L39" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12">
       <c r="B40" s="25">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>321</v>
+        <v>659</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>762</v>
-      </c>
-      <c r="I40" s="36" t="s">
-        <v>762</v>
-      </c>
-      <c r="J40" s="36" t="s">
-        <v>762</v>
+        <v>806</v>
       </c>
       <c r="L40" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12">
       <c r="B41" s="25">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>322</v>
+        <v>660</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>763</v>
+        <v>263</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>763</v>
+        <v>570</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>763</v>
+        <v>570</v>
       </c>
       <c r="L41" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12">
       <c r="B42" s="25">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>764</v>
+        <v>262</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>764</v>
+        <v>577</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
       <c r="B43" s="25">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>765</v>
-      </c>
-      <c r="I43" s="36" t="s">
-        <v>765</v>
-      </c>
-      <c r="J43" s="36" t="s">
-        <v>765</v>
+        <v>431</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="I43" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="J43" s="39" t="s">
+        <v>571</v>
       </c>
       <c r="L43" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12">
       <c r="B44" s="25">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>785</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>766</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>766</v>
+        <v>432</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>572</v>
       </c>
       <c r="L44" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12">
       <c r="B45" s="25">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>396</v>
+        <v>476</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>767</v>
+        <v>264</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>767</v>
+        <v>578</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>767</v>
+        <v>578</v>
       </c>
       <c r="L45" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12">
       <c r="B46" s="25">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>768</v>
+        <v>265</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>768</v>
+        <v>592</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>768</v>
+        <v>592</v>
       </c>
       <c r="L46" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12">
       <c r="B47" s="25">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>769</v>
+        <v>490</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>769</v>
+        <v>490</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>769</v>
+        <v>490</v>
       </c>
       <c r="L47" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12">
       <c r="B48" s="25">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>770</v>
-      </c>
-      <c r="I48" s="36" t="s">
-        <v>770</v>
-      </c>
-      <c r="J48" s="36" t="s">
-        <v>770</v>
+        <v>569</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="J48" s="39" t="s">
+        <v>569</v>
       </c>
       <c r="L48" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12">
       <c r="B49" s="25">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E49" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>771</v>
+        <v>442</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>595</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>771</v>
+        <v>579</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>771</v>
+        <v>579</v>
       </c>
       <c r="L49" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12">
       <c r="B50" s="25">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>312</v>
+        <v>8</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>20</v>
@@ -7472,28 +7452,25 @@
       <c r="E50" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>401</v>
-      </c>
       <c r="H50" s="25" t="s">
-        <v>466</v>
+        <v>808</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>466</v>
+        <v>576</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>466</v>
+        <v>576</v>
       </c>
       <c r="L50" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12">
       <c r="B51" s="25">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>20</v>
@@ -7501,28 +7478,25 @@
       <c r="E51" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="F51" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>467</v>
+      <c r="G51" s="25" t="s">
+        <v>342</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
       <c r="L51" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12">
       <c r="B52" s="25">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>20</v>
@@ -7530,112 +7504,109 @@
       <c r="E52" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="F52" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>468</v>
+      <c r="G52" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>468</v>
+        <v>264</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
       <c r="B53" s="25">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>469</v>
+        <v>764</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>469</v>
+        <v>764</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>469</v>
+        <v>764</v>
       </c>
       <c r="L53" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12">
       <c r="B54" s="25">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>470</v>
+        <v>765</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>470</v>
+        <v>765</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>470</v>
+        <v>765</v>
       </c>
       <c r="L54" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12">
       <c r="B55" s="25">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>317</v>
+        <v>668</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="J55" s="36" t="s">
-        <v>471</v>
+        <v>580</v>
+      </c>
+      <c r="J55" s="38" t="s">
+        <v>529</v>
       </c>
       <c r="L55" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12">
       <c r="B56" s="25">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>373</v>
@@ -7644,27 +7615,27 @@
         <v>339</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="H56" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="I56" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="J56" s="39" t="s">
-        <v>474</v>
+        <v>446</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="J56" s="40" t="s">
+        <v>491</v>
       </c>
       <c r="L56" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12">
       <c r="B57" s="25">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>373</v>
@@ -7673,85 +7644,85 @@
         <v>339</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="H57" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="I57" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="J57" s="39" t="s">
-        <v>473</v>
+        <v>447</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="J57" s="41" t="s">
+        <v>530</v>
       </c>
       <c r="L57" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12">
       <c r="B58" s="25">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>735</v>
+        <v>671</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>373</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>472</v>
+        <v>776</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="J58" s="36" t="s">
-        <v>472</v>
+        <v>582</v>
+      </c>
+      <c r="J58" s="41" t="s">
+        <v>531</v>
       </c>
       <c r="L58" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12">
       <c r="B59" s="25">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E59" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>430</v>
+        <v>777</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="J59" s="36" t="s">
-        <v>430</v>
+        <v>583</v>
+      </c>
+      <c r="J59" s="41" t="s">
+        <v>532</v>
       </c>
       <c r="L59" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12">
       <c r="B60" s="25">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>337</v>
+        <v>673</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>373</v>
@@ -7760,357 +7731,366 @@
         <v>339</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="I60" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="J60" s="36" t="s">
-        <v>452</v>
+        <v>778</v>
+      </c>
+      <c r="I60" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="J60" s="41" t="s">
+        <v>533</v>
       </c>
       <c r="L60" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12">
       <c r="B61" s="25">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J61" s="36" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L61" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12">
       <c r="B62" s="25">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>304</v>
+        <v>675</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L62" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12">
       <c r="B63" s="25">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>656</v>
+        <v>317</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="J63" s="36" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="L63" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12">
       <c r="B64" s="25">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>654</v>
+        <v>318</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>232</v>
+        <v>532</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="J64" s="36" t="s">
-        <v>232</v>
+        <v>525</v>
+      </c>
+      <c r="J64" s="38" t="s">
+        <v>526</v>
       </c>
       <c r="L64" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12">
       <c r="B65" s="25">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>653</v>
+        <v>319</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>233</v>
+        <v>533</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="J65" s="36" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+      <c r="J65" s="41" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
       <c r="B66" s="25">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="H66" s="39" t="s">
-        <v>573</v>
-      </c>
-      <c r="I66" s="39" t="s">
-        <v>573</v>
-      </c>
-      <c r="J66" s="39" t="s">
-        <v>573</v>
+        <v>417</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="J66" s="41" t="s">
+        <v>528</v>
       </c>
       <c r="L66" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12">
       <c r="B67" s="25">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>49</v>
+        <v>321</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="H67" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="I67" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="J67" s="39" t="s">
-        <v>574</v>
+        <v>418</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>762</v>
+      </c>
+      <c r="J67" s="36" t="s">
+        <v>762</v>
       </c>
       <c r="L67" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12">
       <c r="B68" s="25">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>561</v>
+        <v>763</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>561</v>
+        <v>763</v>
       </c>
       <c r="L68" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12">
       <c r="B69" s="25">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>647</v>
+        <v>338</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="H69" s="25" t="s">
-        <v>804</v>
-      </c>
-      <c r="J69" s="38" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="I69" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="J69" s="33" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
       <c r="B70" s="25">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>805</v>
+        <v>462</v>
+      </c>
+      <c r="H70" s="39" t="s">
+        <v>474</v>
+      </c>
+      <c r="I70" s="39" t="s">
+        <v>474</v>
+      </c>
+      <c r="J70" s="39" t="s">
+        <v>474</v>
       </c>
       <c r="L70" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12">
       <c r="B71" s="25">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E71" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="H71" s="39" t="s">
-        <v>261</v>
+        <v>473</v>
       </c>
       <c r="I71" s="39" t="s">
-        <v>572</v>
+        <v>473</v>
       </c>
       <c r="J71" s="39" t="s">
-        <v>572</v>
+        <v>473</v>
       </c>
       <c r="L71" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12">
       <c r="B72" s="25">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>807</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>596</v>
+        <v>790</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="J72" s="25" t="s">
+        <v>263</v>
       </c>
       <c r="L72" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12">
       <c r="B73" s="25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>8</v>
+        <v>679</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>20</v>
@@ -8118,25 +8098,28 @@
       <c r="E73" s="25" t="s">
         <v>339</v>
       </c>
+      <c r="F73" s="25" t="s">
+        <v>340</v>
+      </c>
       <c r="H73" s="25" t="s">
-        <v>808</v>
-      </c>
-      <c r="I73" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="J73" s="36" t="s">
-        <v>576</v>
+        <v>794</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="J73" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="L73" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12">
       <c r="B74" s="25">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>20</v>
@@ -8145,467 +8128,479 @@
         <v>339</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>476</v>
+        <v>357</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="I74" s="36" t="s">
-        <v>578</v>
-      </c>
-      <c r="J74" s="36" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="J74" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
       <c r="B75" s="25">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="I75" s="36" t="s">
-        <v>592</v>
-      </c>
-      <c r="J75" s="36" t="s">
-        <v>592</v>
+        <v>791</v>
+      </c>
+      <c r="I75" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="J75" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="L75" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12">
       <c r="B76" s="25">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="I76" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="J76" s="36" t="s">
-        <v>570</v>
+        <v>792</v>
+      </c>
+      <c r="I76" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="J76" s="25" t="s">
+        <v>534</v>
       </c>
       <c r="L76" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12">
       <c r="B77" s="25">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>637</v>
+        <v>683</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="H77" s="44" t="s">
-        <v>812</v>
+        <v>395</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="I77" s="36" t="s">
+        <v>766</v>
+      </c>
+      <c r="J77" s="36" t="s">
+        <v>766</v>
       </c>
       <c r="L77" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12">
       <c r="B78" s="25">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>262</v>
+        <v>767</v>
       </c>
       <c r="I78" s="36" t="s">
-        <v>577</v>
+        <v>767</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>577</v>
+        <v>767</v>
       </c>
       <c r="L78" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12">
       <c r="B79" s="25">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="H79" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="I79" s="39" t="s">
-        <v>571</v>
-      </c>
-      <c r="J79" s="39" t="s">
-        <v>571</v>
+        <v>397</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="I79" s="36" t="s">
+        <v>768</v>
+      </c>
+      <c r="J79" s="36" t="s">
+        <v>768</v>
       </c>
       <c r="L79" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12">
       <c r="B80" s="25">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>13</v>
+        <v>309</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="H80" s="33" t="s">
-        <v>13</v>
+        <v>345</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>769</v>
       </c>
       <c r="I80" s="36" t="s">
-        <v>13</v>
+        <v>769</v>
       </c>
       <c r="J80" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
       <c r="B81" s="25">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H81" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="I81" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="J81" s="33" t="s">
-        <v>338</v>
+        <v>345</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>770</v>
+      </c>
+      <c r="I81" s="36" t="s">
+        <v>770</v>
+      </c>
+      <c r="J81" s="36" t="s">
+        <v>770</v>
       </c>
       <c r="L81" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12">
       <c r="B82" s="25">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E82" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="I82" s="36" t="s">
-        <v>587</v>
+        <v>771</v>
       </c>
       <c r="J82" s="36" t="s">
-        <v>587</v>
+        <v>771</v>
       </c>
       <c r="L82" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12">
       <c r="B83" s="25">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E83" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>802</v>
+        <v>466</v>
       </c>
       <c r="I83" s="36" t="s">
-        <v>282</v>
+        <v>466</v>
       </c>
       <c r="J83" s="36" t="s">
-        <v>282</v>
+        <v>466</v>
       </c>
       <c r="L83" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12">
       <c r="B84" s="25">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E84" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>234</v>
+        <v>402</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>801</v>
+        <v>467</v>
       </c>
       <c r="I84" s="36" t="s">
-        <v>560</v>
+        <v>467</v>
       </c>
       <c r="J84" s="36" t="s">
-        <v>560</v>
+        <v>467</v>
       </c>
       <c r="L84" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12">
       <c r="B85" s="25">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>705</v>
+        <v>314</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E85" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>478</v>
+        <v>403</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>799</v>
+        <v>468</v>
       </c>
       <c r="I85" s="36" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
       <c r="J85" s="36" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
       <c r="B86" s="25">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>332</v>
+        <v>686</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="I86" s="36" t="s">
-        <v>586</v>
+        <v>750</v>
       </c>
       <c r="J86" s="36" t="s">
-        <v>586</v>
+        <v>750</v>
       </c>
       <c r="L86" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12">
       <c r="B87" s="25">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>461</v>
+        <v>354</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>558</v>
+        <v>751</v>
       </c>
       <c r="I87" s="36" t="s">
-        <v>265</v>
+        <v>752</v>
       </c>
       <c r="J87" s="36" t="s">
-        <v>265</v>
+        <v>752</v>
       </c>
       <c r="L87" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12">
       <c r="B88" s="25">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>339</v>
+        <v>109</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>427</v>
+        <v>355</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>809</v>
-      </c>
-      <c r="I88" s="39" t="s">
-        <v>523</v>
-      </c>
-      <c r="J88" s="38" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+      <c r="I88" s="36" t="s">
+        <v>754</v>
+      </c>
+      <c r="J88" s="36" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
       <c r="B89" s="25">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>810</v>
+        <v>755</v>
       </c>
       <c r="I89" s="36" t="s">
-        <v>520</v>
+        <v>755</v>
       </c>
       <c r="J89" s="36" t="s">
-        <v>520</v>
+        <v>755</v>
       </c>
       <c r="L89" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12">
       <c r="B90" s="25">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>336</v>
+        <v>690</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="H90" s="44" t="s">
-        <v>811</v>
+        <v>348</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>756</v>
       </c>
       <c r="I90" s="36" t="s">
-        <v>284</v>
+        <v>756</v>
       </c>
       <c r="J90" s="36" t="s">
-        <v>284</v>
+        <v>756</v>
       </c>
       <c r="L90" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12">
       <c r="B91" s="25">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>20</v>
@@ -8614,27 +8609,27 @@
         <v>345</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>414</v>
+        <v>757</v>
       </c>
       <c r="I91" s="36" t="s">
-        <v>414</v>
+        <v>757</v>
       </c>
       <c r="J91" s="36" t="s">
-        <v>414</v>
+        <v>757</v>
       </c>
       <c r="L91" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12">
       <c r="B92" s="25">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>20</v>
@@ -8643,22 +8638,22 @@
         <v>345</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>739</v>
+        <v>481</v>
       </c>
       <c r="I92" s="36" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L92" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12">
       <c r="B93" s="25">
         <v>27</v>
       </c>
@@ -8684,12 +8679,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12">
       <c r="B94" s="25">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>20</v>
@@ -8698,48 +8693,48 @@
         <v>345</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="I94" s="36" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="J94" s="36" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="L94" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12">
       <c r="B95" s="25">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="H95" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="I95" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="J95" s="40" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="H95" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="I95" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="J95" s="36" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12">
       <c r="B96" s="25">
         <v>30</v>
       </c>
@@ -8765,194 +8760,194 @@
         <v>484</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10">
       <c r="B97" s="25">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>706</v>
+        <v>304</v>
       </c>
       <c r="D97" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G97" s="25" t="s">
-        <v>11</v>
+        <v>363</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>384</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>740</v>
+        <v>465</v>
       </c>
       <c r="I97" s="36" t="s">
-        <v>11</v>
+        <v>465</v>
       </c>
       <c r="J97" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
       <c r="B98" s="25">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>707</v>
+        <v>305</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>12</v>
+        <v>345</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="I98" s="36" t="s">
-        <v>12</v>
+        <v>758</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
       <c r="B99" s="25">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>642</v>
+        <v>306</v>
       </c>
       <c r="D99" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H99" s="25" t="s">
-        <v>235</v>
+        <v>759</v>
       </c>
       <c r="I99" s="36" t="s">
-        <v>235</v>
+        <v>759</v>
       </c>
       <c r="J99" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
       <c r="B100" s="25">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>643</v>
+        <v>307</v>
       </c>
       <c r="D100" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>236</v>
+        <v>760</v>
       </c>
       <c r="I100" s="36" t="s">
-        <v>236</v>
+        <v>760</v>
       </c>
       <c r="J100" s="36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
       <c r="B101" s="25">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>640</v>
+        <v>308</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="H101" s="25" t="s">
-        <v>489</v>
+        <v>761</v>
       </c>
       <c r="I101" s="36" t="s">
-        <v>489</v>
+        <v>761</v>
       </c>
       <c r="J101" s="36" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
       <c r="B102" s="25">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="D102" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="I102" s="36" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="J102" s="36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
       <c r="B103" s="25">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="D103" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>791</v>
-      </c>
-      <c r="I103" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="J103" s="25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="I103" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="J103" s="36" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
       <c r="B104" s="25">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>20</v>
@@ -8961,24 +8956,24 @@
         <v>339</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>792</v>
-      </c>
-      <c r="I104" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="J104" s="25" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="I104" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="J104" s="42" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
       <c r="B105" s="25">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="D105" s="25" t="s">
         <v>20</v>
@@ -8987,24 +8982,24 @@
         <v>339</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>794</v>
-      </c>
-      <c r="I105" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="J105" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+      <c r="I105" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="J105" s="38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
       <c r="B106" s="25">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>20</v>
@@ -9013,24 +9008,24 @@
         <v>339</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>357</v>
+        <v>479</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>793</v>
+        <v>494</v>
       </c>
       <c r="I106" s="25" t="s">
-        <v>260</v>
+        <v>494</v>
       </c>
       <c r="J106" s="25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
       <c r="B107" s="25">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="D107" s="25" t="s">
         <v>20</v>
@@ -9039,131 +9034,128 @@
         <v>339</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>356</v>
+        <v>480</v>
       </c>
       <c r="H107" s="25" t="s">
-        <v>790</v>
+        <v>495</v>
       </c>
       <c r="I107" s="25" t="s">
-        <v>263</v>
+        <v>495</v>
       </c>
       <c r="J107" s="25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
       <c r="B108" s="25">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>65</v>
+        <v>702</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="H108" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="I108" s="43" t="s">
-        <v>590</v>
-      </c>
-      <c r="J108" s="43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="H108" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="I108" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="J108" s="40" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
       <c r="B109" s="25">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>645</v>
+        <v>703</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="G109" s="25" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I109" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="J109" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+      <c r="I109" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="J109" s="36" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
       <c r="B110" s="25">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>639</v>
+        <v>704</v>
       </c>
       <c r="D110" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="I110" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="J110" s="36" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="25">
+        <v>153</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="D111" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="E110" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="F110" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="H110" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="I110" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="J110" s="36" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B111" s="25">
-        <v>43</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>20</v>
-      </c>
       <c r="E111" s="25" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>372</v>
+        <v>478</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>372</v>
+        <v>799</v>
       </c>
       <c r="I111" s="36" t="s">
-        <v>372</v>
+        <v>558</v>
       </c>
       <c r="J111" s="36" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
       <c r="B112" s="25">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>373</v>
@@ -9172,102 +9164,102 @@
         <v>339</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="I112" s="39" t="s">
-        <v>569</v>
-      </c>
-      <c r="J112" s="39" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+      <c r="I112" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="J112" s="36" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12">
       <c r="B113" s="25">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>373</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>440</v>
+        <v>234</v>
       </c>
       <c r="H113" s="25" t="s">
-        <v>490</v>
+        <v>801</v>
       </c>
       <c r="I113" s="36" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="J113" s="36" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12">
       <c r="B114" s="25">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>66</v>
+        <v>334</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="H114" s="25" t="s">
-        <v>498</v>
+        <v>802</v>
       </c>
       <c r="I114" s="36" t="s">
-        <v>498</v>
+        <v>282</v>
       </c>
       <c r="J114" s="36" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12">
       <c r="B115" s="25">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="H115" s="25" t="s">
-        <v>499</v>
+        <v>789</v>
       </c>
       <c r="I115" s="36" t="s">
-        <v>499</v>
+        <v>587</v>
       </c>
       <c r="J115" s="36" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12">
       <c r="B116" s="25">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>373</v>
@@ -9276,342 +9268,363 @@
         <v>339</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H116" s="44" t="s">
-        <v>595</v>
+        <v>810</v>
       </c>
       <c r="I116" s="36" t="s">
-        <v>579</v>
+        <v>284</v>
       </c>
       <c r="J116" s="36" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12">
       <c r="B117" s="25">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>54</v>
+        <v>337</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="H117" s="25" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="I117" s="36" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="J117" s="36" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12">
       <c r="B118" s="25">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>55</v>
+        <v>706</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>410</v>
+        <v>109</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="H118" s="25" t="s">
-        <v>493</v>
+        <v>740</v>
       </c>
       <c r="I118" s="36" t="s">
-        <v>493</v>
+        <v>11</v>
       </c>
       <c r="J118" s="36" t="s">
-        <v>493</v>
+        <v>11</v>
       </c>
       <c r="L118" s="28"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12">
       <c r="B119" s="25">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>52</v>
+        <v>707</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F119" s="25" t="s">
-        <v>407</v>
+        <v>109</v>
+      </c>
+      <c r="G119" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="H119" s="25" t="s">
-        <v>786</v>
+        <v>741</v>
       </c>
       <c r="I119" s="36" t="s">
-        <v>584</v>
+        <v>12</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>584</v>
+        <v>12</v>
       </c>
       <c r="L119" s="28"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12">
       <c r="B120" s="25">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>644</v>
+        <v>736</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>390</v>
+        <v>109</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="H120" s="25" t="s">
-        <v>585</v>
+        <v>787</v>
       </c>
       <c r="I120" s="36" t="s">
-        <v>585</v>
-      </c>
-      <c r="J120" s="36" t="s">
-        <v>585</v>
+        <v>526</v>
+      </c>
+      <c r="J120" s="41" t="s">
+        <v>522</v>
       </c>
       <c r="L120" s="28"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12">
       <c r="B121" s="25">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>320</v>
+        <v>729</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>584</v>
+        <v>795</v>
       </c>
       <c r="I121" s="36" t="s">
-        <v>522</v>
-      </c>
-      <c r="J121" s="41" t="s">
-        <v>528</v>
+        <v>527</v>
+      </c>
+      <c r="J121" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="L121" s="28"/>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12">
       <c r="B122" s="25">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>53</v>
+        <v>323</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>406</v>
+        <v>109</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="H122" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="I122" s="40" t="s">
-        <v>575</v>
-      </c>
-      <c r="J122" s="40" t="s">
-        <v>575</v>
+        <v>796</v>
+      </c>
+      <c r="I122" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="J122" s="38" t="s">
+        <v>525</v>
       </c>
       <c r="L122" s="29"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:12">
       <c r="B123" s="25">
+        <v>104</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="H123" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="I123" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="J123" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="B124" s="25">
+        <v>107</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="H124" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="I124" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="J124" s="38" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125" s="25">
+        <v>108</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="H125" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="I125" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="J125" s="41" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12">
+      <c r="B126" s="25">
+        <v>109</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H126" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="I126" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="J126" s="41" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="B127" s="25">
         <v>8</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="C127" s="25" t="s">
         <v>297</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="I123" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="J123" s="35" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B124" s="25">
-        <v>80</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H124" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="I124" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="J124" s="35" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B125" s="25">
-        <v>133</v>
-      </c>
-      <c r="C125" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H125" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="I125" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="J125" s="35" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B126" s="25">
-        <v>172</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="I126" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="J126" s="35" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B127" s="25">
-        <v>7</v>
-      </c>
-      <c r="C127" s="25" t="s">
-        <v>296</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H127" s="35" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I127" s="35" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J127" s="35" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12">
       <c r="B128" s="25">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H128" s="35" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="I128" s="35" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="J128" s="35" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10">
       <c r="B129" s="25">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H129" s="35" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="I129" s="35" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="J129" s="35" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10">
       <c r="B130" s="25">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H130" s="35" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="I130" s="35" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="J130" s="35" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10">
       <c r="B131" s="25">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C131" s="25" t="s">
         <v>296</v>
@@ -9629,9 +9642,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10">
       <c r="B132" s="25">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C132" s="25" t="s">
         <v>296</v>
@@ -9649,9 +9662,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10">
       <c r="B133" s="25">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C133" s="25" t="s">
         <v>296</v>
@@ -9669,9 +9682,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10">
       <c r="B134" s="25">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C134" s="25" t="s">
         <v>296</v>
@@ -9689,9 +9702,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10">
       <c r="B135" s="25">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C135" s="25" t="s">
         <v>296</v>
@@ -9709,9 +9722,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10">
       <c r="B136" s="25">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C136" s="25" t="s">
         <v>296</v>
@@ -9729,9 +9742,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10">
       <c r="B137" s="25">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C137" s="25" t="s">
         <v>296</v>
@@ -9749,9 +9762,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10">
       <c r="B138" s="25">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C138" s="25" t="s">
         <v>296</v>
@@ -9769,9 +9782,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10">
       <c r="B139" s="25">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C139" s="25" t="s">
         <v>296</v>
@@ -9789,9 +9802,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10">
       <c r="B140" s="25">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C140" s="25" t="s">
         <v>296</v>
@@ -9809,9 +9822,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10">
       <c r="B141" s="25">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C141" s="25" t="s">
         <v>296</v>
@@ -9829,9 +9842,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10">
       <c r="B142" s="25">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C142" s="25" t="s">
         <v>296</v>
@@ -9849,9 +9862,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10">
       <c r="B143" s="25">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="C143" s="25" t="s">
         <v>296</v>
@@ -9869,292 +9882,289 @@
         <v>296</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10">
       <c r="B144" s="25">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="D144" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H144" s="35" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="I144" s="35" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="J144" s="35" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10">
       <c r="B145" s="25">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H145" s="35" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="I145" s="35" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="J145" s="35" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10">
       <c r="B146" s="25">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="D146" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H146" s="35" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="I146" s="35" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="J146" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10">
       <c r="B147" s="25">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H147" s="35" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="I147" s="35" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="J147" s="35" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10">
       <c r="B148" s="25">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H148" s="35" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="I148" s="35" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J148" s="35" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10">
       <c r="B149" s="25">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H149" s="35" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="I149" s="35" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="J149" s="35" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10">
       <c r="B150" s="25">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="D150" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="I150" s="35" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="J150" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10">
       <c r="B151" s="25">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D151" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H151" s="35" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="I151" s="35" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="J151" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10">
       <c r="B152" s="25">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="D152" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H152" s="35" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="I152" s="35" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="J152" s="35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10">
       <c r="B153" s="25">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D153" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H153" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="I153" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="J153" s="33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H153" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="I153" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="J153" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10">
       <c r="B154" s="25">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D154" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I154" s="35" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J154" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10">
       <c r="B155" s="25">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D155" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G155" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="H155" s="35" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I155" s="35" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="J155" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10">
       <c r="B156" s="25">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D156" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H156" s="35" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I156" s="35" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="J156" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10">
       <c r="B157" s="25">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D157" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H157" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="I157" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="J157" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H157" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="I157" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J157" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10">
       <c r="B158" s="25">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C158" s="25" t="s">
         <v>295</v>
@@ -10172,9 +10182,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:10">
       <c r="B159" s="25">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C159" s="25" t="s">
         <v>295</v>
@@ -10182,6 +10192,9 @@
       <c r="D159" s="25" t="s">
         <v>19</v>
       </c>
+      <c r="G159" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="H159" s="35" t="s">
         <v>295</v>
       </c>
@@ -10192,9 +10205,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:10">
       <c r="B160" s="25">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C160" s="25" t="s">
         <v>295</v>
@@ -10212,9 +10225,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:10">
       <c r="B161" s="25">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C161" s="25" t="s">
         <v>295</v>
@@ -10232,9 +10245,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:10">
       <c r="B162" s="25">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C162" s="25" t="s">
         <v>295</v>
@@ -10252,9 +10265,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:10">
       <c r="B163" s="25">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C163" s="25" t="s">
         <v>295</v>
@@ -10272,9 +10285,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:10">
       <c r="B164" s="25">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C164" s="25" t="s">
         <v>295</v>
@@ -10292,9 +10305,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:10">
       <c r="B165" s="25">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C165" s="25" t="s">
         <v>295</v>
@@ -10312,9 +10325,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:10">
       <c r="B166" s="25">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C166" s="25" t="s">
         <v>295</v>
@@ -10332,9 +10345,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:10">
       <c r="B167" s="25">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C167" s="25" t="s">
         <v>295</v>
@@ -10352,9 +10365,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:10">
       <c r="B168" s="25">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C168" s="25" t="s">
         <v>295</v>
@@ -10372,9 +10385,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:10">
       <c r="B169" s="25">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C169" s="25" t="s">
         <v>295</v>
@@ -10392,9 +10405,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:10">
       <c r="B170" s="25">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="C170" s="25" t="s">
         <v>295</v>
@@ -10412,9 +10425,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:10">
       <c r="B171" s="25">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="C171" s="25" t="s">
         <v>295</v>
@@ -10432,9 +10445,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:10">
       <c r="B172" s="25">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="C172" s="25" t="s">
         <v>295</v>
@@ -10452,143 +10465,130 @@
         <v>295</v>
       </c>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:10">
       <c r="B173" s="25">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="D173" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H173" s="35" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="I173" s="35" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="J173" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10">
       <c r="B174" s="25">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D174" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H174" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="I174" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J174" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="B175" s="25">
+        <v>159</v>
+      </c>
+      <c r="C175" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D175" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H175" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="I175" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J175" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176" s="25">
+        <v>173</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D176" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H176" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="I176" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J176" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="B177" s="25">
+        <v>38</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H177" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I177" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J177" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="25">
+        <v>14</v>
+      </c>
+      <c r="C178" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="I174" s="35" t="s">
+      <c r="D178" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H178" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="J174" s="35" t="s">
+      <c r="I178" s="35" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B175" s="25">
-        <v>35</v>
-      </c>
-      <c r="C175" s="25" t="s">
-        <v>657</v>
-      </c>
-      <c r="D175" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E175" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="F175" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="I175" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="J175" s="36" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B176" s="25">
-        <v>36</v>
-      </c>
-      <c r="C176" s="25" t="s">
-        <v>658</v>
-      </c>
-      <c r="D176" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="F176" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="H176" s="45"/>
-      <c r="I176" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="J176" s="36" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B177" s="25">
-        <v>10</v>
-      </c>
-      <c r="C177" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="D177" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="G177" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="I177" s="36" t="s">
-        <v>535</v>
-      </c>
-      <c r="J177" s="36" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B178" s="25">
-        <v>11</v>
-      </c>
-      <c r="C178" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="D178" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="G178" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I178" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="J178" s="36" t="s">
-        <v>264</v>
+      <c r="J178" s="35" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:J178" xr:uid="{14D4DFB6-6446-4B47-B48E-506463F0B268}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J178">
-      <sortCondition ref="H2:H178"/>
+      <sortCondition ref="C2:C178"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10601,11 +10601,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E24EF6A-707D-4C24-A8D8-A807A4228D89}">
   <dimension ref="B2:J210"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118:C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
@@ -10618,7 +10618,7 @@
     <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10">
       <c r="B3" s="25">
         <v>194</v>
       </c>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="B4" s="25">
         <v>37</v>
       </c>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5" s="25">
         <v>45</v>
       </c>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6" s="25">
         <v>46</v>
       </c>
@@ -10711,7 +10711,7 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10">
       <c r="B7" s="25">
         <v>47</v>
       </c>
@@ -10728,7 +10728,7 @@
       </c>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="25">
         <v>54</v>
       </c>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10">
       <c r="B9" s="25">
         <v>57</v>
       </c>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="J9" s="25"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="B10" s="25">
         <v>58</v>
       </c>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="B11" s="25">
         <v>59</v>
       </c>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="B12" s="25">
         <v>60</v>
       </c>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10">
       <c r="B13" s="25">
         <v>146</v>
       </c>
@@ -10828,7 +10828,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10">
       <c r="B14" s="25">
         <v>147</v>
       </c>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="J14" s="25"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="B15" s="25">
         <v>148</v>
       </c>
@@ -10862,7 +10862,7 @@
       </c>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="B16" s="25">
         <v>149</v>
       </c>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17" s="25">
         <v>150</v>
       </c>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18" s="25">
         <v>151</v>
       </c>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="J18" s="25"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="B19" s="25">
         <v>165</v>
       </c>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20" s="25">
         <v>166</v>
       </c>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" s="25">
         <v>63</v>
       </c>
@@ -10962,7 +10962,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" s="25">
         <v>64</v>
       </c>
@@ -10977,7 +10977,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="B23" s="25">
         <v>65</v>
       </c>
@@ -10994,7 +10994,7 @@
       </c>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="B24" s="25">
         <v>189</v>
       </c>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" s="25">
         <v>190</v>
       </c>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="B26" s="25">
         <v>191</v>
       </c>
@@ -11043,7 +11043,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="B27" s="25">
         <v>192</v>
       </c>
@@ -11060,7 +11060,7 @@
       </c>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="B28" s="25">
         <v>193</v>
       </c>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="B29" s="25">
         <v>195</v>
       </c>
@@ -11094,7 +11094,7 @@
       </c>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10">
       <c r="B30" s="25">
         <v>196</v>
       </c>
@@ -11109,7 +11109,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="B31" s="25">
         <v>87</v>
       </c>
@@ -11126,7 +11126,7 @@
       </c>
       <c r="J31" s="25"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" s="25">
         <v>88</v>
       </c>
@@ -11143,7 +11143,7 @@
       </c>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="B33" s="25">
         <v>101</v>
       </c>
@@ -11160,7 +11160,7 @@
       </c>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10">
       <c r="B34" s="25">
         <v>102</v>
       </c>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="J34" s="25"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10">
       <c r="B35" s="25">
         <v>103</v>
       </c>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="J35" s="25"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10">
       <c r="B36" s="25">
         <v>104</v>
       </c>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="J36" s="25"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10">
       <c r="B37" s="25">
         <v>38</v>
       </c>
@@ -11228,7 +11228,7 @@
       </c>
       <c r="J37" s="25"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10">
       <c r="B38" s="25">
         <v>39</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10">
       <c r="B39" s="25">
         <v>40</v>
       </c>
@@ -11258,7 +11258,7 @@
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10">
       <c r="B40" s="25">
         <v>41</v>
       </c>
@@ -11273,7 +11273,7 @@
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10">
       <c r="B41" s="25">
         <v>61</v>
       </c>
@@ -11288,7 +11288,7 @@
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10">
       <c r="B42" s="25">
         <v>62</v>
       </c>
@@ -11303,7 +11303,7 @@
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10">
       <c r="B43" s="25">
         <v>142</v>
       </c>
@@ -11320,7 +11320,7 @@
       </c>
       <c r="J43" s="25"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10">
       <c r="B44" s="25">
         <v>143</v>
       </c>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="J44" s="25"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10">
       <c r="B45" s="25">
         <v>144</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10">
       <c r="B46" s="25">
         <v>145</v>
       </c>
@@ -11367,7 +11367,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10">
       <c r="B47" s="25">
         <v>167</v>
       </c>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="J47" s="25"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10">
       <c r="B48" s="25">
         <v>168</v>
       </c>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="J48" s="25"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10">
       <c r="B49" s="25">
         <v>169</v>
       </c>
@@ -11416,7 +11416,7 @@
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="B50" s="25">
         <v>10</v>
       </c>
@@ -11431,7 +11431,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="B51" s="25">
         <v>11</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="B52" s="25">
         <v>12</v>
       </c>
@@ -11461,7 +11461,7 @@
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10">
       <c r="B53" s="25">
         <v>170</v>
       </c>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="B54" s="25">
         <v>171</v>
       </c>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10">
       <c r="B55" s="25">
         <v>172</v>
       </c>
@@ -11510,7 +11510,7 @@
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10">
       <c r="B56" s="25">
         <v>173</v>
       </c>
@@ -11525,7 +11525,7 @@
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10">
       <c r="B57" s="25">
         <v>174</v>
       </c>
@@ -11540,7 +11540,7 @@
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10">
       <c r="B58" s="25">
         <v>175</v>
       </c>
@@ -11555,7 +11555,7 @@
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10">
       <c r="B59" s="25">
         <v>176</v>
       </c>
@@ -11570,7 +11570,7 @@
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10">
       <c r="B60" s="25">
         <v>177</v>
       </c>
@@ -11585,7 +11585,7 @@
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10">
       <c r="B61" s="25">
         <v>105</v>
       </c>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="J61" s="25"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10">
       <c r="B62" s="25">
         <v>106</v>
       </c>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="J62" s="25"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10">
       <c r="B63" s="25">
         <v>107</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="J63" s="25"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10">
       <c r="B64" s="25">
         <v>110</v>
       </c>
@@ -11651,7 +11651,7 @@
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10">
       <c r="B65" s="25">
         <v>111</v>
       </c>
@@ -11666,7 +11666,7 @@
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10">
       <c r="B66" s="25">
         <v>112</v>
       </c>
@@ -11681,7 +11681,7 @@
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10">
       <c r="B67" s="25">
         <v>115</v>
       </c>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="J67" s="25"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10">
       <c r="B68" s="25">
         <v>116</v>
       </c>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="J68" s="25"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10">
       <c r="B69" s="25">
         <v>201</v>
       </c>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="J69" s="25"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10">
       <c r="B70" s="25">
         <v>197</v>
       </c>
@@ -11749,7 +11749,7 @@
       </c>
       <c r="J70" s="25"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10">
       <c r="B71" s="25">
         <v>198</v>
       </c>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="J71" s="25"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10">
       <c r="B72" s="25">
         <v>1</v>
       </c>
@@ -11781,7 +11781,7 @@
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10">
       <c r="B73" s="25">
         <v>2</v>
       </c>
@@ -11796,7 +11796,7 @@
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10">
       <c r="B74" s="25">
         <v>3</v>
       </c>
@@ -11811,7 +11811,7 @@
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10">
       <c r="B75" s="25">
         <v>4</v>
       </c>
@@ -11826,7 +11826,7 @@
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10">
       <c r="B76" s="25">
         <v>5</v>
       </c>
@@ -11841,7 +11841,7 @@
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10">
       <c r="B77" s="25">
         <v>76</v>
       </c>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="J77" s="25"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10">
       <c r="B78" s="25">
         <v>77</v>
       </c>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="J78" s="25"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10">
       <c r="B79" s="25">
         <v>78</v>
       </c>
@@ -11892,7 +11892,7 @@
       </c>
       <c r="J79" s="25"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10">
       <c r="B80" s="25">
         <v>81</v>
       </c>
@@ -11909,7 +11909,7 @@
       </c>
       <c r="J80" s="25"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10">
       <c r="B81" s="25">
         <v>82</v>
       </c>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="J81" s="25"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10">
       <c r="B82" s="25">
         <v>83</v>
       </c>
@@ -11943,7 +11943,7 @@
       </c>
       <c r="J82" s="25"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10">
       <c r="B83" s="25">
         <v>84</v>
       </c>
@@ -11960,7 +11960,7 @@
       </c>
       <c r="J83" s="25"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10">
       <c r="B84" s="25">
         <v>85</v>
       </c>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="J84" s="25"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10">
       <c r="B85" s="25">
         <v>86</v>
       </c>
@@ -11994,7 +11994,7 @@
       </c>
       <c r="J85" s="25"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10">
       <c r="B86" s="25">
         <v>22</v>
       </c>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="J86" s="25"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10">
       <c r="B87" s="25">
         <v>23</v>
       </c>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="J87" s="25"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10">
       <c r="B88" s="25">
         <v>24</v>
       </c>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="J88" s="25"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10">
       <c r="B89" s="25">
         <v>25</v>
       </c>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="J89" s="25"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10">
       <c r="B90" s="25">
         <v>26</v>
       </c>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="J90" s="25"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10">
       <c r="B91" s="25">
         <v>27</v>
       </c>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="J91" s="25"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10">
       <c r="B92" s="25">
         <v>30</v>
       </c>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="J92" s="25"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10">
       <c r="B93" s="25">
         <v>31</v>
       </c>
@@ -12130,7 +12130,7 @@
       </c>
       <c r="J93" s="25"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10">
       <c r="B94" s="25">
         <v>32</v>
       </c>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="J94" s="25"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10">
       <c r="B95" s="25">
         <v>33</v>
       </c>
@@ -12164,7 +12164,7 @@
       </c>
       <c r="J95" s="25"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10">
       <c r="B96" s="25">
         <v>34</v>
       </c>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="J96" s="25"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10">
       <c r="B97" s="25">
         <v>67</v>
       </c>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="J97" s="25"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10">
       <c r="B98" s="25">
         <v>68</v>
       </c>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="J98" s="25"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10">
       <c r="B99" s="25">
         <v>69</v>
       </c>
@@ -12232,7 +12232,7 @@
       </c>
       <c r="J99" s="25"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10">
       <c r="B100" s="25">
         <v>70</v>
       </c>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="J100" s="25"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10">
       <c r="B101" s="25">
         <v>71</v>
       </c>
@@ -12266,7 +12266,7 @@
       </c>
       <c r="J101" s="25"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10">
       <c r="B102" s="25">
         <v>72</v>
       </c>
@@ -12283,7 +12283,7 @@
       </c>
       <c r="J102" s="25"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10">
       <c r="B103" s="25">
         <v>75</v>
       </c>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="J103" s="25"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10">
       <c r="B104" s="25">
         <v>130</v>
       </c>
@@ -12317,7 +12317,7 @@
       </c>
       <c r="J104" s="25"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10">
       <c r="B105" s="25">
         <v>131</v>
       </c>
@@ -12332,7 +12332,7 @@
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10">
       <c r="B106" s="25">
         <v>134</v>
       </c>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="J106" s="25"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10">
       <c r="B107" s="25">
         <v>135</v>
       </c>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="J107" s="25"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10">
       <c r="B108" s="25">
         <v>136</v>
       </c>
@@ -12383,7 +12383,7 @@
       </c>
       <c r="J108" s="25"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10">
       <c r="B109" s="25">
         <v>137</v>
       </c>
@@ -12398,7 +12398,7 @@
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10">
       <c r="B110" s="25">
         <v>138</v>
       </c>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="J110" s="25"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10">
       <c r="B111" s="25">
         <v>180</v>
       </c>
@@ -12430,7 +12430,7 @@
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10">
       <c r="B112" s="25">
         <v>181</v>
       </c>
@@ -12445,7 +12445,7 @@
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10">
       <c r="B113" s="25">
         <v>182</v>
       </c>
@@ -12460,7 +12460,7 @@
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10">
       <c r="B114" s="25">
         <v>183</v>
       </c>
@@ -12475,7 +12475,7 @@
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10">
       <c r="B115" s="25">
         <v>184</v>
       </c>
@@ -12490,7 +12490,7 @@
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10">
       <c r="B116" s="25">
         <v>185</v>
       </c>
@@ -12505,7 +12505,7 @@
       <c r="I116" s="25"/>
       <c r="J116" s="25"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10">
       <c r="B117" s="25">
         <v>188</v>
       </c>
@@ -12522,7 +12522,7 @@
       </c>
       <c r="J117" s="25"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10">
       <c r="B118" s="25">
         <v>35</v>
       </c>
@@ -12539,7 +12539,7 @@
       </c>
       <c r="J118" s="25"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10">
       <c r="B119" s="25">
         <v>36</v>
       </c>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="J119" s="25"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10">
       <c r="B120" s="25">
         <v>48</v>
       </c>
@@ -12571,7 +12571,7 @@
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10">
       <c r="B121" s="25">
         <v>51</v>
       </c>
@@ -12585,7 +12585,7 @@
       <c r="H121" s="25"/>
       <c r="J121" s="25"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10">
       <c r="B122" s="25">
         <v>52</v>
       </c>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="J122" s="25"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10">
       <c r="B123" s="25">
         <v>53</v>
       </c>
@@ -12619,7 +12619,7 @@
       </c>
       <c r="J123" s="25"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10">
       <c r="B124" s="25">
         <v>92</v>
       </c>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="J124" s="25"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10">
       <c r="B125" s="25">
         <v>93</v>
       </c>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J125" s="25"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10">
       <c r="B126" s="25">
         <v>94</v>
       </c>
@@ -12668,7 +12668,7 @@
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10">
       <c r="B127" s="25">
         <v>95</v>
       </c>
@@ -12683,7 +12683,7 @@
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10">
       <c r="B128" s="25">
         <v>96</v>
       </c>
@@ -12698,7 +12698,7 @@
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10">
       <c r="B129" s="25">
         <v>97</v>
       </c>
@@ -12713,7 +12713,7 @@
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10">
       <c r="B130" s="25">
         <v>98</v>
       </c>
@@ -12728,7 +12728,7 @@
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10">
       <c r="B131" s="25">
         <v>156</v>
       </c>
@@ -12743,7 +12743,7 @@
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10">
       <c r="B132" s="25">
         <v>157</v>
       </c>
@@ -12758,7 +12758,7 @@
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10">
       <c r="B133" s="25">
         <v>158</v>
       </c>
@@ -12773,7 +12773,7 @@
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10">
       <c r="B134" s="25">
         <v>159</v>
       </c>
@@ -12790,7 +12790,7 @@
       </c>
       <c r="J134" s="25"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10">
       <c r="B135" s="25">
         <v>162</v>
       </c>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="J135" s="25"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10">
       <c r="B136" s="25">
         <v>163</v>
       </c>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="J136" s="25"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10">
       <c r="B137" s="25">
         <v>164</v>
       </c>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="J137" s="25"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10">
       <c r="B138" s="25">
         <v>203</v>
       </c>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="J138" s="25"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10">
       <c r="B139" s="25">
         <v>204</v>
       </c>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="J139" s="25"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10">
       <c r="B140" s="25">
         <v>205</v>
       </c>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="J140" s="25"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10">
       <c r="B141" s="25">
         <v>206</v>
       </c>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="J141" s="25"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10">
       <c r="B142" s="25">
         <v>9</v>
       </c>
@@ -12924,7 +12924,7 @@
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10">
       <c r="B143" s="25">
         <v>13</v>
       </c>
@@ -12939,7 +12939,7 @@
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10">
       <c r="B144" s="25">
         <v>14</v>
       </c>
@@ -12954,7 +12954,7 @@
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10">
       <c r="B145" s="25">
         <v>15</v>
       </c>
@@ -12969,7 +12969,7 @@
       <c r="I145" s="25"/>
       <c r="J145" s="25"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10">
       <c r="B146" s="25">
         <v>66</v>
       </c>
@@ -12984,7 +12984,7 @@
       <c r="I146" s="25"/>
       <c r="J146" s="25"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10">
       <c r="B147" s="25">
         <v>117</v>
       </c>
@@ -12999,7 +12999,7 @@
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10">
       <c r="B148" s="25">
         <v>118</v>
       </c>
@@ -13014,7 +13014,7 @@
       <c r="I148" s="25"/>
       <c r="J148" s="25"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10">
       <c r="B149" s="25">
         <v>121</v>
       </c>
@@ -13029,7 +13029,7 @@
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10">
       <c r="B150" s="25">
         <v>122</v>
       </c>
@@ -13044,7 +13044,7 @@
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10">
       <c r="B151" s="25">
         <v>123</v>
       </c>
@@ -13059,7 +13059,7 @@
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:10">
       <c r="B152" s="25">
         <v>124</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:10">
       <c r="B153" s="25">
         <v>127</v>
       </c>
@@ -13089,7 +13089,7 @@
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:10">
       <c r="B154" s="25">
         <v>128</v>
       </c>
@@ -13104,7 +13104,7 @@
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:10">
       <c r="B155" s="25">
         <v>129</v>
       </c>
@@ -13119,7 +13119,7 @@
       <c r="I155" s="25"/>
       <c r="J155" s="25"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:10">
       <c r="B156" s="25">
         <v>8</v>
       </c>
@@ -13136,7 +13136,7 @@
       </c>
       <c r="J156" s="25"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:10">
       <c r="B157" s="25">
         <v>89</v>
       </c>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="J157" s="25"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:10">
       <c r="B158" s="25">
         <v>152</v>
       </c>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="J158" s="25"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:10">
       <c r="B159" s="25">
         <v>199</v>
       </c>
@@ -13187,7 +13187,7 @@
       </c>
       <c r="J159" s="25"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:10">
       <c r="B160" s="25">
         <v>7</v>
       </c>
@@ -13204,7 +13204,7 @@
       </c>
       <c r="J160" s="25"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:10">
       <c r="B161" s="25">
         <v>17</v>
       </c>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="J161" s="25"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:10">
       <c r="B162" s="25">
         <v>29</v>
       </c>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="J162" s="25"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:10">
       <c r="B163" s="25">
         <v>49</v>
       </c>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="J163" s="25"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:10">
       <c r="B164" s="25">
         <v>56</v>
       </c>
@@ -13272,7 +13272,7 @@
       </c>
       <c r="J164" s="25"/>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:10">
       <c r="B165" s="25">
         <v>74</v>
       </c>
@@ -13289,7 +13289,7 @@
       </c>
       <c r="J165" s="25"/>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:10">
       <c r="B166" s="25">
         <v>80</v>
       </c>
@@ -13306,7 +13306,7 @@
       </c>
       <c r="J166" s="25"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:10">
       <c r="B167" s="25">
         <v>100</v>
       </c>
@@ -13323,7 +13323,7 @@
       </c>
       <c r="J167" s="25"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:10">
       <c r="B168" s="25">
         <v>108</v>
       </c>
@@ -13340,7 +13340,7 @@
       </c>
       <c r="J168" s="25"/>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:10">
       <c r="B169" s="25">
         <v>114</v>
       </c>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="J169" s="25"/>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:10">
       <c r="B170" s="25">
         <v>119</v>
       </c>
@@ -13374,7 +13374,7 @@
       </c>
       <c r="J170" s="25"/>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:10">
       <c r="B171" s="25">
         <v>125</v>
       </c>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="J171" s="25"/>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:10">
       <c r="B172" s="25">
         <v>133</v>
       </c>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="J172" s="25"/>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:10">
       <c r="B173" s="25">
         <v>155</v>
       </c>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="J173" s="25"/>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:10">
       <c r="B174" s="25">
         <v>161</v>
       </c>
@@ -13442,7 +13442,7 @@
       </c>
       <c r="J174" s="25"/>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:10">
       <c r="B175" s="25">
         <v>179</v>
       </c>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="J175" s="25"/>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:10">
       <c r="B176" s="25">
         <v>187</v>
       </c>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="J176" s="25"/>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:10">
       <c r="B177" s="25">
         <v>208</v>
       </c>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="J177" s="25"/>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:10">
       <c r="B178" s="25">
         <v>141</v>
       </c>
@@ -13510,7 +13510,7 @@
       </c>
       <c r="J178" s="25"/>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:10">
       <c r="B179" s="25">
         <v>140</v>
       </c>
@@ -13527,7 +13527,7 @@
       </c>
       <c r="J179" s="25"/>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:10">
       <c r="B180" s="25">
         <v>44</v>
       </c>
@@ -13544,7 +13544,7 @@
       </c>
       <c r="J180" s="25"/>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:10">
       <c r="B181" s="25">
         <v>91</v>
       </c>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="J181" s="25"/>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:10">
       <c r="B182" s="25">
         <v>154</v>
       </c>
@@ -13578,7 +13578,7 @@
       </c>
       <c r="J182" s="25"/>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:10">
       <c r="B183" s="25">
         <v>202</v>
       </c>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="J183" s="25"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:10">
       <c r="B184" s="25">
         <v>20</v>
       </c>
@@ -13612,7 +13612,7 @@
       </c>
       <c r="J184" s="25"/>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:10">
       <c r="B185" s="25">
         <v>21</v>
       </c>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="J185" s="25"/>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:10">
       <c r="B186" s="25">
         <v>19</v>
       </c>
@@ -13646,7 +13646,7 @@
       </c>
       <c r="J186" s="25"/>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:10">
       <c r="B187" s="25">
         <v>43</v>
       </c>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="J187" s="25"/>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:10">
       <c r="B188" s="25">
         <v>6</v>
       </c>
@@ -13680,7 +13680,7 @@
       </c>
       <c r="J188" s="25"/>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:10">
       <c r="B189" s="25">
         <v>16</v>
       </c>
@@ -13697,7 +13697,7 @@
       </c>
       <c r="J189" s="25"/>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:10">
       <c r="B190" s="25">
         <v>28</v>
       </c>
@@ -13714,7 +13714,7 @@
       </c>
       <c r="J190" s="25"/>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:10">
       <c r="B191" s="25">
         <v>50</v>
       </c>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="J191" s="25"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:10">
       <c r="B192" s="25">
         <v>55</v>
       </c>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="J192" s="25"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:10">
       <c r="B193" s="25">
         <v>73</v>
       </c>
@@ -13765,7 +13765,7 @@
       </c>
       <c r="J193" s="25"/>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:10">
       <c r="B194" s="25">
         <v>79</v>
       </c>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="J194" s="25"/>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:10">
       <c r="B195" s="25">
         <v>90</v>
       </c>
@@ -13799,7 +13799,7 @@
       </c>
       <c r="J195" s="25"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:10">
       <c r="B196" s="25">
         <v>99</v>
       </c>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="J196" s="25"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:10">
       <c r="B197" s="25">
         <v>109</v>
       </c>
@@ -13833,7 +13833,7 @@
       </c>
       <c r="J197" s="25"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:10">
       <c r="B198" s="25">
         <v>113</v>
       </c>
@@ -13850,7 +13850,7 @@
       </c>
       <c r="J198" s="25"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:10">
       <c r="B199" s="25">
         <v>120</v>
       </c>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="J199" s="25"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:10">
       <c r="B200" s="25">
         <v>126</v>
       </c>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="J200" s="25"/>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:10">
       <c r="B201" s="25">
         <v>132</v>
       </c>
@@ -13901,7 +13901,7 @@
       </c>
       <c r="J201" s="25"/>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:10">
       <c r="B202" s="25">
         <v>139</v>
       </c>
@@ -13918,7 +13918,7 @@
       </c>
       <c r="J202" s="25"/>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:10">
       <c r="B203" s="25">
         <v>153</v>
       </c>
@@ -13935,7 +13935,7 @@
       </c>
       <c r="J203" s="25"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:10">
       <c r="B204" s="25">
         <v>160</v>
       </c>
@@ -13952,7 +13952,7 @@
       </c>
       <c r="J204" s="25"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:10">
       <c r="B205" s="25">
         <v>178</v>
       </c>
@@ -13969,7 +13969,7 @@
       </c>
       <c r="J205" s="25"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:10">
       <c r="B206" s="25">
         <v>186</v>
       </c>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="J206" s="25"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:10">
       <c r="B207" s="25">
         <v>200</v>
       </c>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="J207" s="25"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:10">
       <c r="B208" s="25">
         <v>207</v>
       </c>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="J208" s="25"/>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:10">
       <c r="B209" s="25">
         <v>42</v>
       </c>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="J209" s="25"/>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:10">
       <c r="B210" s="25">
         <v>18</v>
       </c>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4420ADF-2E68-4B18-8E03-B9B0644A75CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424C8D74-DE65-48F7-8228-67FEB84E1F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="675" windowWidth="22920" windowHeight="15420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40245" yWindow="840" windowWidth="22920" windowHeight="14655" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="766">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2036,86 +2036,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IMU_SPI_SCLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMU_SPI_MOSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMU_SPI_MISO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMU_SPI_CS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMU_SPI_CS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMU_I2C_SCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMU_ISC_SDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS_UART_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS_UART_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXT_UART_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXT_UART_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPD_PMIC_INTN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPD_PMIC_PWR_GOOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPD_PMIC_VCOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPD_PMIC_SDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPD_PMIC_SCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPD_PMIC_PWRUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPD_PMIC_WAKEUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EPD_CL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EPD_DE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EPD_SPH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2172,102 +2096,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KEY_POWER(WAKEUP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_D[0::15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_A[0:12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_BA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_BA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_NBL0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_NBL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_NEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_NCAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_NRAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_NE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_CLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM_CKE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOR_DQ[0::3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOR_NCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOR_CLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_FS_VBUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_FS_DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_FS_DN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_FS_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_FS_PWR_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_FS_OVCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PWR_5V_EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWR_PERIH_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PWR_BAT+_EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2276,34 +2108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARIO_UART_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARIO_UART_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EINK_MISO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EINK_MOSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EINK_SCLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EINK_CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED_???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USART3_RX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3141,6 +2945,10 @@
   </si>
   <si>
     <t>PWR_EN_BAT+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_BATTERY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6077,8 +5885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
   <dimension ref="B2:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6097,7 +5905,7 @@
     <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:10">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -6117,16 +5925,16 @@
         <v>5</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>812</v>
+        <v>763</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>782</v>
+        <v>733</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="25">
         <v>167</v>
       </c>
@@ -6148,11 +5956,8 @@
       <c r="J3" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="L3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="25">
         <v>33</v>
       </c>
@@ -6174,16 +5979,13 @@
       <c r="J4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="25">
         <v>41</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>636</v>
+        <v>587</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>20</v>
@@ -6195,21 +5997,18 @@
         <v>370</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>807</v>
+        <v>758</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>596</v>
-      </c>
-      <c r="L5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="25">
         <v>42</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>20</v>
@@ -6221,18 +6020,15 @@
         <v>371</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>811</v>
-      </c>
-      <c r="L6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="25">
         <v>43</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>20</v>
@@ -6252,16 +6048,13 @@
       <c r="J7" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="L7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="25">
         <v>46</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>373</v>
@@ -6282,12 +6075,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:10">
       <c r="B9" s="25">
         <v>49</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>640</v>
+        <v>591</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>20</v>
@@ -6307,16 +6100,13 @@
       <c r="J9" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="L9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="25">
         <v>50</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>641</v>
+        <v>592</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>20</v>
@@ -6336,16 +6126,13 @@
       <c r="J10" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="L10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="25">
         <v>51</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>20</v>
@@ -6365,16 +6152,13 @@
       <c r="J11" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="L11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="25">
         <v>52</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>643</v>
+        <v>594</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>20</v>
@@ -6394,16 +6178,13 @@
       <c r="J12" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="L12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="25">
         <v>127</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>644</v>
+        <v>595</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>20</v>
@@ -6415,21 +6196,21 @@
         <v>433</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="25">
         <v>128</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>645</v>
+        <v>596</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>20</v>
@@ -6447,16 +6228,13 @@
         <v>91</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>589</v>
+        <v>540</v>
       </c>
       <c r="J14" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="L14" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="25">
         <v>129</v>
       </c>
@@ -6476,16 +6254,13 @@
         <v>90</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="J15" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="L15" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="25">
         <v>130</v>
       </c>
@@ -6511,7 +6286,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:10">
       <c r="B17" s="25">
         <v>131</v>
       </c>
@@ -6536,11 +6311,8 @@
       <c r="J17" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="L17" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="25">
         <v>132</v>
       </c>
@@ -6557,19 +6329,16 @@
         <v>438</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>772</v>
+        <v>723</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>772</v>
+        <v>723</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>772</v>
-      </c>
-      <c r="L18" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="25">
         <v>138</v>
       </c>
@@ -6586,16 +6355,16 @@
         <v>437</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="25">
         <v>139</v>
       </c>
@@ -6620,16 +6389,13 @@
       <c r="J20" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="L20" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="25">
         <v>55</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>646</v>
+        <v>597</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>20</v>
@@ -6641,24 +6407,21 @@
         <v>387</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>803</v>
+        <v>754</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="L21" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="25">
         <v>56</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>647</v>
+        <v>598</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>20</v>
@@ -6670,21 +6433,18 @@
         <v>386</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>804</v>
+        <v>755</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="L22" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="25">
         <v>57</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>648</v>
+        <v>599</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>20</v>
@@ -6696,18 +6456,15 @@
         <v>385</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>805</v>
-      </c>
-      <c r="L23" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="25">
         <v>162</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>733</v>
+        <v>684</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>373</v>
@@ -6719,24 +6476,21 @@
         <v>453</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>783</v>
-      </c>
-      <c r="L24" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="25">
         <v>163</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>734</v>
+        <v>685</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>373</v>
@@ -6756,16 +6510,13 @@
       <c r="J25" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="L25" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="25">
         <v>164</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>735</v>
+        <v>686</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>373</v>
@@ -6785,16 +6536,13 @@
       <c r="J26" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="L26" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="25">
         <v>165</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>652</v>
+        <v>603</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>373</v>
@@ -6815,12 +6563,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:10">
       <c r="B28" s="25">
         <v>166</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>653</v>
+        <v>604</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>373</v>
@@ -6840,16 +6588,13 @@
       <c r="J28" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="L28" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="25">
         <v>168</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>373</v>
@@ -6869,16 +6614,13 @@
       <c r="J29" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="L29" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="25">
         <v>169</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>655</v>
+        <v>606</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>373</v>
@@ -6890,7 +6632,7 @@
         <v>461</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="I30" s="36" t="s">
         <v>265</v>
@@ -6898,11 +6640,8 @@
       <c r="J30" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="L30" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="25">
         <v>78</v>
       </c>
@@ -6919,19 +6658,16 @@
         <v>404</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>573</v>
-      </c>
-      <c r="L31" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="25">
         <v>79</v>
       </c>
@@ -6948,19 +6684,16 @@
         <v>405</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="J32" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="L32" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="25">
         <v>85</v>
       </c>
@@ -6977,19 +6710,16 @@
         <v>407</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>786</v>
+        <v>737</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="L33" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="25">
         <v>86</v>
       </c>
@@ -7006,19 +6736,16 @@
         <v>408</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>575</v>
-      </c>
-      <c r="L34" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:10">
       <c r="B35" s="25">
         <v>87</v>
       </c>
@@ -7043,11 +6770,8 @@
       <c r="J35" s="36" t="s">
         <v>492</v>
       </c>
-      <c r="L35" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="25">
         <v>88</v>
       </c>
@@ -7072,16 +6796,13 @@
       <c r="J36" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="L36" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="25">
         <v>34</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>656</v>
+        <v>607</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>20</v>
@@ -7101,16 +6822,13 @@
       <c r="J37" s="36" t="s">
         <v>464</v>
       </c>
-      <c r="L37" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="25">
         <v>35</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>657</v>
+        <v>608</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>20</v>
@@ -7121,22 +6839,22 @@
       <c r="F38" s="25" t="s">
         <v>367</v>
       </c>
+      <c r="H38" s="25" t="s">
+        <v>765</v>
+      </c>
       <c r="I38" s="36" t="s">
         <v>367</v>
       </c>
       <c r="J38" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="L38" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12">
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="25">
         <v>36</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>658</v>
+        <v>609</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>361</v>
@@ -7154,16 +6872,13 @@
       <c r="J39" s="36" t="s">
         <v>487</v>
       </c>
-      <c r="L39" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="25">
         <v>37</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>659</v>
+        <v>610</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>361</v>
@@ -7175,18 +6890,15 @@
         <v>369</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>806</v>
-      </c>
-      <c r="L40" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="25">
         <v>53</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>660</v>
+        <v>611</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>20</v>
@@ -7201,21 +6913,18 @@
         <v>263</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="L41" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="25">
         <v>54</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>661</v>
+        <v>612</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>20</v>
@@ -7230,18 +6939,18 @@
         <v>262</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>577</v>
+        <v>528</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="25">
         <v>122</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>662</v>
+        <v>613</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>20</v>
@@ -7256,21 +6965,18 @@
         <v>260</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="J43" s="39" t="s">
-        <v>571</v>
-      </c>
-      <c r="L43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="25">
         <v>123</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>663</v>
+        <v>614</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>20</v>
@@ -7285,21 +6991,18 @@
         <v>261</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="J44" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="L44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" s="25">
         <v>124</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>664</v>
+        <v>615</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>20</v>
@@ -7314,21 +7017,18 @@
         <v>264</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>578</v>
-      </c>
-      <c r="L45" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46" s="25">
         <v>125</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>665</v>
+        <v>616</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>20</v>
@@ -7343,16 +7043,13 @@
         <v>265</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>592</v>
+        <v>543</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>592</v>
-      </c>
-      <c r="L46" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47" s="25">
         <v>140</v>
       </c>
@@ -7377,11 +7074,8 @@
       <c r="J47" s="36" t="s">
         <v>490</v>
       </c>
-      <c r="L47" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12">
+    </row>
+    <row r="48" spans="2:10">
       <c r="B48" s="25">
         <v>141</v>
       </c>
@@ -7398,19 +7092,16 @@
         <v>441</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
       <c r="J48" s="39" t="s">
-        <v>569</v>
-      </c>
-      <c r="L48" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49" s="25">
         <v>142</v>
       </c>
@@ -7427,19 +7118,16 @@
         <v>442</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>579</v>
-      </c>
-      <c r="L49" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50" s="25">
         <v>9</v>
       </c>
@@ -7453,19 +7141,16 @@
         <v>339</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>808</v>
+        <v>759</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="L50" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51" s="25">
         <v>10</v>
       </c>
@@ -7482,16 +7167,13 @@
         <v>342</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>535</v>
-      </c>
-      <c r="L51" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52" s="25">
         <v>11</v>
       </c>
@@ -7514,12 +7196,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:10">
       <c r="B53" s="25">
         <v>143</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>666</v>
+        <v>617</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>373</v>
@@ -7531,24 +7213,21 @@
         <v>443</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>764</v>
+        <v>715</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>764</v>
+        <v>715</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>764</v>
-      </c>
-      <c r="L53" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
       <c r="B54" s="25">
         <v>144</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>667</v>
+        <v>618</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>373</v>
@@ -7560,24 +7239,21 @@
         <v>444</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>765</v>
+        <v>716</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>765</v>
+        <v>716</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>765</v>
-      </c>
-      <c r="L54" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
       <c r="B55" s="25">
         <v>145</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>668</v>
+        <v>619</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>373</v>
@@ -7589,24 +7265,21 @@
         <v>445</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="J55" s="38" t="s">
-        <v>529</v>
-      </c>
-      <c r="L55" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
       <c r="B56" s="25">
         <v>146</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>669</v>
+        <v>620</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>373</v>
@@ -7618,7 +7291,7 @@
         <v>446</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>774</v>
+        <v>725</v>
       </c>
       <c r="I56" s="40" t="s">
         <v>491</v>
@@ -7626,16 +7299,13 @@
       <c r="J56" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="L56" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
+    </row>
+    <row r="57" spans="2:10">
       <c r="B57" s="25">
         <v>147</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>670</v>
+        <v>621</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>373</v>
@@ -7647,24 +7317,21 @@
         <v>447</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>775</v>
+        <v>726</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>581</v>
+        <v>532</v>
       </c>
       <c r="J57" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="L57" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
       <c r="B58" s="25">
         <v>148</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>671</v>
+        <v>622</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>373</v>
@@ -7676,24 +7343,21 @@
         <v>477</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>776</v>
+        <v>727</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>582</v>
+        <v>533</v>
       </c>
       <c r="J58" s="41" t="s">
-        <v>531</v>
-      </c>
-      <c r="L58" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
       <c r="B59" s="25">
         <v>149</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>672</v>
+        <v>623</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>373</v>
@@ -7705,24 +7369,21 @@
         <v>431</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>777</v>
+        <v>728</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>583</v>
+        <v>534</v>
       </c>
       <c r="J59" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="L59" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
       <c r="B60" s="25">
         <v>150</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>673</v>
+        <v>624</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>373</v>
@@ -7734,24 +7395,21 @@
         <v>432</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>778</v>
+        <v>729</v>
       </c>
       <c r="I60" s="42" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="J60" s="41" t="s">
-        <v>533</v>
-      </c>
-      <c r="L60" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61" s="25">
         <v>89</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>674</v>
+        <v>625</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>20</v>
@@ -7771,16 +7429,13 @@
       <c r="J61" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="L61" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12">
+    </row>
+    <row r="62" spans="2:10">
       <c r="B62" s="25">
         <v>90</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>675</v>
+        <v>626</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>20</v>
@@ -7800,11 +7455,8 @@
       <c r="J62" s="36" t="s">
         <v>470</v>
       </c>
-      <c r="L62" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12">
+    </row>
+    <row r="63" spans="2:10">
       <c r="B63" s="25">
         <v>91</v>
       </c>
@@ -7829,11 +7481,8 @@
       <c r="J63" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="L63" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12">
+    </row>
+    <row r="64" spans="2:10">
       <c r="B64" s="25">
         <v>94</v>
       </c>
@@ -7850,19 +7499,16 @@
         <v>415</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="J64" s="38" t="s">
-        <v>526</v>
-      </c>
-      <c r="L64" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
       <c r="B65" s="25">
         <v>95</v>
       </c>
@@ -7879,16 +7525,16 @@
         <v>416</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="J65" s="41" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
       <c r="B66" s="25">
         <v>96</v>
       </c>
@@ -7905,19 +7551,16 @@
         <v>417</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="I66" s="36" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="J66" s="41" t="s">
-        <v>528</v>
-      </c>
-      <c r="L66" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" s="25">
         <v>97</v>
       </c>
@@ -7934,19 +7577,16 @@
         <v>418</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
       <c r="I67" s="36" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>762</v>
-      </c>
-      <c r="L67" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
       <c r="B68" s="25">
         <v>98</v>
       </c>
@@ -7963,19 +7603,16 @@
         <v>419</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>763</v>
+        <v>714</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>763</v>
+        <v>714</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>763</v>
-      </c>
-      <c r="L68" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
       <c r="B69" s="25">
         <v>174</v>
       </c>
@@ -7998,12 +7635,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="2:10">
       <c r="B70" s="25">
         <v>170</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>676</v>
+        <v>627</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>373</v>
@@ -8023,16 +7660,13 @@
       <c r="J70" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="L70" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12">
+    </row>
+    <row r="71" spans="2:10">
       <c r="B71" s="25">
         <v>171</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>677</v>
+        <v>628</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>373</v>
@@ -8052,16 +7686,13 @@
       <c r="J71" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L71" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12">
+    </row>
+    <row r="72" spans="2:10">
       <c r="B72" s="25">
         <v>1</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>678</v>
+        <v>629</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>20</v>
@@ -8073,7 +7704,7 @@
         <v>356</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>790</v>
+        <v>741</v>
       </c>
       <c r="I72" s="25" t="s">
         <v>263</v>
@@ -8081,16 +7712,13 @@
       <c r="J72" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="L72" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12">
+    </row>
+    <row r="73" spans="2:10">
       <c r="B73" s="25">
         <v>2</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>679</v>
+        <v>630</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>20</v>
@@ -8102,7 +7730,7 @@
         <v>340</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>794</v>
+        <v>745</v>
       </c>
       <c r="I73" s="25" t="s">
         <v>262</v>
@@ -8110,16 +7738,13 @@
       <c r="J73" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="L73" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12">
+    </row>
+    <row r="74" spans="2:10">
       <c r="B74" s="25">
         <v>3</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>680</v>
+        <v>631</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>20</v>
@@ -8131,7 +7756,7 @@
         <v>357</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>793</v>
+        <v>744</v>
       </c>
       <c r="I74" s="25" t="s">
         <v>260</v>
@@ -8140,12 +7765,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:10">
       <c r="B75" s="25">
         <v>4</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>681</v>
+        <v>632</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>20</v>
@@ -8157,7 +7782,7 @@
         <v>358</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>791</v>
+        <v>742</v>
       </c>
       <c r="I75" s="25" t="s">
         <v>261</v>
@@ -8165,16 +7790,13 @@
       <c r="J75" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="L75" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12">
+    </row>
+    <row r="76" spans="2:10">
       <c r="B76" s="25">
         <v>5</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>682</v>
+        <v>633</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>20</v>
@@ -8186,24 +7808,21 @@
         <v>359</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>792</v>
+        <v>743</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="J76" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="L76" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
       <c r="B77" s="25">
         <v>67</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>683</v>
+        <v>634</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>20</v>
@@ -8215,24 +7834,21 @@
         <v>395</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>785</v>
+        <v>736</v>
       </c>
       <c r="I77" s="36" t="s">
-        <v>766</v>
+        <v>717</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>766</v>
-      </c>
-      <c r="L77" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
       <c r="B78" s="25">
         <v>68</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>684</v>
+        <v>635</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>20</v>
@@ -8244,24 +7860,21 @@
         <v>396</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="I78" s="36" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>767</v>
-      </c>
-      <c r="L78" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
       <c r="B79" s="25">
         <v>69</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>685</v>
+        <v>636</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>20</v>
@@ -8273,19 +7886,16 @@
         <v>397</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
       <c r="I79" s="36" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
       <c r="J79" s="36" t="s">
-        <v>768</v>
-      </c>
-      <c r="L79" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
       <c r="B80" s="25">
         <v>72</v>
       </c>
@@ -8302,16 +7912,16 @@
         <v>398</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>769</v>
+        <v>720</v>
       </c>
       <c r="I80" s="36" t="s">
-        <v>769</v>
+        <v>720</v>
       </c>
       <c r="J80" s="36" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
       <c r="B81" s="25">
         <v>73</v>
       </c>
@@ -8328,19 +7938,16 @@
         <v>399</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
       <c r="I81" s="36" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
       <c r="J81" s="36" t="s">
-        <v>770</v>
-      </c>
-      <c r="L81" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
       <c r="B82" s="25">
         <v>74</v>
       </c>
@@ -8357,19 +7964,16 @@
         <v>400</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>771</v>
+        <v>722</v>
       </c>
       <c r="I82" s="36" t="s">
-        <v>771</v>
+        <v>722</v>
       </c>
       <c r="J82" s="36" t="s">
-        <v>771</v>
-      </c>
-      <c r="L82" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
       <c r="B83" s="25">
         <v>75</v>
       </c>
@@ -8394,11 +7998,8 @@
       <c r="J83" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="L83" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12">
+    </row>
+    <row r="84" spans="2:10">
       <c r="B84" s="25">
         <v>76</v>
       </c>
@@ -8423,11 +8024,8 @@
       <c r="J84" s="36" t="s">
         <v>467</v>
       </c>
-      <c r="L84" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12">
+    </row>
+    <row r="85" spans="2:10">
       <c r="B85" s="25">
         <v>77</v>
       </c>
@@ -8453,12 +8051,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="86" spans="2:12">
+    <row r="86" spans="2:10">
       <c r="B86" s="25">
         <v>18</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>20</v>
@@ -8470,24 +8068,21 @@
         <v>353</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>750</v>
+        <v>701</v>
       </c>
       <c r="I86" s="36" t="s">
-        <v>750</v>
+        <v>701</v>
       </c>
       <c r="J86" s="36" t="s">
-        <v>750</v>
-      </c>
-      <c r="L86" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
       <c r="B87" s="25">
         <v>19</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>20</v>
@@ -8499,24 +8094,21 @@
         <v>354</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>751</v>
+        <v>702</v>
       </c>
       <c r="I87" s="36" t="s">
-        <v>752</v>
+        <v>703</v>
       </c>
       <c r="J87" s="36" t="s">
-        <v>752</v>
-      </c>
-      <c r="L87" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
       <c r="B88" s="25">
         <v>20</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>20</v>
@@ -8528,21 +8120,21 @@
         <v>355</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>753</v>
+        <v>704</v>
       </c>
       <c r="I88" s="36" t="s">
-        <v>754</v>
+        <v>705</v>
       </c>
       <c r="J88" s="36" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
       <c r="B89" s="25">
         <v>21</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>689</v>
+        <v>640</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>20</v>
@@ -8554,24 +8146,21 @@
         <v>346</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>755</v>
+        <v>706</v>
       </c>
       <c r="I89" s="36" t="s">
-        <v>755</v>
+        <v>706</v>
       </c>
       <c r="J89" s="36" t="s">
-        <v>755</v>
-      </c>
-      <c r="L89" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
       <c r="B90" s="25">
         <v>22</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>690</v>
+        <v>641</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>20</v>
@@ -8583,24 +8172,21 @@
         <v>348</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>756</v>
+        <v>707</v>
       </c>
       <c r="I90" s="36" t="s">
-        <v>756</v>
+        <v>707</v>
       </c>
       <c r="J90" s="36" t="s">
-        <v>756</v>
-      </c>
-      <c r="L90" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
       <c r="B91" s="25">
         <v>23</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>691</v>
+        <v>642</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>20</v>
@@ -8612,24 +8198,21 @@
         <v>349</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>757</v>
+        <v>708</v>
       </c>
       <c r="I91" s="36" t="s">
-        <v>757</v>
+        <v>708</v>
       </c>
       <c r="J91" s="36" t="s">
-        <v>757</v>
-      </c>
-      <c r="L91" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
       <c r="B92" s="25">
         <v>26</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>692</v>
+        <v>643</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>20</v>
@@ -8649,16 +8232,13 @@
       <c r="J92" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="L92" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12">
+    </row>
+    <row r="93" spans="2:10">
       <c r="B93" s="25">
         <v>27</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>693</v>
+        <v>644</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>20</v>
@@ -8679,12 +8259,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="94" spans="2:12">
+    <row r="94" spans="2:10">
       <c r="B94" s="25">
         <v>28</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>694</v>
+        <v>645</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>20</v>
@@ -8704,16 +8284,13 @@
       <c r="J94" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="L94" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12">
+    </row>
+    <row r="95" spans="2:10">
       <c r="B95" s="25">
         <v>29</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>695</v>
+        <v>646</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>20</v>
@@ -8725,7 +8302,7 @@
         <v>360</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>739</v>
+        <v>690</v>
       </c>
       <c r="I95" s="36" t="s">
         <v>483</v>
@@ -8734,7 +8311,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="96" spans="2:12">
+    <row r="96" spans="2:10">
       <c r="B96" s="25">
         <v>30</v>
       </c>
@@ -8803,13 +8380,13 @@
         <v>383</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>784</v>
+        <v>735</v>
       </c>
       <c r="I98" s="36" t="s">
-        <v>758</v>
+        <v>709</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>758</v>
+        <v>709</v>
       </c>
     </row>
     <row r="99" spans="2:10">
@@ -8829,13 +8406,13 @@
         <v>382</v>
       </c>
       <c r="H99" s="25" t="s">
-        <v>759</v>
+        <v>710</v>
       </c>
       <c r="I99" s="36" t="s">
-        <v>759</v>
+        <v>710</v>
       </c>
       <c r="J99" s="36" t="s">
-        <v>759</v>
+        <v>710</v>
       </c>
     </row>
     <row r="100" spans="2:10">
@@ -8855,13 +8432,13 @@
         <v>391</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>760</v>
+        <v>711</v>
       </c>
       <c r="I100" s="36" t="s">
-        <v>760</v>
+        <v>711</v>
       </c>
       <c r="J100" s="36" t="s">
-        <v>760</v>
+        <v>711</v>
       </c>
     </row>
     <row r="101" spans="2:10">
@@ -8881,13 +8458,13 @@
         <v>392</v>
       </c>
       <c r="H101" s="25" t="s">
-        <v>761</v>
+        <v>712</v>
       </c>
       <c r="I101" s="36" t="s">
-        <v>761</v>
+        <v>712</v>
       </c>
       <c r="J101" s="36" t="s">
-        <v>761</v>
+        <v>712</v>
       </c>
     </row>
     <row r="102" spans="2:10">
@@ -8895,7 +8472,7 @@
         <v>63</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>696</v>
+        <v>647</v>
       </c>
       <c r="D102" s="25" t="s">
         <v>20</v>
@@ -8921,7 +8498,7 @@
         <v>66</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>697</v>
+        <v>648</v>
       </c>
       <c r="D103" s="25" t="s">
         <v>20</v>
@@ -8947,7 +8524,7 @@
         <v>110</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>698</v>
+        <v>649</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>20</v>
@@ -8962,10 +8539,10 @@
         <v>426</v>
       </c>
       <c r="I104" s="39" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="J104" s="42" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
     </row>
     <row r="105" spans="2:10">
@@ -8973,7 +8550,7 @@
         <v>111</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>699</v>
+        <v>650</v>
       </c>
       <c r="D105" s="25" t="s">
         <v>20</v>
@@ -8985,13 +8562,13 @@
         <v>427</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="I105" s="39" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="J105" s="38" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
     </row>
     <row r="106" spans="2:10">
@@ -8999,7 +8576,7 @@
         <v>114</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>700</v>
+        <v>651</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>20</v>
@@ -9025,7 +8602,7 @@
         <v>115</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>701</v>
+        <v>652</v>
       </c>
       <c r="D107" s="25" t="s">
         <v>20</v>
@@ -9051,7 +8628,7 @@
         <v>116</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>20</v>
@@ -9077,7 +8654,7 @@
         <v>117</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>703</v>
+        <v>654</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>20</v>
@@ -9089,13 +8666,13 @@
         <v>429</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>809</v>
+        <v>760</v>
       </c>
       <c r="I109" s="36" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="J109" s="36" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110" spans="2:10">
@@ -9103,7 +8680,7 @@
         <v>118</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>704</v>
+        <v>655</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>20</v>
@@ -9129,7 +8706,7 @@
         <v>153</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>705</v>
+        <v>656</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>373</v>
@@ -9141,13 +8718,13 @@
         <v>478</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>799</v>
+        <v>750</v>
       </c>
       <c r="I111" s="36" t="s">
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="J111" s="36" t="s">
-        <v>558</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="2:10">
@@ -9167,13 +8744,13 @@
         <v>448</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>800</v>
+        <v>751</v>
       </c>
       <c r="I112" s="36" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="J112" s="36" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
     </row>
     <row r="113" spans="2:12">
@@ -9193,13 +8770,13 @@
         <v>234</v>
       </c>
       <c r="H113" s="25" t="s">
-        <v>801</v>
+        <v>752</v>
       </c>
       <c r="I113" s="36" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
       <c r="J113" s="36" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114" spans="2:12">
@@ -9219,7 +8796,7 @@
         <v>449</v>
       </c>
       <c r="H114" s="25" t="s">
-        <v>802</v>
+        <v>753</v>
       </c>
       <c r="I114" s="36" t="s">
         <v>282</v>
@@ -9245,13 +8822,13 @@
         <v>450</v>
       </c>
       <c r="H115" s="25" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="I115" s="36" t="s">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="J115" s="36" t="s">
-        <v>587</v>
+        <v>538</v>
       </c>
     </row>
     <row r="116" spans="2:12">
@@ -9271,7 +8848,7 @@
         <v>451</v>
       </c>
       <c r="H116" s="44" t="s">
-        <v>810</v>
+        <v>761</v>
       </c>
       <c r="I116" s="36" t="s">
         <v>284</v>
@@ -9311,7 +8888,7 @@
         <v>31</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>706</v>
+        <v>657</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>20</v>
@@ -9323,7 +8900,7 @@
         <v>11</v>
       </c>
       <c r="H118" s="25" t="s">
-        <v>740</v>
+        <v>691</v>
       </c>
       <c r="I118" s="36" t="s">
         <v>11</v>
@@ -9338,7 +8915,7 @@
         <v>32</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>707</v>
+        <v>658</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>20</v>
@@ -9350,7 +8927,7 @@
         <v>12</v>
       </c>
       <c r="H119" s="25" t="s">
-        <v>741</v>
+        <v>692</v>
       </c>
       <c r="I119" s="36" t="s">
         <v>12</v>
@@ -9365,7 +8942,7 @@
         <v>101</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>736</v>
+        <v>687</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>20</v>
@@ -9377,13 +8954,13 @@
         <v>420</v>
       </c>
       <c r="H120" s="25" t="s">
-        <v>787</v>
+        <v>738</v>
       </c>
       <c r="I120" s="36" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="J120" s="41" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="L120" s="28"/>
     </row>
@@ -9392,7 +8969,7 @@
         <v>102</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>20</v>
@@ -9404,13 +8981,13 @@
         <v>421</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>795</v>
+        <v>746</v>
       </c>
       <c r="I121" s="36" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="J121" s="38" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="L121" s="28"/>
     </row>
@@ -9431,13 +9008,13 @@
         <v>422</v>
       </c>
       <c r="H122" s="25" t="s">
-        <v>796</v>
+        <v>747</v>
       </c>
       <c r="I122" s="36" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="J122" s="38" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="L122" s="29"/>
     </row>
@@ -9446,7 +9023,7 @@
         <v>104</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>593</v>
+        <v>544</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>20</v>
@@ -9458,13 +9035,13 @@
         <v>423</v>
       </c>
       <c r="H123" s="25" t="s">
-        <v>797</v>
+        <v>748</v>
       </c>
       <c r="I123" s="36" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="J123" s="41" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="2:12">
@@ -9472,7 +9049,7 @@
         <v>107</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>730</v>
+        <v>681</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>20</v>
@@ -9484,13 +9061,13 @@
         <v>424</v>
       </c>
       <c r="H124" s="25" t="s">
-        <v>798</v>
+        <v>749</v>
       </c>
       <c r="I124" s="36" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="J124" s="38" t="s">
-        <v>581</v>
+        <v>532</v>
       </c>
     </row>
     <row r="125" spans="2:12">
@@ -9498,7 +9075,7 @@
         <v>108</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>737</v>
+        <v>688</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>20</v>
@@ -9510,13 +9087,13 @@
         <v>425</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>788</v>
+        <v>739</v>
       </c>
       <c r="I125" s="36" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="J125" s="41" t="s">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="126" spans="2:12">
@@ -9524,7 +9101,7 @@
         <v>109</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>738</v>
+        <v>689</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>20</v>
@@ -9533,13 +9110,13 @@
         <v>109</v>
       </c>
       <c r="H126" s="25" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="I126" s="36" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="J126" s="41" t="s">
-        <v>583</v>
+        <v>534</v>
       </c>
     </row>
     <row r="127" spans="2:12">
@@ -10642,7 +10219,7 @@
         <v>486</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>594</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -10684,7 +10261,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>636</v>
+        <v>587</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -10692,7 +10269,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25" t="s">
-        <v>773</v>
+        <v>724</v>
       </c>
       <c r="J5" s="25"/>
     </row>
@@ -10701,7 +10278,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -10716,7 +10293,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -10733,7 +10310,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -10750,7 +10327,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>640</v>
+        <v>591</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -10767,7 +10344,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>641</v>
+        <v>592</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -10784,7 +10361,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -10801,7 +10378,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>643</v>
+        <v>594</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -10818,7 +10395,7 @@
         <v>146</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>644</v>
+        <v>595</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -10833,7 +10410,7 @@
         <v>147</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>645</v>
+        <v>596</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -10841,7 +10418,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="J14" s="25"/>
     </row>
@@ -10850,7 +10427,7 @@
         <v>148</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -10867,7 +10444,7 @@
         <v>149</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>622</v>
+        <v>573</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -10884,7 +10461,7 @@
         <v>150</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>623</v>
+        <v>574</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -10901,7 +10478,7 @@
         <v>151</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>624</v>
+        <v>575</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -10909,7 +10486,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="33" t="s">
-        <v>772</v>
+        <v>723</v>
       </c>
       <c r="J18" s="25"/>
     </row>
@@ -10926,7 +10503,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="33" t="s">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="J19" s="25"/>
     </row>
@@ -10935,7 +10512,7 @@
         <v>166</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>628</v>
+        <v>579</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -10952,7 +10529,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>646</v>
+        <v>597</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -10967,7 +10544,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>647</v>
+        <v>598</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -10982,7 +10559,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>648</v>
+        <v>599</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -10990,7 +10567,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>742</v>
+        <v>693</v>
       </c>
       <c r="J23" s="25"/>
     </row>
@@ -10999,7 +10576,7 @@
         <v>189</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>649</v>
+        <v>600</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -11007,7 +10584,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="33" t="s">
-        <v>747</v>
+        <v>698</v>
       </c>
       <c r="J24" s="25"/>
     </row>
@@ -11016,7 +10593,7 @@
         <v>190</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>650</v>
+        <v>601</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -11024,7 +10601,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="33" t="s">
-        <v>748</v>
+        <v>699</v>
       </c>
       <c r="J25" s="25"/>
     </row>
@@ -11033,7 +10610,7 @@
         <v>191</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>651</v>
+        <v>602</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -11048,7 +10625,7 @@
         <v>192</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>652</v>
+        <v>603</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -11065,7 +10642,7 @@
         <v>193</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>653</v>
+        <v>604</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -11082,7 +10659,7 @@
         <v>195</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -11099,7 +10676,7 @@
         <v>196</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>655</v>
+        <v>606</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -11139,7 +10716,7 @@
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
       <c r="J32" s="25"/>
     </row>
@@ -11156,7 +10733,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="J33" s="25"/>
     </row>
@@ -11165,7 +10742,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -11173,7 +10750,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="J34" s="25"/>
     </row>
@@ -11182,7 +10759,7 @@
         <v>103</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
@@ -11199,7 +10776,7 @@
         <v>104</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>615</v>
+        <v>566</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
@@ -11216,7 +10793,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>656</v>
+        <v>607</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -11233,7 +10810,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>657</v>
+        <v>608</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -11248,7 +10825,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>658</v>
+        <v>609</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -11263,7 +10840,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>659</v>
+        <v>610</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -11278,7 +10855,7 @@
         <v>61</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>660</v>
+        <v>611</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -11293,7 +10870,7 @@
         <v>62</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>661</v>
+        <v>612</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -11308,7 +10885,7 @@
         <v>142</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>662</v>
+        <v>613</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -11316,7 +10893,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="J43" s="25"/>
     </row>
@@ -11325,7 +10902,7 @@
         <v>143</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>663</v>
+        <v>614</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -11333,7 +10910,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="J44" s="25"/>
     </row>
@@ -11342,7 +10919,7 @@
         <v>144</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>664</v>
+        <v>615</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -11357,7 +10934,7 @@
         <v>145</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>665</v>
+        <v>616</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -11380,7 +10957,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25" t="s">
-        <v>745</v>
+        <v>696</v>
       </c>
       <c r="J47" s="25"/>
     </row>
@@ -11389,7 +10966,7 @@
         <v>168</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>629</v>
+        <v>580</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
@@ -11397,7 +10974,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25" t="s">
-        <v>746</v>
+        <v>697</v>
       </c>
       <c r="J48" s="25"/>
     </row>
@@ -11406,7 +10983,7 @@
         <v>169</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>630</v>
+        <v>581</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
@@ -11436,7 +11013,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -11466,7 +11043,7 @@
         <v>170</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>666</v>
+        <v>617</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -11474,7 +11051,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25" t="s">
-        <v>764</v>
+        <v>715</v>
       </c>
       <c r="J53" s="25"/>
     </row>
@@ -11483,7 +11060,7 @@
         <v>171</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>667</v>
+        <v>618</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -11491,7 +11068,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25" t="s">
-        <v>765</v>
+        <v>716</v>
       </c>
       <c r="J54" s="25"/>
     </row>
@@ -11500,7 +11077,7 @@
         <v>172</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>668</v>
+        <v>619</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
@@ -11515,7 +11092,7 @@
         <v>173</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>669</v>
+        <v>620</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
@@ -11530,7 +11107,7 @@
         <v>174</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>670</v>
+        <v>621</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -11545,7 +11122,7 @@
         <v>175</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>671</v>
+        <v>622</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
@@ -11560,7 +11137,7 @@
         <v>176</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>672</v>
+        <v>623</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -11575,7 +11152,7 @@
         <v>177</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>673</v>
+        <v>624</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
@@ -11590,7 +11167,7 @@
         <v>105</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>674</v>
+        <v>625</v>
       </c>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
@@ -11607,7 +11184,7 @@
         <v>106</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>675</v>
+        <v>626</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
@@ -11615,7 +11192,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25" t="s">
-        <v>743</v>
+        <v>694</v>
       </c>
       <c r="J62" s="25"/>
     </row>
@@ -11624,7 +11201,7 @@
         <v>107</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>616</v>
+        <v>567</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
@@ -11632,7 +11209,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25" t="s">
-        <v>744</v>
+        <v>695</v>
       </c>
       <c r="J63" s="25"/>
     </row>
@@ -11656,7 +11233,7 @@
         <v>111</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
@@ -11671,7 +11248,7 @@
         <v>112</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>618</v>
+        <v>569</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
@@ -11694,7 +11271,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
       <c r="J67" s="25"/>
     </row>
@@ -11711,7 +11288,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25" t="s">
-        <v>763</v>
+        <v>714</v>
       </c>
       <c r="J68" s="25"/>
     </row>
@@ -11737,7 +11314,7 @@
         <v>197</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>676</v>
+        <v>627</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
@@ -11754,7 +11331,7 @@
         <v>198</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>677</v>
+        <v>628</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
@@ -11762,7 +11339,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25" t="s">
-        <v>749</v>
+        <v>700</v>
       </c>
       <c r="J71" s="25"/>
     </row>
@@ -11771,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>678</v>
+        <v>629</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
@@ -11786,7 +11363,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>679</v>
+        <v>630</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
@@ -11801,7 +11378,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>680</v>
+        <v>631</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
@@ -11816,7 +11393,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>681</v>
+        <v>632</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
@@ -11831,7 +11408,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>682</v>
+        <v>633</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
@@ -11846,7 +11423,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>683</v>
+        <v>634</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
@@ -11854,7 +11431,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25" t="s">
-        <v>766</v>
+        <v>717</v>
       </c>
       <c r="J77" s="25"/>
     </row>
@@ -11863,7 +11440,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>684</v>
+        <v>635</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
@@ -11871,7 +11448,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="J78" s="25"/>
     </row>
@@ -11880,7 +11457,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>685</v>
+        <v>636</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
@@ -11888,7 +11465,7 @@
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
       <c r="J79" s="25"/>
     </row>
@@ -11905,7 +11482,7 @@
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25" t="s">
-        <v>769</v>
+        <v>720</v>
       </c>
       <c r="J80" s="25"/>
     </row>
@@ -11914,7 +11491,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>605</v>
+        <v>556</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
@@ -11922,7 +11499,7 @@
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
       <c r="J81" s="25"/>
     </row>
@@ -11931,7 +11508,7 @@
         <v>83</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
@@ -11939,7 +11516,7 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25" t="s">
-        <v>771</v>
+        <v>722</v>
       </c>
       <c r="J82" s="25"/>
     </row>
@@ -11948,7 +11525,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>607</v>
+        <v>558</v>
       </c>
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
@@ -11965,7 +11542,7 @@
         <v>85</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>608</v>
+        <v>559</v>
       </c>
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
@@ -11982,7 +11559,7 @@
         <v>86</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>609</v>
+        <v>560</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
@@ -11999,7 +11576,7 @@
         <v>22</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="D86" s="25"/>
       <c r="E86" s="25"/>
@@ -12007,7 +11584,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25" t="s">
-        <v>750</v>
+        <v>701</v>
       </c>
       <c r="J86" s="25"/>
     </row>
@@ -12016,7 +11593,7 @@
         <v>23</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
@@ -12024,7 +11601,7 @@
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25" t="s">
-        <v>752</v>
+        <v>703</v>
       </c>
       <c r="J87" s="25"/>
     </row>
@@ -12033,7 +11610,7 @@
         <v>24</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
@@ -12041,7 +11618,7 @@
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25" t="s">
-        <v>754</v>
+        <v>705</v>
       </c>
       <c r="J88" s="25"/>
     </row>
@@ -12050,7 +11627,7 @@
         <v>25</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>689</v>
+        <v>640</v>
       </c>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
@@ -12058,7 +11635,7 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25" t="s">
-        <v>755</v>
+        <v>706</v>
       </c>
       <c r="J89" s="25"/>
     </row>
@@ -12067,7 +11644,7 @@
         <v>26</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>690</v>
+        <v>641</v>
       </c>
       <c r="D90" s="25"/>
       <c r="E90" s="25"/>
@@ -12075,7 +11652,7 @@
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25" t="s">
-        <v>756</v>
+        <v>707</v>
       </c>
       <c r="J90" s="25"/>
     </row>
@@ -12084,7 +11661,7 @@
         <v>27</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>691</v>
+        <v>642</v>
       </c>
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
@@ -12092,7 +11669,7 @@
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25" t="s">
-        <v>757</v>
+        <v>708</v>
       </c>
       <c r="J91" s="25"/>
     </row>
@@ -12101,7 +11678,7 @@
         <v>30</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>692</v>
+        <v>643</v>
       </c>
       <c r="D92" s="25"/>
       <c r="E92" s="25"/>
@@ -12118,7 +11695,7 @@
         <v>31</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>693</v>
+        <v>644</v>
       </c>
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
@@ -12135,7 +11712,7 @@
         <v>32</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>694</v>
+        <v>645</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
@@ -12152,7 +11729,7 @@
         <v>33</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>695</v>
+        <v>646</v>
       </c>
       <c r="D95" s="25"/>
       <c r="E95" s="25"/>
@@ -12160,7 +11737,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25" t="s">
-        <v>739</v>
+        <v>690</v>
       </c>
       <c r="J95" s="25"/>
     </row>
@@ -12203,7 +11780,7 @@
         <v>68</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="D98" s="25"/>
       <c r="E98" s="25"/>
@@ -12211,7 +11788,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25" t="s">
-        <v>758</v>
+        <v>709</v>
       </c>
       <c r="J98" s="25"/>
     </row>
@@ -12220,7 +11797,7 @@
         <v>69</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="D99" s="25"/>
       <c r="E99" s="25"/>
@@ -12228,7 +11805,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25" t="s">
-        <v>759</v>
+        <v>710</v>
       </c>
       <c r="J99" s="25"/>
     </row>
@@ -12237,7 +11814,7 @@
         <v>70</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="D100" s="25"/>
       <c r="E100" s="25"/>
@@ -12245,7 +11822,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25" t="s">
-        <v>760</v>
+        <v>711</v>
       </c>
       <c r="J100" s="25"/>
     </row>
@@ -12254,7 +11831,7 @@
         <v>71</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
@@ -12262,7 +11839,7 @@
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25" t="s">
-        <v>761</v>
+        <v>712</v>
       </c>
       <c r="J101" s="25"/>
     </row>
@@ -12271,7 +11848,7 @@
         <v>72</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>696</v>
+        <v>647</v>
       </c>
       <c r="D102" s="25"/>
       <c r="E102" s="25"/>
@@ -12288,7 +11865,7 @@
         <v>75</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>697</v>
+        <v>648</v>
       </c>
       <c r="D103" s="25"/>
       <c r="E103" s="25"/>
@@ -12305,7 +11882,7 @@
         <v>130</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>698</v>
+        <v>649</v>
       </c>
       <c r="D104" s="25"/>
       <c r="E104" s="25"/>
@@ -12322,7 +11899,7 @@
         <v>131</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>699</v>
+        <v>650</v>
       </c>
       <c r="D105" s="25"/>
       <c r="E105" s="25"/>
@@ -12337,7 +11914,7 @@
         <v>134</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>700</v>
+        <v>651</v>
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="25"/>
@@ -12354,7 +11931,7 @@
         <v>135</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>701</v>
+        <v>652</v>
       </c>
       <c r="D107" s="25"/>
       <c r="E107" s="25"/>
@@ -12371,7 +11948,7 @@
         <v>136</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="D108" s="25"/>
       <c r="E108" s="25"/>
@@ -12388,7 +11965,7 @@
         <v>137</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>703</v>
+        <v>654</v>
       </c>
       <c r="D109" s="25"/>
       <c r="E109" s="25"/>
@@ -12403,7 +11980,7 @@
         <v>138</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>704</v>
+        <v>655</v>
       </c>
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
@@ -12420,7 +11997,7 @@
         <v>180</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>705</v>
+        <v>656</v>
       </c>
       <c r="D111" s="25"/>
       <c r="E111" s="25"/>
@@ -12435,7 +12012,7 @@
         <v>181</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>631</v>
+        <v>582</v>
       </c>
       <c r="D112" s="25"/>
       <c r="E112" s="25"/>
@@ -12450,7 +12027,7 @@
         <v>182</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>632</v>
+        <v>583</v>
       </c>
       <c r="D113" s="25"/>
       <c r="E113" s="25"/>
@@ -12465,7 +12042,7 @@
         <v>183</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>633</v>
+        <v>584</v>
       </c>
       <c r="D114" s="25"/>
       <c r="E114" s="25"/>
@@ -12480,7 +12057,7 @@
         <v>184</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="25"/>
@@ -12495,7 +12072,7 @@
         <v>185</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>635</v>
+        <v>586</v>
       </c>
       <c r="D116" s="25"/>
       <c r="E116" s="25"/>
@@ -12527,7 +12104,7 @@
         <v>35</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>706</v>
+        <v>657</v>
       </c>
       <c r="D118" s="25"/>
       <c r="E118" s="25"/>
@@ -12535,7 +12112,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25" t="s">
-        <v>740</v>
+        <v>691</v>
       </c>
       <c r="J118" s="25"/>
     </row>
@@ -12544,7 +12121,7 @@
         <v>36</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>707</v>
+        <v>658</v>
       </c>
       <c r="D119" s="25"/>
       <c r="E119" s="25"/>
@@ -12552,7 +12129,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25" t="s">
-        <v>741</v>
+        <v>692</v>
       </c>
       <c r="J119" s="25"/>
     </row>
@@ -12561,7 +12138,7 @@
         <v>48</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>708</v>
+        <v>659</v>
       </c>
       <c r="D120" s="25"/>
       <c r="E120" s="25"/>
@@ -12576,7 +12153,7 @@
         <v>51</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>709</v>
+        <v>660</v>
       </c>
       <c r="D121" s="25"/>
       <c r="E121" s="25"/>
@@ -12590,7 +12167,7 @@
         <v>52</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>710</v>
+        <v>661</v>
       </c>
       <c r="D122" s="25"/>
       <c r="E122" s="25"/>
@@ -12598,7 +12175,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="J122" s="25"/>
     </row>
@@ -12607,7 +12184,7 @@
         <v>53</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>711</v>
+        <v>662</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
@@ -12615,7 +12192,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="J123" s="25"/>
     </row>
@@ -12624,7 +12201,7 @@
         <v>92</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>712</v>
+        <v>663</v>
       </c>
       <c r="D124" s="25"/>
       <c r="E124" s="25"/>
@@ -12641,7 +12218,7 @@
         <v>93</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>713</v>
+        <v>664</v>
       </c>
       <c r="D125" s="25"/>
       <c r="E125" s="25"/>
@@ -12658,7 +12235,7 @@
         <v>94</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>714</v>
+        <v>665</v>
       </c>
       <c r="D126" s="25"/>
       <c r="E126" s="25"/>
@@ -12673,7 +12250,7 @@
         <v>95</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>715</v>
+        <v>666</v>
       </c>
       <c r="D127" s="25"/>
       <c r="E127" s="25"/>
@@ -12688,7 +12265,7 @@
         <v>96</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>610</v>
+        <v>561</v>
       </c>
       <c r="D128" s="25"/>
       <c r="E128" s="25"/>
@@ -12703,7 +12280,7 @@
         <v>97</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="D129" s="25"/>
       <c r="E129" s="25"/>
@@ -12718,7 +12295,7 @@
         <v>98</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
@@ -12733,7 +12310,7 @@
         <v>156</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>625</v>
+        <v>576</v>
       </c>
       <c r="D131" s="25"/>
       <c r="E131" s="25"/>
@@ -12748,7 +12325,7 @@
         <v>157</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>626</v>
+        <v>577</v>
       </c>
       <c r="D132" s="25"/>
       <c r="E132" s="25"/>
@@ -12763,7 +12340,7 @@
         <v>158</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>627</v>
+        <v>578</v>
       </c>
       <c r="D133" s="25"/>
       <c r="E133" s="25"/>
@@ -12778,7 +12355,7 @@
         <v>159</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
@@ -12786,7 +12363,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="J134" s="25"/>
     </row>
@@ -12795,7 +12372,7 @@
         <v>162</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>717</v>
+        <v>668</v>
       </c>
       <c r="D135" s="25"/>
       <c r="E135" s="25"/>
@@ -12803,7 +12380,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25" t="s">
-        <v>774</v>
+        <v>725</v>
       </c>
       <c r="J135" s="25"/>
     </row>
@@ -12812,7 +12389,7 @@
         <v>163</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>718</v>
+        <v>669</v>
       </c>
       <c r="D136" s="25"/>
       <c r="E136" s="25"/>
@@ -12820,7 +12397,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25" t="s">
-        <v>775</v>
+        <v>726</v>
       </c>
       <c r="J136" s="25"/>
     </row>
@@ -12829,7 +12406,7 @@
         <v>164</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>719</v>
+        <v>670</v>
       </c>
       <c r="D137" s="25"/>
       <c r="E137" s="25"/>
@@ -12837,7 +12414,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25" t="s">
-        <v>776</v>
+        <v>727</v>
       </c>
       <c r="J137" s="25"/>
     </row>
@@ -12846,7 +12423,7 @@
         <v>203</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>720</v>
+        <v>671</v>
       </c>
       <c r="D138" s="25"/>
       <c r="E138" s="25"/>
@@ -12854,7 +12431,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25" t="s">
-        <v>777</v>
+        <v>728</v>
       </c>
       <c r="J138" s="25"/>
     </row>
@@ -12863,7 +12440,7 @@
         <v>204</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>721</v>
+        <v>672</v>
       </c>
       <c r="D139" s="25"/>
       <c r="E139" s="25"/>
@@ -12871,7 +12448,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25" t="s">
-        <v>778</v>
+        <v>729</v>
       </c>
       <c r="J139" s="25"/>
     </row>
@@ -12880,7 +12457,7 @@
         <v>205</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>722</v>
+        <v>673</v>
       </c>
       <c r="D140" s="25"/>
       <c r="E140" s="25"/>
@@ -12888,7 +12465,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25" t="s">
-        <v>779</v>
+        <v>730</v>
       </c>
       <c r="J140" s="25"/>
     </row>
@@ -12897,7 +12474,7 @@
         <v>206</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>723</v>
+        <v>674</v>
       </c>
       <c r="D141" s="25"/>
       <c r="E141" s="25"/>
@@ -12905,7 +12482,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25" t="s">
-        <v>780</v>
+        <v>731</v>
       </c>
       <c r="J141" s="25"/>
     </row>
@@ -12914,7 +12491,7 @@
         <v>9</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>724</v>
+        <v>675</v>
       </c>
       <c r="D142" s="25"/>
       <c r="E142" s="25"/>
@@ -12929,7 +12506,7 @@
         <v>13</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>725</v>
+        <v>676</v>
       </c>
       <c r="D143" s="25"/>
       <c r="E143" s="25"/>
@@ -12944,7 +12521,7 @@
         <v>14</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="D144" s="25"/>
       <c r="E144" s="25"/>
@@ -12959,7 +12536,7 @@
         <v>15</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="25"/>
@@ -12974,7 +12551,7 @@
         <v>66</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="25"/>
@@ -12989,7 +12566,7 @@
         <v>117</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>726</v>
+        <v>677</v>
       </c>
       <c r="D147" s="25"/>
       <c r="E147" s="25"/>
@@ -13004,7 +12581,7 @@
         <v>118</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>727</v>
+        <v>678</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
@@ -13019,7 +12596,7 @@
         <v>121</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
       <c r="D149" s="25"/>
       <c r="E149" s="25"/>
@@ -13034,7 +12611,7 @@
         <v>122</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="D150" s="25"/>
       <c r="E150" s="25"/>
@@ -13049,7 +12626,7 @@
         <v>123</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>619</v>
+        <v>570</v>
       </c>
       <c r="D151" s="25"/>
       <c r="E151" s="25"/>
@@ -13064,7 +12641,7 @@
         <v>124</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="D152" s="25"/>
       <c r="E152" s="25"/>
@@ -13079,7 +12656,7 @@
         <v>127</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>730</v>
+        <v>681</v>
       </c>
       <c r="D153" s="25"/>
       <c r="E153" s="25"/>
@@ -13094,7 +12671,7 @@
         <v>128</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>731</v>
+        <v>682</v>
       </c>
       <c r="D154" s="25"/>
       <c r="E154" s="25"/>
@@ -13109,7 +12686,7 @@
         <v>129</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>732</v>
+        <v>683</v>
       </c>
       <c r="D155" s="25"/>
       <c r="E155" s="25"/>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424C8D74-DE65-48F7-8228-67FEB84E1F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437BDEE-C854-42B8-A902-C3E3638C5043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40245" yWindow="840" windowWidth="22920" windowHeight="14655" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29490" yWindow="390" windowWidth="25140" windowHeight="15030" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -2932,10 +2932,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWR_EXTRA_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KEY_MENU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2949,6 +2945,10 @@
   </si>
   <si>
     <t>LOW_BATTERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_LED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2956,7 +2956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3163,14 +3163,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3239,7 +3231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3370,9 +3362,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3667,7 +3656,7 @@
       <selection activeCell="B3" sqref="B3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
@@ -3681,34 +3670,34 @@
     <col min="10" max="11" width="21.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12">
-      <c r="B3" s="46" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3720,7 +3709,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -3741,7 +3730,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -3764,7 +3753,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -3788,7 +3777,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -3812,7 +3801,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -3836,7 +3825,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -3860,7 +3849,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -3884,7 +3873,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -3908,7 +3897,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -3932,7 +3921,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -3958,7 +3947,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -3981,7 +3970,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -4004,7 +3993,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -4027,7 +4016,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -4050,7 +4039,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -4073,7 +4062,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -4101,7 +4090,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>17</v>
       </c>
@@ -4129,7 +4118,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -4157,7 +4146,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -4185,7 +4174,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>20</v>
       </c>
@@ -4211,7 +4200,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -4238,7 +4227,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -4265,7 +4254,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -4286,7 +4275,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -4310,7 +4299,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>25</v>
       </c>
@@ -4338,7 +4327,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -4366,7 +4355,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -4394,7 +4383,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -4419,7 +4408,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -4447,7 +4436,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>30</v>
       </c>
@@ -4475,7 +4464,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -4500,7 +4489,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -4528,7 +4517,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -4556,7 +4545,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>34</v>
       </c>
@@ -4587,7 +4576,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -4611,7 +4600,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -4635,7 +4624,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -4664,7 +4653,7 @@
       </c>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -4692,7 +4681,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>39</v>
       </c>
@@ -4717,7 +4706,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -4745,7 +4734,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>41</v>
       </c>
@@ -4770,7 +4759,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>42</v>
       </c>
@@ -4797,7 +4786,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>43</v>
       </c>
@@ -4824,7 +4813,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>44</v>
       </c>
@@ -4845,7 +4834,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>45</v>
       </c>
@@ -4872,7 +4861,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>46</v>
       </c>
@@ -4899,7 +4888,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>47</v>
       </c>
@@ -4920,7 +4909,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>48</v>
       </c>
@@ -4941,7 +4930,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -4951,7 +4940,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>110</v>
       </c>
@@ -4963,7 +4952,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>111</v>
       </c>
@@ -4998,7 +4987,7 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="2" bestFit="1" customWidth="1"/>
@@ -5011,54 +5000,54 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13">
-      <c r="B3" s="46" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="45" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
       <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>1</v>
       </c>
@@ -5074,7 +5063,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="11">
         <v>2</v>
       </c>
@@ -5090,7 +5079,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -5113,7 +5102,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -5128,7 +5117,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -5151,7 +5140,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>6</v>
       </c>
@@ -5167,7 +5156,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -5185,7 +5174,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -5208,7 +5197,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>9</v>
       </c>
@@ -5224,7 +5213,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -5247,7 +5236,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -5267,7 +5256,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -5292,7 +5281,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -5314,7 +5303,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>14</v>
       </c>
@@ -5330,7 +5319,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -5353,7 +5342,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -5376,7 +5365,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>17</v>
       </c>
@@ -5392,7 +5381,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -5415,7 +5404,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -5437,7 +5426,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>20</v>
       </c>
@@ -5453,7 +5442,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -5473,7 +5462,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -5496,7 +5485,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -5518,7 +5507,7 @@
       </c>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -5540,7 +5529,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <v>25</v>
       </c>
@@ -5556,7 +5545,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -5576,7 +5565,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -5596,7 +5585,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -5616,7 +5605,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -5636,7 +5625,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <v>30</v>
       </c>
@@ -5652,7 +5641,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -5672,7 +5661,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -5690,7 +5679,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -5710,7 +5699,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <v>34</v>
       </c>
@@ -5726,7 +5715,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -5751,7 +5740,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -5773,7 +5762,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -5796,7 +5785,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -5821,7 +5810,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <v>39</v>
       </c>
@@ -5837,7 +5826,7 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -5885,11 +5874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
   <dimension ref="B2:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="25" bestFit="1" customWidth="1"/>
@@ -5905,7 +5894,7 @@
     <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -5925,7 +5914,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>733</v>
@@ -5934,7 +5923,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="25">
         <v>167</v>
       </c>
@@ -5957,7 +5946,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="25">
         <v>33</v>
       </c>
@@ -5980,7 +5969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="25">
         <v>41</v>
       </c>
@@ -6003,7 +5992,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
         <v>42</v>
       </c>
@@ -6019,11 +6008,11 @@
       <c r="F6" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="H6" s="44" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="H6" s="39" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>43</v>
       </c>
@@ -6049,7 +6038,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>46</v>
       </c>
@@ -6075,7 +6064,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>49</v>
       </c>
@@ -6101,7 +6090,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
         <v>50</v>
       </c>
@@ -6127,7 +6116,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
         <v>51</v>
       </c>
@@ -6153,7 +6142,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>52</v>
       </c>
@@ -6179,7 +6168,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
         <v>127</v>
       </c>
@@ -6205,7 +6194,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
         <v>128</v>
       </c>
@@ -6234,7 +6223,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="25">
         <v>129</v>
       </c>
@@ -6260,7 +6249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="25">
         <v>130</v>
       </c>
@@ -6286,7 +6275,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
         <v>131</v>
       </c>
@@ -6312,7 +6301,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
         <v>132</v>
       </c>
@@ -6338,7 +6327,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
         <v>138</v>
       </c>
@@ -6364,7 +6353,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
         <v>139</v>
       </c>
@@ -6390,7 +6379,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="25">
         <v>55</v>
       </c>
@@ -6416,7 +6405,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="25">
         <v>56</v>
       </c>
@@ -6439,7 +6428,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
         <v>57</v>
       </c>
@@ -6459,7 +6448,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
         <v>162</v>
       </c>
@@ -6485,7 +6474,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
         <v>163</v>
       </c>
@@ -6511,7 +6500,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
         <v>164</v>
       </c>
@@ -6537,7 +6526,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
         <v>165</v>
       </c>
@@ -6563,7 +6552,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="25">
         <v>166</v>
       </c>
@@ -6589,7 +6578,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="25">
         <v>168</v>
       </c>
@@ -6615,7 +6604,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="25">
         <v>169</v>
       </c>
@@ -6641,7 +6630,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="25">
         <v>78</v>
       </c>
@@ -6667,7 +6656,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="25">
         <v>79</v>
       </c>
@@ -6693,7 +6682,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="25">
         <v>85</v>
       </c>
@@ -6719,7 +6708,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="25">
         <v>86</v>
       </c>
@@ -6745,7 +6734,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="25">
         <v>87</v>
       </c>
@@ -6771,7 +6760,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="25">
         <v>88</v>
       </c>
@@ -6797,7 +6786,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="25">
         <v>34</v>
       </c>
@@ -6823,7 +6812,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
         <v>35</v>
       </c>
@@ -6840,7 +6829,7 @@
         <v>367</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I38" s="36" t="s">
         <v>367</v>
@@ -6849,7 +6838,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="25">
         <v>36</v>
       </c>
@@ -6865,7 +6854,7 @@
       <c r="F39" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="H39" s="45"/>
+      <c r="H39" s="44"/>
       <c r="I39" s="36" t="s">
         <v>487</v>
       </c>
@@ -6873,7 +6862,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="25">
         <v>37</v>
       </c>
@@ -6893,7 +6882,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="25">
         <v>53</v>
       </c>
@@ -6919,7 +6908,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="25">
         <v>54</v>
       </c>
@@ -6945,7 +6934,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="25">
         <v>122</v>
       </c>
@@ -6971,7 +6960,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="25">
         <v>123</v>
       </c>
@@ -6997,7 +6986,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="25">
         <v>124</v>
       </c>
@@ -7023,7 +7012,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="25">
         <v>125</v>
       </c>
@@ -7049,7 +7038,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="25">
         <v>140</v>
       </c>
@@ -7075,7 +7064,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="25">
         <v>141</v>
       </c>
@@ -7101,7 +7090,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="25">
         <v>142</v>
       </c>
@@ -7117,7 +7106,7 @@
       <c r="F49" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="H49" s="39" t="s">
         <v>546</v>
       </c>
       <c r="I49" s="36" t="s">
@@ -7127,7 +7116,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="25">
         <v>9</v>
       </c>
@@ -7150,7 +7139,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="25">
         <v>10</v>
       </c>
@@ -7173,7 +7162,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="25">
         <v>11</v>
       </c>
@@ -7196,7 +7185,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="25">
         <v>143</v>
       </c>
@@ -7222,7 +7211,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="25">
         <v>144</v>
       </c>
@@ -7248,7 +7237,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="25">
         <v>145</v>
       </c>
@@ -7274,7 +7263,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="25">
         <v>146</v>
       </c>
@@ -7300,7 +7289,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="25">
         <v>147</v>
       </c>
@@ -7326,7 +7315,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="25">
         <v>148</v>
       </c>
@@ -7352,7 +7341,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="25">
         <v>149</v>
       </c>
@@ -7378,7 +7367,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="25">
         <v>150</v>
       </c>
@@ -7404,7 +7393,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="25">
         <v>89</v>
       </c>
@@ -7430,7 +7419,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="25">
         <v>90</v>
       </c>
@@ -7456,7 +7445,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="25">
         <v>91</v>
       </c>
@@ -7482,7 +7471,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="25">
         <v>94</v>
       </c>
@@ -7508,7 +7497,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="25">
         <v>95</v>
       </c>
@@ -7534,7 +7523,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="25">
         <v>96</v>
       </c>
@@ -7560,7 +7549,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="25">
         <v>97</v>
       </c>
@@ -7586,7 +7575,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="25">
         <v>98</v>
       </c>
@@ -7612,7 +7601,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="25">
         <v>174</v>
       </c>
@@ -7635,7 +7624,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="25">
         <v>170</v>
       </c>
@@ -7661,7 +7650,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="25">
         <v>171</v>
       </c>
@@ -7687,7 +7676,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="25">
         <v>1</v>
       </c>
@@ -7713,7 +7702,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="25">
         <v>2</v>
       </c>
@@ -7739,7 +7728,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="25">
         <v>3</v>
       </c>
@@ -7765,7 +7754,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="25">
         <v>4</v>
       </c>
@@ -7791,7 +7780,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="25">
         <v>5</v>
       </c>
@@ -7817,7 +7806,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="25">
         <v>67</v>
       </c>
@@ -7843,7 +7832,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="25">
         <v>68</v>
       </c>
@@ -7869,7 +7858,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="25">
         <v>69</v>
       </c>
@@ -7895,7 +7884,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="25">
         <v>72</v>
       </c>
@@ -7921,7 +7910,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="25">
         <v>73</v>
       </c>
@@ -7947,7 +7936,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="25">
         <v>74</v>
       </c>
@@ -7973,7 +7962,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="25">
         <v>75</v>
       </c>
@@ -7999,7 +7988,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="25">
         <v>76</v>
       </c>
@@ -8025,7 +8014,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="25">
         <v>77</v>
       </c>
@@ -8051,7 +8040,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="25">
         <v>18</v>
       </c>
@@ -8077,7 +8066,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="25">
         <v>19</v>
       </c>
@@ -8103,7 +8092,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="25">
         <v>20</v>
       </c>
@@ -8129,7 +8118,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="25">
         <v>21</v>
       </c>
@@ -8155,7 +8144,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="25">
         <v>22</v>
       </c>
@@ -8181,7 +8170,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="25">
         <v>23</v>
       </c>
@@ -8207,7 +8196,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="25">
         <v>26</v>
       </c>
@@ -8233,7 +8222,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="25">
         <v>27</v>
       </c>
@@ -8259,7 +8248,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="25">
         <v>28</v>
       </c>
@@ -8285,7 +8274,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="25">
         <v>29</v>
       </c>
@@ -8311,7 +8300,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="25">
         <v>30</v>
       </c>
@@ -8337,7 +8326,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="25">
         <v>58</v>
       </c>
@@ -8363,7 +8352,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="25">
         <v>59</v>
       </c>
@@ -8389,7 +8378,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="25">
         <v>60</v>
       </c>
@@ -8415,7 +8404,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="25">
         <v>61</v>
       </c>
@@ -8441,7 +8430,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="25">
         <v>62</v>
       </c>
@@ -8467,7 +8456,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="25">
         <v>63</v>
       </c>
@@ -8493,7 +8482,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="25">
         <v>66</v>
       </c>
@@ -8519,7 +8508,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="25">
         <v>110</v>
       </c>
@@ -8545,7 +8534,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="25">
         <v>111</v>
       </c>
@@ -8562,7 +8551,7 @@
         <v>427</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I105" s="39" t="s">
         <v>504</v>
@@ -8571,7 +8560,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="25">
         <v>114</v>
       </c>
@@ -8597,7 +8586,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="25">
         <v>115</v>
       </c>
@@ -8623,7 +8612,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="25">
         <v>116</v>
       </c>
@@ -8649,7 +8638,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="25">
         <v>117</v>
       </c>
@@ -8675,7 +8664,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="25">
         <v>118</v>
       </c>
@@ -8701,7 +8690,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="25">
         <v>153</v>
       </c>
@@ -8727,7 +8716,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="25">
         <v>154</v>
       </c>
@@ -8753,7 +8742,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="113" spans="2:12">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B113" s="25">
         <v>155</v>
       </c>
@@ -8779,7 +8768,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="114" spans="2:12">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B114" s="25">
         <v>156</v>
       </c>
@@ -8805,7 +8794,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="115" spans="2:12">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B115" s="25">
         <v>157</v>
       </c>
@@ -8831,7 +8820,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="116" spans="2:12">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B116" s="25">
         <v>158</v>
       </c>
@@ -8847,8 +8836,8 @@
       <c r="F116" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="H116" s="44" t="s">
-        <v>761</v>
+      <c r="H116" s="39" t="s">
+        <v>765</v>
       </c>
       <c r="I116" s="36" t="s">
         <v>284</v>
@@ -8857,7 +8846,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="117" spans="2:12">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B117" s="25">
         <v>161</v>
       </c>
@@ -8883,7 +8872,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="118" spans="2:12">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B118" s="25">
         <v>31</v>
       </c>
@@ -8910,7 +8899,7 @@
       </c>
       <c r="L118" s="28"/>
     </row>
-    <row r="119" spans="2:12">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B119" s="25">
         <v>32</v>
       </c>
@@ -8937,7 +8926,7 @@
       </c>
       <c r="L119" s="28"/>
     </row>
-    <row r="120" spans="2:12">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B120" s="25">
         <v>101</v>
       </c>
@@ -8964,7 +8953,7 @@
       </c>
       <c r="L120" s="28"/>
     </row>
-    <row r="121" spans="2:12">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B121" s="25">
         <v>102</v>
       </c>
@@ -8991,7 +8980,7 @@
       </c>
       <c r="L121" s="28"/>
     </row>
-    <row r="122" spans="2:12">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B122" s="25">
         <v>103</v>
       </c>
@@ -9018,7 +9007,7 @@
       </c>
       <c r="L122" s="29"/>
     </row>
-    <row r="123" spans="2:12">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B123" s="25">
         <v>104</v>
       </c>
@@ -9044,7 +9033,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="124" spans="2:12">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B124" s="25">
         <v>107</v>
       </c>
@@ -9070,7 +9059,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="125" spans="2:12">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B125" s="25">
         <v>108</v>
       </c>
@@ -9096,7 +9085,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="126" spans="2:12">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B126" s="25">
         <v>109</v>
       </c>
@@ -9119,7 +9108,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="127" spans="2:12">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B127" s="25">
         <v>8</v>
       </c>
@@ -9139,7 +9128,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="128" spans="2:12">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B128" s="25">
         <v>80</v>
       </c>
@@ -9159,7 +9148,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="25">
         <v>133</v>
       </c>
@@ -9179,7 +9168,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="25">
         <v>172</v>
       </c>
@@ -9199,7 +9188,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="25">
         <v>7</v>
       </c>
@@ -9219,7 +9208,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="25">
         <v>13</v>
       </c>
@@ -9239,7 +9228,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="25">
         <v>25</v>
       </c>
@@ -9259,7 +9248,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="25">
         <v>44</v>
       </c>
@@ -9279,7 +9268,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="25">
         <v>48</v>
       </c>
@@ -9299,7 +9288,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="25">
         <v>65</v>
       </c>
@@ -9319,7 +9308,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" s="25">
         <v>71</v>
       </c>
@@ -9339,7 +9328,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="25">
         <v>84</v>
       </c>
@@ -9359,7 +9348,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="25">
         <v>92</v>
       </c>
@@ -9379,7 +9368,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="25">
         <v>99</v>
       </c>
@@ -9399,7 +9388,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="25">
         <v>105</v>
       </c>
@@ -9419,7 +9408,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="25">
         <v>113</v>
       </c>
@@ -9439,7 +9428,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="25">
         <v>126</v>
       </c>
@@ -9459,7 +9448,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="25">
         <v>136</v>
       </c>
@@ -9479,7 +9468,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="25">
         <v>152</v>
       </c>
@@ -9499,7 +9488,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="25">
         <v>160</v>
       </c>
@@ -9519,7 +9508,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="25">
         <v>176</v>
       </c>
@@ -9539,7 +9528,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B148" s="25">
         <v>121</v>
       </c>
@@ -9559,7 +9548,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B149" s="25">
         <v>120</v>
       </c>
@@ -9579,7 +9568,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="25">
         <v>40</v>
       </c>
@@ -9599,7 +9588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="25">
         <v>82</v>
       </c>
@@ -9619,7 +9608,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B152" s="25">
         <v>135</v>
       </c>
@@ -9639,7 +9628,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B153" s="25">
         <v>175</v>
       </c>
@@ -9659,7 +9648,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B154" s="25">
         <v>16</v>
       </c>
@@ -9679,7 +9668,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="25">
         <v>17</v>
       </c>
@@ -9699,7 +9688,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="25">
         <v>15</v>
       </c>
@@ -9719,7 +9708,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B157" s="25">
         <v>39</v>
       </c>
@@ -9739,7 +9728,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="25">
         <v>6</v>
       </c>
@@ -9759,7 +9748,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B159" s="25">
         <v>12</v>
       </c>
@@ -9782,7 +9771,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B160" s="25">
         <v>24</v>
       </c>
@@ -9802,7 +9791,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B161" s="25">
         <v>45</v>
       </c>
@@ -9822,7 +9811,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="25">
         <v>47</v>
       </c>
@@ -9842,7 +9831,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="25">
         <v>64</v>
       </c>
@@ -9862,7 +9851,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="25">
         <v>70</v>
       </c>
@@ -9882,7 +9871,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" s="25">
         <v>81</v>
       </c>
@@ -9902,7 +9891,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" s="25">
         <v>83</v>
       </c>
@@ -9922,7 +9911,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B167" s="25">
         <v>93</v>
       </c>
@@ -9942,7 +9931,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168" s="25">
         <v>100</v>
       </c>
@@ -9962,7 +9951,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" s="25">
         <v>106</v>
       </c>
@@ -9982,7 +9971,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170" s="25">
         <v>112</v>
       </c>
@@ -10002,7 +9991,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" s="25">
         <v>119</v>
       </c>
@@ -10022,7 +10011,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" s="25">
         <v>134</v>
       </c>
@@ -10042,7 +10031,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173" s="25">
         <v>137</v>
       </c>
@@ -10062,7 +10051,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B174" s="25">
         <v>151</v>
       </c>
@@ -10082,7 +10071,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175" s="25">
         <v>159</v>
       </c>
@@ -10102,7 +10091,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176" s="25">
         <v>173</v>
       </c>
@@ -10122,7 +10111,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" s="25">
         <v>38</v>
       </c>
@@ -10142,7 +10131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="2:10">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178" s="25">
         <v>14</v>
       </c>
@@ -10182,7 +10171,7 @@
       <selection activeCell="B118" sqref="B118:C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
@@ -10195,7 +10184,7 @@
     <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -10222,7 +10211,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="25">
         <v>194</v>
       </c>
@@ -10239,7 +10228,7 @@
       </c>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="25">
         <v>37</v>
       </c>
@@ -10256,7 +10245,7 @@
       </c>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="25">
         <v>45</v>
       </c>
@@ -10273,7 +10262,7 @@
       </c>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
         <v>46</v>
       </c>
@@ -10288,7 +10277,7 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>47</v>
       </c>
@@ -10305,7 +10294,7 @@
       </c>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>54</v>
       </c>
@@ -10322,7 +10311,7 @@
       </c>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>57</v>
       </c>
@@ -10339,7 +10328,7 @@
       </c>
       <c r="J9" s="25"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
         <v>58</v>
       </c>
@@ -10356,7 +10345,7 @@
       </c>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
         <v>59</v>
       </c>
@@ -10373,7 +10362,7 @@
       </c>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>60</v>
       </c>
@@ -10390,7 +10379,7 @@
       </c>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
         <v>146</v>
       </c>
@@ -10405,7 +10394,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
         <v>147</v>
       </c>
@@ -10422,7 +10411,7 @@
       </c>
       <c r="J14" s="25"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="25">
         <v>148</v>
       </c>
@@ -10439,7 +10428,7 @@
       </c>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="25">
         <v>149</v>
       </c>
@@ -10456,7 +10445,7 @@
       </c>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
         <v>150</v>
       </c>
@@ -10473,7 +10462,7 @@
       </c>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
         <v>151</v>
       </c>
@@ -10490,7 +10479,7 @@
       </c>
       <c r="J18" s="25"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
         <v>165</v>
       </c>
@@ -10507,7 +10496,7 @@
       </c>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
         <v>166</v>
       </c>
@@ -10524,7 +10513,7 @@
       </c>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="25">
         <v>63</v>
       </c>
@@ -10539,7 +10528,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="25">
         <v>64</v>
       </c>
@@ -10554,7 +10543,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
         <v>65</v>
       </c>
@@ -10571,7 +10560,7 @@
       </c>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
         <v>189</v>
       </c>
@@ -10588,7 +10577,7 @@
       </c>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
         <v>190</v>
       </c>
@@ -10605,7 +10594,7 @@
       </c>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
         <v>191</v>
       </c>
@@ -10620,7 +10609,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
         <v>192</v>
       </c>
@@ -10637,7 +10626,7 @@
       </c>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="25">
         <v>193</v>
       </c>
@@ -10654,7 +10643,7 @@
       </c>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="25">
         <v>195</v>
       </c>
@@ -10671,7 +10660,7 @@
       </c>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="25">
         <v>196</v>
       </c>
@@ -10686,7 +10675,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="25">
         <v>87</v>
       </c>
@@ -10703,7 +10692,7 @@
       </c>
       <c r="J31" s="25"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="25">
         <v>88</v>
       </c>
@@ -10720,7 +10709,7 @@
       </c>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="25">
         <v>101</v>
       </c>
@@ -10737,7 +10726,7 @@
       </c>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="25">
         <v>102</v>
       </c>
@@ -10754,7 +10743,7 @@
       </c>
       <c r="J34" s="25"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="25">
         <v>103</v>
       </c>
@@ -10771,7 +10760,7 @@
       </c>
       <c r="J35" s="25"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="25">
         <v>104</v>
       </c>
@@ -10788,7 +10777,7 @@
       </c>
       <c r="J36" s="25"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="25">
         <v>38</v>
       </c>
@@ -10805,7 +10794,7 @@
       </c>
       <c r="J37" s="25"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
         <v>39</v>
       </c>
@@ -10820,7 +10809,7 @@
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="25">
         <v>40</v>
       </c>
@@ -10835,7 +10824,7 @@
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="25">
         <v>41</v>
       </c>
@@ -10850,7 +10839,7 @@
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="25">
         <v>61</v>
       </c>
@@ -10865,7 +10854,7 @@
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="25">
         <v>62</v>
       </c>
@@ -10880,7 +10869,7 @@
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="25">
         <v>142</v>
       </c>
@@ -10897,7 +10886,7 @@
       </c>
       <c r="J43" s="25"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="25">
         <v>143</v>
       </c>
@@ -10914,7 +10903,7 @@
       </c>
       <c r="J44" s="25"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="25">
         <v>144</v>
       </c>
@@ -10929,7 +10918,7 @@
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="25">
         <v>145</v>
       </c>
@@ -10944,7 +10933,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="25">
         <v>167</v>
       </c>
@@ -10961,7 +10950,7 @@
       </c>
       <c r="J47" s="25"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="25">
         <v>168</v>
       </c>
@@ -10978,7 +10967,7 @@
       </c>
       <c r="J48" s="25"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="25">
         <v>169</v>
       </c>
@@ -10993,7 +10982,7 @@
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="25">
         <v>10</v>
       </c>
@@ -11008,7 +10997,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="25">
         <v>11</v>
       </c>
@@ -11023,7 +11012,7 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="25">
         <v>12</v>
       </c>
@@ -11038,7 +11027,7 @@
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="25">
         <v>170</v>
       </c>
@@ -11055,7 +11044,7 @@
       </c>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="25">
         <v>171</v>
       </c>
@@ -11072,7 +11061,7 @@
       </c>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="25">
         <v>172</v>
       </c>
@@ -11087,7 +11076,7 @@
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="25">
         <v>173</v>
       </c>
@@ -11102,7 +11091,7 @@
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="25">
         <v>174</v>
       </c>
@@ -11117,7 +11106,7 @@
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="25">
         <v>175</v>
       </c>
@@ -11132,7 +11121,7 @@
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="25">
         <v>176</v>
       </c>
@@ -11147,7 +11136,7 @@
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="25">
         <v>177</v>
       </c>
@@ -11162,7 +11151,7 @@
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="25">
         <v>105</v>
       </c>
@@ -11179,7 +11168,7 @@
       </c>
       <c r="J61" s="25"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="25">
         <v>106</v>
       </c>
@@ -11196,7 +11185,7 @@
       </c>
       <c r="J62" s="25"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="25">
         <v>107</v>
       </c>
@@ -11213,7 +11202,7 @@
       </c>
       <c r="J63" s="25"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="25">
         <v>110</v>
       </c>
@@ -11228,7 +11217,7 @@
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="25">
         <v>111</v>
       </c>
@@ -11243,7 +11232,7 @@
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="25">
         <v>112</v>
       </c>
@@ -11258,7 +11247,7 @@
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="25">
         <v>115</v>
       </c>
@@ -11275,7 +11264,7 @@
       </c>
       <c r="J67" s="25"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="25">
         <v>116</v>
       </c>
@@ -11292,7 +11281,7 @@
       </c>
       <c r="J68" s="25"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="25">
         <v>201</v>
       </c>
@@ -11309,7 +11298,7 @@
       </c>
       <c r="J69" s="25"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="25">
         <v>197</v>
       </c>
@@ -11326,7 +11315,7 @@
       </c>
       <c r="J70" s="25"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="25">
         <v>198</v>
       </c>
@@ -11343,7 +11332,7 @@
       </c>
       <c r="J71" s="25"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="25">
         <v>1</v>
       </c>
@@ -11358,7 +11347,7 @@
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="25">
         <v>2</v>
       </c>
@@ -11373,7 +11362,7 @@
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="25">
         <v>3</v>
       </c>
@@ -11388,7 +11377,7 @@
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="25">
         <v>4</v>
       </c>
@@ -11403,7 +11392,7 @@
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="25">
         <v>5</v>
       </c>
@@ -11418,7 +11407,7 @@
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="25">
         <v>76</v>
       </c>
@@ -11435,7 +11424,7 @@
       </c>
       <c r="J77" s="25"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="25">
         <v>77</v>
       </c>
@@ -11452,7 +11441,7 @@
       </c>
       <c r="J78" s="25"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="25">
         <v>78</v>
       </c>
@@ -11469,7 +11458,7 @@
       </c>
       <c r="J79" s="25"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="25">
         <v>81</v>
       </c>
@@ -11486,7 +11475,7 @@
       </c>
       <c r="J80" s="25"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="25">
         <v>82</v>
       </c>
@@ -11503,7 +11492,7 @@
       </c>
       <c r="J81" s="25"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="25">
         <v>83</v>
       </c>
@@ -11520,7 +11509,7 @@
       </c>
       <c r="J82" s="25"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="25">
         <v>84</v>
       </c>
@@ -11537,7 +11526,7 @@
       </c>
       <c r="J83" s="25"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="25">
         <v>85</v>
       </c>
@@ -11554,7 +11543,7 @@
       </c>
       <c r="J84" s="25"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="25">
         <v>86</v>
       </c>
@@ -11571,7 +11560,7 @@
       </c>
       <c r="J85" s="25"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="25">
         <v>22</v>
       </c>
@@ -11588,7 +11577,7 @@
       </c>
       <c r="J86" s="25"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="25">
         <v>23</v>
       </c>
@@ -11605,7 +11594,7 @@
       </c>
       <c r="J87" s="25"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="25">
         <v>24</v>
       </c>
@@ -11622,7 +11611,7 @@
       </c>
       <c r="J88" s="25"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="25">
         <v>25</v>
       </c>
@@ -11639,7 +11628,7 @@
       </c>
       <c r="J89" s="25"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="25">
         <v>26</v>
       </c>
@@ -11656,7 +11645,7 @@
       </c>
       <c r="J90" s="25"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="25">
         <v>27</v>
       </c>
@@ -11673,7 +11662,7 @@
       </c>
       <c r="J91" s="25"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="25">
         <v>30</v>
       </c>
@@ -11690,7 +11679,7 @@
       </c>
       <c r="J92" s="25"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="25">
         <v>31</v>
       </c>
@@ -11707,7 +11696,7 @@
       </c>
       <c r="J93" s="25"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="25">
         <v>32</v>
       </c>
@@ -11724,7 +11713,7 @@
       </c>
       <c r="J94" s="25"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="25">
         <v>33</v>
       </c>
@@ -11741,7 +11730,7 @@
       </c>
       <c r="J95" s="25"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="25">
         <v>34</v>
       </c>
@@ -11758,7 +11747,7 @@
       </c>
       <c r="J96" s="25"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="25">
         <v>67</v>
       </c>
@@ -11775,7 +11764,7 @@
       </c>
       <c r="J97" s="25"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="25">
         <v>68</v>
       </c>
@@ -11792,7 +11781,7 @@
       </c>
       <c r="J98" s="25"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="25">
         <v>69</v>
       </c>
@@ -11809,7 +11798,7 @@
       </c>
       <c r="J99" s="25"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="25">
         <v>70</v>
       </c>
@@ -11826,7 +11815,7 @@
       </c>
       <c r="J100" s="25"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="25">
         <v>71</v>
       </c>
@@ -11843,7 +11832,7 @@
       </c>
       <c r="J101" s="25"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="25">
         <v>72</v>
       </c>
@@ -11860,7 +11849,7 @@
       </c>
       <c r="J102" s="25"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="25">
         <v>75</v>
       </c>
@@ -11877,7 +11866,7 @@
       </c>
       <c r="J103" s="25"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="25">
         <v>130</v>
       </c>
@@ -11894,7 +11883,7 @@
       </c>
       <c r="J104" s="25"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="25">
         <v>131</v>
       </c>
@@ -11909,7 +11898,7 @@
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="25">
         <v>134</v>
       </c>
@@ -11926,7 +11915,7 @@
       </c>
       <c r="J106" s="25"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="25">
         <v>135</v>
       </c>
@@ -11943,7 +11932,7 @@
       </c>
       <c r="J107" s="25"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="25">
         <v>136</v>
       </c>
@@ -11960,7 +11949,7 @@
       </c>
       <c r="J108" s="25"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="25">
         <v>137</v>
       </c>
@@ -11975,7 +11964,7 @@
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="25">
         <v>138</v>
       </c>
@@ -11992,7 +11981,7 @@
       </c>
       <c r="J110" s="25"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="25">
         <v>180</v>
       </c>
@@ -12007,7 +11996,7 @@
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="25">
         <v>181</v>
       </c>
@@ -12022,7 +12011,7 @@
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="25">
         <v>182</v>
       </c>
@@ -12037,7 +12026,7 @@
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="25">
         <v>183</v>
       </c>
@@ -12052,7 +12041,7 @@
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="25">
         <v>184</v>
       </c>
@@ -12067,7 +12056,7 @@
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="25">
         <v>185</v>
       </c>
@@ -12082,7 +12071,7 @@
       <c r="I116" s="25"/>
       <c r="J116" s="25"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="25">
         <v>188</v>
       </c>
@@ -12099,7 +12088,7 @@
       </c>
       <c r="J117" s="25"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="25">
         <v>35</v>
       </c>
@@ -12116,7 +12105,7 @@
       </c>
       <c r="J118" s="25"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="25">
         <v>36</v>
       </c>
@@ -12133,7 +12122,7 @@
       </c>
       <c r="J119" s="25"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="25">
         <v>48</v>
       </c>
@@ -12148,7 +12137,7 @@
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="25">
         <v>51</v>
       </c>
@@ -12162,7 +12151,7 @@
       <c r="H121" s="25"/>
       <c r="J121" s="25"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="25">
         <v>52</v>
       </c>
@@ -12179,7 +12168,7 @@
       </c>
       <c r="J122" s="25"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="25">
         <v>53</v>
       </c>
@@ -12196,7 +12185,7 @@
       </c>
       <c r="J123" s="25"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="25">
         <v>92</v>
       </c>
@@ -12213,7 +12202,7 @@
       </c>
       <c r="J124" s="25"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="25">
         <v>93</v>
       </c>
@@ -12230,7 +12219,7 @@
       </c>
       <c r="J125" s="25"/>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="25">
         <v>94</v>
       </c>
@@ -12245,7 +12234,7 @@
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="25">
         <v>95</v>
       </c>
@@ -12260,7 +12249,7 @@
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="25">
         <v>96</v>
       </c>
@@ -12275,7 +12264,7 @@
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="25">
         <v>97</v>
       </c>
@@ -12290,7 +12279,7 @@
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="25">
         <v>98</v>
       </c>
@@ -12305,7 +12294,7 @@
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="25">
         <v>156</v>
       </c>
@@ -12320,7 +12309,7 @@
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="25">
         <v>157</v>
       </c>
@@ -12335,7 +12324,7 @@
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="25">
         <v>158</v>
       </c>
@@ -12350,7 +12339,7 @@
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="25">
         <v>159</v>
       </c>
@@ -12367,7 +12356,7 @@
       </c>
       <c r="J134" s="25"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="25">
         <v>162</v>
       </c>
@@ -12384,7 +12373,7 @@
       </c>
       <c r="J135" s="25"/>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="25">
         <v>163</v>
       </c>
@@ -12401,7 +12390,7 @@
       </c>
       <c r="J136" s="25"/>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" s="25">
         <v>164</v>
       </c>
@@ -12418,7 +12407,7 @@
       </c>
       <c r="J137" s="25"/>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="25">
         <v>203</v>
       </c>
@@ -12435,7 +12424,7 @@
       </c>
       <c r="J138" s="25"/>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="25">
         <v>204</v>
       </c>
@@ -12452,7 +12441,7 @@
       </c>
       <c r="J139" s="25"/>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="25">
         <v>205</v>
       </c>
@@ -12469,7 +12458,7 @@
       </c>
       <c r="J140" s="25"/>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="25">
         <v>206</v>
       </c>
@@ -12486,7 +12475,7 @@
       </c>
       <c r="J141" s="25"/>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="25">
         <v>9</v>
       </c>
@@ -12501,7 +12490,7 @@
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="25">
         <v>13</v>
       </c>
@@ -12516,7 +12505,7 @@
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="25">
         <v>14</v>
       </c>
@@ -12531,7 +12520,7 @@
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="25">
         <v>15</v>
       </c>
@@ -12546,7 +12535,7 @@
       <c r="I145" s="25"/>
       <c r="J145" s="25"/>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="25">
         <v>66</v>
       </c>
@@ -12561,7 +12550,7 @@
       <c r="I146" s="25"/>
       <c r="J146" s="25"/>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="25">
         <v>117</v>
       </c>
@@ -12576,7 +12565,7 @@
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B148" s="25">
         <v>118</v>
       </c>
@@ -12591,7 +12580,7 @@
       <c r="I148" s="25"/>
       <c r="J148" s="25"/>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B149" s="25">
         <v>121</v>
       </c>
@@ -12606,7 +12595,7 @@
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="25">
         <v>122</v>
       </c>
@@ -12621,7 +12610,7 @@
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="25">
         <v>123</v>
       </c>
@@ -12636,7 +12625,7 @@
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B152" s="25">
         <v>124</v>
       </c>
@@ -12651,7 +12640,7 @@
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B153" s="25">
         <v>127</v>
       </c>
@@ -12666,7 +12655,7 @@
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B154" s="25">
         <v>128</v>
       </c>
@@ -12681,7 +12670,7 @@
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="25">
         <v>129</v>
       </c>
@@ -12696,7 +12685,7 @@
       <c r="I155" s="25"/>
       <c r="J155" s="25"/>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="25">
         <v>8</v>
       </c>
@@ -12713,7 +12702,7 @@
       </c>
       <c r="J156" s="25"/>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B157" s="25">
         <v>89</v>
       </c>
@@ -12730,7 +12719,7 @@
       </c>
       <c r="J157" s="25"/>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="25">
         <v>152</v>
       </c>
@@ -12747,7 +12736,7 @@
       </c>
       <c r="J158" s="25"/>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B159" s="25">
         <v>199</v>
       </c>
@@ -12764,7 +12753,7 @@
       </c>
       <c r="J159" s="25"/>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B160" s="25">
         <v>7</v>
       </c>
@@ -12781,7 +12770,7 @@
       </c>
       <c r="J160" s="25"/>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B161" s="25">
         <v>17</v>
       </c>
@@ -12798,7 +12787,7 @@
       </c>
       <c r="J161" s="25"/>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="25">
         <v>29</v>
       </c>
@@ -12815,7 +12804,7 @@
       </c>
       <c r="J162" s="25"/>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="25">
         <v>49</v>
       </c>
@@ -12832,7 +12821,7 @@
       </c>
       <c r="J163" s="25"/>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="25">
         <v>56</v>
       </c>
@@ -12849,7 +12838,7 @@
       </c>
       <c r="J164" s="25"/>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" s="25">
         <v>74</v>
       </c>
@@ -12866,7 +12855,7 @@
       </c>
       <c r="J165" s="25"/>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" s="25">
         <v>80</v>
       </c>
@@ -12883,7 +12872,7 @@
       </c>
       <c r="J166" s="25"/>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B167" s="25">
         <v>100</v>
       </c>
@@ -12900,7 +12889,7 @@
       </c>
       <c r="J167" s="25"/>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168" s="25">
         <v>108</v>
       </c>
@@ -12917,7 +12906,7 @@
       </c>
       <c r="J168" s="25"/>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" s="25">
         <v>114</v>
       </c>
@@ -12934,7 +12923,7 @@
       </c>
       <c r="J169" s="25"/>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170" s="25">
         <v>119</v>
       </c>
@@ -12951,7 +12940,7 @@
       </c>
       <c r="J170" s="25"/>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" s="25">
         <v>125</v>
       </c>
@@ -12968,7 +12957,7 @@
       </c>
       <c r="J171" s="25"/>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" s="25">
         <v>133</v>
       </c>
@@ -12985,7 +12974,7 @@
       </c>
       <c r="J172" s="25"/>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173" s="25">
         <v>155</v>
       </c>
@@ -13002,7 +12991,7 @@
       </c>
       <c r="J173" s="25"/>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B174" s="25">
         <v>161</v>
       </c>
@@ -13019,7 +13008,7 @@
       </c>
       <c r="J174" s="25"/>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175" s="25">
         <v>179</v>
       </c>
@@ -13036,7 +13025,7 @@
       </c>
       <c r="J175" s="25"/>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176" s="25">
         <v>187</v>
       </c>
@@ -13053,7 +13042,7 @@
       </c>
       <c r="J176" s="25"/>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" s="25">
         <v>208</v>
       </c>
@@ -13070,7 +13059,7 @@
       </c>
       <c r="J177" s="25"/>
     </row>
-    <row r="178" spans="2:10">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178" s="25">
         <v>141</v>
       </c>
@@ -13087,7 +13076,7 @@
       </c>
       <c r="J178" s="25"/>
     </row>
-    <row r="179" spans="2:10">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B179" s="25">
         <v>140</v>
       </c>
@@ -13104,7 +13093,7 @@
       </c>
       <c r="J179" s="25"/>
     </row>
-    <row r="180" spans="2:10">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B180" s="25">
         <v>44</v>
       </c>
@@ -13121,7 +13110,7 @@
       </c>
       <c r="J180" s="25"/>
     </row>
-    <row r="181" spans="2:10">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B181" s="25">
         <v>91</v>
       </c>
@@ -13138,7 +13127,7 @@
       </c>
       <c r="J181" s="25"/>
     </row>
-    <row r="182" spans="2:10">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B182" s="25">
         <v>154</v>
       </c>
@@ -13155,7 +13144,7 @@
       </c>
       <c r="J182" s="25"/>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B183" s="25">
         <v>202</v>
       </c>
@@ -13172,7 +13161,7 @@
       </c>
       <c r="J183" s="25"/>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B184" s="25">
         <v>20</v>
       </c>
@@ -13189,7 +13178,7 @@
       </c>
       <c r="J184" s="25"/>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B185" s="25">
         <v>21</v>
       </c>
@@ -13206,7 +13195,7 @@
       </c>
       <c r="J185" s="25"/>
     </row>
-    <row r="186" spans="2:10">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B186" s="25">
         <v>19</v>
       </c>
@@ -13223,7 +13212,7 @@
       </c>
       <c r="J186" s="25"/>
     </row>
-    <row r="187" spans="2:10">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B187" s="25">
         <v>43</v>
       </c>
@@ -13240,7 +13229,7 @@
       </c>
       <c r="J187" s="25"/>
     </row>
-    <row r="188" spans="2:10">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B188" s="25">
         <v>6</v>
       </c>
@@ -13257,7 +13246,7 @@
       </c>
       <c r="J188" s="25"/>
     </row>
-    <row r="189" spans="2:10">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B189" s="25">
         <v>16</v>
       </c>
@@ -13274,7 +13263,7 @@
       </c>
       <c r="J189" s="25"/>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B190" s="25">
         <v>28</v>
       </c>
@@ -13291,7 +13280,7 @@
       </c>
       <c r="J190" s="25"/>
     </row>
-    <row r="191" spans="2:10">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B191" s="25">
         <v>50</v>
       </c>
@@ -13308,7 +13297,7 @@
       </c>
       <c r="J191" s="25"/>
     </row>
-    <row r="192" spans="2:10">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B192" s="25">
         <v>55</v>
       </c>
@@ -13325,7 +13314,7 @@
       </c>
       <c r="J192" s="25"/>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B193" s="25">
         <v>73</v>
       </c>
@@ -13342,7 +13331,7 @@
       </c>
       <c r="J193" s="25"/>
     </row>
-    <row r="194" spans="2:10">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B194" s="25">
         <v>79</v>
       </c>
@@ -13359,7 +13348,7 @@
       </c>
       <c r="J194" s="25"/>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B195" s="25">
         <v>90</v>
       </c>
@@ -13376,7 +13365,7 @@
       </c>
       <c r="J195" s="25"/>
     </row>
-    <row r="196" spans="2:10">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B196" s="25">
         <v>99</v>
       </c>
@@ -13393,7 +13382,7 @@
       </c>
       <c r="J196" s="25"/>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B197" s="25">
         <v>109</v>
       </c>
@@ -13410,7 +13399,7 @@
       </c>
       <c r="J197" s="25"/>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B198" s="25">
         <v>113</v>
       </c>
@@ -13427,7 +13416,7 @@
       </c>
       <c r="J198" s="25"/>
     </row>
-    <row r="199" spans="2:10">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B199" s="25">
         <v>120</v>
       </c>
@@ -13444,7 +13433,7 @@
       </c>
       <c r="J199" s="25"/>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B200" s="25">
         <v>126</v>
       </c>
@@ -13461,7 +13450,7 @@
       </c>
       <c r="J200" s="25"/>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B201" s="25">
         <v>132</v>
       </c>
@@ -13478,7 +13467,7 @@
       </c>
       <c r="J201" s="25"/>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B202" s="25">
         <v>139</v>
       </c>
@@ -13495,7 +13484,7 @@
       </c>
       <c r="J202" s="25"/>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B203" s="25">
         <v>153</v>
       </c>
@@ -13512,7 +13501,7 @@
       </c>
       <c r="J203" s="25"/>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B204" s="25">
         <v>160</v>
       </c>
@@ -13529,7 +13518,7 @@
       </c>
       <c r="J204" s="25"/>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B205" s="25">
         <v>178</v>
       </c>
@@ -13546,7 +13535,7 @@
       </c>
       <c r="J205" s="25"/>
     </row>
-    <row r="206" spans="2:10">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B206" s="25">
         <v>186</v>
       </c>
@@ -13563,7 +13552,7 @@
       </c>
       <c r="J206" s="25"/>
     </row>
-    <row r="207" spans="2:10">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B207" s="25">
         <v>200</v>
       </c>
@@ -13580,7 +13569,7 @@
       </c>
       <c r="J207" s="25"/>
     </row>
-    <row r="208" spans="2:10">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B208" s="25">
         <v>207</v>
       </c>
@@ -13597,7 +13586,7 @@
       </c>
       <c r="J208" s="25"/>
     </row>
-    <row r="209" spans="2:10">
+    <row r="209" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B209" s="25">
         <v>42</v>
       </c>
@@ -13614,7 +13603,7 @@
       </c>
       <c r="J209" s="25"/>
     </row>
-    <row r="210" spans="2:10">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B210" s="25">
         <v>18</v>
       </c>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437BDEE-C854-42B8-A902-C3E3638C5043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9B56BB-D6CD-4786-91AA-1755DBB17082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="390" windowWidth="25140" windowHeight="15030" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="555" windowWidth="22530" windowHeight="13830" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="768">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2948,7 +2948,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWR_LED</t>
+    <t>EINK_BUSY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EINK_CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_LED(PWR_EXTRA_EN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2956,7 +2964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3163,6 +3171,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3231,7 +3246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3368,6 +3383,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3656,7 +3674,7 @@
       <selection activeCell="B3" sqref="B3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
@@ -3670,7 +3688,7 @@
     <col min="10" max="11" width="21.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
@@ -3692,7 +3710,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -3709,7 +3727,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -3730,7 +3748,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -3753,7 +3771,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -3801,7 +3819,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -3825,7 +3843,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -3849,7 +3867,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -3873,7 +3891,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -3897,7 +3915,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -3921,7 +3939,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -3947,7 +3965,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -3970,7 +3988,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -3993,7 +4011,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -4016,7 +4034,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -4039,7 +4057,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -4062,7 +4080,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -4090,7 +4108,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12">
       <c r="B21" s="5">
         <v>17</v>
       </c>
@@ -4118,7 +4136,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -4146,7 +4164,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -4174,7 +4192,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12">
       <c r="B24" s="5">
         <v>20</v>
       </c>
@@ -4200,7 +4218,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -4227,7 +4245,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -4254,7 +4272,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -4275,7 +4293,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -4299,7 +4317,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12">
       <c r="B29" s="5">
         <v>25</v>
       </c>
@@ -4327,7 +4345,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -4355,7 +4373,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -4383,7 +4401,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -4408,7 +4426,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -4436,7 +4454,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12">
       <c r="B34" s="5">
         <v>30</v>
       </c>
@@ -4464,7 +4482,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -4489,7 +4507,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -4517,7 +4535,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -4545,7 +4563,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12">
       <c r="B38" s="5">
         <v>34</v>
       </c>
@@ -4576,7 +4594,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -4600,7 +4618,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -4624,7 +4642,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -4653,7 +4671,7 @@
       </c>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -4681,7 +4699,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12">
       <c r="B43" s="5">
         <v>39</v>
       </c>
@@ -4706,7 +4724,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -4734,7 +4752,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12">
       <c r="B45" s="5">
         <v>41</v>
       </c>
@@ -4759,7 +4777,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12">
       <c r="B46" s="5">
         <v>42</v>
       </c>
@@ -4786,7 +4804,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12">
       <c r="B47" s="5">
         <v>43</v>
       </c>
@@ -4813,7 +4831,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12">
       <c r="B48" s="5">
         <v>44</v>
       </c>
@@ -4834,7 +4852,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10">
       <c r="B49" s="5">
         <v>45</v>
       </c>
@@ -4861,7 +4879,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="B50" s="5">
         <v>46</v>
       </c>
@@ -4888,7 +4906,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="B51" s="5">
         <v>47</v>
       </c>
@@ -4909,7 +4927,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="B52" s="5">
         <v>48</v>
       </c>
@@ -4930,7 +4948,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -4940,7 +4958,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="B54" s="3" t="s">
         <v>110</v>
       </c>
@@ -4952,7 +4970,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10">
       <c r="B55" s="3" t="s">
         <v>111</v>
       </c>
@@ -4987,7 +5005,7 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="2" bestFit="1" customWidth="1"/>
@@ -5000,7 +5018,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13">
       <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
@@ -5032,7 +5050,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -5047,7 +5065,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" s="10">
         <v>1</v>
       </c>
@@ -5063,7 +5081,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="B6" s="11">
         <v>2</v>
       </c>
@@ -5079,7 +5097,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -5102,7 +5120,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -5117,7 +5135,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -5140,7 +5158,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13">
       <c r="B10" s="12">
         <v>6</v>
       </c>
@@ -5156,7 +5174,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -5174,7 +5192,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -5197,7 +5215,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13">
       <c r="B13" s="12">
         <v>9</v>
       </c>
@@ -5213,7 +5231,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -5236,7 +5254,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -5256,7 +5274,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -5281,7 +5299,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -5303,7 +5321,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13">
       <c r="B18" s="12">
         <v>14</v>
       </c>
@@ -5319,7 +5337,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -5342,7 +5360,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -5365,7 +5383,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13">
       <c r="B21" s="10">
         <v>17</v>
       </c>
@@ -5381,7 +5399,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -5404,7 +5422,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -5426,7 +5444,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13">
       <c r="B24" s="12">
         <v>20</v>
       </c>
@@ -5442,7 +5460,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -5462,7 +5480,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -5485,7 +5503,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -5507,7 +5525,7 @@
       </c>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -5529,7 +5547,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13">
       <c r="B29" s="12">
         <v>25</v>
       </c>
@@ -5545,7 +5563,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -5565,7 +5583,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -5585,7 +5603,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -5605,7 +5623,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -5625,7 +5643,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13">
       <c r="B34" s="12">
         <v>30</v>
       </c>
@@ -5641,7 +5659,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -5661,7 +5679,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -5679,7 +5697,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -5699,7 +5717,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13">
       <c r="B38" s="12">
         <v>34</v>
       </c>
@@ -5715,7 +5733,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -5740,7 +5758,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -5762,7 +5780,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -5785,7 +5803,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -5810,7 +5828,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13">
       <c r="B43" s="12">
         <v>39</v>
       </c>
@@ -5826,7 +5844,7 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -5874,11 +5892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
   <dimension ref="B2:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="25" bestFit="1" customWidth="1"/>
@@ -5888,13 +5906,12 @@
     <col min="6" max="6" width="46" style="25" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20.125" style="25" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="36" customWidth="1"/>
+    <col min="9" max="10" width="20.625" style="36" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="26" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -5923,7 +5940,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10">
       <c r="B3" s="25">
         <v>167</v>
       </c>
@@ -5946,7 +5963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="B4" s="25">
         <v>33</v>
       </c>
@@ -5969,7 +5986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5" s="25">
         <v>41</v>
       </c>
@@ -5992,7 +6009,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6" s="25">
         <v>42</v>
       </c>
@@ -6012,7 +6029,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10">
       <c r="B7" s="25">
         <v>43</v>
       </c>
@@ -6038,7 +6055,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="25">
         <v>46</v>
       </c>
@@ -6064,7 +6081,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10">
       <c r="B9" s="25">
         <v>49</v>
       </c>
@@ -6090,7 +6107,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="B10" s="25">
         <v>50</v>
       </c>
@@ -6116,7 +6133,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="B11" s="25">
         <v>51</v>
       </c>
@@ -6142,7 +6159,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="B12" s="25">
         <v>52</v>
       </c>
@@ -6168,7 +6185,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10">
       <c r="B13" s="25">
         <v>127</v>
       </c>
@@ -6194,7 +6211,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10">
       <c r="B14" s="25">
         <v>128</v>
       </c>
@@ -6223,7 +6240,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="B15" s="25">
         <v>129</v>
       </c>
@@ -6249,7 +6266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="B16" s="25">
         <v>130</v>
       </c>
@@ -6275,7 +6292,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17" s="25">
         <v>131</v>
       </c>
@@ -6301,7 +6318,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18" s="25">
         <v>132</v>
       </c>
@@ -6327,7 +6344,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="B19" s="25">
         <v>138</v>
       </c>
@@ -6353,7 +6370,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20" s="25">
         <v>139</v>
       </c>
@@ -6379,7 +6396,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" s="25">
         <v>55</v>
       </c>
@@ -6405,7 +6422,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" s="25">
         <v>56</v>
       </c>
@@ -6428,7 +6445,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="B23" s="25">
         <v>57</v>
       </c>
@@ -6448,7 +6465,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="B24" s="25">
         <v>162</v>
       </c>
@@ -6474,7 +6491,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" s="25">
         <v>163</v>
       </c>
@@ -6500,7 +6517,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="B26" s="25">
         <v>164</v>
       </c>
@@ -6526,7 +6543,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="B27" s="25">
         <v>165</v>
       </c>
@@ -6552,7 +6569,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="B28" s="25">
         <v>166</v>
       </c>
@@ -6578,7 +6595,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="B29" s="25">
         <v>168</v>
       </c>
@@ -6604,7 +6621,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10">
       <c r="B30" s="25">
         <v>169</v>
       </c>
@@ -6630,7 +6647,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="B31" s="25">
         <v>78</v>
       </c>
@@ -6656,7 +6673,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" s="25">
         <v>79</v>
       </c>
@@ -6682,7 +6699,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="B33" s="25">
         <v>85</v>
       </c>
@@ -6708,7 +6725,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10">
       <c r="B34" s="25">
         <v>86</v>
       </c>
@@ -6734,7 +6751,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10">
       <c r="B35" s="25">
         <v>87</v>
       </c>
@@ -6760,7 +6777,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10">
       <c r="B36" s="25">
         <v>88</v>
       </c>
@@ -6786,7 +6803,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10">
       <c r="B37" s="25">
         <v>34</v>
       </c>
@@ -6812,7 +6829,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10">
       <c r="B38" s="25">
         <v>35</v>
       </c>
@@ -6838,7 +6855,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10">
       <c r="B39" s="25">
         <v>36</v>
       </c>
@@ -6862,7 +6879,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10">
       <c r="B40" s="25">
         <v>37</v>
       </c>
@@ -6882,7 +6899,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10">
       <c r="B41" s="25">
         <v>53</v>
       </c>
@@ -6908,7 +6925,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10">
       <c r="B42" s="25">
         <v>54</v>
       </c>
@@ -6934,7 +6951,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10">
       <c r="B43" s="25">
         <v>122</v>
       </c>
@@ -6960,7 +6977,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10">
       <c r="B44" s="25">
         <v>123</v>
       </c>
@@ -6986,7 +7003,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10">
       <c r="B45" s="25">
         <v>124</v>
       </c>
@@ -7012,7 +7029,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10">
       <c r="B46" s="25">
         <v>125</v>
       </c>
@@ -7038,7 +7055,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10">
       <c r="B47" s="25">
         <v>140</v>
       </c>
@@ -7064,7 +7081,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10">
       <c r="B48" s="25">
         <v>141</v>
       </c>
@@ -7090,7 +7107,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10">
       <c r="B49" s="25">
         <v>142</v>
       </c>
@@ -7116,7 +7133,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="B50" s="25">
         <v>9</v>
       </c>
@@ -7139,7 +7156,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="B51" s="25">
         <v>10</v>
       </c>
@@ -7155,6 +7172,9 @@
       <c r="G51" s="25" t="s">
         <v>342</v>
       </c>
+      <c r="H51" s="41" t="s">
+        <v>766</v>
+      </c>
       <c r="I51" s="36" t="s">
         <v>516</v>
       </c>
@@ -7162,7 +7182,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="B52" s="25">
         <v>11</v>
       </c>
@@ -7178,6 +7198,9 @@
       <c r="G52" s="25" t="s">
         <v>17</v>
       </c>
+      <c r="H52" s="46" t="s">
+        <v>765</v>
+      </c>
       <c r="I52" s="36" t="s">
         <v>264</v>
       </c>
@@ -7185,7 +7208,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10">
       <c r="B53" s="25">
         <v>143</v>
       </c>
@@ -7211,7 +7234,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="B54" s="25">
         <v>144</v>
       </c>
@@ -7237,7 +7260,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10">
       <c r="B55" s="25">
         <v>145</v>
       </c>
@@ -7263,7 +7286,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10">
       <c r="B56" s="25">
         <v>146</v>
       </c>
@@ -7289,7 +7312,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10">
       <c r="B57" s="25">
         <v>147</v>
       </c>
@@ -7315,7 +7338,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10">
       <c r="B58" s="25">
         <v>148</v>
       </c>
@@ -7341,7 +7364,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10">
       <c r="B59" s="25">
         <v>149</v>
       </c>
@@ -7367,7 +7390,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10">
       <c r="B60" s="25">
         <v>150</v>
       </c>
@@ -7393,7 +7416,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10">
       <c r="B61" s="25">
         <v>89</v>
       </c>
@@ -7419,7 +7442,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10">
       <c r="B62" s="25">
         <v>90</v>
       </c>
@@ -7445,7 +7468,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10">
       <c r="B63" s="25">
         <v>91</v>
       </c>
@@ -7471,7 +7494,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10">
       <c r="B64" s="25">
         <v>94</v>
       </c>
@@ -7497,7 +7520,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10">
       <c r="B65" s="25">
         <v>95</v>
       </c>
@@ -7523,7 +7546,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10">
       <c r="B66" s="25">
         <v>96</v>
       </c>
@@ -7549,7 +7572,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10">
       <c r="B67" s="25">
         <v>97</v>
       </c>
@@ -7575,7 +7598,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10">
       <c r="B68" s="25">
         <v>98</v>
       </c>
@@ -7601,7 +7624,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10">
       <c r="B69" s="25">
         <v>174</v>
       </c>
@@ -7624,7 +7647,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10">
       <c r="B70" s="25">
         <v>170</v>
       </c>
@@ -7650,7 +7673,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10">
       <c r="B71" s="25">
         <v>171</v>
       </c>
@@ -7676,7 +7699,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10">
       <c r="B72" s="25">
         <v>1</v>
       </c>
@@ -7702,7 +7725,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10">
       <c r="B73" s="25">
         <v>2</v>
       </c>
@@ -7728,7 +7751,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10">
       <c r="B74" s="25">
         <v>3</v>
       </c>
@@ -7754,7 +7777,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10">
       <c r="B75" s="25">
         <v>4</v>
       </c>
@@ -7780,7 +7803,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10">
       <c r="B76" s="25">
         <v>5</v>
       </c>
@@ -7806,7 +7829,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10">
       <c r="B77" s="25">
         <v>67</v>
       </c>
@@ -7832,7 +7855,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10">
       <c r="B78" s="25">
         <v>68</v>
       </c>
@@ -7858,7 +7881,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10">
       <c r="B79" s="25">
         <v>69</v>
       </c>
@@ -7884,7 +7907,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10">
       <c r="B80" s="25">
         <v>72</v>
       </c>
@@ -7910,7 +7933,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10">
       <c r="B81" s="25">
         <v>73</v>
       </c>
@@ -7936,7 +7959,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10">
       <c r="B82" s="25">
         <v>74</v>
       </c>
@@ -7962,7 +7985,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10">
       <c r="B83" s="25">
         <v>75</v>
       </c>
@@ -7988,7 +8011,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10">
       <c r="B84" s="25">
         <v>76</v>
       </c>
@@ -8014,7 +8037,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10">
       <c r="B85" s="25">
         <v>77</v>
       </c>
@@ -8040,7 +8063,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10">
       <c r="B86" s="25">
         <v>18</v>
       </c>
@@ -8066,7 +8089,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10">
       <c r="B87" s="25">
         <v>19</v>
       </c>
@@ -8092,7 +8115,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10">
       <c r="B88" s="25">
         <v>20</v>
       </c>
@@ -8118,7 +8141,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10">
       <c r="B89" s="25">
         <v>21</v>
       </c>
@@ -8144,7 +8167,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10">
       <c r="B90" s="25">
         <v>22</v>
       </c>
@@ -8170,7 +8193,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10">
       <c r="B91" s="25">
         <v>23</v>
       </c>
@@ -8196,7 +8219,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10">
       <c r="B92" s="25">
         <v>26</v>
       </c>
@@ -8222,7 +8245,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10">
       <c r="B93" s="25">
         <v>27</v>
       </c>
@@ -8248,7 +8271,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10">
       <c r="B94" s="25">
         <v>28</v>
       </c>
@@ -8274,7 +8297,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10">
       <c r="B95" s="25">
         <v>29</v>
       </c>
@@ -8300,7 +8323,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10">
       <c r="B96" s="25">
         <v>30</v>
       </c>
@@ -8326,7 +8349,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10">
       <c r="B97" s="25">
         <v>58</v>
       </c>
@@ -8352,7 +8375,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10">
       <c r="B98" s="25">
         <v>59</v>
       </c>
@@ -8378,7 +8401,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10">
       <c r="B99" s="25">
         <v>60</v>
       </c>
@@ -8404,7 +8427,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10">
       <c r="B100" s="25">
         <v>61</v>
       </c>
@@ -8430,7 +8453,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10">
       <c r="B101" s="25">
         <v>62</v>
       </c>
@@ -8456,7 +8479,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10">
       <c r="B102" s="25">
         <v>63</v>
       </c>
@@ -8482,7 +8505,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10">
       <c r="B103" s="25">
         <v>66</v>
       </c>
@@ -8508,7 +8531,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10">
       <c r="B104" s="25">
         <v>110</v>
       </c>
@@ -8534,7 +8557,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10">
       <c r="B105" s="25">
         <v>111</v>
       </c>
@@ -8560,7 +8583,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10">
       <c r="B106" s="25">
         <v>114</v>
       </c>
@@ -8586,7 +8609,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10">
       <c r="B107" s="25">
         <v>115</v>
       </c>
@@ -8612,7 +8635,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10">
       <c r="B108" s="25">
         <v>116</v>
       </c>
@@ -8638,7 +8661,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10">
       <c r="B109" s="25">
         <v>117</v>
       </c>
@@ -8664,7 +8687,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10">
       <c r="B110" s="25">
         <v>118</v>
       </c>
@@ -8690,7 +8713,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10">
       <c r="B111" s="25">
         <v>153</v>
       </c>
@@ -8716,7 +8739,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10">
       <c r="B112" s="25">
         <v>154</v>
       </c>
@@ -8742,7 +8765,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12">
       <c r="B113" s="25">
         <v>155</v>
       </c>
@@ -8768,7 +8791,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12">
       <c r="B114" s="25">
         <v>156</v>
       </c>
@@ -8794,7 +8817,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12">
       <c r="B115" s="25">
         <v>157</v>
       </c>
@@ -8820,7 +8843,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12">
       <c r="B116" s="25">
         <v>158</v>
       </c>
@@ -8837,7 +8860,7 @@
         <v>451</v>
       </c>
       <c r="H116" s="39" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="I116" s="36" t="s">
         <v>284</v>
@@ -8846,7 +8869,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12">
       <c r="B117" s="25">
         <v>161</v>
       </c>
@@ -8872,7 +8895,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:12">
       <c r="B118" s="25">
         <v>31</v>
       </c>
@@ -8899,7 +8922,7 @@
       </c>
       <c r="L118" s="28"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12">
       <c r="B119" s="25">
         <v>32</v>
       </c>
@@ -8926,7 +8949,7 @@
       </c>
       <c r="L119" s="28"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12">
       <c r="B120" s="25">
         <v>101</v>
       </c>
@@ -8953,7 +8976,7 @@
       </c>
       <c r="L120" s="28"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12">
       <c r="B121" s="25">
         <v>102</v>
       </c>
@@ -8980,7 +9003,7 @@
       </c>
       <c r="L121" s="28"/>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12">
       <c r="B122" s="25">
         <v>103</v>
       </c>
@@ -9007,7 +9030,7 @@
       </c>
       <c r="L122" s="29"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:12">
       <c r="B123" s="25">
         <v>104</v>
       </c>
@@ -9033,7 +9056,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:12">
       <c r="B124" s="25">
         <v>107</v>
       </c>
@@ -9059,7 +9082,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:12">
       <c r="B125" s="25">
         <v>108</v>
       </c>
@@ -9085,7 +9108,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:12">
       <c r="B126" s="25">
         <v>109</v>
       </c>
@@ -9108,7 +9131,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:12">
       <c r="B127" s="25">
         <v>8</v>
       </c>
@@ -9128,7 +9151,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:12">
       <c r="B128" s="25">
         <v>80</v>
       </c>
@@ -9148,7 +9171,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10">
       <c r="B129" s="25">
         <v>133</v>
       </c>
@@ -9168,7 +9191,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10">
       <c r="B130" s="25">
         <v>172</v>
       </c>
@@ -9188,7 +9211,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10">
       <c r="B131" s="25">
         <v>7</v>
       </c>
@@ -9208,7 +9231,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10">
       <c r="B132" s="25">
         <v>13</v>
       </c>
@@ -9228,7 +9251,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10">
       <c r="B133" s="25">
         <v>25</v>
       </c>
@@ -9248,7 +9271,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10">
       <c r="B134" s="25">
         <v>44</v>
       </c>
@@ -9268,7 +9291,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10">
       <c r="B135" s="25">
         <v>48</v>
       </c>
@@ -9288,7 +9311,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10">
       <c r="B136" s="25">
         <v>65</v>
       </c>
@@ -9308,7 +9331,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10">
       <c r="B137" s="25">
         <v>71</v>
       </c>
@@ -9328,7 +9351,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10">
       <c r="B138" s="25">
         <v>84</v>
       </c>
@@ -9348,7 +9371,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10">
       <c r="B139" s="25">
         <v>92</v>
       </c>
@@ -9368,7 +9391,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10">
       <c r="B140" s="25">
         <v>99</v>
       </c>
@@ -9388,7 +9411,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10">
       <c r="B141" s="25">
         <v>105</v>
       </c>
@@ -9408,7 +9431,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10">
       <c r="B142" s="25">
         <v>113</v>
       </c>
@@ -9428,7 +9451,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10">
       <c r="B143" s="25">
         <v>126</v>
       </c>
@@ -9448,7 +9471,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10">
       <c r="B144" s="25">
         <v>136</v>
       </c>
@@ -9468,7 +9491,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10">
       <c r="B145" s="25">
         <v>152</v>
       </c>
@@ -9488,7 +9511,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10">
       <c r="B146" s="25">
         <v>160</v>
       </c>
@@ -9508,7 +9531,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10">
       <c r="B147" s="25">
         <v>176</v>
       </c>
@@ -9528,7 +9551,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10">
       <c r="B148" s="25">
         <v>121</v>
       </c>
@@ -9548,7 +9571,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10">
       <c r="B149" s="25">
         <v>120</v>
       </c>
@@ -9568,7 +9591,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10">
       <c r="B150" s="25">
         <v>40</v>
       </c>
@@ -9588,7 +9611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10">
       <c r="B151" s="25">
         <v>82</v>
       </c>
@@ -9608,7 +9631,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:10">
       <c r="B152" s="25">
         <v>135</v>
       </c>
@@ -9628,7 +9651,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:10">
       <c r="B153" s="25">
         <v>175</v>
       </c>
@@ -9648,7 +9671,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:10">
       <c r="B154" s="25">
         <v>16</v>
       </c>
@@ -9668,7 +9691,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:10">
       <c r="B155" s="25">
         <v>17</v>
       </c>
@@ -9688,7 +9711,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:10">
       <c r="B156" s="25">
         <v>15</v>
       </c>
@@ -9708,7 +9731,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:10">
       <c r="B157" s="25">
         <v>39</v>
       </c>
@@ -9728,7 +9751,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:10">
       <c r="B158" s="25">
         <v>6</v>
       </c>
@@ -9748,7 +9771,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:10">
       <c r="B159" s="25">
         <v>12</v>
       </c>
@@ -9771,7 +9794,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:10">
       <c r="B160" s="25">
         <v>24</v>
       </c>
@@ -9791,7 +9814,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:10">
       <c r="B161" s="25">
         <v>45</v>
       </c>
@@ -9811,7 +9834,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:10">
       <c r="B162" s="25">
         <v>47</v>
       </c>
@@ -9831,7 +9854,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:10">
       <c r="B163" s="25">
         <v>64</v>
       </c>
@@ -9851,7 +9874,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:10">
       <c r="B164" s="25">
         <v>70</v>
       </c>
@@ -9871,7 +9894,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:10">
       <c r="B165" s="25">
         <v>81</v>
       </c>
@@ -9891,7 +9914,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:10">
       <c r="B166" s="25">
         <v>83</v>
       </c>
@@ -9911,7 +9934,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:10">
       <c r="B167" s="25">
         <v>93</v>
       </c>
@@ -9931,7 +9954,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:10">
       <c r="B168" s="25">
         <v>100</v>
       </c>
@@ -9951,7 +9974,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:10">
       <c r="B169" s="25">
         <v>106</v>
       </c>
@@ -9971,7 +9994,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:10">
       <c r="B170" s="25">
         <v>112</v>
       </c>
@@ -9991,7 +10014,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:10">
       <c r="B171" s="25">
         <v>119</v>
       </c>
@@ -10011,7 +10034,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:10">
       <c r="B172" s="25">
         <v>134</v>
       </c>
@@ -10031,7 +10054,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:10">
       <c r="B173" s="25">
         <v>137</v>
       </c>
@@ -10051,7 +10074,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:10">
       <c r="B174" s="25">
         <v>151</v>
       </c>
@@ -10071,7 +10094,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:10">
       <c r="B175" s="25">
         <v>159</v>
       </c>
@@ -10091,7 +10114,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:10">
       <c r="B176" s="25">
         <v>173</v>
       </c>
@@ -10111,7 +10134,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:10">
       <c r="B177" s="25">
         <v>38</v>
       </c>
@@ -10131,7 +10154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:10">
       <c r="B178" s="25">
         <v>14</v>
       </c>
@@ -10171,7 +10194,7 @@
       <selection activeCell="B118" sqref="B118:C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
@@ -10184,7 +10207,7 @@
     <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -10211,7 +10234,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10">
       <c r="B3" s="25">
         <v>194</v>
       </c>
@@ -10228,7 +10251,7 @@
       </c>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="B4" s="25">
         <v>37</v>
       </c>
@@ -10245,7 +10268,7 @@
       </c>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5" s="25">
         <v>45</v>
       </c>
@@ -10262,7 +10285,7 @@
       </c>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6" s="25">
         <v>46</v>
       </c>
@@ -10277,7 +10300,7 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10">
       <c r="B7" s="25">
         <v>47</v>
       </c>
@@ -10294,7 +10317,7 @@
       </c>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="25">
         <v>54</v>
       </c>
@@ -10311,7 +10334,7 @@
       </c>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10">
       <c r="B9" s="25">
         <v>57</v>
       </c>
@@ -10328,7 +10351,7 @@
       </c>
       <c r="J9" s="25"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="B10" s="25">
         <v>58</v>
       </c>
@@ -10345,7 +10368,7 @@
       </c>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="B11" s="25">
         <v>59</v>
       </c>
@@ -10362,7 +10385,7 @@
       </c>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="B12" s="25">
         <v>60</v>
       </c>
@@ -10379,7 +10402,7 @@
       </c>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10">
       <c r="B13" s="25">
         <v>146</v>
       </c>
@@ -10394,7 +10417,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10">
       <c r="B14" s="25">
         <v>147</v>
       </c>
@@ -10411,7 +10434,7 @@
       </c>
       <c r="J14" s="25"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="B15" s="25">
         <v>148</v>
       </c>
@@ -10428,7 +10451,7 @@
       </c>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="B16" s="25">
         <v>149</v>
       </c>
@@ -10445,7 +10468,7 @@
       </c>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17" s="25">
         <v>150</v>
       </c>
@@ -10462,7 +10485,7 @@
       </c>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18" s="25">
         <v>151</v>
       </c>
@@ -10479,7 +10502,7 @@
       </c>
       <c r="J18" s="25"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="B19" s="25">
         <v>165</v>
       </c>
@@ -10496,7 +10519,7 @@
       </c>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20" s="25">
         <v>166</v>
       </c>
@@ -10513,7 +10536,7 @@
       </c>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" s="25">
         <v>63</v>
       </c>
@@ -10528,7 +10551,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" s="25">
         <v>64</v>
       </c>
@@ -10543,7 +10566,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="B23" s="25">
         <v>65</v>
       </c>
@@ -10560,7 +10583,7 @@
       </c>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="B24" s="25">
         <v>189</v>
       </c>
@@ -10577,7 +10600,7 @@
       </c>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" s="25">
         <v>190</v>
       </c>
@@ -10594,7 +10617,7 @@
       </c>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="B26" s="25">
         <v>191</v>
       </c>
@@ -10609,7 +10632,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="B27" s="25">
         <v>192</v>
       </c>
@@ -10626,7 +10649,7 @@
       </c>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="B28" s="25">
         <v>193</v>
       </c>
@@ -10643,7 +10666,7 @@
       </c>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="B29" s="25">
         <v>195</v>
       </c>
@@ -10660,7 +10683,7 @@
       </c>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10">
       <c r="B30" s="25">
         <v>196</v>
       </c>
@@ -10675,7 +10698,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="B31" s="25">
         <v>87</v>
       </c>
@@ -10692,7 +10715,7 @@
       </c>
       <c r="J31" s="25"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" s="25">
         <v>88</v>
       </c>
@@ -10709,7 +10732,7 @@
       </c>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="B33" s="25">
         <v>101</v>
       </c>
@@ -10726,7 +10749,7 @@
       </c>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10">
       <c r="B34" s="25">
         <v>102</v>
       </c>
@@ -10743,7 +10766,7 @@
       </c>
       <c r="J34" s="25"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10">
       <c r="B35" s="25">
         <v>103</v>
       </c>
@@ -10760,7 +10783,7 @@
       </c>
       <c r="J35" s="25"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10">
       <c r="B36" s="25">
         <v>104</v>
       </c>
@@ -10777,7 +10800,7 @@
       </c>
       <c r="J36" s="25"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10">
       <c r="B37" s="25">
         <v>38</v>
       </c>
@@ -10794,7 +10817,7 @@
       </c>
       <c r="J37" s="25"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10">
       <c r="B38" s="25">
         <v>39</v>
       </c>
@@ -10809,7 +10832,7 @@
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10">
       <c r="B39" s="25">
         <v>40</v>
       </c>
@@ -10824,7 +10847,7 @@
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10">
       <c r="B40" s="25">
         <v>41</v>
       </c>
@@ -10839,7 +10862,7 @@
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10">
       <c r="B41" s="25">
         <v>61</v>
       </c>
@@ -10854,7 +10877,7 @@
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10">
       <c r="B42" s="25">
         <v>62</v>
       </c>
@@ -10869,7 +10892,7 @@
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10">
       <c r="B43" s="25">
         <v>142</v>
       </c>
@@ -10886,7 +10909,7 @@
       </c>
       <c r="J43" s="25"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10">
       <c r="B44" s="25">
         <v>143</v>
       </c>
@@ -10903,7 +10926,7 @@
       </c>
       <c r="J44" s="25"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10">
       <c r="B45" s="25">
         <v>144</v>
       </c>
@@ -10918,7 +10941,7 @@
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10">
       <c r="B46" s="25">
         <v>145</v>
       </c>
@@ -10933,7 +10956,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10">
       <c r="B47" s="25">
         <v>167</v>
       </c>
@@ -10950,7 +10973,7 @@
       </c>
       <c r="J47" s="25"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10">
       <c r="B48" s="25">
         <v>168</v>
       </c>
@@ -10967,7 +10990,7 @@
       </c>
       <c r="J48" s="25"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10">
       <c r="B49" s="25">
         <v>169</v>
       </c>
@@ -10982,7 +11005,7 @@
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="B50" s="25">
         <v>10</v>
       </c>
@@ -10997,7 +11020,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="B51" s="25">
         <v>11</v>
       </c>
@@ -11012,7 +11035,7 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="B52" s="25">
         <v>12</v>
       </c>
@@ -11027,7 +11050,7 @@
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10">
       <c r="B53" s="25">
         <v>170</v>
       </c>
@@ -11044,7 +11067,7 @@
       </c>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="B54" s="25">
         <v>171</v>
       </c>
@@ -11061,7 +11084,7 @@
       </c>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10">
       <c r="B55" s="25">
         <v>172</v>
       </c>
@@ -11076,7 +11099,7 @@
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10">
       <c r="B56" s="25">
         <v>173</v>
       </c>
@@ -11091,7 +11114,7 @@
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10">
       <c r="B57" s="25">
         <v>174</v>
       </c>
@@ -11106,7 +11129,7 @@
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10">
       <c r="B58" s="25">
         <v>175</v>
       </c>
@@ -11121,7 +11144,7 @@
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10">
       <c r="B59" s="25">
         <v>176</v>
       </c>
@@ -11136,7 +11159,7 @@
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10">
       <c r="B60" s="25">
         <v>177</v>
       </c>
@@ -11151,7 +11174,7 @@
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10">
       <c r="B61" s="25">
         <v>105</v>
       </c>
@@ -11168,7 +11191,7 @@
       </c>
       <c r="J61" s="25"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10">
       <c r="B62" s="25">
         <v>106</v>
       </c>
@@ -11185,7 +11208,7 @@
       </c>
       <c r="J62" s="25"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10">
       <c r="B63" s="25">
         <v>107</v>
       </c>
@@ -11202,7 +11225,7 @@
       </c>
       <c r="J63" s="25"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10">
       <c r="B64" s="25">
         <v>110</v>
       </c>
@@ -11217,7 +11240,7 @@
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10">
       <c r="B65" s="25">
         <v>111</v>
       </c>
@@ -11232,7 +11255,7 @@
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10">
       <c r="B66" s="25">
         <v>112</v>
       </c>
@@ -11247,7 +11270,7 @@
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10">
       <c r="B67" s="25">
         <v>115</v>
       </c>
@@ -11264,7 +11287,7 @@
       </c>
       <c r="J67" s="25"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10">
       <c r="B68" s="25">
         <v>116</v>
       </c>
@@ -11281,7 +11304,7 @@
       </c>
       <c r="J68" s="25"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10">
       <c r="B69" s="25">
         <v>201</v>
       </c>
@@ -11298,7 +11321,7 @@
       </c>
       <c r="J69" s="25"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10">
       <c r="B70" s="25">
         <v>197</v>
       </c>
@@ -11315,7 +11338,7 @@
       </c>
       <c r="J70" s="25"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10">
       <c r="B71" s="25">
         <v>198</v>
       </c>
@@ -11332,7 +11355,7 @@
       </c>
       <c r="J71" s="25"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10">
       <c r="B72" s="25">
         <v>1</v>
       </c>
@@ -11347,7 +11370,7 @@
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10">
       <c r="B73" s="25">
         <v>2</v>
       </c>
@@ -11362,7 +11385,7 @@
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10">
       <c r="B74" s="25">
         <v>3</v>
       </c>
@@ -11377,7 +11400,7 @@
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10">
       <c r="B75" s="25">
         <v>4</v>
       </c>
@@ -11392,7 +11415,7 @@
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10">
       <c r="B76" s="25">
         <v>5</v>
       </c>
@@ -11407,7 +11430,7 @@
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10">
       <c r="B77" s="25">
         <v>76</v>
       </c>
@@ -11424,7 +11447,7 @@
       </c>
       <c r="J77" s="25"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10">
       <c r="B78" s="25">
         <v>77</v>
       </c>
@@ -11441,7 +11464,7 @@
       </c>
       <c r="J78" s="25"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10">
       <c r="B79" s="25">
         <v>78</v>
       </c>
@@ -11458,7 +11481,7 @@
       </c>
       <c r="J79" s="25"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10">
       <c r="B80" s="25">
         <v>81</v>
       </c>
@@ -11475,7 +11498,7 @@
       </c>
       <c r="J80" s="25"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10">
       <c r="B81" s="25">
         <v>82</v>
       </c>
@@ -11492,7 +11515,7 @@
       </c>
       <c r="J81" s="25"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10">
       <c r="B82" s="25">
         <v>83</v>
       </c>
@@ -11509,7 +11532,7 @@
       </c>
       <c r="J82" s="25"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10">
       <c r="B83" s="25">
         <v>84</v>
       </c>
@@ -11526,7 +11549,7 @@
       </c>
       <c r="J83" s="25"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10">
       <c r="B84" s="25">
         <v>85</v>
       </c>
@@ -11543,7 +11566,7 @@
       </c>
       <c r="J84" s="25"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10">
       <c r="B85" s="25">
         <v>86</v>
       </c>
@@ -11560,7 +11583,7 @@
       </c>
       <c r="J85" s="25"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10">
       <c r="B86" s="25">
         <v>22</v>
       </c>
@@ -11577,7 +11600,7 @@
       </c>
       <c r="J86" s="25"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10">
       <c r="B87" s="25">
         <v>23</v>
       </c>
@@ -11594,7 +11617,7 @@
       </c>
       <c r="J87" s="25"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10">
       <c r="B88" s="25">
         <v>24</v>
       </c>
@@ -11611,7 +11634,7 @@
       </c>
       <c r="J88" s="25"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10">
       <c r="B89" s="25">
         <v>25</v>
       </c>
@@ -11628,7 +11651,7 @@
       </c>
       <c r="J89" s="25"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10">
       <c r="B90" s="25">
         <v>26</v>
       </c>
@@ -11645,7 +11668,7 @@
       </c>
       <c r="J90" s="25"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10">
       <c r="B91" s="25">
         <v>27</v>
       </c>
@@ -11662,7 +11685,7 @@
       </c>
       <c r="J91" s="25"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10">
       <c r="B92" s="25">
         <v>30</v>
       </c>
@@ -11679,7 +11702,7 @@
       </c>
       <c r="J92" s="25"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10">
       <c r="B93" s="25">
         <v>31</v>
       </c>
@@ -11696,7 +11719,7 @@
       </c>
       <c r="J93" s="25"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10">
       <c r="B94" s="25">
         <v>32</v>
       </c>
@@ -11713,7 +11736,7 @@
       </c>
       <c r="J94" s="25"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10">
       <c r="B95" s="25">
         <v>33</v>
       </c>
@@ -11730,7 +11753,7 @@
       </c>
       <c r="J95" s="25"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10">
       <c r="B96" s="25">
         <v>34</v>
       </c>
@@ -11747,7 +11770,7 @@
       </c>
       <c r="J96" s="25"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10">
       <c r="B97" s="25">
         <v>67</v>
       </c>
@@ -11764,7 +11787,7 @@
       </c>
       <c r="J97" s="25"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10">
       <c r="B98" s="25">
         <v>68</v>
       </c>
@@ -11781,7 +11804,7 @@
       </c>
       <c r="J98" s="25"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10">
       <c r="B99" s="25">
         <v>69</v>
       </c>
@@ -11798,7 +11821,7 @@
       </c>
       <c r="J99" s="25"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10">
       <c r="B100" s="25">
         <v>70</v>
       </c>
@@ -11815,7 +11838,7 @@
       </c>
       <c r="J100" s="25"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10">
       <c r="B101" s="25">
         <v>71</v>
       </c>
@@ -11832,7 +11855,7 @@
       </c>
       <c r="J101" s="25"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10">
       <c r="B102" s="25">
         <v>72</v>
       </c>
@@ -11849,7 +11872,7 @@
       </c>
       <c r="J102" s="25"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10">
       <c r="B103" s="25">
         <v>75</v>
       </c>
@@ -11866,7 +11889,7 @@
       </c>
       <c r="J103" s="25"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10">
       <c r="B104" s="25">
         <v>130</v>
       </c>
@@ -11883,7 +11906,7 @@
       </c>
       <c r="J104" s="25"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10">
       <c r="B105" s="25">
         <v>131</v>
       </c>
@@ -11898,7 +11921,7 @@
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10">
       <c r="B106" s="25">
         <v>134</v>
       </c>
@@ -11915,7 +11938,7 @@
       </c>
       <c r="J106" s="25"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10">
       <c r="B107" s="25">
         <v>135</v>
       </c>
@@ -11932,7 +11955,7 @@
       </c>
       <c r="J107" s="25"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10">
       <c r="B108" s="25">
         <v>136</v>
       </c>
@@ -11949,7 +11972,7 @@
       </c>
       <c r="J108" s="25"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10">
       <c r="B109" s="25">
         <v>137</v>
       </c>
@@ -11964,7 +11987,7 @@
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10">
       <c r="B110" s="25">
         <v>138</v>
       </c>
@@ -11981,7 +12004,7 @@
       </c>
       <c r="J110" s="25"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10">
       <c r="B111" s="25">
         <v>180</v>
       </c>
@@ -11996,7 +12019,7 @@
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10">
       <c r="B112" s="25">
         <v>181</v>
       </c>
@@ -12011,7 +12034,7 @@
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10">
       <c r="B113" s="25">
         <v>182</v>
       </c>
@@ -12026,7 +12049,7 @@
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10">
       <c r="B114" s="25">
         <v>183</v>
       </c>
@@ -12041,7 +12064,7 @@
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10">
       <c r="B115" s="25">
         <v>184</v>
       </c>
@@ -12056,7 +12079,7 @@
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10">
       <c r="B116" s="25">
         <v>185</v>
       </c>
@@ -12071,7 +12094,7 @@
       <c r="I116" s="25"/>
       <c r="J116" s="25"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10">
       <c r="B117" s="25">
         <v>188</v>
       </c>
@@ -12088,7 +12111,7 @@
       </c>
       <c r="J117" s="25"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10">
       <c r="B118" s="25">
         <v>35</v>
       </c>
@@ -12105,7 +12128,7 @@
       </c>
       <c r="J118" s="25"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10">
       <c r="B119" s="25">
         <v>36</v>
       </c>
@@ -12122,7 +12145,7 @@
       </c>
       <c r="J119" s="25"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10">
       <c r="B120" s="25">
         <v>48</v>
       </c>
@@ -12137,7 +12160,7 @@
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10">
       <c r="B121" s="25">
         <v>51</v>
       </c>
@@ -12151,7 +12174,7 @@
       <c r="H121" s="25"/>
       <c r="J121" s="25"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10">
       <c r="B122" s="25">
         <v>52</v>
       </c>
@@ -12168,7 +12191,7 @@
       </c>
       <c r="J122" s="25"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10">
       <c r="B123" s="25">
         <v>53</v>
       </c>
@@ -12185,7 +12208,7 @@
       </c>
       <c r="J123" s="25"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10">
       <c r="B124" s="25">
         <v>92</v>
       </c>
@@ -12202,7 +12225,7 @@
       </c>
       <c r="J124" s="25"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10">
       <c r="B125" s="25">
         <v>93</v>
       </c>
@@ -12219,7 +12242,7 @@
       </c>
       <c r="J125" s="25"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10">
       <c r="B126" s="25">
         <v>94</v>
       </c>
@@ -12234,7 +12257,7 @@
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10">
       <c r="B127" s="25">
         <v>95</v>
       </c>
@@ -12249,7 +12272,7 @@
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10">
       <c r="B128" s="25">
         <v>96</v>
       </c>
@@ -12264,7 +12287,7 @@
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10">
       <c r="B129" s="25">
         <v>97</v>
       </c>
@@ -12279,7 +12302,7 @@
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10">
       <c r="B130" s="25">
         <v>98</v>
       </c>
@@ -12294,7 +12317,7 @@
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10">
       <c r="B131" s="25">
         <v>156</v>
       </c>
@@ -12309,7 +12332,7 @@
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10">
       <c r="B132" s="25">
         <v>157</v>
       </c>
@@ -12324,7 +12347,7 @@
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10">
       <c r="B133" s="25">
         <v>158</v>
       </c>
@@ -12339,7 +12362,7 @@
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10">
       <c r="B134" s="25">
         <v>159</v>
       </c>
@@ -12356,7 +12379,7 @@
       </c>
       <c r="J134" s="25"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10">
       <c r="B135" s="25">
         <v>162</v>
       </c>
@@ -12373,7 +12396,7 @@
       </c>
       <c r="J135" s="25"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10">
       <c r="B136" s="25">
         <v>163</v>
       </c>
@@ -12390,7 +12413,7 @@
       </c>
       <c r="J136" s="25"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10">
       <c r="B137" s="25">
         <v>164</v>
       </c>
@@ -12407,7 +12430,7 @@
       </c>
       <c r="J137" s="25"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10">
       <c r="B138" s="25">
         <v>203</v>
       </c>
@@ -12424,7 +12447,7 @@
       </c>
       <c r="J138" s="25"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10">
       <c r="B139" s="25">
         <v>204</v>
       </c>
@@ -12441,7 +12464,7 @@
       </c>
       <c r="J139" s="25"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10">
       <c r="B140" s="25">
         <v>205</v>
       </c>
@@ -12458,7 +12481,7 @@
       </c>
       <c r="J140" s="25"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10">
       <c r="B141" s="25">
         <v>206</v>
       </c>
@@ -12475,7 +12498,7 @@
       </c>
       <c r="J141" s="25"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10">
       <c r="B142" s="25">
         <v>9</v>
       </c>
@@ -12490,7 +12513,7 @@
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10">
       <c r="B143" s="25">
         <v>13</v>
       </c>
@@ -12505,7 +12528,7 @@
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10">
       <c r="B144" s="25">
         <v>14</v>
       </c>
@@ -12520,7 +12543,7 @@
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10">
       <c r="B145" s="25">
         <v>15</v>
       </c>
@@ -12535,7 +12558,7 @@
       <c r="I145" s="25"/>
       <c r="J145" s="25"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10">
       <c r="B146" s="25">
         <v>66</v>
       </c>
@@ -12550,7 +12573,7 @@
       <c r="I146" s="25"/>
       <c r="J146" s="25"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10">
       <c r="B147" s="25">
         <v>117</v>
       </c>
@@ -12565,7 +12588,7 @@
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10">
       <c r="B148" s="25">
         <v>118</v>
       </c>
@@ -12580,7 +12603,7 @@
       <c r="I148" s="25"/>
       <c r="J148" s="25"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10">
       <c r="B149" s="25">
         <v>121</v>
       </c>
@@ -12595,7 +12618,7 @@
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10">
       <c r="B150" s="25">
         <v>122</v>
       </c>
@@ -12610,7 +12633,7 @@
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10">
       <c r="B151" s="25">
         <v>123</v>
       </c>
@@ -12625,7 +12648,7 @@
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:10">
       <c r="B152" s="25">
         <v>124</v>
       </c>
@@ -12640,7 +12663,7 @@
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:10">
       <c r="B153" s="25">
         <v>127</v>
       </c>
@@ -12655,7 +12678,7 @@
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:10">
       <c r="B154" s="25">
         <v>128</v>
       </c>
@@ -12670,7 +12693,7 @@
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:10">
       <c r="B155" s="25">
         <v>129</v>
       </c>
@@ -12685,7 +12708,7 @@
       <c r="I155" s="25"/>
       <c r="J155" s="25"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:10">
       <c r="B156" s="25">
         <v>8</v>
       </c>
@@ -12702,7 +12725,7 @@
       </c>
       <c r="J156" s="25"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:10">
       <c r="B157" s="25">
         <v>89</v>
       </c>
@@ -12719,7 +12742,7 @@
       </c>
       <c r="J157" s="25"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:10">
       <c r="B158" s="25">
         <v>152</v>
       </c>
@@ -12736,7 +12759,7 @@
       </c>
       <c r="J158" s="25"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:10">
       <c r="B159" s="25">
         <v>199</v>
       </c>
@@ -12753,7 +12776,7 @@
       </c>
       <c r="J159" s="25"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:10">
       <c r="B160" s="25">
         <v>7</v>
       </c>
@@ -12770,7 +12793,7 @@
       </c>
       <c r="J160" s="25"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:10">
       <c r="B161" s="25">
         <v>17</v>
       </c>
@@ -12787,7 +12810,7 @@
       </c>
       <c r="J161" s="25"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:10">
       <c r="B162" s="25">
         <v>29</v>
       </c>
@@ -12804,7 +12827,7 @@
       </c>
       <c r="J162" s="25"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:10">
       <c r="B163" s="25">
         <v>49</v>
       </c>
@@ -12821,7 +12844,7 @@
       </c>
       <c r="J163" s="25"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:10">
       <c r="B164" s="25">
         <v>56</v>
       </c>
@@ -12838,7 +12861,7 @@
       </c>
       <c r="J164" s="25"/>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:10">
       <c r="B165" s="25">
         <v>74</v>
       </c>
@@ -12855,7 +12878,7 @@
       </c>
       <c r="J165" s="25"/>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:10">
       <c r="B166" s="25">
         <v>80</v>
       </c>
@@ -12872,7 +12895,7 @@
       </c>
       <c r="J166" s="25"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:10">
       <c r="B167" s="25">
         <v>100</v>
       </c>
@@ -12889,7 +12912,7 @@
       </c>
       <c r="J167" s="25"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:10">
       <c r="B168" s="25">
         <v>108</v>
       </c>
@@ -12906,7 +12929,7 @@
       </c>
       <c r="J168" s="25"/>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:10">
       <c r="B169" s="25">
         <v>114</v>
       </c>
@@ -12923,7 +12946,7 @@
       </c>
       <c r="J169" s="25"/>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:10">
       <c r="B170" s="25">
         <v>119</v>
       </c>
@@ -12940,7 +12963,7 @@
       </c>
       <c r="J170" s="25"/>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:10">
       <c r="B171" s="25">
         <v>125</v>
       </c>
@@ -12957,7 +12980,7 @@
       </c>
       <c r="J171" s="25"/>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:10">
       <c r="B172" s="25">
         <v>133</v>
       </c>
@@ -12974,7 +12997,7 @@
       </c>
       <c r="J172" s="25"/>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:10">
       <c r="B173" s="25">
         <v>155</v>
       </c>
@@ -12991,7 +13014,7 @@
       </c>
       <c r="J173" s="25"/>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:10">
       <c r="B174" s="25">
         <v>161</v>
       </c>
@@ -13008,7 +13031,7 @@
       </c>
       <c r="J174" s="25"/>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:10">
       <c r="B175" s="25">
         <v>179</v>
       </c>
@@ -13025,7 +13048,7 @@
       </c>
       <c r="J175" s="25"/>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:10">
       <c r="B176" s="25">
         <v>187</v>
       </c>
@@ -13042,7 +13065,7 @@
       </c>
       <c r="J176" s="25"/>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:10">
       <c r="B177" s="25">
         <v>208</v>
       </c>
@@ -13059,7 +13082,7 @@
       </c>
       <c r="J177" s="25"/>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:10">
       <c r="B178" s="25">
         <v>141</v>
       </c>
@@ -13076,7 +13099,7 @@
       </c>
       <c r="J178" s="25"/>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:10">
       <c r="B179" s="25">
         <v>140</v>
       </c>
@@ -13093,7 +13116,7 @@
       </c>
       <c r="J179" s="25"/>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:10">
       <c r="B180" s="25">
         <v>44</v>
       </c>
@@ -13110,7 +13133,7 @@
       </c>
       <c r="J180" s="25"/>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:10">
       <c r="B181" s="25">
         <v>91</v>
       </c>
@@ -13127,7 +13150,7 @@
       </c>
       <c r="J181" s="25"/>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:10">
       <c r="B182" s="25">
         <v>154</v>
       </c>
@@ -13144,7 +13167,7 @@
       </c>
       <c r="J182" s="25"/>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:10">
       <c r="B183" s="25">
         <v>202</v>
       </c>
@@ -13161,7 +13184,7 @@
       </c>
       <c r="J183" s="25"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:10">
       <c r="B184" s="25">
         <v>20</v>
       </c>
@@ -13178,7 +13201,7 @@
       </c>
       <c r="J184" s="25"/>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:10">
       <c r="B185" s="25">
         <v>21</v>
       </c>
@@ -13195,7 +13218,7 @@
       </c>
       <c r="J185" s="25"/>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:10">
       <c r="B186" s="25">
         <v>19</v>
       </c>
@@ -13212,7 +13235,7 @@
       </c>
       <c r="J186" s="25"/>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:10">
       <c r="B187" s="25">
         <v>43</v>
       </c>
@@ -13229,7 +13252,7 @@
       </c>
       <c r="J187" s="25"/>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:10">
       <c r="B188" s="25">
         <v>6</v>
       </c>
@@ -13246,7 +13269,7 @@
       </c>
       <c r="J188" s="25"/>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:10">
       <c r="B189" s="25">
         <v>16</v>
       </c>
@@ -13263,7 +13286,7 @@
       </c>
       <c r="J189" s="25"/>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:10">
       <c r="B190" s="25">
         <v>28</v>
       </c>
@@ -13280,7 +13303,7 @@
       </c>
       <c r="J190" s="25"/>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:10">
       <c r="B191" s="25">
         <v>50</v>
       </c>
@@ -13297,7 +13320,7 @@
       </c>
       <c r="J191" s="25"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:10">
       <c r="B192" s="25">
         <v>55</v>
       </c>
@@ -13314,7 +13337,7 @@
       </c>
       <c r="J192" s="25"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:10">
       <c r="B193" s="25">
         <v>73</v>
       </c>
@@ -13331,7 +13354,7 @@
       </c>
       <c r="J193" s="25"/>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:10">
       <c r="B194" s="25">
         <v>79</v>
       </c>
@@ -13348,7 +13371,7 @@
       </c>
       <c r="J194" s="25"/>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:10">
       <c r="B195" s="25">
         <v>90</v>
       </c>
@@ -13365,7 +13388,7 @@
       </c>
       <c r="J195" s="25"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:10">
       <c r="B196" s="25">
         <v>99</v>
       </c>
@@ -13382,7 +13405,7 @@
       </c>
       <c r="J196" s="25"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:10">
       <c r="B197" s="25">
         <v>109</v>
       </c>
@@ -13399,7 +13422,7 @@
       </c>
       <c r="J197" s="25"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:10">
       <c r="B198" s="25">
         <v>113</v>
       </c>
@@ -13416,7 +13439,7 @@
       </c>
       <c r="J198" s="25"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:10">
       <c r="B199" s="25">
         <v>120</v>
       </c>
@@ -13433,7 +13456,7 @@
       </c>
       <c r="J199" s="25"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:10">
       <c r="B200" s="25">
         <v>126</v>
       </c>
@@ -13450,7 +13473,7 @@
       </c>
       <c r="J200" s="25"/>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:10">
       <c r="B201" s="25">
         <v>132</v>
       </c>
@@ -13467,7 +13490,7 @@
       </c>
       <c r="J201" s="25"/>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:10">
       <c r="B202" s="25">
         <v>139</v>
       </c>
@@ -13484,7 +13507,7 @@
       </c>
       <c r="J202" s="25"/>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:10">
       <c r="B203" s="25">
         <v>153</v>
       </c>
@@ -13501,7 +13524,7 @@
       </c>
       <c r="J203" s="25"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:10">
       <c r="B204" s="25">
         <v>160</v>
       </c>
@@ -13518,7 +13541,7 @@
       </c>
       <c r="J204" s="25"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:10">
       <c r="B205" s="25">
         <v>178</v>
       </c>
@@ -13535,7 +13558,7 @@
       </c>
       <c r="J205" s="25"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:10">
       <c r="B206" s="25">
         <v>186</v>
       </c>
@@ -13552,7 +13575,7 @@
       </c>
       <c r="J206" s="25"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:10">
       <c r="B207" s="25">
         <v>200</v>
       </c>
@@ -13569,7 +13592,7 @@
       </c>
       <c r="J207" s="25"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:10">
       <c r="B208" s="25">
         <v>207</v>
       </c>
@@ -13586,7 +13609,7 @@
       </c>
       <c r="J208" s="25"/>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:10">
       <c r="B209" s="25">
         <v>42</v>
       </c>
@@ -13603,7 +13626,7 @@
       </c>
       <c r="J209" s="25"/>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:10">
       <c r="B210" s="25">
         <v>18</v>
       </c>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9B56BB-D6CD-4786-91AA-1755DBB17082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EADB06A-415C-472A-A9E6-91C6372BAE56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="555" windowWidth="22530" windowHeight="13830" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="360" windowWidth="25065" windowHeight="13830" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">STM32H745BITx_LQFP208!$B$2:$J$210</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">STM32H745IIT_LQFP176!$B$2:$J$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">STM32H745IIT_LQFP176!$B$2:$K$178</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">STM32F103xx_LQFP48!$B$3:$I$55</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="771">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2957,6 +2957,18 @@
   </si>
   <si>
     <t>PWR_LED(PWR_EXTRA_EN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_LED2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_LED1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_LED3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3382,10 +3394,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3689,33 +3701,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="45"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
@@ -5019,48 +5031,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="46" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
       <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
@@ -5890,10 +5902,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
-  <dimension ref="B2:L178"/>
+  <dimension ref="B2:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5903,15 +5915,16 @@
     <col min="3" max="3" width="16.25" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.625" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="25" customWidth="1"/>
-    <col min="6" max="6" width="46" style="25" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="46" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.125" style="25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.625" style="36" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.625" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:11">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -5937,1026 +5950,1162 @@
         <v>733</v>
       </c>
       <c r="J2" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:11">
       <c r="B3" s="25">
+        <v>37</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="25">
         <v>167</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C4" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E4" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H4" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J4" s="34" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="25">
-        <v>33</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="K4" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="25">
+        <v>138</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="25">
+        <v>139</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="25">
+        <v>162</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="25">
+        <v>132</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="25">
-        <v>41</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>587</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>758</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="25">
-        <v>42</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="25">
-        <v>43</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="25">
-        <v>46</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="25">
+        <v>163</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="25">
-        <v>49</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="25" t="s">
-        <v>362</v>
+        <v>109</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>375</v>
+        <v>454</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>489</v>
+        <v>501</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>501</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
+        <v>501</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="25">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>592</v>
+        <v>344</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>234</v>
+        <v>339</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45" t="s">
+        <v>765</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
+        <v>264</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="25">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>593</v>
+        <v>343</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>235</v>
+        <v>339</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
+        <v>766</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+        <v>516</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="25">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>594</v>
+        <v>687</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>362</v>
+        <v>109</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>236</v>
+        <v>738</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>738</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
+        <v>507</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="25">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>595</v>
+        <v>680</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>390</v>
+        <v>109</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>536</v>
+        <v>746</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>746</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>508</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="25">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>507</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="25">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>65</v>
+        <v>620</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>541</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>725</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="25">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>66</v>
+        <v>621</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>498</v>
+        <v>726</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>726</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>532</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="25">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>67</v>
+        <v>622</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>499</v>
+        <v>727</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>727</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>533</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="25">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>326</v>
+        <v>623</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>723</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>723</v>
+        <v>728</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>728</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
+        <v>534</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="25">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>327</v>
+        <v>624</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>373</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>729</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="25">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>500</v>
+        <v>513</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>513</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+        <v>506</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="25">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>597</v>
+        <v>319</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>754</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>519</v>
+        <v>514</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>514</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+        <v>505</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="25">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>598</v>
+        <v>323</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>381</v>
+        <v>109</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>755</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
+        <v>747</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="25">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>599</v>
+        <v>544</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>345</v>
+        <v>109</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
+        <v>748</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="25">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>734</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>734</v>
+        <v>749</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>749</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
+        <v>511</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="25">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>501</v>
+        <v>739</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>739</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
+        <v>512</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="25">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>455</v>
-      </c>
       <c r="H26" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>472</v>
+        <v>506</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>506</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+        <v>513</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" s="25">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>341</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>459</v>
+        <v>353</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>475</v>
+        <v>701</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>701</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
+        <v>701</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" s="25">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>457</v>
+        <v>341</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>460</v>
+        <v>354</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>233</v>
+        <v>702</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>702</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
+        <v>703</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" s="25">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>458</v>
+        <v>355</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>232</v>
+        <v>704</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>704</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
+        <v>705</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" s="25">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>606</v>
+        <v>640</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>461</v>
+        <v>346</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>265</v>
+        <v>706</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>706</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
+        <v>706</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="25">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>48</v>
+        <v>641</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
+        <v>348</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>707</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="25">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>49</v>
+        <v>642</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="I32" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
+        <v>349</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>708</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" s="25">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>737</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>535</v>
+        <v>735</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>735</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
+        <v>709</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" s="25">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>526</v>
-      </c>
-      <c r="J34" s="40" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
+        <v>710</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="25">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="I35" s="36" t="s">
-        <v>492</v>
+        <v>711</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>711</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
+        <v>711</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="25">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>493</v>
+        <v>712</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>712</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
+        <v>712</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" s="25">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>464</v>
+        <v>347</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>347</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
+        <v>347</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38" s="25">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>764</v>
-      </c>
-      <c r="I38" s="36" t="s">
-        <v>367</v>
+        <v>394</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>394</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
+        <v>394</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
       <c r="B39" s="25">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>609</v>
+        <v>649</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="J39" s="36" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
+        <v>426</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="J39" s="39" t="s">
+        <v>514</v>
+      </c>
+      <c r="K39" s="42" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
       <c r="B40" s="25">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>610</v>
+        <v>651</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>369</v>
+        <v>479</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
+        <v>494</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
       <c r="B41" s="25">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>611</v>
+        <v>652</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>379</v>
+        <v>480</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="I41" s="36" t="s">
-        <v>521</v>
-      </c>
-      <c r="J41" s="36" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
+        <v>495</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
       <c r="B42" s="25">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>612</v>
+        <v>321</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="I42" s="36" t="s">
-        <v>528</v>
+        <v>713</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>713</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
+        <v>713</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
       <c r="B43" s="25">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>613</v>
+        <v>322</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>20</v>
@@ -6965,203 +7114,230 @@
         <v>339</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="I43" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="J43" s="39" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
+        <v>419</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
       <c r="B44" s="25">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="I44" s="39" t="s">
-        <v>523</v>
-      </c>
-      <c r="J44" s="39" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
+        <v>443</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>715</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
       <c r="B45" s="25">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>529</v>
+        <v>716</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>716</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
+        <v>716</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
       <c r="B46" s="25">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="I46" s="36" t="s">
-        <v>543</v>
+        <v>736</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>736</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
+        <v>717</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
       <c r="B47" s="25">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>329</v>
+        <v>635</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E47" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>718</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="25">
+        <v>69</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>719</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="25">
+        <v>72</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="I47" s="36" t="s">
-        <v>490</v>
-      </c>
-      <c r="J47" s="36" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="25">
-        <v>141</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="I48" s="39" t="s">
-        <v>520</v>
-      </c>
-      <c r="J48" s="39" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="25">
-        <v>142</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>339</v>
-      </c>
       <c r="F49" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="H49" s="39" t="s">
-        <v>546</v>
-      </c>
-      <c r="I49" s="36" t="s">
-        <v>530</v>
+        <v>398</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>720</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
+        <v>720</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
       <c r="B50" s="25">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>339</v>
+        <v>345</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>399</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>759</v>
-      </c>
-      <c r="I50" s="36" t="s">
-        <v>527</v>
+        <v>721</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>721</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
+        <v>721</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
       <c r="B51" s="25">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>20</v>
@@ -7169,25 +7345,28 @@
       <c r="E51" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="G51" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>766</v>
-      </c>
-      <c r="I51" s="36" t="s">
-        <v>516</v>
+      <c r="F51" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>722</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
+        <v>722</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
       <c r="B52" s="25">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>20</v>
@@ -7195,155 +7374,173 @@
       <c r="E52" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="G52" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="46" t="s">
-        <v>765</v>
-      </c>
-      <c r="I52" s="36" t="s">
-        <v>264</v>
+      <c r="F52" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>466</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
+        <v>466</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
       <c r="B53" s="25">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>617</v>
+        <v>313</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>715</v>
-      </c>
-      <c r="I53" s="36" t="s">
-        <v>715</v>
+        <v>467</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>467</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10">
+        <v>467</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
       <c r="B54" s="25">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>618</v>
+        <v>314</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>716</v>
-      </c>
-      <c r="I54" s="36" t="s">
-        <v>716</v>
+        <v>468</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>468</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
+        <v>468</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
       <c r="B55" s="25">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="I55" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="J55" s="38" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10">
+        <v>469</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="J55" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
       <c r="B56" s="25">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E56" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>725</v>
-      </c>
-      <c r="I56" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="J56" s="40" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
+        <v>470</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="J56" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
       <c r="B57" s="25">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>621</v>
+        <v>317</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E57" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>726</v>
-      </c>
-      <c r="I57" s="36" t="s">
-        <v>532</v>
-      </c>
-      <c r="J57" s="41" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
+        <v>471</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="J57" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
       <c r="B58" s="25">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>373</v>
@@ -7352,24 +7549,27 @@
         <v>339</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>727</v>
-      </c>
-      <c r="I58" s="36" t="s">
-        <v>533</v>
-      </c>
-      <c r="J58" s="41" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
+        <v>462</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>474</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>474</v>
+      </c>
+      <c r="J58" s="39" t="s">
+        <v>474</v>
+      </c>
+      <c r="K58" s="39" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
       <c r="B59" s="25">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>373</v>
@@ -7378,50 +7578,56 @@
         <v>339</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>728</v>
-      </c>
-      <c r="I59" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="J59" s="41" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
+        <v>463</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="J59" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="K59" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
       <c r="B60" s="25">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>624</v>
+        <v>686</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>373</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>339</v>
+        <v>109</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>729</v>
-      </c>
-      <c r="I60" s="42" t="s">
-        <v>539</v>
-      </c>
-      <c r="J60" s="41" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
+        <v>472</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="J60" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
       <c r="B61" s="25">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>20</v>
@@ -7430,307 +7636,337 @@
         <v>339</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="I61" s="36" t="s">
-        <v>469</v>
+        <v>430</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>430</v>
       </c>
       <c r="J61" s="36" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10">
+        <v>430</v>
+      </c>
+      <c r="K61" s="36" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
       <c r="B62" s="25">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>626</v>
+        <v>337</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="I62" s="36" t="s">
-        <v>470</v>
+        <v>452</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>452</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
+        <v>452</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
       <c r="B63" s="25">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>317</v>
+        <v>603</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="I63" s="36" t="s">
-        <v>471</v>
+        <v>475</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>475</v>
       </c>
       <c r="J63" s="36" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
+        <v>475</v>
+      </c>
+      <c r="K63" s="36" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
       <c r="B64" s="25">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="I64" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="J64" s="38" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10">
+        <v>465</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
       <c r="B65" s="25">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>319</v>
+        <v>607</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="I65" s="36" t="s">
-        <v>505</v>
-      </c>
-      <c r="J65" s="41" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10">
+        <v>464</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="J65" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="K65" s="36" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
       <c r="B66" s="25">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>320</v>
+        <v>605</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>389</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="I66" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="J66" s="41" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10">
+        <v>232</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J66" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K66" s="36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
       <c r="B67" s="25">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>321</v>
+        <v>604</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>339</v>
+        <v>457</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>713</v>
-      </c>
-      <c r="I67" s="36" t="s">
-        <v>713</v>
+        <v>233</v>
+      </c>
+      <c r="I67" s="25" t="s">
+        <v>233</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10">
+        <v>233</v>
+      </c>
+      <c r="K67" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
       <c r="B68" s="25">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>322</v>
+        <v>48</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>714</v>
-      </c>
-      <c r="I68" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="J68" s="36" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10">
+        <v>404</v>
+      </c>
+      <c r="H68" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="I68" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="J68" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="K68" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
       <c r="B69" s="25">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H69" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="J69" s="33" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10">
+        <v>341</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="J69" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="K69" s="39" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
       <c r="B70" s="25">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="H70" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="I70" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="J70" s="39" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10">
+        <v>387</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="I70" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="J70" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="K70" s="36" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
       <c r="B71" s="25">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="H71" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="I71" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="J71" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10">
+        <v>386</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="K71" s="38" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
       <c r="B72" s="25">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="J72" s="25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
       <c r="B73" s="25">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>20</v>
@@ -7739,50 +7975,53 @@
         <v>339</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>745</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10">
+        <v>432</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="I73" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="J73" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="K73" s="39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
       <c r="B74" s="25">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>631</v>
+        <v>587</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="J74" s="25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10">
+        <v>758</v>
+      </c>
+      <c r="K74" s="37" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
       <c r="B75" s="25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>632</v>
+        <v>8</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>20</v>
@@ -7790,25 +8029,25 @@
       <c r="E75" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="F75" s="25" t="s">
-        <v>358</v>
-      </c>
       <c r="H75" s="25" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="J75" s="25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10">
+        <v>759</v>
+      </c>
+      <c r="J75" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="K75" s="36" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
       <c r="B76" s="25">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>20</v>
@@ -7817,461 +8056,503 @@
         <v>339</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>743</v>
+        <v>264</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="J76" s="25" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10">
+        <v>264</v>
+      </c>
+      <c r="J76" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="K76" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
       <c r="B77" s="25">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>736</v>
-      </c>
-      <c r="I77" s="36" t="s">
-        <v>717</v>
+        <v>265</v>
+      </c>
+      <c r="I77" s="25" t="s">
+        <v>265</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10">
+        <v>543</v>
+      </c>
+      <c r="K77" s="36" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
       <c r="B78" s="25">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>718</v>
-      </c>
-      <c r="I78" s="36" t="s">
-        <v>718</v>
+        <v>263</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>263</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10">
+        <v>521</v>
+      </c>
+      <c r="K78" s="36" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
       <c r="B79" s="25">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>636</v>
+        <v>588</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>719</v>
-      </c>
-      <c r="I79" s="36" t="s">
-        <v>719</v>
-      </c>
-      <c r="J79" s="36" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10">
+        <v>371</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="I79" s="39" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
       <c r="B80" s="25">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>309</v>
+        <v>612</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>720</v>
-      </c>
-      <c r="I80" s="36" t="s">
-        <v>720</v>
+        <v>262</v>
+      </c>
+      <c r="I80" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="J80" s="36" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10">
+        <v>528</v>
+      </c>
+      <c r="K80" s="36" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
       <c r="B81" s="25">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>310</v>
+        <v>613</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="H81" s="25" t="s">
-        <v>721</v>
-      </c>
-      <c r="I81" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="J81" s="36" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10">
+        <v>431</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="I81" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="J81" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="K81" s="39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
       <c r="B82" s="25">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>311</v>
+        <v>608</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>722</v>
-      </c>
-      <c r="I82" s="36" t="s">
-        <v>722</v>
+        <v>764</v>
+      </c>
+      <c r="I82" s="25" t="s">
+        <v>764</v>
       </c>
       <c r="J82" s="36" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10">
+        <v>367</v>
+      </c>
+      <c r="K82" s="36" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
       <c r="B83" s="25">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>312</v>
+        <v>13</v>
       </c>
       <c r="D83" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="I83" s="36" t="s">
-        <v>466</v>
+        <v>291</v>
+      </c>
+      <c r="H83" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="J83" s="36" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10">
+        <v>13</v>
+      </c>
+      <c r="K83" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
       <c r="B84" s="25">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="I84" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="J84" s="36" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
+        <v>109</v>
+      </c>
+      <c r="H84" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="I84" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="J84" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="K84" s="33" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
       <c r="B85" s="25">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E85" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>403</v>
+        <v>234</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="I85" s="36" t="s">
-        <v>468</v>
+        <v>752</v>
+      </c>
+      <c r="I85" s="25" t="s">
+        <v>752</v>
       </c>
       <c r="J85" s="36" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10">
+        <v>518</v>
+      </c>
+      <c r="K85" s="36" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
       <c r="B86" s="25">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>353</v>
+        <v>478</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>701</v>
-      </c>
-      <c r="I86" s="36" t="s">
-        <v>701</v>
+        <v>750</v>
+      </c>
+      <c r="I86" s="25" t="s">
+        <v>750</v>
       </c>
       <c r="J86" s="36" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10">
+        <v>517</v>
+      </c>
+      <c r="K86" s="36" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
       <c r="B87" s="25">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>638</v>
+        <v>332</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>702</v>
-      </c>
-      <c r="I87" s="36" t="s">
-        <v>703</v>
+        <v>751</v>
+      </c>
+      <c r="I87" s="25" t="s">
+        <v>751</v>
       </c>
       <c r="J87" s="36" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10">
+        <v>537</v>
+      </c>
+      <c r="K87" s="36" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
       <c r="B88" s="25">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="I88" s="36" t="s">
-        <v>705</v>
+        <v>517</v>
+      </c>
+      <c r="I88" s="25" t="s">
+        <v>517</v>
       </c>
       <c r="J88" s="36" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10">
+        <v>265</v>
+      </c>
+      <c r="K88" s="36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
       <c r="B89" s="25">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>346</v>
+        <v>427</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>706</v>
-      </c>
-      <c r="I89" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="J89" s="36" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10">
+        <v>763</v>
+      </c>
+      <c r="I89" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="J89" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="K89" s="38" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
       <c r="B90" s="25">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>348</v>
+        <v>429</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="I90" s="36" t="s">
-        <v>707</v>
+        <v>760</v>
+      </c>
+      <c r="I90" s="25" t="s">
+        <v>760</v>
       </c>
       <c r="J90" s="36" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10">
+        <v>502</v>
+      </c>
+      <c r="K90" s="36" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
       <c r="B91" s="25">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>642</v>
+        <v>336</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="H91" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="I91" s="36" t="s">
-        <v>708</v>
+        <v>451</v>
+      </c>
+      <c r="H91" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="I91" s="41" t="s">
+        <v>769</v>
       </c>
       <c r="J91" s="36" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10">
+        <v>284</v>
+      </c>
+      <c r="K91" s="36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11">
       <c r="B92" s="25">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>643</v>
+        <v>334</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>352</v>
+        <v>449</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="I92" s="36" t="s">
-        <v>481</v>
+        <v>753</v>
+      </c>
+      <c r="I92" s="41" t="s">
+        <v>768</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10">
+        <v>282</v>
+      </c>
+      <c r="K92" s="36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
       <c r="B93" s="25">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>644</v>
+        <v>335</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="I93" s="36" t="s">
-        <v>482</v>
+        <v>740</v>
+      </c>
+      <c r="I93" s="45" t="s">
+        <v>770</v>
       </c>
       <c r="J93" s="36" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10">
+        <v>538</v>
+      </c>
+      <c r="K93" s="36" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
       <c r="B94" s="25">
         <v>28</v>
       </c>
@@ -8290,14 +8571,17 @@
       <c r="H94" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="I94" s="36" t="s">
+      <c r="I94" s="25" t="s">
         <v>414</v>
       </c>
       <c r="J94" s="36" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="95" spans="2:10">
+      <c r="K94" s="36" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
       <c r="B95" s="25">
         <v>29</v>
       </c>
@@ -8316,19 +8600,22 @@
       <c r="H95" s="25" t="s">
         <v>690</v>
       </c>
-      <c r="I95" s="36" t="s">
-        <v>483</v>
+      <c r="I95" s="25" t="s">
+        <v>690</v>
       </c>
       <c r="J95" s="36" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="96" spans="2:10">
+      <c r="K95" s="36" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
       <c r="B96" s="25">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>302</v>
+        <v>644</v>
       </c>
       <c r="D96" s="25" t="s">
         <v>20</v>
@@ -8337,76 +8624,85 @@
         <v>345</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="I96" s="36" t="s">
-        <v>484</v>
+        <v>482</v>
+      </c>
+      <c r="I96" s="25" t="s">
+        <v>482</v>
       </c>
       <c r="J96" s="36" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10">
+        <v>482</v>
+      </c>
+      <c r="K96" s="36" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
       <c r="B97" s="25">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>304</v>
+        <v>643</v>
       </c>
       <c r="D97" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="I97" s="36" t="s">
-        <v>465</v>
+        <v>481</v>
+      </c>
+      <c r="I97" s="25" t="s">
+        <v>481</v>
       </c>
       <c r="J97" s="36" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10">
+        <v>481</v>
+      </c>
+      <c r="K97" s="36" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
       <c r="B98" s="25">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>305</v>
+        <v>653</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="H98" s="25" t="s">
-        <v>735</v>
-      </c>
-      <c r="I98" s="36" t="s">
-        <v>709</v>
-      </c>
-      <c r="J98" s="36" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10">
+        <v>428</v>
+      </c>
+      <c r="H98" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="I98" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="J98" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="K98" s="40" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
       <c r="B99" s="25">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D99" s="25" t="s">
         <v>20</v>
@@ -8415,180 +8711,201 @@
         <v>345</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="H99" s="25" t="s">
-        <v>710</v>
-      </c>
-      <c r="I99" s="36" t="s">
-        <v>710</v>
+        <v>484</v>
+      </c>
+      <c r="I99" s="25" t="s">
+        <v>484</v>
       </c>
       <c r="J99" s="36" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10">
+        <v>484</v>
+      </c>
+      <c r="K99" s="36" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
       <c r="B100" s="25">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>307</v>
+        <v>657</v>
       </c>
       <c r="D100" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="F100" s="25" t="s">
-        <v>391</v>
+        <v>109</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>711</v>
-      </c>
-      <c r="I100" s="36" t="s">
-        <v>711</v>
+        <v>691</v>
+      </c>
+      <c r="I100" s="25" t="s">
+        <v>691</v>
       </c>
       <c r="J100" s="36" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10">
+        <v>11</v>
+      </c>
+      <c r="K100" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
       <c r="B101" s="25">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>308</v>
+        <v>658</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="F101" s="25" t="s">
-        <v>392</v>
+        <v>109</v>
+      </c>
+      <c r="G101" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="H101" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="I101" s="36" t="s">
-        <v>712</v>
+        <v>692</v>
+      </c>
+      <c r="I101" s="25" t="s">
+        <v>692</v>
       </c>
       <c r="J101" s="36" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10">
+        <v>12</v>
+      </c>
+      <c r="K101" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
       <c r="B102" s="25">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>647</v>
+        <v>593</v>
       </c>
       <c r="D102" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="I102" s="36" t="s">
-        <v>347</v>
+        <v>235</v>
+      </c>
+      <c r="I102" s="25" t="s">
+        <v>235</v>
       </c>
       <c r="J102" s="36" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10">
+        <v>235</v>
+      </c>
+      <c r="K102" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
       <c r="B103" s="25">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>648</v>
+        <v>594</v>
       </c>
       <c r="D103" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="I103" s="36" t="s">
-        <v>394</v>
+        <v>236</v>
+      </c>
+      <c r="I103" s="25" t="s">
+        <v>236</v>
       </c>
       <c r="J103" s="36" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10">
+        <v>236</v>
+      </c>
+      <c r="K103" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
       <c r="B104" s="25">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>649</v>
+        <v>591</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="I104" s="39" t="s">
-        <v>514</v>
-      </c>
-      <c r="J104" s="42" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10">
+        <v>489</v>
+      </c>
+      <c r="I104" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="J104" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="K104" s="36" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
       <c r="B105" s="25">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>650</v>
+        <v>592</v>
       </c>
       <c r="D105" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>763</v>
-      </c>
-      <c r="I105" s="39" t="s">
-        <v>504</v>
-      </c>
-      <c r="J105" s="38" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10">
+        <v>234</v>
+      </c>
+      <c r="I105" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J105" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="K105" s="36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
       <c r="B106" s="25">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>20</v>
@@ -8597,24 +8914,27 @@
         <v>339</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>479</v>
+        <v>358</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>494</v>
+        <v>742</v>
       </c>
       <c r="I106" s="25" t="s">
-        <v>494</v>
+        <v>742</v>
       </c>
       <c r="J106" s="25" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10">
+        <v>261</v>
+      </c>
+      <c r="K106" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
       <c r="B107" s="25">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="D107" s="25" t="s">
         <v>20</v>
@@ -8623,24 +8943,27 @@
         <v>339</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>480</v>
+        <v>359</v>
       </c>
       <c r="H107" s="25" t="s">
-        <v>495</v>
+        <v>743</v>
       </c>
       <c r="I107" s="25" t="s">
-        <v>495</v>
+        <v>743</v>
       </c>
       <c r="J107" s="25" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10">
+        <v>515</v>
+      </c>
+      <c r="K107" s="25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
       <c r="B108" s="25">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>20</v>
@@ -8649,24 +8972,27 @@
         <v>339</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="H108" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="I108" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="J108" s="40" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10">
+        <v>340</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="I108" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="J108" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="K108" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
       <c r="B109" s="25">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>20</v>
@@ -8675,24 +9001,27 @@
         <v>339</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>760</v>
-      </c>
-      <c r="I109" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="J109" s="36" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10">
+        <v>744</v>
+      </c>
+      <c r="I109" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="J109" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="K109" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
       <c r="B110" s="25">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>20</v>
@@ -8701,128 +9030,146 @@
         <v>339</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="I110" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="J110" s="36" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10">
+        <v>741</v>
+      </c>
+      <c r="I110" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="J110" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="K110" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
       <c r="B111" s="25">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>656</v>
+        <v>65</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>750</v>
-      </c>
-      <c r="I111" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="J111" s="36" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10">
+        <v>90</v>
+      </c>
+      <c r="I111" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J111" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="K111" s="43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
       <c r="B112" s="25">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>332</v>
+        <v>596</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>448</v>
+        <v>434</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>435</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="I112" s="36" t="s">
-        <v>537</v>
-      </c>
-      <c r="J112" s="36" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12">
+        <v>91</v>
+      </c>
+      <c r="I112" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J112" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="K112" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13">
       <c r="B113" s="25">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>333</v>
+        <v>590</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>373</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>234</v>
+        <v>374</v>
       </c>
       <c r="H113" s="25" t="s">
-        <v>752</v>
-      </c>
-      <c r="I113" s="36" t="s">
-        <v>518</v>
+        <v>488</v>
+      </c>
+      <c r="I113" s="25" t="s">
+        <v>488</v>
       </c>
       <c r="J113" s="36" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12">
+        <v>488</v>
+      </c>
+      <c r="K113" s="36" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13">
       <c r="B114" s="25">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>334</v>
+        <v>589</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>449</v>
+        <v>372</v>
       </c>
       <c r="H114" s="25" t="s">
-        <v>753</v>
-      </c>
-      <c r="I114" s="36" t="s">
-        <v>282</v>
+        <v>372</v>
+      </c>
+      <c r="I114" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="J114" s="36" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12">
+        <v>372</v>
+      </c>
+      <c r="K114" s="36" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13">
       <c r="B115" s="25">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>373</v>
@@ -8831,329 +9178,365 @@
         <v>339</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="H115" s="25" t="s">
-        <v>740</v>
-      </c>
-      <c r="I115" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="J115" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12">
+        <v>520</v>
+      </c>
+      <c r="I115" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="J115" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="K115" s="39" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13">
       <c r="B116" s="25">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>373</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="H116" s="39" t="s">
-        <v>767</v>
-      </c>
-      <c r="I116" s="36" t="s">
-        <v>284</v>
+        <v>440</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I116" s="25" t="s">
+        <v>490</v>
       </c>
       <c r="J116" s="36" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12">
+        <v>490</v>
+      </c>
+      <c r="K116" s="36" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13">
       <c r="B117" s="25">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>337</v>
+        <v>66</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="H117" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="I117" s="36" t="s">
-        <v>452</v>
+        <v>498</v>
+      </c>
+      <c r="I117" s="25" t="s">
+        <v>498</v>
       </c>
       <c r="J117" s="36" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12">
+        <v>498</v>
+      </c>
+      <c r="K117" s="36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13">
       <c r="B118" s="25">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>657</v>
+        <v>67</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G118" s="25" t="s">
-        <v>11</v>
+        <v>406</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>497</v>
       </c>
       <c r="H118" s="25" t="s">
-        <v>691</v>
-      </c>
-      <c r="I118" s="36" t="s">
-        <v>11</v>
+        <v>499</v>
+      </c>
+      <c r="I118" s="25" t="s">
+        <v>499</v>
       </c>
       <c r="J118" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L118" s="28"/>
-    </row>
-    <row r="119" spans="2:12">
+        <v>499</v>
+      </c>
+      <c r="K118" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="M118" s="28"/>
+    </row>
+    <row r="119" spans="2:13">
       <c r="B119" s="25">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>658</v>
+        <v>331</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G119" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="25" t="s">
-        <v>692</v>
-      </c>
-      <c r="I119" s="36" t="s">
-        <v>12</v>
+        <v>339</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="H119" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="I119" s="39" t="s">
+        <v>546</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L119" s="28"/>
-    </row>
-    <row r="120" spans="2:12">
+        <v>530</v>
+      </c>
+      <c r="K119" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="M119" s="28"/>
+    </row>
+    <row r="120" spans="2:13">
       <c r="B120" s="25">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>687</v>
+        <v>54</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>109</v>
+        <v>406</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="H120" s="25" t="s">
-        <v>738</v>
-      </c>
-      <c r="I120" s="36" t="s">
-        <v>507</v>
-      </c>
-      <c r="J120" s="41" t="s">
-        <v>503</v>
-      </c>
-      <c r="L120" s="28"/>
-    </row>
-    <row r="121" spans="2:12">
+        <v>492</v>
+      </c>
+      <c r="I120" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="J120" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="K120" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="M120" s="28"/>
+    </row>
+    <row r="121" spans="2:13">
       <c r="B121" s="25">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>680</v>
+        <v>55</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>109</v>
+        <v>406</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>746</v>
-      </c>
-      <c r="I121" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="J121" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="L121" s="28"/>
-    </row>
-    <row r="122" spans="2:12">
+        <v>493</v>
+      </c>
+      <c r="I121" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="J121" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="K121" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="M121" s="28"/>
+    </row>
+    <row r="122" spans="2:13">
       <c r="B122" s="25">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>323</v>
+        <v>52</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>109</v>
+        <v>406</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="H122" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="I122" s="36" t="s">
-        <v>509</v>
-      </c>
-      <c r="J122" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="L122" s="29"/>
-    </row>
-    <row r="123" spans="2:12">
+        <v>737</v>
+      </c>
+      <c r="I122" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="J122" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="K122" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="M122" s="29"/>
+    </row>
+    <row r="123" spans="2:13">
       <c r="B123" s="25">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>544</v>
+        <v>595</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>109</v>
+        <v>390</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="H123" s="25" t="s">
-        <v>748</v>
-      </c>
-      <c r="I123" s="36" t="s">
-        <v>510</v>
-      </c>
-      <c r="J123" s="41" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="124" spans="2:12">
+        <v>536</v>
+      </c>
+      <c r="I123" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="J123" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="K123" s="36" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13">
       <c r="B124" s="25">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>681</v>
+        <v>320</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H124" s="25" t="s">
-        <v>749</v>
-      </c>
-      <c r="I124" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="J124" s="38" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12">
+        <v>535</v>
+      </c>
+      <c r="I124" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="J124" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="K124" s="41" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13">
       <c r="B125" s="25">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>688</v>
+        <v>53</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>109</v>
+        <v>406</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>739</v>
-      </c>
-      <c r="I125" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="J125" s="41" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="126" spans="2:12">
+        <v>526</v>
+      </c>
+      <c r="I125" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="J125" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="K125" s="40" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13">
       <c r="B126" s="25">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>689</v>
+        <v>297</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H126" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="I126" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="J126" s="41" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="127" spans="2:12">
+        <v>19</v>
+      </c>
+      <c r="H126" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="I126" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="J126" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="K126" s="35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13">
       <c r="B127" s="25">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H127" s="35" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="I127" s="35" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="J127" s="35" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="128" spans="2:12">
+        <v>315</v>
+      </c>
+      <c r="K127" s="35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13">
       <c r="B128" s="25">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="C128" s="25" t="s">
         <v>315</v>
@@ -9170,10 +9553,13 @@
       <c r="J128" s="35" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="129" spans="2:10">
+      <c r="K128" s="35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
       <c r="B129" s="25">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="C129" s="25" t="s">
         <v>315</v>
@@ -9190,30 +9576,36 @@
       <c r="J129" s="35" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="130" spans="2:10">
+      <c r="K129" s="35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11">
       <c r="B130" s="25">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H130" s="35" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="I130" s="35" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="J130" s="35" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10">
+        <v>296</v>
+      </c>
+      <c r="K130" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
       <c r="B131" s="25">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C131" s="25" t="s">
         <v>296</v>
@@ -9230,10 +9622,13 @@
       <c r="J131" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="132" spans="2:10">
+      <c r="K131" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
       <c r="B132" s="25">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C132" s="25" t="s">
         <v>296</v>
@@ -9250,10 +9645,13 @@
       <c r="J132" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="133" spans="2:10">
+      <c r="K132" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
       <c r="B133" s="25">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C133" s="25" t="s">
         <v>296</v>
@@ -9270,10 +9668,13 @@
       <c r="J133" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="134" spans="2:10">
+      <c r="K133" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11">
       <c r="B134" s="25">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C134" s="25" t="s">
         <v>296</v>
@@ -9290,10 +9691,13 @@
       <c r="J134" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="135" spans="2:10">
+      <c r="K134" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
       <c r="B135" s="25">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C135" s="25" t="s">
         <v>296</v>
@@ -9310,10 +9714,13 @@
       <c r="J135" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="136" spans="2:10">
+      <c r="K135" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
       <c r="B136" s="25">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C136" s="25" t="s">
         <v>296</v>
@@ -9330,10 +9737,13 @@
       <c r="J136" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="137" spans="2:10">
+      <c r="K136" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
       <c r="B137" s="25">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C137" s="25" t="s">
         <v>296</v>
@@ -9350,10 +9760,13 @@
       <c r="J137" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="138" spans="2:10">
+      <c r="K137" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
       <c r="B138" s="25">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C138" s="25" t="s">
         <v>296</v>
@@ -9370,10 +9783,13 @@
       <c r="J138" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="139" spans="2:10">
+      <c r="K138" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
       <c r="B139" s="25">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C139" s="25" t="s">
         <v>296</v>
@@ -9390,10 +9806,13 @@
       <c r="J139" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="140" spans="2:10">
+      <c r="K139" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
       <c r="B140" s="25">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C140" s="25" t="s">
         <v>296</v>
@@ -9410,10 +9829,13 @@
       <c r="J140" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="141" spans="2:10">
+      <c r="K140" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11">
       <c r="B141" s="25">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C141" s="25" t="s">
         <v>296</v>
@@ -9430,10 +9852,13 @@
       <c r="J141" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="142" spans="2:10">
+      <c r="K141" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
       <c r="B142" s="25">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C142" s="25" t="s">
         <v>296</v>
@@ -9450,10 +9875,13 @@
       <c r="J142" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="143" spans="2:10">
+      <c r="K142" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
       <c r="B143" s="25">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C143" s="25" t="s">
         <v>296</v>
@@ -9470,10 +9898,13 @@
       <c r="J143" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="144" spans="2:10">
+      <c r="K143" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11">
       <c r="B144" s="25">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C144" s="25" t="s">
         <v>296</v>
@@ -9490,10 +9921,13 @@
       <c r="J144" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="145" spans="2:10">
+      <c r="K144" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
       <c r="B145" s="25">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C145" s="25" t="s">
         <v>296</v>
@@ -9510,10 +9944,13 @@
       <c r="J145" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="146" spans="2:10">
+      <c r="K145" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11">
       <c r="B146" s="25">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C146" s="25" t="s">
         <v>296</v>
@@ -9530,90 +9967,105 @@
       <c r="J146" s="35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="147" spans="2:10">
+      <c r="K146" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11">
       <c r="B147" s="25">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H147" s="35" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="I147" s="35" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="J147" s="35" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10">
+        <v>325</v>
+      </c>
+      <c r="K147" s="35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
       <c r="B148" s="25">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H148" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I148" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J148" s="35" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10">
+        <v>324</v>
+      </c>
+      <c r="K148" s="35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
       <c r="B149" s="25">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H149" s="35" t="s">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="I149" s="35" t="s">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="J149" s="35" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10">
+        <v>15</v>
+      </c>
+      <c r="K149" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
       <c r="B150" s="25">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="D150" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="I150" s="35" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="J150" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10">
+        <v>316</v>
+      </c>
+      <c r="K150" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11">
       <c r="B151" s="25">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="C151" s="25" t="s">
         <v>316</v>
@@ -9630,10 +10082,13 @@
       <c r="J151" s="35" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="152" spans="2:10">
+      <c r="K151" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
       <c r="B152" s="25">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C152" s="25" t="s">
         <v>316</v>
@@ -9650,110 +10105,128 @@
       <c r="J152" s="35" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="153" spans="2:10">
+      <c r="K152" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11">
       <c r="B153" s="25">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D153" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H153" s="35" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I153" s="35" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="J153" s="35" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10">
+        <v>300</v>
+      </c>
+      <c r="K153" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11">
       <c r="B154" s="25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D154" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I154" s="35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J154" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10">
+        <v>301</v>
+      </c>
+      <c r="K154" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11">
       <c r="B155" s="25">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D155" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H155" s="35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I155" s="35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J155" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10">
+        <v>299</v>
+      </c>
+      <c r="K155" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11">
       <c r="B156" s="25">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D156" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H156" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="I156" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="J156" s="35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="157" spans="2:10">
+      <c r="H156" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="I156" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J156" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K156" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
       <c r="B157" s="25">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D157" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H157" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="I157" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="J157" s="33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10">
+      <c r="H157" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="I157" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J157" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K157" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11">
       <c r="B158" s="25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C158" s="25" t="s">
         <v>295</v>
@@ -9761,6 +10234,9 @@
       <c r="D158" s="25" t="s">
         <v>19</v>
       </c>
+      <c r="G158" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="H158" s="35" t="s">
         <v>295</v>
       </c>
@@ -9770,10 +10246,13 @@
       <c r="J158" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="159" spans="2:10">
+      <c r="K158" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
       <c r="B159" s="25">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C159" s="25" t="s">
         <v>295</v>
@@ -9781,9 +10260,6 @@
       <c r="D159" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G159" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="H159" s="35" t="s">
         <v>295</v>
       </c>
@@ -9793,10 +10269,13 @@
       <c r="J159" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="160" spans="2:10">
+      <c r="K159" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
       <c r="B160" s="25">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C160" s="25" t="s">
         <v>295</v>
@@ -9813,10 +10292,13 @@
       <c r="J160" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="161" spans="2:10">
+      <c r="K160" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11">
       <c r="B161" s="25">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C161" s="25" t="s">
         <v>295</v>
@@ -9833,10 +10315,13 @@
       <c r="J161" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="162" spans="2:10">
+      <c r="K161" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
       <c r="B162" s="25">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C162" s="25" t="s">
         <v>295</v>
@@ -9853,10 +10338,13 @@
       <c r="J162" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="163" spans="2:10">
+      <c r="K162" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
       <c r="B163" s="25">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C163" s="25" t="s">
         <v>295</v>
@@ -9873,10 +10361,13 @@
       <c r="J163" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="164" spans="2:10">
+      <c r="K163" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11">
       <c r="B164" s="25">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C164" s="25" t="s">
         <v>295</v>
@@ -9893,10 +10384,13 @@
       <c r="J164" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="165" spans="2:10">
+      <c r="K164" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11">
       <c r="B165" s="25">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C165" s="25" t="s">
         <v>295</v>
@@ -9913,10 +10407,13 @@
       <c r="J165" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="166" spans="2:10">
+      <c r="K165" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11">
       <c r="B166" s="25">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C166" s="25" t="s">
         <v>295</v>
@@ -9933,10 +10430,13 @@
       <c r="J166" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="167" spans="2:10">
+      <c r="K166" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11">
       <c r="B167" s="25">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C167" s="25" t="s">
         <v>295</v>
@@ -9953,10 +10453,13 @@
       <c r="J167" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="168" spans="2:10">
+      <c r="K167" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11">
       <c r="B168" s="25">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C168" s="25" t="s">
         <v>295</v>
@@ -9973,10 +10476,13 @@
       <c r="J168" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="169" spans="2:10">
+      <c r="K168" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11">
       <c r="B169" s="25">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C169" s="25" t="s">
         <v>295</v>
@@ -9993,10 +10499,13 @@
       <c r="J169" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="170" spans="2:10">
+      <c r="K169" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11">
       <c r="B170" s="25">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C170" s="25" t="s">
         <v>295</v>
@@ -10013,10 +10522,13 @@
       <c r="J170" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="171" spans="2:10">
+      <c r="K170" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11">
       <c r="B171" s="25">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C171" s="25" t="s">
         <v>295</v>
@@ -10033,10 +10545,13 @@
       <c r="J171" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="172" spans="2:10">
+      <c r="K171" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11">
       <c r="B172" s="25">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C172" s="25" t="s">
         <v>295</v>
@@ -10053,10 +10568,13 @@
       <c r="J172" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="173" spans="2:10">
+      <c r="K172" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11">
       <c r="B173" s="25">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C173" s="25" t="s">
         <v>295</v>
@@ -10073,10 +10591,13 @@
       <c r="J173" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="174" spans="2:10">
+      <c r="K173" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11">
       <c r="B174" s="25">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C174" s="25" t="s">
         <v>295</v>
@@ -10093,10 +10614,13 @@
       <c r="J174" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="175" spans="2:10">
+      <c r="K174" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
       <c r="B175" s="25">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C175" s="25" t="s">
         <v>295</v>
@@ -10113,71 +10637,85 @@
       <c r="J175" s="35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="176" spans="2:10">
+      <c r="K175" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11">
       <c r="B176" s="25">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="D176" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H176" s="35" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="I176" s="35" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="J176" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10">
+        <v>14</v>
+      </c>
+      <c r="K176" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11">
       <c r="B177" s="25">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="D177" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H177" s="35" t="s">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="I177" s="35" t="s">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="J177" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10">
+        <v>298</v>
+      </c>
+      <c r="K177" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11">
       <c r="B178" s="25">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>298</v>
+        <v>609</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H178" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="I178" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="J178" s="35" t="s">
-        <v>298</v>
+        <v>361</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="F178" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="H178" s="44"/>
+      <c r="I178" s="44"/>
+      <c r="J178" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="K178" s="36" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:J178" xr:uid="{14D4DFB6-6446-4B47-B48E-506463F0B268}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J178">
-      <sortCondition ref="C2:C178"/>
+  <autoFilter ref="B2:K178" xr:uid="{14D4DFB6-6446-4B47-B48E-506463F0B268}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K178">
+      <sortCondition ref="I2:I178"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EADB06A-415C-472A-A9E6-91C6372BAE56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB5937E-C139-4026-A2FC-DB7C6E6C3512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="360" windowWidth="25065" windowHeight="13830" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31080" yWindow="720" windowWidth="25065" windowHeight="13830" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="770">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2965,10 +2965,6 @@
   </si>
   <si>
     <t>PWR_LED1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWR_LED3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5904,8 +5900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
   <dimension ref="B2:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8513,9 +8509,7 @@
       <c r="H92" s="25" t="s">
         <v>753</v>
       </c>
-      <c r="I92" s="41" t="s">
-        <v>768</v>
-      </c>
+      <c r="I92" s="41"/>
       <c r="J92" s="36" t="s">
         <v>282</v>
       </c>
@@ -8543,7 +8537,7 @@
         <v>740</v>
       </c>
       <c r="I93" s="45" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J93" s="36" t="s">
         <v>538</v>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB5937E-C139-4026-A2FC-DB7C6E6C3512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783AA1EA-317D-4F23-ADC4-FE35EC6165FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="720" windowWidth="25065" windowHeight="13830" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="825" windowWidth="25065" windowHeight="13830" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="771">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2965,6 +2965,10 @@
   </si>
   <si>
     <t>PWR_LED1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPI_STATUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3400,7 +3404,18 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5900,8 +5915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
   <dimension ref="B2:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8225,8 +8240,8 @@
       <c r="H82" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="I82" s="25" t="s">
-        <v>764</v>
+      <c r="I82" s="41" t="s">
+        <v>770</v>
       </c>
       <c r="J82" s="36" t="s">
         <v>367</v>
@@ -10713,6 +10728,9 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I10:I11">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783AA1EA-317D-4F23-ADC4-FE35EC6165FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C10A515-FBE9-492C-8114-DC89DBB155C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="825" windowWidth="25065" windowHeight="13830" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="690" windowWidth="25140" windowHeight="15030" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="772">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1464,14 +1464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPI4_MISO/FMC_A21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI4_MOSI/FMC_A22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPI5_MOSI/QUADSPI_BK1_IO1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1576,14 +1568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OTG_HS_ULPI_D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TT_h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1648,14 +1632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPI2_SCK/USART3_TX/QUADSPI_BK1_NCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART2_RX/OTG_HS_ULPI_D4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FT_u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2969,6 +2945,112 @@
   </si>
   <si>
     <t>RPI_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SPI2_SCK/USART3_TX/QUADSPI_BK1_NCS/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIM2_CH3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>USART2_RX/OTG_HS_ULPI_D4/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIM2_CH4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OTG_HS_ULPI_D1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIM3_CH3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OTG_HS_ULPI_D2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIM3_CH4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SPI4_MISO/FMC_A21/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIM15_CH1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SPI4_MOSI/FMC_A22/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIM15_CH2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2976,7 +3058,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3697,7 +3779,7 @@
       <selection activeCell="B3" sqref="B3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
@@ -3711,7 +3793,7 @@
     <col min="10" max="11" width="21.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3815,7 @@
       <c r="H3" s="46"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -3750,7 +3832,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -3771,7 +3853,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -3794,7 +3876,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -3818,7 +3900,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -3842,7 +3924,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -3866,7 +3948,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -3890,7 +3972,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -3914,7 +3996,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -3938,7 +4020,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -3962,7 +4044,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -3988,7 +4070,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -4011,7 +4093,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -4034,7 +4116,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -4057,7 +4139,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -4080,7 +4162,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -4103,7 +4185,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -4131,7 +4213,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>17</v>
       </c>
@@ -4159,7 +4241,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -4187,7 +4269,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -4215,7 +4297,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>20</v>
       </c>
@@ -4241,7 +4323,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -4268,7 +4350,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -4295,7 +4377,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -4316,7 +4398,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -4340,7 +4422,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>25</v>
       </c>
@@ -4368,7 +4450,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -4396,7 +4478,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -4424,7 +4506,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -4449,7 +4531,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -4477,7 +4559,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>30</v>
       </c>
@@ -4505,7 +4587,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -4530,7 +4612,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -4558,7 +4640,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -4586,7 +4668,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>34</v>
       </c>
@@ -4617,7 +4699,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -4641,7 +4723,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -4665,7 +4747,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -4694,7 +4776,7 @@
       </c>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -4722,7 +4804,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>39</v>
       </c>
@@ -4747,7 +4829,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -4775,7 +4857,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>41</v>
       </c>
@@ -4800,7 +4882,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>42</v>
       </c>
@@ -4827,7 +4909,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>43</v>
       </c>
@@ -4854,7 +4936,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>44</v>
       </c>
@@ -4875,7 +4957,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>45</v>
       </c>
@@ -4902,7 +4984,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>46</v>
       </c>
@@ -4929,7 +5011,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>47</v>
       </c>
@@ -4950,7 +5032,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>48</v>
       </c>
@@ -4971,7 +5053,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -4981,7 +5063,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>110</v>
       </c>
@@ -4993,7 +5075,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>111</v>
       </c>
@@ -5028,7 +5110,7 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="2" bestFit="1" customWidth="1"/>
@@ -5041,7 +5123,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
@@ -5073,7 +5155,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -5088,7 +5170,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>1</v>
       </c>
@@ -5104,7 +5186,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="11">
         <v>2</v>
       </c>
@@ -5120,7 +5202,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -5143,7 +5225,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -5158,7 +5240,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -5181,7 +5263,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>6</v>
       </c>
@@ -5197,7 +5279,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -5215,7 +5297,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -5238,7 +5320,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>9</v>
       </c>
@@ -5254,7 +5336,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -5277,7 +5359,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -5297,7 +5379,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -5322,7 +5404,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -5344,7 +5426,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>14</v>
       </c>
@@ -5360,7 +5442,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -5383,7 +5465,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -5406,7 +5488,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>17</v>
       </c>
@@ -5422,7 +5504,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -5445,7 +5527,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -5467,7 +5549,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>20</v>
       </c>
@@ -5483,7 +5565,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -5503,7 +5585,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -5526,7 +5608,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -5548,7 +5630,7 @@
       </c>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -5570,7 +5652,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <v>25</v>
       </c>
@@ -5586,7 +5668,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -5606,7 +5688,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -5626,7 +5708,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -5646,7 +5728,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -5666,7 +5748,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <v>30</v>
       </c>
@@ -5682,7 +5764,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -5702,7 +5784,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -5720,7 +5802,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -5740,7 +5822,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <v>34</v>
       </c>
@@ -5756,7 +5838,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -5781,7 +5863,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -5803,7 +5885,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -5826,7 +5908,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -5851,7 +5933,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <v>39</v>
       </c>
@@ -5867,7 +5949,7 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -5915,11 +5997,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
   <dimension ref="B2:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70:I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="25" bestFit="1" customWidth="1"/>
@@ -5935,7 +6017,7 @@
     <col min="13" max="13" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -5955,42 +6037,42 @@
         <v>5</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="25">
         <v>37</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="25">
         <v>167</v>
       </c>
@@ -6001,7 +6083,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>80</v>
@@ -6016,7 +6098,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="25">
         <v>138</v>
       </c>
@@ -6024,28 +6106,28 @@
         <v>327</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
         <v>139</v>
       </c>
@@ -6053,57 +6135,57 @@
         <v>328</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>162</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>132</v>
       </c>
@@ -6117,51 +6199,51 @@
         <v>109</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>163</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
         <v>11</v>
       </c>
@@ -6179,7 +6261,7 @@
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="45" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="J10" s="36" t="s">
         <v>264</v>
@@ -6188,7 +6270,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
         <v>10</v>
       </c>
@@ -6206,21 +6288,21 @@
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="41" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>101</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>20</v>
@@ -6229,27 +6311,27 @@
         <v>109</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
         <v>102</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>20</v>
@@ -6258,196 +6340,196 @@
         <v>109</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
         <v>145</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="25">
         <v>146</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="25">
         <v>147</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
         <v>148</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
         <v>149</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
         <v>150</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
         <v>94</v>
       </c>
@@ -6461,22 +6543,22 @@
         <v>339</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="25">
         <v>95</v>
       </c>
@@ -6487,25 +6569,25 @@
         <v>20</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="25">
         <v>103</v>
       </c>
@@ -6519,27 +6601,27 @@
         <v>109</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
         <v>104</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>20</v>
@@ -6548,27 +6630,27 @@
         <v>109</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
         <v>107</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>20</v>
@@ -6577,27 +6659,27 @@
         <v>109</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
         <v>108</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>20</v>
@@ -6606,27 +6688,27 @@
         <v>109</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
         <v>109</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>20</v>
@@ -6635,24 +6717,24 @@
         <v>109</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
         <v>18</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>20</v>
@@ -6664,24 +6746,24 @@
         <v>353</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="25">
         <v>19</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>20</v>
@@ -6693,24 +6775,24 @@
         <v>354</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="25">
         <v>20</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>20</v>
@@ -6722,24 +6804,24 @@
         <v>355</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="25">
         <v>21</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>20</v>
@@ -6751,24 +6833,24 @@
         <v>346</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="25">
         <v>22</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>20</v>
@@ -6780,24 +6862,24 @@
         <v>348</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="25">
         <v>23</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>20</v>
@@ -6809,19 +6891,19 @@
         <v>349</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="25">
         <v>59</v>
       </c>
@@ -6835,22 +6917,22 @@
         <v>345</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="25">
         <v>60</v>
       </c>
@@ -6864,22 +6946,22 @@
         <v>345</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="25">
         <v>61</v>
       </c>
@@ -6890,25 +6972,25 @@
         <v>20</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="25">
         <v>62</v>
       </c>
@@ -6919,30 +7001,30 @@
         <v>20</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="25">
         <v>63</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>20</v>
@@ -6951,7 +7033,7 @@
         <v>339</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H37" s="25" t="s">
         <v>347</v>
@@ -6966,41 +7048,41 @@
         <v>347</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
         <v>66</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K38" s="36" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="25">
         <v>110</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>20</v>
@@ -7009,27 +7091,27 @@
         <v>339</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="J39" s="39" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="K39" s="42" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="25">
         <v>114</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>20</v>
@@ -7038,27 +7120,27 @@
         <v>339</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="25">
         <v>115</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>20</v>
@@ -7067,22 +7149,22 @@
         <v>339</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="25">
         <v>97</v>
       </c>
@@ -7096,22 +7178,22 @@
         <v>339</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="25">
         <v>98</v>
       </c>
@@ -7125,167 +7207,167 @@
         <v>339</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="K43" s="36" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="25">
         <v>143</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="K44" s="36" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="25">
         <v>144</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="25">
         <v>67</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="25">
         <v>68</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="K47" s="36" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="25">
         <v>69</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="25">
         <v>72</v>
       </c>
@@ -7299,22 +7381,22 @@
         <v>345</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="25">
         <v>73</v>
       </c>
@@ -7328,22 +7410,22 @@
         <v>345</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="25">
         <v>74</v>
       </c>
@@ -7357,22 +7439,22 @@
         <v>339</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="25">
         <v>75</v>
       </c>
@@ -7386,22 +7468,22 @@
         <v>339</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="25">
         <v>76</v>
       </c>
@@ -7415,22 +7497,22 @@
         <v>339</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K53" s="36" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="25">
         <v>77</v>
       </c>
@@ -7444,27 +7526,27 @@
         <v>339</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K54" s="36" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="25">
         <v>89</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>20</v>
@@ -7473,27 +7555,27 @@
         <v>339</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J55" s="36" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K55" s="36" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="25">
         <v>90</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>20</v>
@@ -7502,22 +7584,22 @@
         <v>339</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K56" s="36" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="25">
         <v>91</v>
       </c>
@@ -7531,114 +7613,114 @@
         <v>339</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="25">
         <v>170</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="I58" s="39" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J58" s="39" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K58" s="39" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="25">
         <v>171</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E59" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H59" s="39" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J59" s="39" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K59" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="25">
         <v>164</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E60" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J60" s="36" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K60" s="36" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="25">
         <v>118</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>20</v>
@@ -7647,22 +7729,22 @@
         <v>339</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J61" s="36" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K61" s="36" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="25">
         <v>161</v>
       </c>
@@ -7670,57 +7752,57 @@
         <v>337</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K62" s="36" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="25">
         <v>165</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E63" s="25" t="s">
         <v>341</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J63" s="36" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="25">
         <v>58</v>
       </c>
@@ -7731,68 +7813,68 @@
         <v>20</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K64" s="36" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="25">
         <v>34</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J65" s="36" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K65" s="36" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="25">
         <v>168</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H66" s="25" t="s">
         <v>232</v>
@@ -7807,21 +7889,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="25">
         <v>166</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H67" s="25" t="s">
         <v>233</v>
@@ -7836,7 +7918,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="25">
         <v>78</v>
       </c>
@@ -7850,22 +7932,22 @@
         <v>341</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>404</v>
+        <v>765</v>
       </c>
       <c r="H68" s="39" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I68" s="39" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J68" s="39" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K68" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="25">
         <v>79</v>
       </c>
@@ -7879,82 +7961,82 @@
         <v>341</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>405</v>
+        <v>766</v>
       </c>
       <c r="H69" s="39" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="J69" s="39" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="K69" s="39" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="25">
         <v>55</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>597</v>
+        <v>771</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>387</v>
+        <v>767</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="J70" s="36" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="K70" s="36" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="25">
         <v>56</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>386</v>
+        <v>768</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="K71" s="38" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="25">
         <v>57</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>20</v>
@@ -7963,21 +8045,21 @@
         <v>345</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="25">
         <v>123</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>20</v>
@@ -7986,7 +8068,7 @@
         <v>339</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H73" s="39" t="s">
         <v>261</v>
@@ -7995,39 +8077,39 @@
         <v>261</v>
       </c>
       <c r="J73" s="39" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K73" s="39" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="25">
         <v>41</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="K74" s="37" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="25">
         <v>9</v>
       </c>
@@ -8041,24 +8123,24 @@
         <v>339</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="J75" s="36" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K75" s="36" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="25">
         <v>124</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>20</v>
@@ -8067,7 +8149,7 @@
         <v>339</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H76" s="25" t="s">
         <v>264</v>
@@ -8076,27 +8158,27 @@
         <v>264</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="K76" s="36" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="25">
         <v>125</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H77" s="25" t="s">
         <v>265</v>
@@ -8105,27 +8187,27 @@
         <v>265</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K77" s="36" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="25">
         <v>53</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H78" s="25" t="s">
         <v>263</v>
@@ -8134,18 +8216,18 @@
         <v>263</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="25">
         <v>42</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>20</v>
@@ -8154,30 +8236,30 @@
         <v>345</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H79" s="39" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="I79" s="39" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="25">
         <v>54</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H80" s="25" t="s">
         <v>262</v>
@@ -8186,18 +8268,18 @@
         <v>262</v>
       </c>
       <c r="J80" s="36" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K80" s="36" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="25">
         <v>122</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>20</v>
@@ -8206,7 +8288,7 @@
         <v>339</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H81" s="39" t="s">
         <v>260</v>
@@ -8215,18 +8297,18 @@
         <v>260</v>
       </c>
       <c r="J81" s="39" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K81" s="39" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="25">
         <v>35</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>20</v>
@@ -8235,22 +8317,22 @@
         <v>345</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H82" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="I82" s="41" t="s">
         <v>764</v>
       </c>
-      <c r="I82" s="41" t="s">
-        <v>770</v>
-      </c>
       <c r="J82" s="36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K82" s="36" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="25">
         <v>33</v>
       </c>
@@ -8276,7 +8358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="25">
         <v>174</v>
       </c>
@@ -8302,7 +8384,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="25">
         <v>155</v>
       </c>
@@ -8310,7 +8392,7 @@
         <v>333</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E85" s="25" t="s">
         <v>339</v>
@@ -8319,48 +8401,48 @@
         <v>234</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="I85" s="25" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J85" s="36" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="25">
         <v>153</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E86" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="I86" s="25" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J86" s="36" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B87" s="25">
         <v>154</v>
       </c>
@@ -8368,48 +8450,48 @@
         <v>332</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E87" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="J87" s="36" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K87" s="36" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="25">
         <v>169</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="I88" s="25" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="J88" s="36" t="s">
         <v>265</v>
@@ -8418,12 +8500,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="25">
         <v>111</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>20</v>
@@ -8432,27 +8514,27 @@
         <v>339</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="I89" s="25" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="J89" s="39" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K89" s="38" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="25">
         <v>117</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>20</v>
@@ -8461,22 +8543,22 @@
         <v>339</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="I90" s="25" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="J90" s="36" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="K90" s="36" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" s="25">
         <v>158</v>
       </c>
@@ -8484,19 +8566,19 @@
         <v>336</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E91" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H91" s="39" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="I91" s="41" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="J91" s="36" t="s">
         <v>284</v>
@@ -8505,7 +8587,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="25">
         <v>156</v>
       </c>
@@ -8513,16 +8595,16 @@
         <v>334</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E92" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="I92" s="41"/>
       <c r="J92" s="36" t="s">
@@ -8532,7 +8614,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="25">
         <v>157</v>
       </c>
@@ -8540,33 +8622,33 @@
         <v>335</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E93" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="I93" s="45" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="J93" s="36" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="K93" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="25">
         <v>28</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>20</v>
@@ -8578,24 +8660,24 @@
         <v>350</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I94" s="25" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J94" s="36" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K94" s="36" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="25">
         <v>29</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>20</v>
@@ -8604,27 +8686,27 @@
         <v>345</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="J95" s="36" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K95" s="36" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B96" s="25">
         <v>27</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D96" s="25" t="s">
         <v>20</v>
@@ -8636,24 +8718,24 @@
         <v>351</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I96" s="25" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J96" s="36" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K96" s="36" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" s="25">
         <v>26</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D97" s="25" t="s">
         <v>20</v>
@@ -8665,24 +8747,24 @@
         <v>352</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="I97" s="25" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="J97" s="36" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K97" s="36" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" s="25">
         <v>116</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>20</v>
@@ -8691,22 +8773,22 @@
         <v>339</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H98" s="39" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="I98" s="39" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J98" s="40" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K98" s="40" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" s="25">
         <v>30</v>
       </c>
@@ -8720,27 +8802,27 @@
         <v>345</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H99" s="25" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="I99" s="25" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="J99" s="36" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B100" s="25">
         <v>31</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D100" s="25" t="s">
         <v>20</v>
@@ -8752,10 +8834,10 @@
         <v>11</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="I100" s="25" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="J100" s="36" t="s">
         <v>11</v>
@@ -8764,12 +8846,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B101" s="25">
         <v>32</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>20</v>
@@ -8781,10 +8863,10 @@
         <v>12</v>
       </c>
       <c r="H101" s="25" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="I101" s="25" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="J101" s="36" t="s">
         <v>12</v>
@@ -8793,21 +8875,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B102" s="25">
         <v>51</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D102" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H102" s="25" t="s">
         <v>235</v>
@@ -8822,21 +8904,21 @@
         <v>235</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="25">
         <v>52</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D103" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H103" s="25" t="s">
         <v>236</v>
@@ -8851,50 +8933,50 @@
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B104" s="25">
         <v>49</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="I104" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J104" s="36" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K104" s="36" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B105" s="25">
         <v>50</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D105" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H105" s="25" t="s">
         <v>234</v>
@@ -8909,12 +8991,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" s="25">
         <v>4</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>20</v>
@@ -8923,13 +9005,13 @@
         <v>339</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>358</v>
+        <v>769</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="I106" s="25" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="J106" s="25" t="s">
         <v>261</v>
@@ -8938,12 +9020,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" s="25">
         <v>5</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D107" s="25" t="s">
         <v>20</v>
@@ -8952,27 +9034,27 @@
         <v>339</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>359</v>
+        <v>770</v>
       </c>
       <c r="H107" s="25" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="I107" s="25" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="J107" s="25" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K107" s="25" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="25">
         <v>2</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>20</v>
@@ -8984,10 +9066,10 @@
         <v>340</v>
       </c>
       <c r="H108" s="25" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="I108" s="25" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="J108" s="25" t="s">
         <v>262</v>
@@ -8996,12 +9078,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="25">
         <v>3</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>20</v>
@@ -9013,10 +9095,10 @@
         <v>357</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="J109" s="25" t="s">
         <v>260</v>
@@ -9025,12 +9107,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="25">
         <v>1</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>20</v>
@@ -9042,10 +9124,10 @@
         <v>356</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="I110" s="25" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="J110" s="25" t="s">
         <v>263</v>
@@ -9054,7 +9136,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" s="25">
         <v>129</v>
       </c>
@@ -9065,10 +9147,10 @@
         <v>20</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H111" s="25" t="s">
         <v>90</v>
@@ -9077,30 +9159,30 @@
         <v>90</v>
       </c>
       <c r="J111" s="43" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K111" s="43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B112" s="25">
         <v>128</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G112" s="25" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H112" s="25" t="s">
         <v>91</v>
@@ -9109,71 +9191,71 @@
         <v>91</v>
       </c>
       <c r="J112" s="38" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="K112" s="38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="25">
         <v>46</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E113" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H113" s="25" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I113" s="25" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J113" s="36" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K113" s="36" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="114" spans="2:13">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="25">
         <v>43</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H114" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I114" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J114" s="36" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K114" s="36" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="115" spans="2:13">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="25">
         <v>141</v>
       </c>
@@ -9181,28 +9263,28 @@
         <v>330</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E115" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H115" s="25" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I115" s="25" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J115" s="39" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K115" s="39" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="25">
         <v>140</v>
       </c>
@@ -9210,28 +9292,28 @@
         <v>329</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E116" s="25" t="s">
         <v>345</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H116" s="25" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I116" s="25" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="J116" s="36" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K116" s="36" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="117" spans="2:13">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" s="25">
         <v>130</v>
       </c>
@@ -9242,25 +9324,25 @@
         <v>20</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H117" s="25" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="I117" s="25" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="J117" s="36" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="K117" s="36" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="118" spans="2:13">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="25">
         <v>131</v>
       </c>
@@ -9271,26 +9353,26 @@
         <v>20</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H118" s="25" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="I118" s="25" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="J118" s="36" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K118" s="36" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M118" s="28"/>
     </row>
-    <row r="119" spans="2:13">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="25">
         <v>142</v>
       </c>
@@ -9298,29 +9380,29 @@
         <v>331</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E119" s="25" t="s">
         <v>339</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H119" s="39" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="I119" s="39" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="K119" s="36" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M119" s="28"/>
     </row>
-    <row r="120" spans="2:13">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="25">
         <v>87</v>
       </c>
@@ -9331,26 +9413,26 @@
         <v>20</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H120" s="25" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="I120" s="25" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="J120" s="36" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K120" s="36" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M120" s="28"/>
     </row>
-    <row r="121" spans="2:13">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="25">
         <v>88</v>
       </c>
@@ -9361,26 +9443,26 @@
         <v>20</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I121" s="25" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J121" s="36" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K121" s="36" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M121" s="28"/>
     </row>
-    <row r="122" spans="2:13">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="25">
         <v>85</v>
       </c>
@@ -9391,55 +9473,55 @@
         <v>20</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H122" s="25" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="I122" s="25" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="J122" s="36" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="K122" s="36" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M122" s="29"/>
     </row>
-    <row r="123" spans="2:13">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" s="25">
         <v>127</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H123" s="25" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="I123" s="25" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="J123" s="36" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K123" s="36" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="124" spans="2:13">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="25">
         <v>96</v>
       </c>
@@ -9450,25 +9532,25 @@
         <v>20</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H124" s="25" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="I124" s="25" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="J124" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="K124" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="K124" s="41" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="125" spans="2:13">
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="25">
         <v>86</v>
       </c>
@@ -9479,25 +9561,25 @@
         <v>20</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I125" s="25" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="J125" s="40" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K125" s="40" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="126" spans="2:13">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="25">
         <v>8</v>
       </c>
@@ -9520,7 +9602,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="127" spans="2:13">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="25">
         <v>80</v>
       </c>
@@ -9543,7 +9625,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="2:13">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="25">
         <v>133</v>
       </c>
@@ -9566,7 +9648,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="2:11">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B129" s="25">
         <v>172</v>
       </c>
@@ -9589,7 +9671,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B130" s="25">
         <v>7</v>
       </c>
@@ -9612,7 +9694,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B131" s="25">
         <v>13</v>
       </c>
@@ -9635,7 +9717,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" s="25">
         <v>25</v>
       </c>
@@ -9658,7 +9740,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="133" spans="2:11">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B133" s="25">
         <v>44</v>
       </c>
@@ -9681,7 +9763,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="134" spans="2:11">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B134" s="25">
         <v>48</v>
       </c>
@@ -9704,7 +9786,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="135" spans="2:11">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B135" s="25">
         <v>65</v>
       </c>
@@ -9727,7 +9809,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="136" spans="2:11">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B136" s="25">
         <v>71</v>
       </c>
@@ -9750,7 +9832,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="2:11">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B137" s="25">
         <v>84</v>
       </c>
@@ -9773,7 +9855,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="138" spans="2:11">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B138" s="25">
         <v>92</v>
       </c>
@@ -9796,7 +9878,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="139" spans="2:11">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B139" s="25">
         <v>99</v>
       </c>
@@ -9819,7 +9901,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="140" spans="2:11">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B140" s="25">
         <v>105</v>
       </c>
@@ -9842,7 +9924,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="2:11">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B141" s="25">
         <v>113</v>
       </c>
@@ -9865,7 +9947,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="2:11">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B142" s="25">
         <v>126</v>
       </c>
@@ -9888,7 +9970,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="143" spans="2:11">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B143" s="25">
         <v>136</v>
       </c>
@@ -9911,7 +9993,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="144" spans="2:11">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B144" s="25">
         <v>152</v>
       </c>
@@ -9934,7 +10016,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B145" s="25">
         <v>160</v>
       </c>
@@ -9957,7 +10039,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B146" s="25">
         <v>176</v>
       </c>
@@ -9980,7 +10062,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B147" s="25">
         <v>121</v>
       </c>
@@ -10003,7 +10085,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B148" s="25">
         <v>120</v>
       </c>
@@ -10026,7 +10108,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B149" s="25">
         <v>40</v>
       </c>
@@ -10049,7 +10131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="2:11">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B150" s="25">
         <v>82</v>
       </c>
@@ -10072,7 +10154,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B151" s="25">
         <v>135</v>
       </c>
@@ -10095,7 +10177,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B152" s="25">
         <v>175</v>
       </c>
@@ -10118,7 +10200,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="153" spans="2:11">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B153" s="25">
         <v>16</v>
       </c>
@@ -10141,7 +10223,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B154" s="25">
         <v>17</v>
       </c>
@@ -10164,7 +10246,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="2:11">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B155" s="25">
         <v>15</v>
       </c>
@@ -10187,7 +10269,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="156" spans="2:11">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B156" s="25">
         <v>39</v>
       </c>
@@ -10210,7 +10292,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B157" s="25">
         <v>6</v>
       </c>
@@ -10233,7 +10315,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B158" s="25">
         <v>12</v>
       </c>
@@ -10259,7 +10341,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="159" spans="2:11">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B159" s="25">
         <v>24</v>
       </c>
@@ -10282,7 +10364,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="160" spans="2:11">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B160" s="25">
         <v>45</v>
       </c>
@@ -10305,7 +10387,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="2:11">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B161" s="25">
         <v>47</v>
       </c>
@@ -10328,7 +10410,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="2:11">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B162" s="25">
         <v>64</v>
       </c>
@@ -10351,7 +10433,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="2:11">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B163" s="25">
         <v>70</v>
       </c>
@@ -10374,7 +10456,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="164" spans="2:11">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B164" s="25">
         <v>81</v>
       </c>
@@ -10397,7 +10479,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="165" spans="2:11">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B165" s="25">
         <v>83</v>
       </c>
@@ -10420,7 +10502,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="2:11">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B166" s="25">
         <v>93</v>
       </c>
@@ -10443,7 +10525,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="167" spans="2:11">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B167" s="25">
         <v>100</v>
       </c>
@@ -10466,7 +10548,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="2:11">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B168" s="25">
         <v>106</v>
       </c>
@@ -10489,7 +10571,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="169" spans="2:11">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B169" s="25">
         <v>112</v>
       </c>
@@ -10512,7 +10594,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="2:11">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B170" s="25">
         <v>119</v>
       </c>
@@ -10535,7 +10617,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="2:11">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B171" s="25">
         <v>134</v>
       </c>
@@ -10558,7 +10640,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="172" spans="2:11">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B172" s="25">
         <v>137</v>
       </c>
@@ -10581,7 +10663,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="173" spans="2:11">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B173" s="25">
         <v>151</v>
       </c>
@@ -10604,7 +10686,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="174" spans="2:11">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B174" s="25">
         <v>159</v>
       </c>
@@ -10627,7 +10709,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="175" spans="2:11">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B175" s="25">
         <v>173</v>
       </c>
@@ -10650,7 +10732,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="176" spans="2:11">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B176" s="25">
         <v>38</v>
       </c>
@@ -10673,7 +10755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="2:11">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B177" s="25">
         <v>14</v>
       </c>
@@ -10696,29 +10778,29 @@
         <v>298</v>
       </c>
     </row>
-    <row r="178" spans="2:11">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B178" s="25">
         <v>36</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F178" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H178" s="44"/>
       <c r="I178" s="44"/>
       <c r="J178" s="36" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K178" s="36" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -10744,7 +10826,7 @@
       <selection activeCell="B118" sqref="B118:C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
@@ -10757,7 +10839,7 @@
     <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -10778,13 +10860,13 @@
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="27" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="25">
         <v>194</v>
       </c>
@@ -10801,7 +10883,7 @@
       </c>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="25">
         <v>37</v>
       </c>
@@ -10818,12 +10900,12 @@
       </c>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="25">
         <v>45</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -10831,16 +10913,16 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
         <v>46</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -10850,12 +10932,12 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>47</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -10863,16 +10945,16 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>54</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -10880,16 +10962,16 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>57</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -10897,16 +10979,16 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J9" s="25"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
         <v>58</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -10918,12 +11000,12 @@
       </c>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
         <v>59</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -10935,12 +11017,12 @@
       </c>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>60</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -10952,12 +11034,12 @@
       </c>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
         <v>146</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -10967,12 +11049,12 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
         <v>147</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -10980,16 +11062,16 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J14" s="25"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="25">
         <v>148</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -11001,12 +11083,12 @@
       </c>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="25">
         <v>149</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -11014,16 +11096,16 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
         <v>150</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -11031,16 +11113,16 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
         <v>151</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -11048,11 +11130,11 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="33" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="J18" s="25"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
         <v>165</v>
       </c>
@@ -11065,16 +11147,16 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="33" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
         <v>166</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -11082,16 +11164,16 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="33" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="25">
         <v>63</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -11101,12 +11183,12 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="25">
         <v>64</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -11116,12 +11198,12 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
         <v>65</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -11129,16 +11211,16 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
         <v>189</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -11146,16 +11228,16 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="33" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
         <v>190</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -11163,16 +11245,16 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="33" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
         <v>191</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -11182,12 +11264,12 @@
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
         <v>192</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -11199,12 +11281,12 @@
       </c>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="25">
         <v>193</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -11216,12 +11298,12 @@
       </c>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="25">
         <v>195</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -11233,12 +11315,12 @@
       </c>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="25">
         <v>196</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -11248,7 +11330,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="25">
         <v>87</v>
       </c>
@@ -11261,11 +11343,11 @@
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="J31" s="25"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="25">
         <v>88</v>
       </c>
@@ -11278,11 +11360,11 @@
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="25">
         <v>101</v>
       </c>
@@ -11295,16 +11377,16 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="25">
         <v>102</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -11312,16 +11394,16 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="J34" s="25"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="25">
         <v>103</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
@@ -11329,16 +11411,16 @@
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="J35" s="25"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="25">
         <v>104</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
@@ -11346,16 +11428,16 @@
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J36" s="25"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="25">
         <v>38</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -11363,16 +11445,16 @@
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J37" s="25"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
         <v>39</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -11382,12 +11464,12 @@
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="25">
         <v>40</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -11397,12 +11479,12 @@
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="25">
         <v>41</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -11412,12 +11494,12 @@
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="25">
         <v>61</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -11427,12 +11509,12 @@
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="25">
         <v>62</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -11442,12 +11524,12 @@
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="25">
         <v>142</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -11455,16 +11537,16 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J43" s="25"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="25">
         <v>143</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -11472,16 +11554,16 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="J44" s="25"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="25">
         <v>144</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -11491,12 +11573,12 @@
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="25">
         <v>145</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -11506,7 +11588,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="25">
         <v>167</v>
       </c>
@@ -11519,16 +11601,16 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="J47" s="25"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="25">
         <v>168</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
@@ -11536,16 +11618,16 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="J48" s="25"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="25">
         <v>169</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
@@ -11555,7 +11637,7 @@
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="25">
         <v>10</v>
       </c>
@@ -11570,12 +11652,12 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="25">
         <v>11</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -11585,7 +11667,7 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="25">
         <v>12</v>
       </c>
@@ -11600,12 +11682,12 @@
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="25">
         <v>170</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -11613,16 +11695,16 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="25">
         <v>171</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -11630,16 +11712,16 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="25">
         <v>172</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
@@ -11649,12 +11731,12 @@
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="25">
         <v>173</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
@@ -11664,12 +11746,12 @@
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="25">
         <v>174</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -11679,12 +11761,12 @@
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="25">
         <v>175</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
@@ -11694,12 +11776,12 @@
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="25">
         <v>176</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -11709,12 +11791,12 @@
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="25">
         <v>177</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
@@ -11724,12 +11806,12 @@
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="25">
         <v>105</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
@@ -11737,16 +11819,16 @@
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J61" s="25"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="25">
         <v>106</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
@@ -11754,16 +11836,16 @@
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="J62" s="25"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="25">
         <v>107</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
@@ -11771,11 +11853,11 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="J63" s="25"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="25">
         <v>110</v>
       </c>
@@ -11790,12 +11872,12 @@
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="25">
         <v>111</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
@@ -11805,12 +11887,12 @@
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="25">
         <v>112</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
@@ -11820,7 +11902,7 @@
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="25">
         <v>115</v>
       </c>
@@ -11833,11 +11915,11 @@
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="J67" s="25"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="25">
         <v>116</v>
       </c>
@@ -11850,11 +11932,11 @@
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="J68" s="25"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="25">
         <v>201</v>
       </c>
@@ -11871,12 +11953,12 @@
       </c>
       <c r="J69" s="25"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="25">
         <v>197</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
@@ -11884,16 +11966,16 @@
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J70" s="25"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="25">
         <v>198</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
@@ -11901,16 +11983,16 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="J71" s="25"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="25">
         <v>1</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
@@ -11920,12 +12002,12 @@
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="25">
         <v>2</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
@@ -11935,12 +12017,12 @@
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="25">
         <v>3</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
@@ -11950,12 +12032,12 @@
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="25">
         <v>4</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
@@ -11965,12 +12047,12 @@
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="25">
         <v>5</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
@@ -11980,12 +12062,12 @@
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="25">
         <v>76</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
@@ -11993,16 +12075,16 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="J77" s="25"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="25">
         <v>77</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
@@ -12010,16 +12092,16 @@
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="J78" s="25"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="25">
         <v>78</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
@@ -12027,11 +12109,11 @@
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="J79" s="25"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="25">
         <v>81</v>
       </c>
@@ -12044,16 +12126,16 @@
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J80" s="25"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="25">
         <v>82</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
@@ -12061,16 +12143,16 @@
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="J81" s="25"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="25">
         <v>83</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
@@ -12078,16 +12160,16 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="J82" s="25"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="25">
         <v>84</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
@@ -12095,16 +12177,16 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="J83" s="25"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="25">
         <v>85</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
@@ -12112,16 +12194,16 @@
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J84" s="25"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="25">
         <v>86</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
@@ -12129,16 +12211,16 @@
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J85" s="25"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="25">
         <v>22</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D86" s="25"/>
       <c r="E86" s="25"/>
@@ -12146,16 +12228,16 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="J86" s="25"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="25">
         <v>23</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
@@ -12163,16 +12245,16 @@
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="J87" s="25"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="25">
         <v>24</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
@@ -12180,16 +12262,16 @@
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J88" s="25"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="25">
         <v>25</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
@@ -12197,16 +12279,16 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="J89" s="25"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="25">
         <v>26</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D90" s="25"/>
       <c r="E90" s="25"/>
@@ -12214,16 +12296,16 @@
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="J90" s="25"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="25">
         <v>27</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
@@ -12231,16 +12313,16 @@
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="J91" s="25"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="25">
         <v>30</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D92" s="25"/>
       <c r="E92" s="25"/>
@@ -12248,16 +12330,16 @@
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="J92" s="25"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="25">
         <v>31</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
@@ -12265,16 +12347,16 @@
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J93" s="25"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="25">
         <v>32</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
@@ -12282,16 +12364,16 @@
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J94" s="25"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="25">
         <v>33</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D95" s="25"/>
       <c r="E95" s="25"/>
@@ -12299,11 +12381,11 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="J95" s="25"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="25">
         <v>34</v>
       </c>
@@ -12316,11 +12398,11 @@
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="J96" s="25"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="25">
         <v>67</v>
       </c>
@@ -12333,16 +12415,16 @@
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="J97" s="25"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="25">
         <v>68</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D98" s="25"/>
       <c r="E98" s="25"/>
@@ -12350,16 +12432,16 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="J98" s="25"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="25">
         <v>69</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D99" s="25"/>
       <c r="E99" s="25"/>
@@ -12367,16 +12449,16 @@
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="J99" s="25"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="25">
         <v>70</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D100" s="25"/>
       <c r="E100" s="25"/>
@@ -12384,16 +12466,16 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="J100" s="25"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="25">
         <v>71</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
@@ -12401,16 +12483,16 @@
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="J101" s="25"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="25">
         <v>72</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D102" s="25"/>
       <c r="E102" s="25"/>
@@ -12422,12 +12504,12 @@
       </c>
       <c r="J102" s="25"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="25">
         <v>75</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D103" s="25"/>
       <c r="E103" s="25"/>
@@ -12435,16 +12517,16 @@
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J103" s="25"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="25">
         <v>130</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D104" s="25"/>
       <c r="E104" s="25"/>
@@ -12452,16 +12534,16 @@
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="J104" s="25"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="25">
         <v>131</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D105" s="25"/>
       <c r="E105" s="25"/>
@@ -12471,12 +12553,12 @@
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="25">
         <v>134</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="25"/>
@@ -12484,16 +12566,16 @@
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J106" s="25"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="25">
         <v>135</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D107" s="25"/>
       <c r="E107" s="25"/>
@@ -12501,16 +12583,16 @@
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J107" s="25"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="25">
         <v>136</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D108" s="25"/>
       <c r="E108" s="25"/>
@@ -12518,16 +12600,16 @@
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J108" s="25"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="25">
         <v>137</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D109" s="25"/>
       <c r="E109" s="25"/>
@@ -12537,12 +12619,12 @@
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="25">
         <v>138</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
@@ -12550,16 +12632,16 @@
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J110" s="25"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="25">
         <v>180</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D111" s="25"/>
       <c r="E111" s="25"/>
@@ -12569,12 +12651,12 @@
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="25">
         <v>181</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D112" s="25"/>
       <c r="E112" s="25"/>
@@ -12584,12 +12666,12 @@
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="25">
         <v>182</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D113" s="25"/>
       <c r="E113" s="25"/>
@@ -12599,12 +12681,12 @@
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="25">
         <v>183</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D114" s="25"/>
       <c r="E114" s="25"/>
@@ -12614,12 +12696,12 @@
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="25">
         <v>184</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="25"/>
@@ -12629,12 +12711,12 @@
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="25">
         <v>185</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D116" s="25"/>
       <c r="E116" s="25"/>
@@ -12644,7 +12726,7 @@
       <c r="I116" s="25"/>
       <c r="J116" s="25"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="25">
         <v>188</v>
       </c>
@@ -12657,16 +12739,16 @@
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J117" s="25"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="25">
         <v>35</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D118" s="25"/>
       <c r="E118" s="25"/>
@@ -12674,16 +12756,16 @@
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="J118" s="25"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="25">
         <v>36</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D119" s="25"/>
       <c r="E119" s="25"/>
@@ -12691,16 +12773,16 @@
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="J119" s="25"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="25">
         <v>48</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D120" s="25"/>
       <c r="E120" s="25"/>
@@ -12710,12 +12792,12 @@
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="25">
         <v>51</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D121" s="25"/>
       <c r="E121" s="25"/>
@@ -12724,12 +12806,12 @@
       <c r="H121" s="25"/>
       <c r="J121" s="25"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="25">
         <v>52</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D122" s="25"/>
       <c r="E122" s="25"/>
@@ -12737,16 +12819,16 @@
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J122" s="25"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="25">
         <v>53</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
@@ -12754,16 +12836,16 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="J123" s="25"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="25">
         <v>92</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D124" s="25"/>
       <c r="E124" s="25"/>
@@ -12771,16 +12853,16 @@
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J124" s="25"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="25">
         <v>93</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D125" s="25"/>
       <c r="E125" s="25"/>
@@ -12788,16 +12870,16 @@
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J125" s="25"/>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="25">
         <v>94</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D126" s="25"/>
       <c r="E126" s="25"/>
@@ -12807,12 +12889,12 @@
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="25">
         <v>95</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D127" s="25"/>
       <c r="E127" s="25"/>
@@ -12822,12 +12904,12 @@
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="25">
         <v>96</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D128" s="25"/>
       <c r="E128" s="25"/>
@@ -12837,12 +12919,12 @@
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="25">
         <v>97</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D129" s="25"/>
       <c r="E129" s="25"/>
@@ -12852,12 +12934,12 @@
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="25">
         <v>98</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
@@ -12867,12 +12949,12 @@
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="25">
         <v>156</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D131" s="25"/>
       <c r="E131" s="25"/>
@@ -12882,12 +12964,12 @@
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="25">
         <v>157</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D132" s="25"/>
       <c r="E132" s="25"/>
@@ -12897,12 +12979,12 @@
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="25">
         <v>158</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D133" s="25"/>
       <c r="E133" s="25"/>
@@ -12912,12 +12994,12 @@
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="25">
         <v>159</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
@@ -12925,16 +13007,16 @@
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="J134" s="25"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="25">
         <v>162</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D135" s="25"/>
       <c r="E135" s="25"/>
@@ -12942,16 +13024,16 @@
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="J135" s="25"/>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="25">
         <v>163</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D136" s="25"/>
       <c r="E136" s="25"/>
@@ -12959,16 +13041,16 @@
       <c r="G136" s="25"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="J136" s="25"/>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" s="25">
         <v>164</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D137" s="25"/>
       <c r="E137" s="25"/>
@@ -12976,16 +13058,16 @@
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="J137" s="25"/>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="25">
         <v>203</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D138" s="25"/>
       <c r="E138" s="25"/>
@@ -12993,16 +13075,16 @@
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="J138" s="25"/>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="25">
         <v>204</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D139" s="25"/>
       <c r="E139" s="25"/>
@@ -13010,16 +13092,16 @@
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="J139" s="25"/>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="25">
         <v>205</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D140" s="25"/>
       <c r="E140" s="25"/>
@@ -13027,16 +13109,16 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="J140" s="25"/>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="25">
         <v>206</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D141" s="25"/>
       <c r="E141" s="25"/>
@@ -13044,16 +13126,16 @@
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="J141" s="25"/>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="25">
         <v>9</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D142" s="25"/>
       <c r="E142" s="25"/>
@@ -13063,12 +13145,12 @@
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="25">
         <v>13</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D143" s="25"/>
       <c r="E143" s="25"/>
@@ -13078,12 +13160,12 @@
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="25">
         <v>14</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D144" s="25"/>
       <c r="E144" s="25"/>
@@ -13093,12 +13175,12 @@
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="25">
         <v>15</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="25"/>
@@ -13108,12 +13190,12 @@
       <c r="I145" s="25"/>
       <c r="J145" s="25"/>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="25">
         <v>66</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="25"/>
@@ -13123,12 +13205,12 @@
       <c r="I146" s="25"/>
       <c r="J146" s="25"/>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="25">
         <v>117</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D147" s="25"/>
       <c r="E147" s="25"/>
@@ -13138,12 +13220,12 @@
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B148" s="25">
         <v>118</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
@@ -13153,12 +13235,12 @@
       <c r="I148" s="25"/>
       <c r="J148" s="25"/>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B149" s="25">
         <v>121</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D149" s="25"/>
       <c r="E149" s="25"/>
@@ -13168,12 +13250,12 @@
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="25">
         <v>122</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D150" s="25"/>
       <c r="E150" s="25"/>
@@ -13183,12 +13265,12 @@
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="25">
         <v>123</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D151" s="25"/>
       <c r="E151" s="25"/>
@@ -13198,12 +13280,12 @@
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B152" s="25">
         <v>124</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D152" s="25"/>
       <c r="E152" s="25"/>
@@ -13213,12 +13295,12 @@
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B153" s="25">
         <v>127</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D153" s="25"/>
       <c r="E153" s="25"/>
@@ -13228,12 +13310,12 @@
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B154" s="25">
         <v>128</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D154" s="25"/>
       <c r="E154" s="25"/>
@@ -13243,12 +13325,12 @@
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="25">
         <v>129</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D155" s="25"/>
       <c r="E155" s="25"/>
@@ -13258,7 +13340,7 @@
       <c r="I155" s="25"/>
       <c r="J155" s="25"/>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="25">
         <v>8</v>
       </c>
@@ -13275,7 +13357,7 @@
       </c>
       <c r="J156" s="25"/>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B157" s="25">
         <v>89</v>
       </c>
@@ -13292,7 +13374,7 @@
       </c>
       <c r="J157" s="25"/>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="25">
         <v>152</v>
       </c>
@@ -13309,7 +13391,7 @@
       </c>
       <c r="J158" s="25"/>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B159" s="25">
         <v>199</v>
       </c>
@@ -13326,7 +13408,7 @@
       </c>
       <c r="J159" s="25"/>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B160" s="25">
         <v>7</v>
       </c>
@@ -13343,7 +13425,7 @@
       </c>
       <c r="J160" s="25"/>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B161" s="25">
         <v>17</v>
       </c>
@@ -13360,7 +13442,7 @@
       </c>
       <c r="J161" s="25"/>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="25">
         <v>29</v>
       </c>
@@ -13377,7 +13459,7 @@
       </c>
       <c r="J162" s="25"/>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="25">
         <v>49</v>
       </c>
@@ -13394,7 +13476,7 @@
       </c>
       <c r="J163" s="25"/>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="25">
         <v>56</v>
       </c>
@@ -13411,7 +13493,7 @@
       </c>
       <c r="J164" s="25"/>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" s="25">
         <v>74</v>
       </c>
@@ -13428,7 +13510,7 @@
       </c>
       <c r="J165" s="25"/>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" s="25">
         <v>80</v>
       </c>
@@ -13445,7 +13527,7 @@
       </c>
       <c r="J166" s="25"/>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B167" s="25">
         <v>100</v>
       </c>
@@ -13462,7 +13544,7 @@
       </c>
       <c r="J167" s="25"/>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168" s="25">
         <v>108</v>
       </c>
@@ -13479,7 +13561,7 @@
       </c>
       <c r="J168" s="25"/>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" s="25">
         <v>114</v>
       </c>
@@ -13496,7 +13578,7 @@
       </c>
       <c r="J169" s="25"/>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170" s="25">
         <v>119</v>
       </c>
@@ -13513,7 +13595,7 @@
       </c>
       <c r="J170" s="25"/>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" s="25">
         <v>125</v>
       </c>
@@ -13530,7 +13612,7 @@
       </c>
       <c r="J171" s="25"/>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" s="25">
         <v>133</v>
       </c>
@@ -13547,7 +13629,7 @@
       </c>
       <c r="J172" s="25"/>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173" s="25">
         <v>155</v>
       </c>
@@ -13564,7 +13646,7 @@
       </c>
       <c r="J173" s="25"/>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B174" s="25">
         <v>161</v>
       </c>
@@ -13581,7 +13663,7 @@
       </c>
       <c r="J174" s="25"/>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175" s="25">
         <v>179</v>
       </c>
@@ -13598,7 +13680,7 @@
       </c>
       <c r="J175" s="25"/>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176" s="25">
         <v>187</v>
       </c>
@@ -13615,7 +13697,7 @@
       </c>
       <c r="J176" s="25"/>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" s="25">
         <v>208</v>
       </c>
@@ -13632,7 +13714,7 @@
       </c>
       <c r="J177" s="25"/>
     </row>
-    <row r="178" spans="2:10">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178" s="25">
         <v>141</v>
       </c>
@@ -13649,7 +13731,7 @@
       </c>
       <c r="J178" s="25"/>
     </row>
-    <row r="179" spans="2:10">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B179" s="25">
         <v>140</v>
       </c>
@@ -13666,7 +13748,7 @@
       </c>
       <c r="J179" s="25"/>
     </row>
-    <row r="180" spans="2:10">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B180" s="25">
         <v>44</v>
       </c>
@@ -13683,7 +13765,7 @@
       </c>
       <c r="J180" s="25"/>
     </row>
-    <row r="181" spans="2:10">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B181" s="25">
         <v>91</v>
       </c>
@@ -13700,7 +13782,7 @@
       </c>
       <c r="J181" s="25"/>
     </row>
-    <row r="182" spans="2:10">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B182" s="25">
         <v>154</v>
       </c>
@@ -13717,7 +13799,7 @@
       </c>
       <c r="J182" s="25"/>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B183" s="25">
         <v>202</v>
       </c>
@@ -13734,7 +13816,7 @@
       </c>
       <c r="J183" s="25"/>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B184" s="25">
         <v>20</v>
       </c>
@@ -13751,7 +13833,7 @@
       </c>
       <c r="J184" s="25"/>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B185" s="25">
         <v>21</v>
       </c>
@@ -13768,7 +13850,7 @@
       </c>
       <c r="J185" s="25"/>
     </row>
-    <row r="186" spans="2:10">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B186" s="25">
         <v>19</v>
       </c>
@@ -13785,7 +13867,7 @@
       </c>
       <c r="J186" s="25"/>
     </row>
-    <row r="187" spans="2:10">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B187" s="25">
         <v>43</v>
       </c>
@@ -13802,7 +13884,7 @@
       </c>
       <c r="J187" s="25"/>
     </row>
-    <row r="188" spans="2:10">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B188" s="25">
         <v>6</v>
       </c>
@@ -13819,7 +13901,7 @@
       </c>
       <c r="J188" s="25"/>
     </row>
-    <row r="189" spans="2:10">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B189" s="25">
         <v>16</v>
       </c>
@@ -13836,7 +13918,7 @@
       </c>
       <c r="J189" s="25"/>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B190" s="25">
         <v>28</v>
       </c>
@@ -13853,7 +13935,7 @@
       </c>
       <c r="J190" s="25"/>
     </row>
-    <row r="191" spans="2:10">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B191" s="25">
         <v>50</v>
       </c>
@@ -13870,7 +13952,7 @@
       </c>
       <c r="J191" s="25"/>
     </row>
-    <row r="192" spans="2:10">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B192" s="25">
         <v>55</v>
       </c>
@@ -13887,7 +13969,7 @@
       </c>
       <c r="J192" s="25"/>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B193" s="25">
         <v>73</v>
       </c>
@@ -13904,7 +13986,7 @@
       </c>
       <c r="J193" s="25"/>
     </row>
-    <row r="194" spans="2:10">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B194" s="25">
         <v>79</v>
       </c>
@@ -13921,7 +14003,7 @@
       </c>
       <c r="J194" s="25"/>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B195" s="25">
         <v>90</v>
       </c>
@@ -13938,7 +14020,7 @@
       </c>
       <c r="J195" s="25"/>
     </row>
-    <row r="196" spans="2:10">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B196" s="25">
         <v>99</v>
       </c>
@@ -13955,7 +14037,7 @@
       </c>
       <c r="J196" s="25"/>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B197" s="25">
         <v>109</v>
       </c>
@@ -13972,7 +14054,7 @@
       </c>
       <c r="J197" s="25"/>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B198" s="25">
         <v>113</v>
       </c>
@@ -13989,7 +14071,7 @@
       </c>
       <c r="J198" s="25"/>
     </row>
-    <row r="199" spans="2:10">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B199" s="25">
         <v>120</v>
       </c>
@@ -14006,7 +14088,7 @@
       </c>
       <c r="J199" s="25"/>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B200" s="25">
         <v>126</v>
       </c>
@@ -14023,7 +14105,7 @@
       </c>
       <c r="J200" s="25"/>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B201" s="25">
         <v>132</v>
       </c>
@@ -14040,7 +14122,7 @@
       </c>
       <c r="J201" s="25"/>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B202" s="25">
         <v>139</v>
       </c>
@@ -14057,7 +14139,7 @@
       </c>
       <c r="J202" s="25"/>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B203" s="25">
         <v>153</v>
       </c>
@@ -14074,7 +14156,7 @@
       </c>
       <c r="J203" s="25"/>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B204" s="25">
         <v>160</v>
       </c>
@@ -14091,7 +14173,7 @@
       </c>
       <c r="J204" s="25"/>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B205" s="25">
         <v>178</v>
       </c>
@@ -14108,7 +14190,7 @@
       </c>
       <c r="J205" s="25"/>
     </row>
-    <row r="206" spans="2:10">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B206" s="25">
         <v>186</v>
       </c>
@@ -14125,7 +14207,7 @@
       </c>
       <c r="J206" s="25"/>
     </row>
-    <row r="207" spans="2:10">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B207" s="25">
         <v>200</v>
       </c>
@@ -14142,7 +14224,7 @@
       </c>
       <c r="J207" s="25"/>
     </row>
-    <row r="208" spans="2:10">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B208" s="25">
         <v>207</v>
       </c>
@@ -14159,7 +14241,7 @@
       </c>
       <c r="J208" s="25"/>
     </row>
-    <row r="209" spans="2:10">
+    <row r="209" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B209" s="25">
         <v>42</v>
       </c>
@@ -14176,7 +14258,7 @@
       </c>
       <c r="J209" s="25"/>
     </row>
-    <row r="210" spans="2:10">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B210" s="25">
         <v>18</v>
       </c>

--- a/doc/Pinout.xlsx
+++ b/doc/Pinout.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A72275-A2A8-4EB1-A902-D4635485605E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDAB143-D1B8-434E-9A62-4F2FBB9DB4F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29445" yWindow="465" windowWidth="26970" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
-    <sheet name="Raspberry PI" sheetId="4" r:id="rId2"/>
-    <sheet name="STM32H745IIT_LQFP176" sheetId="5" r:id="rId3"/>
-    <sheet name="STM32H745BITx_LQFP208" sheetId="6" r:id="rId4"/>
+    <sheet name="STM32L4x1_LQFP48" sheetId="7" r:id="rId1"/>
+    <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId2"/>
+    <sheet name="Raspberry PI" sheetId="4" r:id="rId3"/>
+    <sheet name="STM32H745IIT_LQFP176" sheetId="5" r:id="rId4"/>
+    <sheet name="STM32H745BITx_LQFP208" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">STM32H745BITx_LQFP208!$B$2:$J$210</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">STM32H745IIT_LQFP176!$B$2:$K$178</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">STM32F103xx_LQFP48!$B$3:$I$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">STM32H745BITx_LQFP208!$B$2:$J$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">STM32H745IIT_LQFP176!$B$2:$K$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">STM32F103xx_LQFP48!$B$3:$I$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">STM32L4x1_LQFP48!$B$3:$I$55</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="764">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2935,6 +2937,90 @@
   </si>
   <si>
     <t>VARIO_BEEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH3/BOOT0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG_TDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG_TDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG_RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY0_BOOT0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG_TCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG_TMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_nCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_SCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_RX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3241,7 +3327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3393,6 +3479,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3685,11 +3774,1175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9979C18D-8274-43AE-8385-DBE47D1F6285}">
+  <dimension ref="B3:I55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="5">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="5">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="5">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="5">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="5">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="5">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="5">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="5">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="5">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="5">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="5">
+        <v>21</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="5">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="5">
+        <v>23</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="5">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="5">
+        <v>25</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="5">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="5">
+        <v>27</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="5">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="5">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="5">
+        <v>30</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="5">
+        <v>31</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="5">
+        <v>32</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="5">
+        <v>33</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="5">
+        <v>34</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="5">
+        <v>35</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="5">
+        <v>36</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="5">
+        <v>37</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="5">
+        <v>38</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="5">
+        <v>39</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="5">
+        <v>40</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="5">
+        <v>41</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="5">
+        <v>42</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="5">
+        <v>43</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="5">
+        <v>44</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="5">
+        <v>45</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="5">
+        <v>46</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="5">
+        <v>47</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="5">
+        <v>48</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3707,33 +4960,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
@@ -5015,7 +6268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0C9C5E-DCDE-40C2-AE24-6F61A8730F28}">
   <dimension ref="B3:M44"/>
   <sheetViews>
@@ -5037,48 +6290,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="51" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
       <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
@@ -5906,11 +7159,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639D5D2-04CD-4D37-AE26-FA795D959713}">
   <dimension ref="B2:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -10316,7 +11569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E24EF6A-707D-4C24-A8D8-A807A4228D89}">
   <dimension ref="B2:J210"/>
   <sheetViews>
